--- a/Documentations/VLANs/VLSM-tablazat.xlsx
+++ b/Documentations/VLANs/VLSM-tablazat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\aromas-cubanos\Documentations\VLANs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D8953E-BE70-487A-B6D6-DEC2EA353C91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5078C028-35F0-4097-B5E8-236C18C7B407}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{012D1D82-EB97-4B95-AC21-450975C8649A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{012D1D82-EB97-4B95-AC21-450975C8649A}"/>
   </bookViews>
   <sheets>
     <sheet name="plain" sheetId="1" r:id="rId1"/>
@@ -1044,6 +1044,12 @@
     <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1150,12 +1156,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -5154,61 +5154,52 @@
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="H2:H129"/>
-    <mergeCell ref="H130:H257"/>
-    <mergeCell ref="F162:F193"/>
-    <mergeCell ref="F194:F225"/>
-    <mergeCell ref="F226:F257"/>
-    <mergeCell ref="G2:G65"/>
-    <mergeCell ref="G66:G129"/>
-    <mergeCell ref="G130:G193"/>
-    <mergeCell ref="G194:G257"/>
-    <mergeCell ref="E178:E193"/>
-    <mergeCell ref="E194:E209"/>
-    <mergeCell ref="E210:E225"/>
-    <mergeCell ref="E226:E241"/>
-    <mergeCell ref="E242:E257"/>
-    <mergeCell ref="F2:F33"/>
-    <mergeCell ref="F34:F65"/>
-    <mergeCell ref="F66:F97"/>
-    <mergeCell ref="F98:F129"/>
-    <mergeCell ref="F130:F161"/>
-    <mergeCell ref="E82:E97"/>
-    <mergeCell ref="E98:E113"/>
-    <mergeCell ref="E114:E129"/>
-    <mergeCell ref="E130:E145"/>
-    <mergeCell ref="E146:E161"/>
-    <mergeCell ref="E162:E177"/>
-    <mergeCell ref="E2:E17"/>
-    <mergeCell ref="E18:E33"/>
-    <mergeCell ref="E34:E49"/>
-    <mergeCell ref="E50:E65"/>
-    <mergeCell ref="E66:E81"/>
-    <mergeCell ref="D242:D249"/>
-    <mergeCell ref="D250:D257"/>
-    <mergeCell ref="D194:D201"/>
-    <mergeCell ref="D202:D209"/>
-    <mergeCell ref="D210:D217"/>
-    <mergeCell ref="D218:D225"/>
-    <mergeCell ref="D226:D233"/>
-    <mergeCell ref="D234:D241"/>
-    <mergeCell ref="D146:D153"/>
-    <mergeCell ref="D154:D161"/>
-    <mergeCell ref="D162:D169"/>
-    <mergeCell ref="D170:D177"/>
-    <mergeCell ref="D178:D185"/>
-    <mergeCell ref="D186:D193"/>
-    <mergeCell ref="D106:D113"/>
-    <mergeCell ref="D114:D121"/>
-    <mergeCell ref="D122:D129"/>
-    <mergeCell ref="D130:D137"/>
-    <mergeCell ref="D138:D145"/>
-    <mergeCell ref="D50:D57"/>
-    <mergeCell ref="D58:D65"/>
-    <mergeCell ref="D66:D73"/>
-    <mergeCell ref="D74:D81"/>
-    <mergeCell ref="D82:D89"/>
-    <mergeCell ref="D90:D97"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="C178:C181"/>
+    <mergeCell ref="C182:C185"/>
+    <mergeCell ref="C186:C189"/>
+    <mergeCell ref="C190:C193"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="C154:C157"/>
+    <mergeCell ref="C158:C161"/>
+    <mergeCell ref="C162:C165"/>
+    <mergeCell ref="C166:C169"/>
     <mergeCell ref="C242:C245"/>
     <mergeCell ref="C246:C249"/>
     <mergeCell ref="C250:C253"/>
@@ -5233,52 +5224,61 @@
     <mergeCell ref="C170:C173"/>
     <mergeCell ref="C174:C177"/>
     <mergeCell ref="D98:D105"/>
-    <mergeCell ref="C178:C181"/>
-    <mergeCell ref="C182:C185"/>
-    <mergeCell ref="C186:C189"/>
-    <mergeCell ref="C190:C193"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="C154:C157"/>
-    <mergeCell ref="C158:C161"/>
-    <mergeCell ref="C162:C165"/>
-    <mergeCell ref="C166:C169"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="C142:C145"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D106:D113"/>
+    <mergeCell ref="D114:D121"/>
+    <mergeCell ref="D122:D129"/>
+    <mergeCell ref="D130:D137"/>
+    <mergeCell ref="D138:D145"/>
+    <mergeCell ref="D50:D57"/>
+    <mergeCell ref="D58:D65"/>
+    <mergeCell ref="D66:D73"/>
+    <mergeCell ref="D74:D81"/>
+    <mergeCell ref="D82:D89"/>
+    <mergeCell ref="D90:D97"/>
+    <mergeCell ref="D242:D249"/>
+    <mergeCell ref="D250:D257"/>
+    <mergeCell ref="D194:D201"/>
+    <mergeCell ref="D202:D209"/>
+    <mergeCell ref="D210:D217"/>
+    <mergeCell ref="D218:D225"/>
+    <mergeCell ref="D226:D233"/>
+    <mergeCell ref="D234:D241"/>
+    <mergeCell ref="D146:D153"/>
+    <mergeCell ref="D154:D161"/>
+    <mergeCell ref="D162:D169"/>
+    <mergeCell ref="D170:D177"/>
+    <mergeCell ref="D178:D185"/>
+    <mergeCell ref="D186:D193"/>
+    <mergeCell ref="E178:E193"/>
+    <mergeCell ref="E194:E209"/>
+    <mergeCell ref="E210:E225"/>
+    <mergeCell ref="E226:E241"/>
+    <mergeCell ref="E242:E257"/>
+    <mergeCell ref="F2:F33"/>
+    <mergeCell ref="F34:F65"/>
+    <mergeCell ref="F66:F97"/>
+    <mergeCell ref="F98:F129"/>
+    <mergeCell ref="F130:F161"/>
+    <mergeCell ref="E82:E97"/>
+    <mergeCell ref="E98:E113"/>
+    <mergeCell ref="E114:E129"/>
+    <mergeCell ref="E130:E145"/>
+    <mergeCell ref="E146:E161"/>
+    <mergeCell ref="E162:E177"/>
+    <mergeCell ref="E2:E17"/>
+    <mergeCell ref="E18:E33"/>
+    <mergeCell ref="E34:E49"/>
+    <mergeCell ref="E50:E65"/>
+    <mergeCell ref="E66:E81"/>
+    <mergeCell ref="H2:H129"/>
+    <mergeCell ref="H130:H257"/>
+    <mergeCell ref="F162:F193"/>
+    <mergeCell ref="F194:F225"/>
+    <mergeCell ref="F226:F257"/>
+    <mergeCell ref="G2:G65"/>
+    <mergeCell ref="G66:G129"/>
+    <mergeCell ref="G130:G193"/>
+    <mergeCell ref="G194:G257"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -5289,8 +5289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709A4C10-0955-4D97-86D1-D5085866A222}">
   <dimension ref="A1:AD148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE65" sqref="AE65"/>
+    <sheetView tabSelected="1" topLeftCell="N4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC28" sqref="AC28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5344,7 +5344,7 @@
       <c r="G1" s="3">
         <v>0</v>
       </c>
-      <c r="H1" s="96" t="s">
+      <c r="H1" s="98" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -5356,7 +5356,7 @@
       <c r="L1" s="3">
         <v>0</v>
       </c>
-      <c r="M1" s="102" t="s">
+      <c r="M1" s="104" t="s">
         <v>17</v>
       </c>
       <c r="N1" s="4" t="s">
@@ -5368,7 +5368,7 @@
       <c r="Q1" s="42">
         <v>0</v>
       </c>
-      <c r="R1" s="108" t="s">
+      <c r="R1" s="110" t="s">
         <v>18</v>
       </c>
       <c r="S1" s="4" t="s">
@@ -5390,7 +5390,7 @@
       <c r="G2" s="6">
         <v>1</v>
       </c>
-      <c r="H2" s="97"/>
+      <c r="H2" s="99"/>
       <c r="I2" s="7"/>
       <c r="K2" s="12" t="s">
         <v>76</v>
@@ -5398,7 +5398,7 @@
       <c r="L2" s="6">
         <v>1</v>
       </c>
-      <c r="M2" s="103"/>
+      <c r="M2" s="105"/>
       <c r="N2" s="7"/>
       <c r="P2" s="12" t="s">
         <v>83</v>
@@ -5406,16 +5406,16 @@
       <c r="Q2" s="41">
         <v>1</v>
       </c>
-      <c r="R2" s="109"/>
+      <c r="R2" s="111"/>
       <c r="S2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AA2" s="90" t="s">
+      <c r="AA2" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="91"/>
-      <c r="AC2" s="91"/>
-      <c r="AD2" s="92"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="94"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -5432,7 +5432,7 @@
       <c r="G3" s="6">
         <v>2</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="99"/>
       <c r="I3" s="7"/>
       <c r="K3" s="12" t="s">
         <v>76</v>
@@ -5440,7 +5440,7 @@
       <c r="L3" s="6">
         <v>2</v>
       </c>
-      <c r="M3" s="103"/>
+      <c r="M3" s="105"/>
       <c r="N3" s="7"/>
       <c r="P3" s="12" t="s">
         <v>83</v>
@@ -5448,7 +5448,7 @@
       <c r="Q3" s="41">
         <v>2</v>
       </c>
-      <c r="R3" s="109"/>
+      <c r="R3" s="111"/>
       <c r="S3" s="7" t="s">
         <v>35</v>
       </c>
@@ -5480,7 +5480,7 @@
       <c r="G4" s="6">
         <v>3</v>
       </c>
-      <c r="H4" s="97"/>
+      <c r="H4" s="99"/>
       <c r="I4" s="7"/>
       <c r="K4" s="12" t="s">
         <v>76</v>
@@ -5488,7 +5488,7 @@
       <c r="L4" s="6">
         <v>3</v>
       </c>
-      <c r="M4" s="103"/>
+      <c r="M4" s="105"/>
       <c r="N4" s="7"/>
       <c r="P4" s="12" t="s">
         <v>83</v>
@@ -5496,7 +5496,7 @@
       <c r="Q4" s="41">
         <v>3</v>
       </c>
-      <c r="R4" s="109"/>
+      <c r="R4" s="111"/>
       <c r="S4" s="7"/>
       <c r="AA4" s="23">
         <v>10</v>
@@ -5526,7 +5526,7 @@
       <c r="G5" s="6">
         <v>4</v>
       </c>
-      <c r="H5" s="97"/>
+      <c r="H5" s="99"/>
       <c r="I5" s="7"/>
       <c r="K5" s="12" t="s">
         <v>76</v>
@@ -5534,7 +5534,7 @@
       <c r="L5" s="6">
         <v>4</v>
       </c>
-      <c r="M5" s="103"/>
+      <c r="M5" s="105"/>
       <c r="N5" s="7"/>
       <c r="P5" s="12" t="s">
         <v>83</v>
@@ -5542,7 +5542,7 @@
       <c r="Q5" s="41">
         <v>4</v>
       </c>
-      <c r="R5" s="109"/>
+      <c r="R5" s="111"/>
       <c r="S5" s="7"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -5560,7 +5560,7 @@
       <c r="G6" s="6">
         <v>5</v>
       </c>
-      <c r="H6" s="97"/>
+      <c r="H6" s="99"/>
       <c r="I6" s="7"/>
       <c r="K6" s="32" t="s">
         <v>76</v>
@@ -5568,7 +5568,7 @@
       <c r="L6" s="33">
         <v>254</v>
       </c>
-      <c r="M6" s="103"/>
+      <c r="M6" s="105"/>
       <c r="N6" s="34" t="s">
         <v>44</v>
       </c>
@@ -5578,14 +5578,14 @@
       <c r="Q6" s="71">
         <v>254</v>
       </c>
-      <c r="R6" s="109"/>
+      <c r="R6" s="111"/>
       <c r="S6" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="AA6" s="94" t="s">
+      <c r="AA6" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="AB6" s="95"/>
+      <c r="AB6" s="97"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -5602,7 +5602,7 @@
       <c r="G7" s="6">
         <v>6</v>
       </c>
-      <c r="H7" s="97"/>
+      <c r="H7" s="99"/>
       <c r="I7" s="7"/>
       <c r="K7" s="11" t="s">
         <v>76</v>
@@ -5610,7 +5610,7 @@
       <c r="L7" s="3">
         <v>255</v>
       </c>
-      <c r="M7" s="103"/>
+      <c r="M7" s="105"/>
       <c r="N7" s="4" t="s">
         <v>19</v>
       </c>
@@ -5620,7 +5620,7 @@
       <c r="Q7" s="42">
         <v>255</v>
       </c>
-      <c r="R7" s="110"/>
+      <c r="R7" s="112"/>
       <c r="S7" s="4" t="s">
         <v>19</v>
       </c>
@@ -5646,7 +5646,7 @@
       <c r="G8" s="6">
         <v>7</v>
       </c>
-      <c r="H8" s="97"/>
+      <c r="H8" s="99"/>
       <c r="I8" s="7"/>
       <c r="K8" s="11" t="s">
         <v>77</v>
@@ -5654,7 +5654,7 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="103"/>
+      <c r="M8" s="105"/>
       <c r="N8" s="4" t="s">
         <v>23</v>
       </c>
@@ -5680,7 +5680,7 @@
       <c r="G9" s="6">
         <v>8</v>
       </c>
-      <c r="H9" s="97"/>
+      <c r="H9" s="99"/>
       <c r="I9" s="7"/>
       <c r="K9" s="12" t="s">
         <v>77</v>
@@ -5688,7 +5688,7 @@
       <c r="L9" s="6">
         <v>1</v>
       </c>
-      <c r="M9" s="103"/>
+      <c r="M9" s="105"/>
       <c r="N9" s="7"/>
       <c r="P9" s="64" t="s">
         <v>107</v>
@@ -5696,7 +5696,7 @@
       <c r="Q9" s="42">
         <v>0</v>
       </c>
-      <c r="R9" s="104" t="s">
+      <c r="R9" s="106" t="s">
         <v>20</v>
       </c>
       <c r="S9" s="4" t="s">
@@ -5724,7 +5724,7 @@
       <c r="G10" s="6">
         <v>9</v>
       </c>
-      <c r="H10" s="97"/>
+      <c r="H10" s="99"/>
       <c r="I10" s="7"/>
       <c r="K10" s="12" t="s">
         <v>77</v>
@@ -5732,7 +5732,7 @@
       <c r="L10" s="6">
         <v>2</v>
       </c>
-      <c r="M10" s="103"/>
+      <c r="M10" s="105"/>
       <c r="N10" s="7"/>
       <c r="P10" s="65" t="s">
         <v>107</v>
@@ -5740,7 +5740,7 @@
       <c r="Q10" s="41">
         <v>1</v>
       </c>
-      <c r="R10" s="104"/>
+      <c r="R10" s="106"/>
       <c r="S10" s="7" t="s">
         <v>21</v>
       </c>
@@ -5766,7 +5766,7 @@
       <c r="G11" s="6">
         <v>10</v>
       </c>
-      <c r="H11" s="97"/>
+      <c r="H11" s="99"/>
       <c r="I11" s="7"/>
       <c r="K11" s="12" t="s">
         <v>77</v>
@@ -5774,7 +5774,7 @@
       <c r="L11" s="6">
         <v>3</v>
       </c>
-      <c r="M11" s="103"/>
+      <c r="M11" s="105"/>
       <c r="N11" s="7"/>
       <c r="P11" s="65" t="s">
         <v>107</v>
@@ -5782,7 +5782,7 @@
       <c r="Q11" s="41">
         <v>2</v>
       </c>
-      <c r="R11" s="104"/>
+      <c r="R11" s="106"/>
       <c r="S11" s="7" t="s">
         <v>22</v>
       </c>
@@ -5802,7 +5802,7 @@
       <c r="G12" s="6">
         <v>11</v>
       </c>
-      <c r="H12" s="97"/>
+      <c r="H12" s="99"/>
       <c r="I12" s="7"/>
       <c r="K12" s="12" t="s">
         <v>77</v>
@@ -5810,7 +5810,7 @@
       <c r="L12" s="6">
         <v>4</v>
       </c>
-      <c r="M12" s="103"/>
+      <c r="M12" s="105"/>
       <c r="N12" s="7"/>
       <c r="P12" s="84" t="s">
         <v>107</v>
@@ -5818,7 +5818,7 @@
       <c r="Q12" s="43">
         <v>254</v>
       </c>
-      <c r="R12" s="104"/>
+      <c r="R12" s="106"/>
       <c r="S12" s="37" t="s">
         <v>44</v>
       </c>
@@ -5842,7 +5842,7 @@
       <c r="G13" s="6">
         <v>12</v>
       </c>
-      <c r="H13" s="97"/>
+      <c r="H13" s="99"/>
       <c r="I13" s="7"/>
       <c r="K13" s="32" t="s">
         <v>77</v>
@@ -5850,7 +5850,7 @@
       <c r="L13" s="33">
         <v>254</v>
       </c>
-      <c r="M13" s="103"/>
+      <c r="M13" s="105"/>
       <c r="N13" s="34" t="s">
         <v>44</v>
       </c>
@@ -5860,7 +5860,7 @@
       <c r="Q13" s="42">
         <v>255</v>
       </c>
-      <c r="R13" s="104"/>
+      <c r="R13" s="106"/>
       <c r="S13" s="4" t="s">
         <v>19</v>
       </c>
@@ -5884,7 +5884,7 @@
       <c r="G14" s="6">
         <v>13</v>
       </c>
-      <c r="H14" s="97"/>
+      <c r="H14" s="99"/>
       <c r="I14" s="7"/>
       <c r="K14" s="11" t="s">
         <v>77</v>
@@ -5892,7 +5892,7 @@
       <c r="L14" s="3">
         <v>255</v>
       </c>
-      <c r="M14" s="103"/>
+      <c r="M14" s="105"/>
       <c r="N14" s="4" t="s">
         <v>19</v>
       </c>
@@ -5916,7 +5916,7 @@
       <c r="G15" s="6">
         <v>14</v>
       </c>
-      <c r="H15" s="97"/>
+      <c r="H15" s="99"/>
       <c r="I15" s="7"/>
       <c r="K15" s="11" t="s">
         <v>78</v>
@@ -5924,7 +5924,7 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="103"/>
+      <c r="M15" s="105"/>
       <c r="N15" s="4" t="s">
         <v>23</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>115</v>
       </c>
       <c r="T15" s="73" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15" s="47"/>
       <c r="AB15" s="47"/>
@@ -5963,7 +5963,7 @@
       <c r="G16" s="6">
         <v>15</v>
       </c>
-      <c r="H16" s="97"/>
+      <c r="H16" s="99"/>
       <c r="I16" s="7"/>
       <c r="K16" s="12" t="s">
         <v>78</v>
@@ -5971,7 +5971,7 @@
       <c r="L16" s="6">
         <v>1</v>
       </c>
-      <c r="M16" s="103"/>
+      <c r="M16" s="105"/>
       <c r="N16" s="7"/>
       <c r="P16" s="77" t="s">
         <v>64</v>
@@ -5980,10 +5980,10 @@
         <v>1</v>
       </c>
       <c r="R16" s="89"/>
-      <c r="S16" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="T16" s="80"/>
+      <c r="S16" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="T16" s="74"/>
       <c r="AA16" s="47"/>
       <c r="AB16" s="47"/>
       <c r="AC16" s="47"/>
@@ -6003,7 +6003,7 @@
       <c r="G17" s="6">
         <v>16</v>
       </c>
-      <c r="H17" s="97"/>
+      <c r="H17" s="99"/>
       <c r="I17" s="7"/>
       <c r="K17" s="12" t="s">
         <v>78</v>
@@ -6011,7 +6011,7 @@
       <c r="L17" s="6">
         <v>2</v>
       </c>
-      <c r="M17" s="103"/>
+      <c r="M17" s="105"/>
       <c r="N17" s="7"/>
       <c r="P17" s="77" t="s">
         <v>64</v>
@@ -6020,10 +6020,10 @@
         <v>2</v>
       </c>
       <c r="R17" s="89"/>
-      <c r="S17" s="68" t="s">
-        <v>53</v>
-      </c>
-      <c r="T17" s="80"/>
+      <c r="S17" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="T17" s="74"/>
       <c r="AA17" s="45"/>
       <c r="AB17" s="46"/>
       <c r="AC17" s="46"/>
@@ -6043,7 +6043,7 @@
       <c r="G18" s="6">
         <v>17</v>
       </c>
-      <c r="H18" s="97"/>
+      <c r="H18" s="99"/>
       <c r="I18" s="7"/>
       <c r="K18" s="12" t="s">
         <v>78</v>
@@ -6051,17 +6051,17 @@
       <c r="L18" s="6">
         <v>3</v>
       </c>
-      <c r="M18" s="103"/>
+      <c r="M18" s="105"/>
       <c r="N18" s="7"/>
-      <c r="P18" s="70" t="s">
+      <c r="P18" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="Q18" s="70">
-        <v>7</v>
+      <c r="Q18" s="77">
+        <v>3</v>
       </c>
       <c r="R18" s="89"/>
-      <c r="S18" s="69" t="s">
-        <v>19</v>
+      <c r="S18" s="41" t="s">
+        <v>60</v>
       </c>
       <c r="T18" s="74"/>
       <c r="AA18" s="29"/>
@@ -6084,7 +6084,7 @@
       <c r="G19" s="6">
         <v>18</v>
       </c>
-      <c r="H19" s="97"/>
+      <c r="H19" s="99"/>
       <c r="I19" s="7"/>
       <c r="K19" s="12" t="s">
         <v>78</v>
@@ -6092,21 +6092,17 @@
       <c r="L19" s="6">
         <v>4</v>
       </c>
-      <c r="M19" s="103"/>
+      <c r="M19" s="105"/>
       <c r="N19" s="7"/>
-      <c r="P19" s="70" t="s">
+      <c r="P19" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="Q19" s="70">
-        <v>8</v>
+      <c r="Q19" s="77">
+        <v>4</v>
       </c>
       <c r="R19" s="89"/>
-      <c r="S19" s="69" t="s">
-        <v>115</v>
-      </c>
-      <c r="T19" s="73" t="s">
-        <v>0</v>
-      </c>
+      <c r="S19" s="41"/>
+      <c r="T19" s="74"/>
       <c r="AA19" s="29"/>
       <c r="AB19" s="29"/>
       <c r="AC19" s="29"/>
@@ -6127,7 +6123,7 @@
       <c r="G20" s="6">
         <v>19</v>
       </c>
-      <c r="H20" s="97"/>
+      <c r="H20" s="99"/>
       <c r="I20" s="7"/>
       <c r="K20" s="32" t="s">
         <v>78</v>
@@ -6135,7 +6131,7 @@
       <c r="L20" s="33">
         <v>254</v>
       </c>
-      <c r="M20" s="103"/>
+      <c r="M20" s="105"/>
       <c r="N20" s="34" t="s">
         <v>44</v>
       </c>
@@ -6143,12 +6139,10 @@
         <v>64</v>
       </c>
       <c r="Q20" s="41">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R20" s="89"/>
-      <c r="S20" s="41" t="s">
-        <v>52</v>
-      </c>
+      <c r="S20" s="41"/>
       <c r="T20" s="74"/>
       <c r="AA20" s="29"/>
       <c r="AB20" s="29"/>
@@ -6170,7 +6164,7 @@
       <c r="G21" s="6">
         <v>20</v>
       </c>
-      <c r="H21" s="97"/>
+      <c r="H21" s="99"/>
       <c r="I21" s="7"/>
       <c r="K21" s="11" t="s">
         <v>78</v>
@@ -6178,7 +6172,7 @@
       <c r="L21" s="3">
         <v>255</v>
       </c>
-      <c r="M21" s="103"/>
+      <c r="M21" s="105"/>
       <c r="N21" s="4" t="s">
         <v>19</v>
       </c>
@@ -6186,12 +6180,9 @@
         <v>64</v>
       </c>
       <c r="Q21" s="41">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R21" s="89"/>
-      <c r="S21" s="76" t="s">
-        <v>118</v>
-      </c>
       <c r="T21" s="74"/>
       <c r="AA21" s="29"/>
       <c r="AB21" s="29"/>
@@ -6213,19 +6204,19 @@
       <c r="G22" s="6">
         <v>21</v>
       </c>
-      <c r="H22" s="97"/>
+      <c r="H22" s="99"/>
       <c r="I22" s="7"/>
       <c r="P22" s="70" t="s">
         <v>64</v>
       </c>
       <c r="Q22" s="70">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="R22" s="89"/>
       <c r="S22" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="T22" s="74"/>
+      <c r="T22" s="75"/>
       <c r="AA22" s="29"/>
       <c r="AB22" s="29"/>
       <c r="AC22" s="29"/>
@@ -6246,7 +6237,7 @@
       <c r="G23" s="6">
         <v>22</v>
       </c>
-      <c r="H23" s="97"/>
+      <c r="H23" s="99"/>
       <c r="I23" s="7"/>
       <c r="K23" s="11" t="s">
         <v>79</v>
@@ -6254,7 +6245,7 @@
       <c r="L23" s="3">
         <v>0</v>
       </c>
-      <c r="M23" s="93" t="s">
+      <c r="M23" s="95" t="s">
         <v>16</v>
       </c>
       <c r="N23" s="4" t="s">
@@ -6264,17 +6255,15 @@
         <v>64</v>
       </c>
       <c r="Q23" s="70">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="R23" s="89"/>
       <c r="S23" s="69" t="s">
         <v>115</v>
       </c>
       <c r="T23" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA23" s="29"/>
-      <c r="AB23" s="29"/>
+        <v>0</v>
+      </c>
       <c r="AC23" s="29"/>
       <c r="AD23" s="29"/>
     </row>
@@ -6293,7 +6282,7 @@
       <c r="G24" s="6">
         <v>23</v>
       </c>
-      <c r="H24" s="97"/>
+      <c r="H24" s="99"/>
       <c r="I24" s="7"/>
       <c r="K24" s="12" t="s">
         <v>79</v>
@@ -6301,21 +6290,19 @@
       <c r="L24" s="6">
         <v>1</v>
       </c>
-      <c r="M24" s="93"/>
+      <c r="M24" s="95"/>
       <c r="N24" s="7"/>
       <c r="P24" s="41" t="s">
         <v>64</v>
       </c>
       <c r="Q24" s="41">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="R24" s="89"/>
-      <c r="S24" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="T24" s="74"/>
-      <c r="AA24" s="29"/>
-      <c r="AB24" s="29"/>
+      <c r="S24" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="T24" s="80"/>
       <c r="AC24" s="29"/>
       <c r="AD24" s="29"/>
     </row>
@@ -6334,7 +6321,7 @@
       <c r="G25" s="6">
         <v>24</v>
       </c>
-      <c r="H25" s="97"/>
+      <c r="H25" s="99"/>
       <c r="I25" s="7"/>
       <c r="K25" s="12" t="s">
         <v>79</v>
@@ -6342,19 +6329,19 @@
       <c r="L25" s="6">
         <v>2</v>
       </c>
-      <c r="M25" s="93"/>
+      <c r="M25" s="95"/>
       <c r="N25" s="7"/>
       <c r="P25" s="41" t="s">
         <v>64</v>
       </c>
       <c r="Q25" s="41">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="R25" s="89"/>
-      <c r="S25" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="T25" s="74"/>
+      <c r="S25" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="T25" s="80"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
@@ -6371,7 +6358,7 @@
       <c r="G26" s="6">
         <v>25</v>
       </c>
-      <c r="H26" s="97"/>
+      <c r="H26" s="99"/>
       <c r="I26" s="7"/>
       <c r="K26" s="12" t="s">
         <v>79</v>
@@ -6379,17 +6366,17 @@
       <c r="L26" s="6">
         <v>3</v>
       </c>
-      <c r="M26" s="93"/>
+      <c r="M26" s="95"/>
       <c r="N26" s="7"/>
-      <c r="P26" s="41" t="s">
+      <c r="P26" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="Q26" s="41">
-        <v>15</v>
+      <c r="Q26" s="70">
+        <v>11</v>
       </c>
       <c r="R26" s="89"/>
-      <c r="S26" s="41" t="s">
-        <v>60</v>
+      <c r="S26" s="69" t="s">
+        <v>19</v>
       </c>
       <c r="T26" s="74"/>
     </row>
@@ -6408,7 +6395,7 @@
       <c r="G27" s="6">
         <v>26</v>
       </c>
-      <c r="H27" s="97"/>
+      <c r="H27" s="99"/>
       <c r="I27" s="7"/>
       <c r="K27" s="12" t="s">
         <v>79</v>
@@ -6416,17 +6403,21 @@
       <c r="L27" s="6">
         <v>4</v>
       </c>
-      <c r="M27" s="93"/>
+      <c r="M27" s="95"/>
       <c r="N27" s="7"/>
-      <c r="P27" s="41" t="s">
+      <c r="P27" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="Q27" s="41">
-        <v>16</v>
+      <c r="Q27" s="70">
+        <v>12</v>
       </c>
       <c r="R27" s="89"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="74"/>
+      <c r="S27" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="T27" s="73" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
@@ -6443,7 +6434,7 @@
       <c r="G28" s="6">
         <v>27</v>
       </c>
-      <c r="H28" s="97"/>
+      <c r="H28" s="99"/>
       <c r="I28" s="7"/>
       <c r="K28" s="12" t="s">
         <v>79</v>
@@ -6451,16 +6442,18 @@
       <c r="L28" s="6">
         <v>5</v>
       </c>
-      <c r="M28" s="93"/>
+      <c r="M28" s="95"/>
       <c r="N28" s="7"/>
       <c r="P28" s="41" t="s">
         <v>64</v>
       </c>
       <c r="Q28" s="41">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="R28" s="89"/>
-      <c r="S28" s="41"/>
+      <c r="S28" s="41" t="s">
+        <v>52</v>
+      </c>
       <c r="T28" s="74"/>
     </row>
     <row r="29" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6478,7 +6471,7 @@
       <c r="G29" s="6">
         <v>28</v>
       </c>
-      <c r="H29" s="97"/>
+      <c r="H29" s="99"/>
       <c r="I29" s="7"/>
       <c r="K29" s="35" t="s">
         <v>79</v>
@@ -6486,7 +6479,7 @@
       <c r="L29" s="36">
         <v>254</v>
       </c>
-      <c r="M29" s="93"/>
+      <c r="M29" s="95"/>
       <c r="N29" s="37" t="s">
         <v>44</v>
       </c>
@@ -6494,9 +6487,12 @@
         <v>64</v>
       </c>
       <c r="Q29" s="68">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="R29" s="89"/>
+      <c r="S29" s="76" t="s">
+        <v>118</v>
+      </c>
       <c r="T29" s="74"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
@@ -6514,7 +6510,7 @@
       <c r="G30" s="6">
         <v>29</v>
       </c>
-      <c r="H30" s="97"/>
+      <c r="H30" s="99"/>
       <c r="I30" s="7"/>
       <c r="K30" s="11" t="s">
         <v>79</v>
@@ -6522,7 +6518,7 @@
       <c r="L30" s="3">
         <v>255</v>
       </c>
-      <c r="M30" s="93"/>
+      <c r="M30" s="95"/>
       <c r="N30" s="4" t="s">
         <v>19</v>
       </c>
@@ -6530,7 +6526,7 @@
         <v>64</v>
       </c>
       <c r="Q30" s="70">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R30" s="89"/>
       <c r="S30" s="69" t="s">
@@ -6553,7 +6549,7 @@
       <c r="G31" s="6">
         <v>30</v>
       </c>
-      <c r="H31" s="97"/>
+      <c r="H31" s="99"/>
       <c r="I31" s="7"/>
       <c r="P31" s="42" t="s">
         <v>65</v>
@@ -6581,7 +6577,7 @@
       <c r="G32" s="33">
         <v>254</v>
       </c>
-      <c r="H32" s="97"/>
+      <c r="H32" s="99"/>
       <c r="I32" s="34" t="s">
         <v>94</v>
       </c>
@@ -6591,7 +6587,7 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="105" t="s">
+      <c r="M32" s="107" t="s">
         <v>24</v>
       </c>
       <c r="N32" s="4" t="s">
@@ -6627,7 +6623,7 @@
       <c r="G33" s="3">
         <v>255</v>
       </c>
-      <c r="H33" s="98"/>
+      <c r="H33" s="100"/>
       <c r="I33" s="4" t="s">
         <v>19</v>
       </c>
@@ -6637,7 +6633,7 @@
       <c r="L33" s="6">
         <v>1</v>
       </c>
-      <c r="M33" s="106"/>
+      <c r="M33" s="108"/>
       <c r="N33" s="7"/>
       <c r="P33" s="41" t="s">
         <v>65</v>
@@ -6668,7 +6664,7 @@
       <c r="L34" s="6">
         <v>2</v>
       </c>
-      <c r="M34" s="106"/>
+      <c r="M34" s="108"/>
       <c r="N34" s="7"/>
       <c r="P34" s="41" t="s">
         <v>65</v>
@@ -6694,7 +6690,7 @@
       <c r="G35" s="3">
         <v>0</v>
       </c>
-      <c r="H35" s="99" t="s">
+      <c r="H35" s="101" t="s">
         <v>15</v>
       </c>
       <c r="I35" s="4" t="s">
@@ -6706,7 +6702,7 @@
       <c r="L35" s="36">
         <v>254</v>
       </c>
-      <c r="M35" s="106"/>
+      <c r="M35" s="108"/>
       <c r="N35" s="37" t="s">
         <v>44</v>
       </c>
@@ -6736,7 +6732,7 @@
       <c r="G36" s="6">
         <v>1</v>
       </c>
-      <c r="H36" s="100"/>
+      <c r="H36" s="102"/>
       <c r="I36" s="7"/>
       <c r="K36" s="11" t="s">
         <v>80</v>
@@ -6744,7 +6740,7 @@
       <c r="L36" s="3">
         <v>255</v>
       </c>
-      <c r="M36" s="106"/>
+      <c r="M36" s="108"/>
       <c r="N36" s="4" t="s">
         <v>19</v>
       </c>
@@ -6774,7 +6770,7 @@
       <c r="G37" s="6">
         <v>2</v>
       </c>
-      <c r="H37" s="100"/>
+      <c r="H37" s="102"/>
       <c r="I37" s="7"/>
       <c r="K37" s="11" t="s">
         <v>81</v>
@@ -6782,7 +6778,7 @@
       <c r="L37" s="3">
         <v>0</v>
       </c>
-      <c r="M37" s="106"/>
+      <c r="M37" s="108"/>
       <c r="N37" s="4" t="s">
         <v>23</v>
       </c>
@@ -6815,7 +6811,7 @@
       <c r="G38" s="6">
         <v>3</v>
       </c>
-      <c r="H38" s="100"/>
+      <c r="H38" s="102"/>
       <c r="I38" s="7"/>
       <c r="K38" s="12" t="s">
         <v>81</v>
@@ -6823,7 +6819,7 @@
       <c r="L38" s="6">
         <v>1</v>
       </c>
-      <c r="M38" s="106"/>
+      <c r="M38" s="108"/>
       <c r="N38" s="7"/>
       <c r="P38" s="77" t="s">
         <v>69</v>
@@ -6852,7 +6848,7 @@
       <c r="G39" s="6">
         <v>4</v>
       </c>
-      <c r="H39" s="100"/>
+      <c r="H39" s="102"/>
       <c r="I39" s="7"/>
       <c r="K39" s="12" t="s">
         <v>81</v>
@@ -6860,7 +6856,7 @@
       <c r="L39" s="6">
         <v>2</v>
       </c>
-      <c r="M39" s="106"/>
+      <c r="M39" s="108"/>
       <c r="N39" s="7"/>
       <c r="P39" s="77" t="s">
         <v>69</v>
@@ -6889,7 +6885,7 @@
       <c r="G40" s="6">
         <v>5</v>
       </c>
-      <c r="H40" s="100"/>
+      <c r="H40" s="102"/>
       <c r="I40" s="7"/>
       <c r="K40" s="35" t="s">
         <v>81</v>
@@ -6897,7 +6893,7 @@
       <c r="L40" s="36">
         <v>254</v>
       </c>
-      <c r="M40" s="106"/>
+      <c r="M40" s="108"/>
       <c r="N40" s="37" t="s">
         <v>44</v>
       </c>
@@ -6928,7 +6924,7 @@
       <c r="G41" s="6">
         <v>6</v>
       </c>
-      <c r="H41" s="100"/>
+      <c r="H41" s="102"/>
       <c r="I41" s="7"/>
       <c r="K41" s="11" t="s">
         <v>81</v>
@@ -6936,7 +6932,7 @@
       <c r="L41" s="3">
         <v>255</v>
       </c>
-      <c r="M41" s="106"/>
+      <c r="M41" s="108"/>
       <c r="N41" s="4" t="s">
         <v>19</v>
       </c>
@@ -6969,7 +6965,7 @@
       <c r="G42" s="6">
         <v>7</v>
       </c>
-      <c r="H42" s="100"/>
+      <c r="H42" s="102"/>
       <c r="I42" s="7"/>
       <c r="K42" s="11" t="s">
         <v>82</v>
@@ -6977,7 +6973,7 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="106"/>
+      <c r="M42" s="108"/>
       <c r="N42" s="4" t="s">
         <v>23</v>
       </c>
@@ -7008,7 +7004,7 @@
       <c r="G43" s="6">
         <v>8</v>
       </c>
-      <c r="H43" s="100"/>
+      <c r="H43" s="102"/>
       <c r="I43" s="7"/>
       <c r="K43" s="12" t="s">
         <v>82</v>
@@ -7016,7 +7012,7 @@
       <c r="L43" s="6">
         <v>1</v>
       </c>
-      <c r="M43" s="106"/>
+      <c r="M43" s="108"/>
       <c r="N43" s="7"/>
       <c r="P43" s="68" t="s">
         <v>69</v>
@@ -7045,7 +7041,7 @@
       <c r="G44" s="6">
         <v>9</v>
       </c>
-      <c r="H44" s="100"/>
+      <c r="H44" s="102"/>
       <c r="I44" s="7"/>
       <c r="K44" s="12" t="s">
         <v>82</v>
@@ -7053,7 +7049,7 @@
       <c r="L44" s="6">
         <v>2</v>
       </c>
-      <c r="M44" s="106"/>
+      <c r="M44" s="108"/>
       <c r="N44" s="7"/>
       <c r="P44" s="70" t="s">
         <v>69</v>
@@ -7082,7 +7078,7 @@
       <c r="G45" s="6">
         <v>10</v>
       </c>
-      <c r="H45" s="100"/>
+      <c r="H45" s="102"/>
       <c r="I45" s="7"/>
       <c r="K45" s="35" t="s">
         <v>82</v>
@@ -7090,7 +7086,7 @@
       <c r="L45" s="36">
         <v>254</v>
       </c>
-      <c r="M45" s="106"/>
+      <c r="M45" s="108"/>
       <c r="N45" s="37" t="s">
         <v>44</v>
       </c>
@@ -7123,7 +7119,7 @@
       <c r="G46" s="33">
         <v>254</v>
       </c>
-      <c r="H46" s="100"/>
+      <c r="H46" s="102"/>
       <c r="I46" s="34" t="s">
         <v>95</v>
       </c>
@@ -7133,7 +7129,7 @@
       <c r="L46" s="3">
         <v>255</v>
       </c>
-      <c r="M46" s="107"/>
+      <c r="M46" s="109"/>
       <c r="N46" s="4" t="s">
         <v>19</v>
       </c>
@@ -7164,7 +7160,7 @@
       <c r="G47" s="3">
         <v>255</v>
       </c>
-      <c r="H47" s="101"/>
+      <c r="H47" s="103"/>
       <c r="I47" s="4" t="s">
         <v>19</v>
       </c>
@@ -7351,7 +7347,7 @@
       <c r="Q56" s="42">
         <v>0</v>
       </c>
-      <c r="R56" s="126" t="s">
+      <c r="R56" s="90" t="s">
         <v>124</v>
       </c>
       <c r="S56" s="4" t="s">
@@ -7376,7 +7372,7 @@
       <c r="Q57" s="41">
         <v>1</v>
       </c>
-      <c r="R57" s="126"/>
+      <c r="R57" s="90"/>
       <c r="S57" s="41" t="s">
         <v>114</v>
       </c>
@@ -7397,7 +7393,7 @@
       <c r="Q58" s="41">
         <v>2</v>
       </c>
-      <c r="R58" s="126"/>
+      <c r="R58" s="90"/>
       <c r="S58" s="41" t="s">
         <v>113</v>
       </c>
@@ -7418,7 +7414,7 @@
       <c r="Q59" s="42">
         <v>3</v>
       </c>
-      <c r="R59" s="126"/>
+      <c r="R59" s="90"/>
       <c r="S59" s="4" t="s">
         <v>19</v>
       </c>
@@ -7449,7 +7445,7 @@
       <c r="Q61" s="78">
         <v>1</v>
       </c>
-      <c r="R61" s="127" t="s">
+      <c r="R61" s="91" t="s">
         <v>125</v>
       </c>
       <c r="S61" s="78" t="s">
@@ -7474,7 +7470,7 @@
       <c r="Q62" s="78">
         <v>2</v>
       </c>
-      <c r="R62" s="127"/>
+      <c r="R62" s="91"/>
       <c r="S62" s="78" t="s">
         <v>66</v>
       </c>
@@ -7498,7 +7494,7 @@
       <c r="Q63" s="72">
         <v>1</v>
       </c>
-      <c r="R63" s="127"/>
+      <c r="R63" s="91"/>
       <c r="S63" s="72" t="s">
         <v>68</v>
       </c>
@@ -7524,7 +7520,7 @@
       <c r="Q64" s="72">
         <v>1</v>
       </c>
-      <c r="R64" s="127"/>
+      <c r="R64" s="91"/>
       <c r="S64" s="72" t="s">
         <v>70</v>
       </c>
@@ -7548,7 +7544,7 @@
       <c r="Q65" s="72">
         <v>2</v>
       </c>
-      <c r="R65" s="127"/>
+      <c r="R65" s="91"/>
       <c r="S65" s="72" t="s">
         <v>71</v>
       </c>
@@ -7572,7 +7568,7 @@
       <c r="Q66" s="72">
         <v>1</v>
       </c>
-      <c r="R66" s="127"/>
+      <c r="R66" s="91"/>
       <c r="S66" s="72" t="s">
         <v>116</v>
       </c>
@@ -8590,7 +8586,7 @@
         <v>40</v>
       </c>
       <c r="G1" s="3"/>
-      <c r="H1" s="96" t="s">
+      <c r="H1" s="98" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -8600,7 +8596,7 @@
         <v>87</v>
       </c>
       <c r="L1" s="3"/>
-      <c r="M1" s="114" t="s">
+      <c r="M1" s="116" t="s">
         <v>17</v>
       </c>
       <c r="N1" s="4" t="s">
@@ -8610,7 +8606,7 @@
         <v>102</v>
       </c>
       <c r="Q1" s="3"/>
-      <c r="R1" s="108" t="s">
+      <c r="R1" s="110" t="s">
         <v>18</v>
       </c>
       <c r="S1" s="4" t="s">
@@ -8634,7 +8630,7 @@
         <f>DEC2HEX('ipv4'!G2)</f>
         <v>1</v>
       </c>
-      <c r="H2" s="97"/>
+      <c r="H2" s="99"/>
       <c r="I2" s="66"/>
       <c r="K2" s="12" t="s">
         <v>87</v>
@@ -8643,7 +8639,7 @@
         <f>DEC2HEX('ipv4'!L2)</f>
         <v>1</v>
       </c>
-      <c r="M2" s="115"/>
+      <c r="M2" s="117"/>
       <c r="N2" s="66"/>
       <c r="P2" s="12" t="s">
         <v>102</v>
@@ -8652,18 +8648,18 @@
         <f>DEC2HEX('ipv4'!Q2)</f>
         <v>1</v>
       </c>
-      <c r="R2" s="109"/>
+      <c r="R2" s="111"/>
       <c r="S2" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="AA2" s="90" t="s">
+      <c r="AA2" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="91"/>
-      <c r="AC2" s="91"/>
-      <c r="AD2" s="91"/>
-      <c r="AE2" s="91"/>
-      <c r="AF2" s="92"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="94"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -8682,7 +8678,7 @@
         <f>DEC2HEX('ipv4'!G3)</f>
         <v>2</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="99"/>
       <c r="I3" s="66"/>
       <c r="K3" s="12" t="s">
         <v>87</v>
@@ -8691,7 +8687,7 @@
         <f>DEC2HEX('ipv4'!L3)</f>
         <v>2</v>
       </c>
-      <c r="M3" s="115"/>
+      <c r="M3" s="117"/>
       <c r="N3" s="66"/>
       <c r="P3" s="12" t="s">
         <v>102</v>
@@ -8700,7 +8696,7 @@
         <f>DEC2HEX('ipv4'!Q3)</f>
         <v>2</v>
       </c>
-      <c r="R3" s="109"/>
+      <c r="R3" s="111"/>
       <c r="S3" s="66" t="s">
         <v>35</v>
       </c>
@@ -8740,7 +8736,7 @@
         <f>DEC2HEX('ipv4'!G4)</f>
         <v>3</v>
       </c>
-      <c r="H4" s="97"/>
+      <c r="H4" s="99"/>
       <c r="I4" s="66"/>
       <c r="K4" s="12" t="s">
         <v>87</v>
@@ -8749,7 +8745,7 @@
         <f>DEC2HEX('ipv4'!L4)</f>
         <v>3</v>
       </c>
-      <c r="M4" s="115"/>
+      <c r="M4" s="117"/>
       <c r="N4" s="66"/>
       <c r="P4" s="12" t="s">
         <v>102</v>
@@ -8758,7 +8754,7 @@
         <f>DEC2HEX('ipv4'!Q4)</f>
         <v>3</v>
       </c>
-      <c r="R4" s="109"/>
+      <c r="R4" s="111"/>
       <c r="S4" s="66"/>
       <c r="AA4" s="50">
         <v>2001</v>
@@ -8796,7 +8792,7 @@
         <f>DEC2HEX('ipv4'!G5)</f>
         <v>4</v>
       </c>
-      <c r="H5" s="97"/>
+      <c r="H5" s="99"/>
       <c r="I5" s="66"/>
       <c r="K5" s="12" t="s">
         <v>87</v>
@@ -8805,7 +8801,7 @@
         <f>DEC2HEX('ipv4'!L5)</f>
         <v>4</v>
       </c>
-      <c r="M5" s="115"/>
+      <c r="M5" s="117"/>
       <c r="N5" s="66"/>
       <c r="P5" s="12" t="s">
         <v>102</v>
@@ -8814,7 +8810,7 @@
         <f>DEC2HEX('ipv4'!Q5)</f>
         <v>4</v>
       </c>
-      <c r="R5" s="109"/>
+      <c r="R5" s="111"/>
       <c r="S5" s="66"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
@@ -8834,13 +8830,13 @@
         <f>DEC2HEX('ipv4'!G6)</f>
         <v>5</v>
       </c>
-      <c r="H6" s="97"/>
+      <c r="H6" s="99"/>
       <c r="I6" s="66"/>
       <c r="K6" s="11" t="s">
         <v>96</v>
       </c>
       <c r="L6" s="3"/>
-      <c r="M6" s="115"/>
+      <c r="M6" s="117"/>
       <c r="N6" s="4" t="s">
         <v>23</v>
       </c>
@@ -8848,14 +8844,14 @@
         <v>103</v>
       </c>
       <c r="Q6" s="60"/>
-      <c r="R6" s="109"/>
+      <c r="R6" s="111"/>
       <c r="S6" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="AA6" s="94" t="s">
+      <c r="AA6" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="AB6" s="95"/>
+      <c r="AB6" s="97"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -8874,7 +8870,7 @@
         <f>DEC2HEX('ipv4'!G7)</f>
         <v>6</v>
       </c>
-      <c r="H7" s="97"/>
+      <c r="H7" s="99"/>
       <c r="I7" s="66"/>
       <c r="K7" s="12" t="s">
         <v>96</v>
@@ -8883,7 +8879,7 @@
         <f>DEC2HEX('ipv4'!L9)</f>
         <v>1</v>
       </c>
-      <c r="M7" s="115"/>
+      <c r="M7" s="117"/>
       <c r="N7" s="66"/>
       <c r="P7" s="12" t="s">
         <v>103</v>
@@ -8892,7 +8888,7 @@
         <f>DEC2HEX('ipv4'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R7" s="109"/>
+      <c r="R7" s="111"/>
       <c r="S7" s="66"/>
       <c r="AA7" s="48" t="s">
         <v>42</v>
@@ -8918,7 +8914,7 @@
         <f>DEC2HEX('ipv4'!G8)</f>
         <v>7</v>
       </c>
-      <c r="H8" s="97"/>
+      <c r="H8" s="99"/>
       <c r="I8" s="66"/>
       <c r="K8" s="12" t="s">
         <v>96</v>
@@ -8927,7 +8923,7 @@
         <f>DEC2HEX('ipv4'!L10)</f>
         <v>2</v>
       </c>
-      <c r="M8" s="115"/>
+      <c r="M8" s="117"/>
       <c r="N8" s="66"/>
       <c r="P8" s="12" t="s">
         <v>103</v>
@@ -8936,7 +8932,7 @@
         <f>DEC2HEX('ipv4'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R8" s="109"/>
+      <c r="R8" s="111"/>
       <c r="S8" s="66"/>
       <c r="AA8" s="48" t="s">
         <v>43</v>
@@ -8962,7 +8958,7 @@
         <f>DEC2HEX('ipv4'!G9)</f>
         <v>8</v>
       </c>
-      <c r="H9" s="97"/>
+      <c r="H9" s="99"/>
       <c r="I9" s="66"/>
       <c r="K9" s="12" t="s">
         <v>96</v>
@@ -8971,13 +8967,13 @@
         <f>DEC2HEX('ipv4'!L11)</f>
         <v>3</v>
       </c>
-      <c r="M9" s="115"/>
+      <c r="M9" s="117"/>
       <c r="N9" s="66"/>
       <c r="P9" s="59" t="s">
         <v>104</v>
       </c>
       <c r="Q9" s="60"/>
-      <c r="R9" s="109"/>
+      <c r="R9" s="111"/>
       <c r="S9" s="61" t="s">
         <v>23</v>
       </c>
@@ -9005,7 +9001,7 @@
         <f>DEC2HEX('ipv4'!G10)</f>
         <v>9</v>
       </c>
-      <c r="H10" s="97"/>
+      <c r="H10" s="99"/>
       <c r="I10" s="66"/>
       <c r="K10" s="12" t="s">
         <v>96</v>
@@ -9014,7 +9010,7 @@
         <f>DEC2HEX('ipv4'!L12)</f>
         <v>4</v>
       </c>
-      <c r="M10" s="115"/>
+      <c r="M10" s="117"/>
       <c r="N10" s="66"/>
       <c r="P10" s="12" t="s">
         <v>104</v>
@@ -9023,7 +9019,7 @@
         <f>DEC2HEX('ipv4'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R10" s="109"/>
+      <c r="R10" s="111"/>
       <c r="S10" s="66"/>
       <c r="AA10" s="49" t="s">
         <v>85</v>
@@ -9049,13 +9045,13 @@
         <f>DEC2HEX('ipv4'!G11)</f>
         <v>A</v>
       </c>
-      <c r="H11" s="97"/>
+      <c r="H11" s="99"/>
       <c r="I11" s="66"/>
       <c r="K11" s="11" t="s">
         <v>97</v>
       </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="115"/>
+      <c r="M11" s="117"/>
       <c r="N11" s="4" t="s">
         <v>23</v>
       </c>
@@ -9066,7 +9062,7 @@
         <f>DEC2HEX('ipv4'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R11" s="109"/>
+      <c r="R11" s="111"/>
       <c r="S11" s="66"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
@@ -9086,7 +9082,7 @@
         <f>DEC2HEX('ipv4'!G12)</f>
         <v>B</v>
       </c>
-      <c r="H12" s="97"/>
+      <c r="H12" s="99"/>
       <c r="I12" s="66"/>
       <c r="K12" s="12" t="s">
         <v>97</v>
@@ -9095,13 +9091,13 @@
         <f>DEC2HEX('ipv4'!L16)</f>
         <v>1</v>
       </c>
-      <c r="M12" s="115"/>
+      <c r="M12" s="117"/>
       <c r="N12" s="66"/>
       <c r="P12" s="59" t="s">
         <v>105</v>
       </c>
       <c r="Q12" s="60"/>
-      <c r="R12" s="109"/>
+      <c r="R12" s="111"/>
       <c r="S12" s="61" t="s">
         <v>23</v>
       </c>
@@ -9127,7 +9123,7 @@
         <f>DEC2HEX('ipv4'!G13)</f>
         <v>C</v>
       </c>
-      <c r="H13" s="97"/>
+      <c r="H13" s="99"/>
       <c r="I13" s="66"/>
       <c r="K13" s="12" t="s">
         <v>97</v>
@@ -9136,7 +9132,7 @@
         <f>DEC2HEX('ipv4'!L17)</f>
         <v>2</v>
       </c>
-      <c r="M13" s="115"/>
+      <c r="M13" s="117"/>
       <c r="N13" s="66"/>
       <c r="P13" s="12" t="s">
         <v>105</v>
@@ -9145,7 +9141,7 @@
         <f>DEC2HEX('ipv4'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R13" s="109"/>
+      <c r="R13" s="111"/>
       <c r="S13" s="66"/>
       <c r="AA13" s="45"/>
       <c r="AB13" s="46"/>
@@ -9169,7 +9165,7 @@
         <f>DEC2HEX('ipv4'!G14)</f>
         <v>D</v>
       </c>
-      <c r="H14" s="97"/>
+      <c r="H14" s="99"/>
       <c r="I14" s="66"/>
       <c r="K14" s="12" t="s">
         <v>97</v>
@@ -9178,7 +9174,7 @@
         <f>DEC2HEX('ipv4'!L18)</f>
         <v>3</v>
       </c>
-      <c r="M14" s="115"/>
+      <c r="M14" s="117"/>
       <c r="N14" s="66"/>
       <c r="P14" s="12" t="s">
         <v>105</v>
@@ -9187,7 +9183,7 @@
         <f>DEC2HEX('ipv4'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R14" s="110"/>
+      <c r="R14" s="112"/>
       <c r="S14" s="66"/>
       <c r="AA14" s="47"/>
       <c r="AB14" s="47"/>
@@ -9211,7 +9207,7 @@
         <f>DEC2HEX('ipv4'!G15)</f>
         <v>E</v>
       </c>
-      <c r="H15" s="97"/>
+      <c r="H15" s="99"/>
       <c r="I15" s="66"/>
       <c r="K15" s="12" t="s">
         <v>97</v>
@@ -9220,13 +9216,13 @@
         <f>DEC2HEX('ipv4'!L19)</f>
         <v>4</v>
       </c>
-      <c r="M15" s="116"/>
+      <c r="M15" s="118"/>
       <c r="N15" s="66"/>
       <c r="P15" s="59" t="s">
         <v>106</v>
       </c>
       <c r="Q15" s="60"/>
-      <c r="R15" s="109" t="s">
+      <c r="R15" s="111" t="s">
         <v>20</v>
       </c>
       <c r="S15" s="61" t="s">
@@ -9254,7 +9250,7 @@
         <f>DEC2HEX('ipv4'!G16)</f>
         <v>F</v>
       </c>
-      <c r="H16" s="97"/>
+      <c r="H16" s="99"/>
       <c r="I16" s="66"/>
       <c r="M16" s="38"/>
       <c r="P16" s="12" t="s">
@@ -9264,7 +9260,7 @@
         <f>DEC2HEX('ipv4'!Q10)</f>
         <v>1</v>
       </c>
-      <c r="R16" s="109"/>
+      <c r="R16" s="111"/>
       <c r="S16" s="66" t="s">
         <v>21</v>
       </c>
@@ -9290,13 +9286,13 @@
         <f>DEC2HEX('ipv4'!G17)</f>
         <v>10</v>
       </c>
-      <c r="H17" s="97"/>
+      <c r="H17" s="99"/>
       <c r="I17" s="66"/>
       <c r="K17" s="11" t="s">
         <v>98</v>
       </c>
       <c r="L17" s="3"/>
-      <c r="M17" s="120" t="s">
+      <c r="M17" s="122" t="s">
         <v>16</v>
       </c>
       <c r="N17" s="4" t="s">
@@ -9309,7 +9305,7 @@
         <f>DEC2HEX('ipv4'!Q11)</f>
         <v>2</v>
       </c>
-      <c r="R17" s="110"/>
+      <c r="R17" s="112"/>
       <c r="S17" s="66" t="s">
         <v>22</v>
       </c>
@@ -9335,7 +9331,7 @@
         <f>DEC2HEX('ipv4'!G18)</f>
         <v>11</v>
       </c>
-      <c r="H18" s="97"/>
+      <c r="H18" s="99"/>
       <c r="I18" s="66"/>
       <c r="K18" s="12" t="s">
         <v>98</v>
@@ -9344,7 +9340,7 @@
         <f>DEC2HEX('ipv4'!L24)</f>
         <v>1</v>
       </c>
-      <c r="M18" s="121"/>
+      <c r="M18" s="123"/>
       <c r="N18" s="66"/>
       <c r="R18" s="62"/>
       <c r="AA18" s="29"/>
@@ -9369,7 +9365,7 @@
         <f>DEC2HEX('ipv4'!G19)</f>
         <v>12</v>
       </c>
-      <c r="H19" s="97"/>
+      <c r="H19" s="99"/>
       <c r="I19" s="66"/>
       <c r="K19" s="12" t="s">
         <v>98</v>
@@ -9378,13 +9374,13 @@
         <f>DEC2HEX('ipv4'!L25)</f>
         <v>2</v>
       </c>
-      <c r="M19" s="121"/>
+      <c r="M19" s="123"/>
       <c r="N19" s="66"/>
       <c r="P19" s="64" t="s">
         <v>108</v>
       </c>
       <c r="Q19" s="42"/>
-      <c r="R19" s="111" t="s">
+      <c r="R19" s="113" t="s">
         <v>73</v>
       </c>
       <c r="S19" s="4" t="s">
@@ -9412,7 +9408,7 @@
         <f>DEC2HEX('ipv4'!G20)</f>
         <v>13</v>
       </c>
-      <c r="H20" s="97"/>
+      <c r="H20" s="99"/>
       <c r="I20" s="66"/>
       <c r="K20" s="12" t="s">
         <v>98</v>
@@ -9421,7 +9417,7 @@
         <f>DEC2HEX('ipv4'!L26)</f>
         <v>3</v>
       </c>
-      <c r="M20" s="121"/>
+      <c r="M20" s="123"/>
       <c r="N20" s="66"/>
       <c r="P20" s="65" t="s">
         <v>108</v>
@@ -9430,7 +9426,7 @@
         <f>DEC2HEX('ipv4'!Q16)</f>
         <v>1</v>
       </c>
-      <c r="R20" s="112"/>
+      <c r="R20" s="114"/>
       <c r="S20" s="41" t="s">
         <v>67</v>
       </c>
@@ -9456,7 +9452,7 @@
         <f>DEC2HEX('ipv4'!G21)</f>
         <v>14</v>
       </c>
-      <c r="H21" s="97"/>
+      <c r="H21" s="99"/>
       <c r="I21" s="66"/>
       <c r="K21" s="12" t="s">
         <v>98</v>
@@ -9465,7 +9461,7 @@
         <f>DEC2HEX('ipv4'!L27)</f>
         <v>4</v>
       </c>
-      <c r="M21" s="121"/>
+      <c r="M21" s="123"/>
       <c r="N21" s="66"/>
       <c r="P21" s="65" t="s">
         <v>108</v>
@@ -9474,7 +9470,7 @@
         <f>DEC2HEX('ipv4'!Q17)</f>
         <v>2</v>
       </c>
-      <c r="R21" s="112"/>
+      <c r="R21" s="114"/>
       <c r="S21" s="41" t="s">
         <v>66</v>
       </c>
@@ -9500,7 +9496,7 @@
         <f>DEC2HEX('ipv4'!G22)</f>
         <v>15</v>
       </c>
-      <c r="H22" s="97"/>
+      <c r="H22" s="99"/>
       <c r="I22" s="66"/>
       <c r="K22" s="12" t="s">
         <v>98</v>
@@ -9509,7 +9505,7 @@
         <f>DEC2HEX('ipv4'!L28)</f>
         <v>5</v>
       </c>
-      <c r="M22" s="122"/>
+      <c r="M22" s="124"/>
       <c r="N22" s="66"/>
       <c r="P22" s="65" t="s">
         <v>108</v>
@@ -9518,7 +9514,7 @@
         <f>DEC2HEX('ipv4'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R22" s="112"/>
+      <c r="R22" s="114"/>
       <c r="S22" s="41" t="s">
         <v>51</v>
       </c>
@@ -9544,7 +9540,7 @@
         <f>DEC2HEX('ipv4'!G23)</f>
         <v>16</v>
       </c>
-      <c r="H23" s="97"/>
+      <c r="H23" s="99"/>
       <c r="I23" s="66"/>
       <c r="M23" s="58"/>
       <c r="P23" s="65" t="s">
@@ -9554,7 +9550,7 @@
         <f>DEC2HEX('ipv4'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R23" s="112"/>
+      <c r="R23" s="114"/>
       <c r="S23" s="41" t="s">
         <v>52</v>
       </c>
@@ -9580,13 +9576,13 @@
         <f>DEC2HEX('ipv4'!G24)</f>
         <v>17</v>
       </c>
-      <c r="H24" s="97"/>
+      <c r="H24" s="99"/>
       <c r="I24" s="66"/>
       <c r="K24" s="11" t="s">
         <v>99</v>
       </c>
       <c r="L24" s="3"/>
-      <c r="M24" s="123" t="s">
+      <c r="M24" s="125" t="s">
         <v>24</v>
       </c>
       <c r="N24" s="4" t="s">
@@ -9597,9 +9593,9 @@
       </c>
       <c r="Q24" s="41" t="str">
         <f>DEC2HEX('ipv4'!Q21)</f>
-        <v>A</v>
-      </c>
-      <c r="R24" s="112"/>
+        <v>6</v>
+      </c>
+      <c r="R24" s="114"/>
       <c r="S24" s="41" t="s">
         <v>53</v>
       </c>
@@ -9625,7 +9621,7 @@
         <f>DEC2HEX('ipv4'!G25)</f>
         <v>18</v>
       </c>
-      <c r="H25" s="97"/>
+      <c r="H25" s="99"/>
       <c r="I25" s="66"/>
       <c r="K25" s="12" t="s">
         <v>99</v>
@@ -9634,16 +9630,16 @@
         <f>DEC2HEX('ipv4'!L33)</f>
         <v>1</v>
       </c>
-      <c r="M25" s="124"/>
+      <c r="M25" s="126"/>
       <c r="N25" s="66"/>
       <c r="P25" s="65" t="s">
         <v>108</v>
       </c>
       <c r="Q25" s="41" t="str">
         <f>DEC2HEX('ipv4'!Q24)</f>
-        <v>D</v>
-      </c>
-      <c r="R25" s="112"/>
+        <v>9</v>
+      </c>
+      <c r="R25" s="114"/>
       <c r="S25" s="41" t="s">
         <v>58</v>
       </c>
@@ -9665,7 +9661,7 @@
         <f>DEC2HEX('ipv4'!G26)</f>
         <v>19</v>
       </c>
-      <c r="H26" s="97"/>
+      <c r="H26" s="99"/>
       <c r="I26" s="66"/>
       <c r="K26" s="12" t="s">
         <v>99</v>
@@ -9674,16 +9670,16 @@
         <f>DEC2HEX('ipv4'!L34)</f>
         <v>2</v>
       </c>
-      <c r="M26" s="124"/>
+      <c r="M26" s="126"/>
       <c r="N26" s="67"/>
       <c r="P26" s="65" t="s">
         <v>108</v>
       </c>
       <c r="Q26" s="41" t="str">
         <f>DEC2HEX('ipv4'!Q25)</f>
-        <v>E</v>
-      </c>
-      <c r="R26" s="112"/>
+        <v>A</v>
+      </c>
+      <c r="R26" s="114"/>
       <c r="S26" s="41" t="s">
         <v>59</v>
       </c>
@@ -9705,13 +9701,13 @@
         <f>DEC2HEX('ipv4'!G27)</f>
         <v>1A</v>
       </c>
-      <c r="H27" s="97"/>
+      <c r="H27" s="99"/>
       <c r="I27" s="66"/>
       <c r="K27" s="11" t="s">
         <v>100</v>
       </c>
       <c r="L27" s="3"/>
-      <c r="M27" s="124"/>
+      <c r="M27" s="126"/>
       <c r="N27" s="4" t="s">
         <v>23</v>
       </c>
@@ -9720,9 +9716,9 @@
       </c>
       <c r="Q27" s="41" t="str">
         <f>DEC2HEX('ipv4'!Q26)</f>
-        <v>F</v>
-      </c>
-      <c r="R27" s="112"/>
+        <v>B</v>
+      </c>
+      <c r="R27" s="114"/>
       <c r="S27" s="41" t="s">
         <v>60</v>
       </c>
@@ -9744,7 +9740,7 @@
         <f>DEC2HEX('ipv4'!G28)</f>
         <v>1B</v>
       </c>
-      <c r="H28" s="97"/>
+      <c r="H28" s="99"/>
       <c r="I28" s="66"/>
       <c r="K28" s="12" t="s">
         <v>100</v>
@@ -9753,13 +9749,13 @@
         <f>DEC2HEX('ipv4'!L38)</f>
         <v>1</v>
       </c>
-      <c r="M28" s="124"/>
+      <c r="M28" s="126"/>
       <c r="N28" s="66"/>
       <c r="P28" s="64" t="s">
         <v>109</v>
       </c>
       <c r="Q28" s="42"/>
-      <c r="R28" s="112"/>
+      <c r="R28" s="114"/>
       <c r="S28" s="4" t="s">
         <v>23</v>
       </c>
@@ -9781,7 +9777,7 @@
         <f>DEC2HEX('ipv4'!G29)</f>
         <v>1C</v>
       </c>
-      <c r="H29" s="97"/>
+      <c r="H29" s="99"/>
       <c r="I29" s="66"/>
       <c r="K29" s="12" t="s">
         <v>100</v>
@@ -9790,7 +9786,7 @@
         <f>DEC2HEX('ipv4'!L39)</f>
         <v>2</v>
       </c>
-      <c r="M29" s="124"/>
+      <c r="M29" s="126"/>
       <c r="N29" s="66"/>
       <c r="P29" s="65" t="s">
         <v>109</v>
@@ -9799,7 +9795,7 @@
         <f>DEC2HEX('ipv4'!Q32)</f>
         <v>1</v>
       </c>
-      <c r="R29" s="112"/>
+      <c r="R29" s="114"/>
       <c r="S29" s="41" t="s">
         <v>68</v>
       </c>
@@ -9821,13 +9817,13 @@
         <f>DEC2HEX('ipv4'!G30)</f>
         <v>1D</v>
       </c>
-      <c r="H30" s="97"/>
+      <c r="H30" s="99"/>
       <c r="I30" s="66"/>
       <c r="K30" s="59" t="s">
         <v>101</v>
       </c>
       <c r="L30" s="60"/>
-      <c r="M30" s="124"/>
+      <c r="M30" s="126"/>
       <c r="N30" s="61" t="s">
         <v>23</v>
       </c>
@@ -9838,7 +9834,7 @@
         <f>DEC2HEX('ipv4'!Q33)</f>
         <v>2</v>
       </c>
-      <c r="R30" s="112"/>
+      <c r="R30" s="114"/>
       <c r="S30" s="41" t="s">
         <v>45</v>
       </c>
@@ -9860,7 +9856,7 @@
         <f>DEC2HEX('ipv4'!G31)</f>
         <v>1E</v>
       </c>
-      <c r="H31" s="98"/>
+      <c r="H31" s="100"/>
       <c r="I31" s="66"/>
       <c r="K31" s="12" t="s">
         <v>101</v>
@@ -9869,7 +9865,7 @@
         <f>DEC2HEX('ipv4'!L43)</f>
         <v>1</v>
       </c>
-      <c r="M31" s="124"/>
+      <c r="M31" s="126"/>
       <c r="N31" s="66"/>
       <c r="P31" s="65" t="s">
         <v>109</v>
@@ -9878,7 +9874,7 @@
         <f>DEC2HEX('ipv4'!Q34)</f>
         <v>3</v>
       </c>
-      <c r="R31" s="112"/>
+      <c r="R31" s="114"/>
       <c r="S31" s="41" t="s">
         <v>54</v>
       </c>
@@ -9904,13 +9900,13 @@
         <f>DEC2HEX('ipv4'!L44)</f>
         <v>2</v>
       </c>
-      <c r="M32" s="125"/>
+      <c r="M32" s="127"/>
       <c r="N32" s="66"/>
       <c r="P32" s="64" t="s">
         <v>110</v>
       </c>
       <c r="Q32" s="42"/>
-      <c r="R32" s="112"/>
+      <c r="R32" s="114"/>
       <c r="S32" s="4" t="s">
         <v>23</v>
       </c>
@@ -9929,7 +9925,7 @@
         <v>86</v>
       </c>
       <c r="G33" s="3"/>
-      <c r="H33" s="117" t="s">
+      <c r="H33" s="119" t="s">
         <v>15</v>
       </c>
       <c r="I33" s="4" t="s">
@@ -9946,7 +9942,7 @@
         <f>DEC2HEX('ipv4'!Q38)</f>
         <v>1</v>
       </c>
-      <c r="R33" s="112"/>
+      <c r="R33" s="114"/>
       <c r="S33" s="41" t="s">
         <v>70</v>
       </c>
@@ -9968,7 +9964,7 @@
         <f>DEC2HEX('ipv4'!G36)</f>
         <v>1</v>
       </c>
-      <c r="H34" s="118"/>
+      <c r="H34" s="120"/>
       <c r="I34" s="66"/>
       <c r="P34" s="65" t="s">
         <v>110</v>
@@ -9977,7 +9973,7 @@
         <f>DEC2HEX('ipv4'!Q39)</f>
         <v>2</v>
       </c>
-      <c r="R34" s="112"/>
+      <c r="R34" s="114"/>
       <c r="S34" s="41" t="s">
         <v>71</v>
       </c>
@@ -9999,7 +9995,7 @@
         <f>DEC2HEX('ipv4'!G37)</f>
         <v>2</v>
       </c>
-      <c r="H35" s="118"/>
+      <c r="H35" s="120"/>
       <c r="I35" s="66"/>
       <c r="P35" s="65" t="s">
         <v>110</v>
@@ -10008,7 +10004,7 @@
         <f>DEC2HEX('ipv4'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R35" s="112"/>
+      <c r="R35" s="114"/>
       <c r="S35" s="41" t="s">
         <v>47</v>
       </c>
@@ -10030,7 +10026,7 @@
         <f>DEC2HEX('ipv4'!G38)</f>
         <v>3</v>
       </c>
-      <c r="H36" s="118"/>
+      <c r="H36" s="120"/>
       <c r="I36" s="66"/>
       <c r="P36" s="65" t="s">
         <v>110</v>
@@ -10039,7 +10035,7 @@
         <f>DEC2HEX('ipv4'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R36" s="112"/>
+      <c r="R36" s="114"/>
       <c r="S36" s="41" t="s">
         <v>48</v>
       </c>
@@ -10061,7 +10057,7 @@
         <f>DEC2HEX('ipv4'!G39)</f>
         <v>4</v>
       </c>
-      <c r="H37" s="118"/>
+      <c r="H37" s="120"/>
       <c r="I37" s="66"/>
       <c r="P37" s="65" t="s">
         <v>110</v>
@@ -10070,7 +10066,7 @@
         <f>DEC2HEX('ipv4'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R37" s="112"/>
+      <c r="R37" s="114"/>
       <c r="S37" s="41" t="s">
         <v>49</v>
       </c>
@@ -10092,7 +10088,7 @@
         <f>DEC2HEX('ipv4'!G40)</f>
         <v>5</v>
       </c>
-      <c r="H38" s="118"/>
+      <c r="H38" s="120"/>
       <c r="I38" s="66"/>
       <c r="P38" s="65" t="s">
         <v>110</v>
@@ -10101,7 +10097,7 @@
         <f>DEC2HEX('ipv4'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R38" s="112"/>
+      <c r="R38" s="114"/>
       <c r="S38" s="41" t="s">
         <v>50</v>
       </c>
@@ -10123,7 +10119,7 @@
         <f>DEC2HEX('ipv4'!G41)</f>
         <v>6</v>
       </c>
-      <c r="H39" s="118"/>
+      <c r="H39" s="120"/>
       <c r="I39" s="66"/>
       <c r="P39" s="65" t="s">
         <v>110</v>
@@ -10132,7 +10128,7 @@
         <f>DEC2HEX('ipv4'!Q40)</f>
         <v>3</v>
       </c>
-      <c r="R39" s="112"/>
+      <c r="R39" s="114"/>
       <c r="S39" s="41" t="s">
         <v>57</v>
       </c>
@@ -10154,7 +10150,7 @@
         <f>DEC2HEX('ipv4'!G42)</f>
         <v>7</v>
       </c>
-      <c r="H40" s="118"/>
+      <c r="H40" s="120"/>
       <c r="I40" s="66"/>
       <c r="P40" s="65" t="s">
         <v>110</v>
@@ -10163,7 +10159,7 @@
         <f>DEC2HEX('ipv4'!Q41)</f>
         <v>4</v>
       </c>
-      <c r="R40" s="112"/>
+      <c r="R40" s="114"/>
       <c r="S40" s="41" t="s">
         <v>56</v>
       </c>
@@ -10185,13 +10181,13 @@
         <f>DEC2HEX('ipv4'!G43)</f>
         <v>8</v>
       </c>
-      <c r="H41" s="118"/>
+      <c r="H41" s="120"/>
       <c r="I41" s="66"/>
       <c r="P41" s="64" t="s">
         <v>111</v>
       </c>
       <c r="Q41" s="42"/>
-      <c r="R41" s="112"/>
+      <c r="R41" s="114"/>
       <c r="S41" s="4" t="s">
         <v>23</v>
       </c>
@@ -10213,7 +10209,7 @@
         <f>DEC2HEX('ipv4'!G44)</f>
         <v>9</v>
       </c>
-      <c r="H42" s="118"/>
+      <c r="H42" s="120"/>
       <c r="I42" s="66"/>
       <c r="P42" s="65" t="s">
         <v>111</v>
@@ -10222,7 +10218,7 @@
         <f>DEC2HEX('ipv4'!Q50)</f>
         <v>1</v>
       </c>
-      <c r="R42" s="112"/>
+      <c r="R42" s="114"/>
       <c r="S42" s="41" t="s">
         <v>46</v>
       </c>
@@ -10244,7 +10240,7 @@
         <f>DEC2HEX('ipv4'!G45)</f>
         <v>A</v>
       </c>
-      <c r="H43" s="119"/>
+      <c r="H43" s="121"/>
       <c r="I43" s="66"/>
       <c r="P43" s="65" t="s">
         <v>111</v>
@@ -10253,7 +10249,7 @@
         <f>DEC2HEX('ipv4'!Q51)</f>
         <v>2</v>
       </c>
-      <c r="R43" s="113"/>
+      <c r="R43" s="115"/>
       <c r="S43" s="41" t="s">
         <v>55</v>
       </c>

--- a/Documentations/VLANs/VLSM-tablazat.xlsx
+++ b/Documentations/VLANs/VLSM-tablazat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doboz\Desktop\aromas-cubanos\Documentations\VLANs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\aromas-cubanos\Documentations\VLANs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C063EA-1CD1-4EE6-A651-5795D14142D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76C0E8A-D68D-48B1-AE24-D8DF1784ED8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5295" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{012D1D82-EB97-4B95-AC21-450975C8649A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{012D1D82-EB97-4B95-AC21-450975C8649A}"/>
   </bookViews>
   <sheets>
     <sheet name="plain" sheetId="1" r:id="rId1"/>
@@ -22,23 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="125">
   <si>
     <t>/30</t>
   </si>
@@ -407,6 +396,12 @@
   </si>
   <si>
     <t>2001:db8:1984::</t>
+  </si>
+  <si>
+    <t>RF Virtual GW</t>
+  </si>
+  <si>
+    <t>RV Virtual GW</t>
   </si>
 </sst>
 </file>
@@ -613,7 +608,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -869,12 +864,27 @@
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1026,15 +1036,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1098,33 +1099,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1161,6 +1135,55 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Jó" xfId="1" builtinId="26"/>
@@ -1170,10 +1193,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFD9E1F2"/>
       <color rgb="FFE7FE5E"/>
       <color rgb="FFF36969"/>
       <color rgb="FFF03E3E"/>
-      <color rgb="FFD9E1F2"/>
       <color rgb="FFFFB9B9"/>
       <color rgb="FFFFFF99"/>
       <color rgb="FFFFFF66"/>
@@ -1191,9 +1214,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1231,7 +1254,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1337,7 +1360,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1479,7 +1502,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5051,52 +5074,61 @@
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="C142:C145"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="C178:C181"/>
-    <mergeCell ref="C182:C185"/>
-    <mergeCell ref="C186:C189"/>
-    <mergeCell ref="C190:C193"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="C154:C157"/>
-    <mergeCell ref="C158:C161"/>
-    <mergeCell ref="C162:C165"/>
-    <mergeCell ref="C166:C169"/>
+    <mergeCell ref="H2:H129"/>
+    <mergeCell ref="H130:H257"/>
+    <mergeCell ref="F162:F193"/>
+    <mergeCell ref="F194:F225"/>
+    <mergeCell ref="F226:F257"/>
+    <mergeCell ref="G2:G65"/>
+    <mergeCell ref="G66:G129"/>
+    <mergeCell ref="G130:G193"/>
+    <mergeCell ref="G194:G257"/>
+    <mergeCell ref="E178:E193"/>
+    <mergeCell ref="E194:E209"/>
+    <mergeCell ref="E210:E225"/>
+    <mergeCell ref="E226:E241"/>
+    <mergeCell ref="E242:E257"/>
+    <mergeCell ref="F2:F33"/>
+    <mergeCell ref="F34:F65"/>
+    <mergeCell ref="F66:F97"/>
+    <mergeCell ref="F98:F129"/>
+    <mergeCell ref="F130:F161"/>
+    <mergeCell ref="E82:E97"/>
+    <mergeCell ref="E98:E113"/>
+    <mergeCell ref="E114:E129"/>
+    <mergeCell ref="E130:E145"/>
+    <mergeCell ref="E146:E161"/>
+    <mergeCell ref="E162:E177"/>
+    <mergeCell ref="E2:E17"/>
+    <mergeCell ref="E18:E33"/>
+    <mergeCell ref="E34:E49"/>
+    <mergeCell ref="E50:E65"/>
+    <mergeCell ref="E66:E81"/>
+    <mergeCell ref="D242:D249"/>
+    <mergeCell ref="D250:D257"/>
+    <mergeCell ref="D194:D201"/>
+    <mergeCell ref="D202:D209"/>
+    <mergeCell ref="D210:D217"/>
+    <mergeCell ref="D218:D225"/>
+    <mergeCell ref="D226:D233"/>
+    <mergeCell ref="D234:D241"/>
+    <mergeCell ref="D146:D153"/>
+    <mergeCell ref="D154:D161"/>
+    <mergeCell ref="D162:D169"/>
+    <mergeCell ref="D170:D177"/>
+    <mergeCell ref="D178:D185"/>
+    <mergeCell ref="D186:D193"/>
+    <mergeCell ref="D106:D113"/>
+    <mergeCell ref="D114:D121"/>
+    <mergeCell ref="D122:D129"/>
+    <mergeCell ref="D130:D137"/>
+    <mergeCell ref="D138:D145"/>
+    <mergeCell ref="D50:D57"/>
+    <mergeCell ref="D58:D65"/>
+    <mergeCell ref="D66:D73"/>
+    <mergeCell ref="D74:D81"/>
+    <mergeCell ref="D82:D89"/>
+    <mergeCell ref="D90:D97"/>
     <mergeCell ref="C242:C245"/>
     <mergeCell ref="C246:C249"/>
     <mergeCell ref="C250:C253"/>
@@ -5121,61 +5153,52 @@
     <mergeCell ref="C170:C173"/>
     <mergeCell ref="C174:C177"/>
     <mergeCell ref="D98:D105"/>
-    <mergeCell ref="D106:D113"/>
-    <mergeCell ref="D114:D121"/>
-    <mergeCell ref="D122:D129"/>
-    <mergeCell ref="D130:D137"/>
-    <mergeCell ref="D138:D145"/>
-    <mergeCell ref="D50:D57"/>
-    <mergeCell ref="D58:D65"/>
-    <mergeCell ref="D66:D73"/>
-    <mergeCell ref="D74:D81"/>
-    <mergeCell ref="D82:D89"/>
-    <mergeCell ref="D90:D97"/>
-    <mergeCell ref="D242:D249"/>
-    <mergeCell ref="D250:D257"/>
-    <mergeCell ref="D194:D201"/>
-    <mergeCell ref="D202:D209"/>
-    <mergeCell ref="D210:D217"/>
-    <mergeCell ref="D218:D225"/>
-    <mergeCell ref="D226:D233"/>
-    <mergeCell ref="D234:D241"/>
-    <mergeCell ref="D146:D153"/>
-    <mergeCell ref="D154:D161"/>
-    <mergeCell ref="D162:D169"/>
-    <mergeCell ref="D170:D177"/>
-    <mergeCell ref="D178:D185"/>
-    <mergeCell ref="D186:D193"/>
-    <mergeCell ref="E178:E193"/>
-    <mergeCell ref="E194:E209"/>
-    <mergeCell ref="E210:E225"/>
-    <mergeCell ref="E226:E241"/>
-    <mergeCell ref="E242:E257"/>
-    <mergeCell ref="F2:F33"/>
-    <mergeCell ref="F34:F65"/>
-    <mergeCell ref="F66:F97"/>
-    <mergeCell ref="F98:F129"/>
-    <mergeCell ref="F130:F161"/>
-    <mergeCell ref="E82:E97"/>
-    <mergeCell ref="E98:E113"/>
-    <mergeCell ref="E114:E129"/>
-    <mergeCell ref="E130:E145"/>
-    <mergeCell ref="E146:E161"/>
-    <mergeCell ref="E162:E177"/>
-    <mergeCell ref="E2:E17"/>
-    <mergeCell ref="E18:E33"/>
-    <mergeCell ref="E34:E49"/>
-    <mergeCell ref="E50:E65"/>
-    <mergeCell ref="E66:E81"/>
-    <mergeCell ref="H2:H129"/>
-    <mergeCell ref="H130:H257"/>
-    <mergeCell ref="F162:F193"/>
-    <mergeCell ref="F194:F225"/>
-    <mergeCell ref="F226:F257"/>
-    <mergeCell ref="G2:G65"/>
-    <mergeCell ref="G66:G129"/>
-    <mergeCell ref="G130:G193"/>
-    <mergeCell ref="G194:G257"/>
+    <mergeCell ref="C178:C181"/>
+    <mergeCell ref="C182:C185"/>
+    <mergeCell ref="C186:C189"/>
+    <mergeCell ref="C190:C193"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="C154:C157"/>
+    <mergeCell ref="C158:C161"/>
+    <mergeCell ref="C162:C165"/>
+    <mergeCell ref="C166:C169"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -5186,8 +5209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709A4C10-0955-4D97-86D1-D5085866A222}">
   <dimension ref="A1:AD148"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB7" sqref="AB7:AB10"/>
+    <sheetView tabSelected="1" topLeftCell="J34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB42" sqref="AB42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5241,7 +5264,7 @@
       <c r="G1" s="3">
         <v>0</v>
       </c>
-      <c r="H1" s="84" t="s">
+      <c r="H1" s="81" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -5253,7 +5276,7 @@
       <c r="L1" s="3">
         <v>0</v>
       </c>
-      <c r="M1" s="90" t="s">
+      <c r="M1" s="87" t="s">
         <v>17</v>
       </c>
       <c r="N1" s="4" t="s">
@@ -5265,7 +5288,7 @@
       <c r="Q1" s="33">
         <v>0</v>
       </c>
-      <c r="R1" s="96" t="s">
+      <c r="R1" s="93" t="s">
         <v>18</v>
       </c>
       <c r="S1" s="4" t="s">
@@ -5287,7 +5310,7 @@
       <c r="G2" s="6">
         <v>1</v>
       </c>
-      <c r="H2" s="85"/>
+      <c r="H2" s="82"/>
       <c r="I2" s="7"/>
       <c r="K2" s="10" t="s">
         <v>74</v>
@@ -5295,7 +5318,7 @@
       <c r="L2" s="6">
         <v>1</v>
       </c>
-      <c r="M2" s="91"/>
+      <c r="M2" s="88"/>
       <c r="N2" s="7"/>
       <c r="P2" s="10" t="s">
         <v>81</v>
@@ -5303,16 +5326,16 @@
       <c r="Q2" s="32">
         <v>1</v>
       </c>
-      <c r="R2" s="97"/>
+      <c r="R2" s="94"/>
       <c r="S2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" s="78" t="s">
+      <c r="AA2" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="79"/>
-      <c r="AD2" s="80"/>
+      <c r="AB2" s="76"/>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="77"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -5329,7 +5352,7 @@
       <c r="G3" s="6">
         <v>2</v>
       </c>
-      <c r="H3" s="85"/>
+      <c r="H3" s="82"/>
       <c r="I3" s="7"/>
       <c r="K3" s="10" t="s">
         <v>74</v>
@@ -5337,7 +5360,7 @@
       <c r="L3" s="6">
         <v>2</v>
       </c>
-      <c r="M3" s="91"/>
+      <c r="M3" s="88"/>
       <c r="N3" s="7"/>
       <c r="P3" s="10" t="s">
         <v>81</v>
@@ -5345,7 +5368,7 @@
       <c r="Q3" s="32">
         <v>2</v>
       </c>
-      <c r="R3" s="97"/>
+      <c r="R3" s="94"/>
       <c r="S3" s="7" t="s">
         <v>33</v>
       </c>
@@ -5377,7 +5400,7 @@
       <c r="G4" s="6">
         <v>3</v>
       </c>
-      <c r="H4" s="85"/>
+      <c r="H4" s="82"/>
       <c r="I4" s="7"/>
       <c r="K4" s="10" t="s">
         <v>74</v>
@@ -5385,7 +5408,7 @@
       <c r="L4" s="6">
         <v>3</v>
       </c>
-      <c r="M4" s="91"/>
+      <c r="M4" s="88"/>
       <c r="N4" s="7"/>
       <c r="P4" s="10" t="s">
         <v>81</v>
@@ -5393,7 +5416,7 @@
       <c r="Q4" s="32">
         <v>3</v>
       </c>
-      <c r="R4" s="97"/>
+      <c r="R4" s="94"/>
       <c r="S4" s="7"/>
       <c r="AA4" s="18">
         <v>10</v>
@@ -5423,7 +5446,7 @@
       <c r="G5" s="6">
         <v>4</v>
       </c>
-      <c r="H5" s="85"/>
+      <c r="H5" s="82"/>
       <c r="I5" s="7"/>
       <c r="K5" s="10" t="s">
         <v>74</v>
@@ -5431,7 +5454,7 @@
       <c r="L5" s="6">
         <v>4</v>
       </c>
-      <c r="M5" s="91"/>
+      <c r="M5" s="88"/>
       <c r="N5" s="7"/>
       <c r="P5" s="10" t="s">
         <v>81</v>
@@ -5439,7 +5462,7 @@
       <c r="Q5" s="32">
         <v>4</v>
       </c>
-      <c r="R5" s="97"/>
+      <c r="R5" s="94"/>
       <c r="S5" s="7"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -5457,7 +5480,7 @@
       <c r="G6" s="6">
         <v>5</v>
       </c>
-      <c r="H6" s="85"/>
+      <c r="H6" s="82"/>
       <c r="I6" s="7"/>
       <c r="K6" s="23" t="s">
         <v>74</v>
@@ -5465,7 +5488,7 @@
       <c r="L6" s="24">
         <v>254</v>
       </c>
-      <c r="M6" s="91"/>
+      <c r="M6" s="88"/>
       <c r="N6" s="25" t="s">
         <v>42</v>
       </c>
@@ -5475,14 +5498,14 @@
       <c r="Q6" s="59">
         <v>254</v>
       </c>
-      <c r="R6" s="97"/>
+      <c r="R6" s="94"/>
       <c r="S6" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AA6" s="82" t="s">
+      <c r="AA6" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="AB6" s="83"/>
+      <c r="AB6" s="80"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -5499,7 +5522,7 @@
       <c r="G7" s="6">
         <v>6</v>
       </c>
-      <c r="H7" s="85"/>
+      <c r="H7" s="82"/>
       <c r="I7" s="7"/>
       <c r="K7" s="9" t="s">
         <v>74</v>
@@ -5507,7 +5530,7 @@
       <c r="L7" s="3">
         <v>255</v>
       </c>
-      <c r="M7" s="91"/>
+      <c r="M7" s="88"/>
       <c r="N7" s="4" t="s">
         <v>19</v>
       </c>
@@ -5517,7 +5540,7 @@
       <c r="Q7" s="33">
         <v>255</v>
       </c>
-      <c r="R7" s="98"/>
+      <c r="R7" s="95"/>
       <c r="S7" s="4" t="s">
         <v>19</v>
       </c>
@@ -5543,7 +5566,7 @@
       <c r="G8" s="6">
         <v>7</v>
       </c>
-      <c r="H8" s="85"/>
+      <c r="H8" s="82"/>
       <c r="I8" s="7"/>
       <c r="K8" s="9" t="s">
         <v>75</v>
@@ -5551,7 +5574,7 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="91"/>
+      <c r="M8" s="88"/>
       <c r="N8" s="4" t="s">
         <v>23</v>
       </c>
@@ -5577,7 +5600,7 @@
       <c r="G9" s="6">
         <v>8</v>
       </c>
-      <c r="H9" s="85"/>
+      <c r="H9" s="82"/>
       <c r="I9" s="7"/>
       <c r="K9" s="10" t="s">
         <v>75</v>
@@ -5585,7 +5608,7 @@
       <c r="L9" s="6">
         <v>1</v>
       </c>
-      <c r="M9" s="91"/>
+      <c r="M9" s="88"/>
       <c r="N9" s="7"/>
       <c r="P9" s="53" t="s">
         <v>101</v>
@@ -5593,7 +5616,7 @@
       <c r="Q9" s="33">
         <v>0</v>
       </c>
-      <c r="R9" s="92" t="s">
+      <c r="R9" s="89" t="s">
         <v>20</v>
       </c>
       <c r="S9" s="4" t="s">
@@ -5621,7 +5644,7 @@
       <c r="G10" s="6">
         <v>9</v>
       </c>
-      <c r="H10" s="85"/>
+      <c r="H10" s="82"/>
       <c r="I10" s="7"/>
       <c r="K10" s="10" t="s">
         <v>75</v>
@@ -5629,7 +5652,7 @@
       <c r="L10" s="6">
         <v>2</v>
       </c>
-      <c r="M10" s="91"/>
+      <c r="M10" s="88"/>
       <c r="N10" s="7"/>
       <c r="P10" s="54" t="s">
         <v>101</v>
@@ -5637,7 +5660,7 @@
       <c r="Q10" s="32">
         <v>1</v>
       </c>
-      <c r="R10" s="92"/>
+      <c r="R10" s="89"/>
       <c r="S10" s="7" t="s">
         <v>21</v>
       </c>
@@ -5663,7 +5686,7 @@
       <c r="G11" s="6">
         <v>10</v>
       </c>
-      <c r="H11" s="85"/>
+      <c r="H11" s="82"/>
       <c r="I11" s="7"/>
       <c r="K11" s="10" t="s">
         <v>75</v>
@@ -5671,7 +5694,7 @@
       <c r="L11" s="6">
         <v>3</v>
       </c>
-      <c r="M11" s="91"/>
+      <c r="M11" s="88"/>
       <c r="N11" s="7"/>
       <c r="P11" s="54" t="s">
         <v>101</v>
@@ -5679,7 +5702,7 @@
       <c r="Q11" s="32">
         <v>2</v>
       </c>
-      <c r="R11" s="92"/>
+      <c r="R11" s="89"/>
       <c r="S11" s="7" t="s">
         <v>22</v>
       </c>
@@ -5699,7 +5722,7 @@
       <c r="G12" s="6">
         <v>11</v>
       </c>
-      <c r="H12" s="85"/>
+      <c r="H12" s="82"/>
       <c r="I12" s="7"/>
       <c r="K12" s="10" t="s">
         <v>75</v>
@@ -5707,7 +5730,7 @@
       <c r="L12" s="6">
         <v>4</v>
       </c>
-      <c r="M12" s="91"/>
+      <c r="M12" s="88"/>
       <c r="N12" s="7"/>
       <c r="P12" s="69" t="s">
         <v>101</v>
@@ -5715,7 +5738,7 @@
       <c r="Q12" s="34">
         <v>254</v>
       </c>
-      <c r="R12" s="92"/>
+      <c r="R12" s="89"/>
       <c r="S12" s="28" t="s">
         <v>42</v>
       </c>
@@ -5739,7 +5762,7 @@
       <c r="G13" s="6">
         <v>12</v>
       </c>
-      <c r="H13" s="85"/>
+      <c r="H13" s="82"/>
       <c r="I13" s="7"/>
       <c r="K13" s="23" t="s">
         <v>75</v>
@@ -5747,7 +5770,7 @@
       <c r="L13" s="24">
         <v>254</v>
       </c>
-      <c r="M13" s="91"/>
+      <c r="M13" s="88"/>
       <c r="N13" s="25" t="s">
         <v>42</v>
       </c>
@@ -5757,7 +5780,7 @@
       <c r="Q13" s="33">
         <v>255</v>
       </c>
-      <c r="R13" s="92"/>
+      <c r="R13" s="89"/>
       <c r="S13" s="4" t="s">
         <v>19</v>
       </c>
@@ -5781,7 +5804,7 @@
       <c r="G14" s="6">
         <v>13</v>
       </c>
-      <c r="H14" s="85"/>
+      <c r="H14" s="82"/>
       <c r="I14" s="7"/>
       <c r="K14" s="9" t="s">
         <v>75</v>
@@ -5789,7 +5812,7 @@
       <c r="L14" s="3">
         <v>255</v>
       </c>
-      <c r="M14" s="91"/>
+      <c r="M14" s="88"/>
       <c r="N14" s="4" t="s">
         <v>19</v>
       </c>
@@ -5813,7 +5836,7 @@
       <c r="G15" s="6">
         <v>14</v>
       </c>
-      <c r="H15" s="85"/>
+      <c r="H15" s="82"/>
       <c r="I15" s="7"/>
       <c r="K15" s="9" t="s">
         <v>76</v>
@@ -5821,7 +5844,7 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="91"/>
+      <c r="M15" s="88"/>
       <c r="N15" s="4" t="s">
         <v>23</v>
       </c>
@@ -5831,15 +5854,13 @@
       <c r="Q15" s="58">
         <v>0</v>
       </c>
-      <c r="R15" s="75" t="s">
+      <c r="R15" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="S15" s="57" t="s">
+      <c r="S15" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="T15" s="61" t="s">
-        <v>1</v>
-      </c>
+      <c r="T15" s="125"/>
       <c r="AA15" s="38"/>
       <c r="AB15" s="38"/>
       <c r="AC15" s="38"/>
@@ -5860,7 +5881,7 @@
       <c r="G16" s="6">
         <v>15</v>
       </c>
-      <c r="H16" s="85"/>
+      <c r="H16" s="82"/>
       <c r="I16" s="7"/>
       <c r="K16" s="10" t="s">
         <v>76</v>
@@ -5868,7 +5889,7 @@
       <c r="L16" s="6">
         <v>1</v>
       </c>
-      <c r="M16" s="91"/>
+      <c r="M16" s="88"/>
       <c r="N16" s="7"/>
       <c r="P16" s="32" t="s">
         <v>62</v>
@@ -5876,11 +5897,11 @@
       <c r="Q16" s="32">
         <v>1</v>
       </c>
-      <c r="R16" s="75"/>
-      <c r="S16" s="32" t="s">
+      <c r="R16" s="112"/>
+      <c r="S16" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="T16" s="62"/>
+      <c r="T16" s="125"/>
       <c r="AA16" s="38"/>
       <c r="AB16" s="38"/>
       <c r="AC16" s="38"/>
@@ -5900,7 +5921,7 @@
       <c r="G17" s="6">
         <v>16</v>
       </c>
-      <c r="H17" s="85"/>
+      <c r="H17" s="82"/>
       <c r="I17" s="7"/>
       <c r="K17" s="10" t="s">
         <v>76</v>
@@ -5908,7 +5929,7 @@
       <c r="L17" s="6">
         <v>2</v>
       </c>
-      <c r="M17" s="91"/>
+      <c r="M17" s="88"/>
       <c r="N17" s="7"/>
       <c r="P17" s="32" t="s">
         <v>62</v>
@@ -5916,11 +5937,11 @@
       <c r="Q17" s="32">
         <v>2</v>
       </c>
-      <c r="R17" s="75"/>
-      <c r="S17" s="32" t="s">
+      <c r="R17" s="112"/>
+      <c r="S17" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="T17" s="62"/>
+      <c r="T17" s="125"/>
       <c r="AA17" s="36"/>
       <c r="AB17" s="37"/>
       <c r="AC17" s="37"/>
@@ -5940,7 +5961,7 @@
       <c r="G18" s="6">
         <v>17</v>
       </c>
-      <c r="H18" s="85"/>
+      <c r="H18" s="82"/>
       <c r="I18" s="7"/>
       <c r="K18" s="10" t="s">
         <v>76</v>
@@ -5948,7 +5969,7 @@
       <c r="L18" s="6">
         <v>3</v>
       </c>
-      <c r="M18" s="91"/>
+      <c r="M18" s="88"/>
       <c r="N18" s="7"/>
       <c r="P18" s="32" t="s">
         <v>62</v>
@@ -5956,11 +5977,11 @@
       <c r="Q18" s="32">
         <v>3</v>
       </c>
-      <c r="R18" s="75"/>
-      <c r="S18" s="32" t="s">
+      <c r="R18" s="112"/>
+      <c r="S18" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="T18" s="62"/>
+      <c r="T18" s="125"/>
       <c r="AA18" s="22"/>
       <c r="AB18" s="22"/>
       <c r="AC18" s="22"/>
@@ -5981,7 +6002,7 @@
       <c r="G19" s="6">
         <v>18</v>
       </c>
-      <c r="H19" s="85"/>
+      <c r="H19" s="82"/>
       <c r="I19" s="7"/>
       <c r="K19" s="10" t="s">
         <v>76</v>
@@ -5989,7 +6010,7 @@
       <c r="L19" s="6">
         <v>4</v>
       </c>
-      <c r="M19" s="91"/>
+      <c r="M19" s="88"/>
       <c r="N19" s="7"/>
       <c r="P19" s="32" t="s">
         <v>62</v>
@@ -5997,9 +6018,9 @@
       <c r="Q19" s="32">
         <v>4</v>
       </c>
-      <c r="R19" s="75"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="62"/>
+      <c r="R19" s="112"/>
+      <c r="S19" s="121"/>
+      <c r="T19" s="125"/>
       <c r="AA19" s="22"/>
       <c r="AB19" s="22"/>
       <c r="AC19" s="22"/>
@@ -6020,7 +6041,7 @@
       <c r="G20" s="6">
         <v>19</v>
       </c>
-      <c r="H20" s="85"/>
+      <c r="H20" s="82"/>
       <c r="I20" s="7"/>
       <c r="K20" s="23" t="s">
         <v>76</v>
@@ -6028,7 +6049,7 @@
       <c r="L20" s="24">
         <v>254</v>
       </c>
-      <c r="M20" s="91"/>
+      <c r="M20" s="88"/>
       <c r="N20" s="25" t="s">
         <v>42</v>
       </c>
@@ -6038,9 +6059,9 @@
       <c r="Q20" s="32">
         <v>5</v>
       </c>
-      <c r="R20" s="75"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="62"/>
+      <c r="R20" s="112"/>
+      <c r="S20" s="121"/>
+      <c r="T20" s="125"/>
       <c r="AA20" s="22"/>
       <c r="AB20" s="22"/>
       <c r="AC20" s="22"/>
@@ -6061,7 +6082,7 @@
       <c r="G21" s="6">
         <v>20</v>
       </c>
-      <c r="H21" s="85"/>
+      <c r="H21" s="82"/>
       <c r="I21" s="7"/>
       <c r="K21" s="9" t="s">
         <v>76</v>
@@ -6069,7 +6090,7 @@
       <c r="L21" s="3">
         <v>255</v>
       </c>
-      <c r="M21" s="91"/>
+      <c r="M21" s="88"/>
       <c r="N21" s="4" t="s">
         <v>19</v>
       </c>
@@ -6079,8 +6100,9 @@
       <c r="Q21" s="32">
         <v>6</v>
       </c>
-      <c r="R21" s="75"/>
-      <c r="T21" s="62"/>
+      <c r="R21" s="112"/>
+      <c r="S21" s="121"/>
+      <c r="T21" s="125"/>
       <c r="AA21" s="22"/>
       <c r="AB21" s="22"/>
       <c r="AC21" s="22"/>
@@ -6101,19 +6123,17 @@
       <c r="G22" s="6">
         <v>21</v>
       </c>
-      <c r="H22" s="85"/>
+      <c r="H22" s="82"/>
       <c r="I22" s="7"/>
-      <c r="P22" s="58" t="s">
+      <c r="P22" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="Q22" s="58">
+      <c r="Q22" s="32">
         <v>7</v>
       </c>
-      <c r="R22" s="75"/>
-      <c r="S22" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="T22" s="63"/>
+      <c r="R22" s="112"/>
+      <c r="S22" s="121"/>
+      <c r="T22" s="125"/>
       <c r="AA22" s="22"/>
       <c r="AB22" s="22"/>
       <c r="AC22" s="22"/>
@@ -6134,7 +6154,7 @@
       <c r="G23" s="6">
         <v>22</v>
       </c>
-      <c r="H23" s="85"/>
+      <c r="H23" s="82"/>
       <c r="I23" s="7"/>
       <c r="K23" s="9" t="s">
         <v>77</v>
@@ -6142,25 +6162,21 @@
       <c r="L23" s="3">
         <v>0</v>
       </c>
-      <c r="M23" s="81" t="s">
+      <c r="M23" s="78" t="s">
         <v>16</v>
       </c>
       <c r="N23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P23" s="58" t="s">
+      <c r="P23" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="Q23" s="58">
+      <c r="Q23" s="32">
         <v>8</v>
       </c>
-      <c r="R23" s="75"/>
-      <c r="S23" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="T23" s="61" t="s">
-        <v>0</v>
-      </c>
+      <c r="R23" s="112"/>
+      <c r="S23" s="121"/>
+      <c r="T23" s="125"/>
       <c r="AC23" s="22"/>
       <c r="AD23" s="22"/>
     </row>
@@ -6179,7 +6195,7 @@
       <c r="G24" s="6">
         <v>23</v>
       </c>
-      <c r="H24" s="85"/>
+      <c r="H24" s="82"/>
       <c r="I24" s="7"/>
       <c r="K24" s="10" t="s">
         <v>77</v>
@@ -6187,7 +6203,7 @@
       <c r="L24" s="6">
         <v>1</v>
       </c>
-      <c r="M24" s="81"/>
+      <c r="M24" s="78"/>
       <c r="N24" s="7"/>
       <c r="P24" s="32" t="s">
         <v>62</v>
@@ -6195,11 +6211,11 @@
       <c r="Q24" s="32">
         <v>9</v>
       </c>
-      <c r="R24" s="75"/>
-      <c r="S24" s="32" t="s">
+      <c r="R24" s="112"/>
+      <c r="S24" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="T24" s="62"/>
+      <c r="T24" s="125"/>
       <c r="AC24" s="22"/>
       <c r="AD24" s="22"/>
     </row>
@@ -6218,7 +6234,7 @@
       <c r="G25" s="6">
         <v>24</v>
       </c>
-      <c r="H25" s="85"/>
+      <c r="H25" s="82"/>
       <c r="I25" s="7"/>
       <c r="K25" s="10" t="s">
         <v>77</v>
@@ -6226,7 +6242,7 @@
       <c r="L25" s="6">
         <v>2</v>
       </c>
-      <c r="M25" s="81"/>
+      <c r="M25" s="78"/>
       <c r="N25" s="7"/>
       <c r="P25" s="32" t="s">
         <v>62</v>
@@ -6234,11 +6250,11 @@
       <c r="Q25" s="32">
         <v>10</v>
       </c>
-      <c r="R25" s="75"/>
-      <c r="S25" s="32" t="s">
+      <c r="R25" s="112"/>
+      <c r="S25" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="T25" s="62"/>
+      <c r="T25" s="125"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
@@ -6255,7 +6271,7 @@
       <c r="G26" s="6">
         <v>25</v>
       </c>
-      <c r="H26" s="85"/>
+      <c r="H26" s="82"/>
       <c r="I26" s="7"/>
       <c r="K26" s="10" t="s">
         <v>77</v>
@@ -6263,19 +6279,17 @@
       <c r="L26" s="6">
         <v>3</v>
       </c>
-      <c r="M26" s="81"/>
+      <c r="M26" s="78"/>
       <c r="N26" s="7"/>
-      <c r="P26" s="58" t="s">
+      <c r="P26" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="Q26" s="58">
+      <c r="Q26" s="32">
         <v>11</v>
       </c>
-      <c r="R26" s="75"/>
-      <c r="S26" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="T26" s="62"/>
+      <c r="R26" s="112"/>
+      <c r="S26" s="121"/>
+      <c r="T26" s="125"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
@@ -6292,7 +6306,7 @@
       <c r="G27" s="6">
         <v>26</v>
       </c>
-      <c r="H27" s="85"/>
+      <c r="H27" s="82"/>
       <c r="I27" s="7"/>
       <c r="K27" s="10" t="s">
         <v>77</v>
@@ -6300,21 +6314,17 @@
       <c r="L27" s="6">
         <v>4</v>
       </c>
-      <c r="M27" s="81"/>
+      <c r="M27" s="78"/>
       <c r="N27" s="7"/>
-      <c r="P27" s="58" t="s">
+      <c r="P27" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="Q27" s="58">
+      <c r="Q27" s="32">
         <v>12</v>
       </c>
-      <c r="R27" s="75"/>
-      <c r="S27" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="T27" s="61" t="s">
-        <v>0</v>
-      </c>
+      <c r="R27" s="112"/>
+      <c r="S27" s="121"/>
+      <c r="T27" s="125"/>
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
@@ -6331,7 +6341,7 @@
       <c r="G28" s="6">
         <v>27</v>
       </c>
-      <c r="H28" s="85"/>
+      <c r="H28" s="82"/>
       <c r="I28" s="7"/>
       <c r="K28" s="10" t="s">
         <v>77</v>
@@ -6339,7 +6349,7 @@
       <c r="L28" s="6">
         <v>5</v>
       </c>
-      <c r="M28" s="81"/>
+      <c r="M28" s="78"/>
       <c r="N28" s="7"/>
       <c r="P28" s="32" t="s">
         <v>62</v>
@@ -6347,11 +6357,11 @@
       <c r="Q28" s="32">
         <v>13</v>
       </c>
-      <c r="R28" s="75"/>
-      <c r="S28" s="32" t="s">
+      <c r="R28" s="112"/>
+      <c r="S28" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="T28" s="62"/>
+      <c r="T28" s="125"/>
     </row>
     <row r="29" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
@@ -6368,7 +6378,7 @@
       <c r="G29" s="6">
         <v>28</v>
       </c>
-      <c r="H29" s="85"/>
+      <c r="H29" s="82"/>
       <c r="I29" s="7"/>
       <c r="K29" s="26" t="s">
         <v>77</v>
@@ -6376,7 +6386,7 @@
       <c r="L29" s="27">
         <v>254</v>
       </c>
-      <c r="M29" s="81"/>
+      <c r="M29" s="78"/>
       <c r="N29" s="28" t="s">
         <v>42</v>
       </c>
@@ -6386,11 +6396,11 @@
       <c r="Q29" s="32">
         <v>14</v>
       </c>
-      <c r="R29" s="75"/>
+      <c r="R29" s="112"/>
       <c r="S29" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="T29" s="62"/>
+      <c r="T29" s="125"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
@@ -6407,7 +6417,7 @@
       <c r="G30" s="6">
         <v>29</v>
       </c>
-      <c r="H30" s="85"/>
+      <c r="H30" s="82"/>
       <c r="I30" s="7"/>
       <c r="K30" s="9" t="s">
         <v>77</v>
@@ -6415,21 +6425,21 @@
       <c r="L30" s="3">
         <v>255</v>
       </c>
-      <c r="M30" s="81"/>
+      <c r="M30" s="78"/>
       <c r="N30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P30" s="58" t="s">
+      <c r="P30" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="Q30" s="58">
-        <v>15</v>
-      </c>
-      <c r="R30" s="75"/>
-      <c r="S30" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="T30" s="63"/>
+      <c r="Q30" s="34">
+        <v>254</v>
+      </c>
+      <c r="R30" s="112"/>
+      <c r="S30" s="126" t="s">
+        <v>124</v>
+      </c>
+      <c r="T30" s="125"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
@@ -6446,18 +6456,19 @@
       <c r="G31" s="6">
         <v>30</v>
       </c>
-      <c r="H31" s="85"/>
+      <c r="H31" s="82"/>
       <c r="I31" s="7"/>
       <c r="P31" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q31" s="33">
-        <v>0</v>
-      </c>
-      <c r="R31" s="75"/>
+        <v>255</v>
+      </c>
+      <c r="R31" s="112"/>
       <c r="S31" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="T31" s="125"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
@@ -6474,7 +6485,7 @@
       <c r="G32" s="24">
         <v>254</v>
       </c>
-      <c r="H32" s="85"/>
+      <c r="H32" s="82"/>
       <c r="I32" s="25" t="s">
         <v>91</v>
       </c>
@@ -6484,23 +6495,22 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="93" t="s">
+      <c r="M32" s="90" t="s">
         <v>24</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P32" s="32" t="s">
+      <c r="P32" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="Q32" s="32">
-        <v>1</v>
-      </c>
-      <c r="R32" s="75"/>
-      <c r="S32" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="T32" s="65"/>
+      <c r="Q32" s="33">
+        <v>0</v>
+      </c>
+      <c r="R32" s="112"/>
+      <c r="S32" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
@@ -6517,7 +6527,7 @@
       <c r="G33" s="3">
         <v>255</v>
       </c>
-      <c r="H33" s="86"/>
+      <c r="H33" s="83"/>
       <c r="I33" s="4" t="s">
         <v>19</v>
       </c>
@@ -6527,18 +6537,19 @@
       <c r="L33" s="6">
         <v>1</v>
       </c>
-      <c r="M33" s="94"/>
+      <c r="M33" s="91"/>
       <c r="N33" s="7"/>
       <c r="P33" s="32" t="s">
         <v>63</v>
       </c>
       <c r="Q33" s="32">
-        <v>2</v>
-      </c>
-      <c r="R33" s="75"/>
+        <v>1</v>
+      </c>
+      <c r="R33" s="112"/>
       <c r="S33" s="32" t="s">
-        <v>52</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="T33" s="65"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
@@ -6555,16 +6566,18 @@
       <c r="L34" s="6">
         <v>2</v>
       </c>
-      <c r="M34" s="94"/>
+      <c r="M34" s="91"/>
       <c r="N34" s="7"/>
       <c r="P34" s="32" t="s">
         <v>63</v>
       </c>
       <c r="Q34" s="32">
-        <v>3</v>
-      </c>
-      <c r="R34" s="75"/>
-      <c r="S34" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="R34" s="112"/>
+      <c r="S34" s="32" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
@@ -6581,7 +6594,7 @@
       <c r="G35" s="3">
         <v>0</v>
       </c>
-      <c r="H35" s="87" t="s">
+      <c r="H35" s="84" t="s">
         <v>15</v>
       </c>
       <c r="I35" s="4" t="s">
@@ -6593,20 +6606,18 @@
       <c r="L35" s="27">
         <v>254</v>
       </c>
-      <c r="M35" s="94"/>
+      <c r="M35" s="91"/>
       <c r="N35" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="P35" s="34" t="s">
+      <c r="P35" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="Q35" s="34">
-        <v>4</v>
-      </c>
-      <c r="R35" s="75"/>
-      <c r="S35" s="28" t="s">
-        <v>42</v>
-      </c>
+      <c r="Q35" s="32">
+        <v>3</v>
+      </c>
+      <c r="R35" s="112"/>
+      <c r="S35" s="32"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
@@ -6623,7 +6634,7 @@
       <c r="G36" s="6">
         <v>1</v>
       </c>
-      <c r="H36" s="88"/>
+      <c r="H36" s="85"/>
       <c r="I36" s="7"/>
       <c r="K36" s="9" t="s">
         <v>78</v>
@@ -6631,19 +6642,19 @@
       <c r="L36" s="3">
         <v>255</v>
       </c>
-      <c r="M36" s="94"/>
+      <c r="M36" s="91"/>
       <c r="N36" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P36" s="33" t="s">
+      <c r="P36" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="Q36" s="33">
-        <v>5</v>
-      </c>
-      <c r="R36" s="75"/>
-      <c r="S36" s="4" t="s">
-        <v>19</v>
+      <c r="Q36" s="34">
+        <v>4</v>
+      </c>
+      <c r="R36" s="112"/>
+      <c r="S36" s="28" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -6661,7 +6672,7 @@
       <c r="G37" s="6">
         <v>2</v>
       </c>
-      <c r="H37" s="88"/>
+      <c r="H37" s="85"/>
       <c r="I37" s="7"/>
       <c r="K37" s="9" t="s">
         <v>79</v>
@@ -6669,22 +6680,19 @@
       <c r="L37" s="3">
         <v>0</v>
       </c>
-      <c r="M37" s="94"/>
+      <c r="M37" s="91"/>
       <c r="N37" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P37" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q37" s="58">
-        <v>0</v>
-      </c>
-      <c r="R37" s="75"/>
-      <c r="S37" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="T37" s="61" t="s">
-        <v>0</v>
+      <c r="P37" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q37" s="33">
+        <v>5</v>
+      </c>
+      <c r="R37" s="112"/>
+      <c r="S37" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -6702,7 +6710,7 @@
       <c r="G38" s="6">
         <v>3</v>
       </c>
-      <c r="H38" s="88"/>
+      <c r="H38" s="85"/>
       <c r="I38" s="7"/>
       <c r="K38" s="10" t="s">
         <v>79</v>
@@ -6710,19 +6718,19 @@
       <c r="L38" s="6">
         <v>1</v>
       </c>
-      <c r="M38" s="94"/>
+      <c r="M38" s="91"/>
       <c r="N38" s="7"/>
-      <c r="P38" s="32" t="s">
+      <c r="P38" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="Q38" s="32">
-        <v>1</v>
-      </c>
-      <c r="R38" s="75"/>
-      <c r="S38" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="T38" s="62"/>
+      <c r="Q38" s="58">
+        <v>0</v>
+      </c>
+      <c r="R38" s="112"/>
+      <c r="S38" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="T38" s="65"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
@@ -6739,7 +6747,7 @@
       <c r="G39" s="6">
         <v>4</v>
       </c>
-      <c r="H39" s="88"/>
+      <c r="H39" s="85"/>
       <c r="I39" s="7"/>
       <c r="K39" s="10" t="s">
         <v>79</v>
@@ -6747,19 +6755,19 @@
       <c r="L39" s="6">
         <v>2</v>
       </c>
-      <c r="M39" s="94"/>
+      <c r="M39" s="91"/>
       <c r="N39" s="7"/>
       <c r="P39" s="32" t="s">
         <v>67</v>
       </c>
       <c r="Q39" s="32">
-        <v>2</v>
-      </c>
-      <c r="R39" s="75"/>
-      <c r="S39" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="T39" s="62"/>
+        <v>1</v>
+      </c>
+      <c r="R39" s="112"/>
+      <c r="S39" s="120" t="s">
+        <v>45</v>
+      </c>
+      <c r="T39" s="65"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
@@ -6776,7 +6784,7 @@
       <c r="G40" s="6">
         <v>5</v>
       </c>
-      <c r="H40" s="88"/>
+      <c r="H40" s="85"/>
       <c r="I40" s="7"/>
       <c r="K40" s="26" t="s">
         <v>79</v>
@@ -6784,21 +6792,21 @@
       <c r="L40" s="27">
         <v>254</v>
       </c>
-      <c r="M40" s="94"/>
+      <c r="M40" s="91"/>
       <c r="N40" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="P40" s="58" t="s">
+      <c r="P40" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="Q40" s="58">
-        <v>3</v>
-      </c>
-      <c r="R40" s="75"/>
-      <c r="S40" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="T40" s="62"/>
+      <c r="Q40" s="32">
+        <v>2</v>
+      </c>
+      <c r="R40" s="112"/>
+      <c r="S40" s="120" t="s">
+        <v>47</v>
+      </c>
+      <c r="T40" s="65"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
@@ -6815,7 +6823,7 @@
       <c r="G41" s="6">
         <v>6</v>
       </c>
-      <c r="H41" s="88"/>
+      <c r="H41" s="85"/>
       <c r="I41" s="7"/>
       <c r="K41" s="9" t="s">
         <v>79</v>
@@ -6823,23 +6831,19 @@
       <c r="L41" s="3">
         <v>255</v>
       </c>
-      <c r="M41" s="94"/>
+      <c r="M41" s="91"/>
       <c r="N41" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P41" s="58" t="s">
+      <c r="P41" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="Q41" s="58">
-        <v>4</v>
-      </c>
-      <c r="R41" s="75"/>
-      <c r="S41" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="T41" s="61" t="s">
-        <v>0</v>
-      </c>
+      <c r="Q41" s="119">
+        <v>3</v>
+      </c>
+      <c r="R41" s="112"/>
+      <c r="S41" s="121"/>
+      <c r="T41" s="65"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
@@ -6856,7 +6860,7 @@
       <c r="G42" s="6">
         <v>7</v>
       </c>
-      <c r="H42" s="88"/>
+      <c r="H42" s="85"/>
       <c r="I42" s="7"/>
       <c r="K42" s="9" t="s">
         <v>80</v>
@@ -6864,21 +6868,19 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="94"/>
+      <c r="M42" s="91"/>
       <c r="N42" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P42" s="32" t="s">
+      <c r="P42" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="Q42" s="32">
-        <v>5</v>
-      </c>
-      <c r="R42" s="75"/>
-      <c r="S42" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="T42" s="62"/>
+      <c r="Q42" s="119">
+        <v>4</v>
+      </c>
+      <c r="R42" s="112"/>
+      <c r="S42" s="121"/>
+      <c r="T42" s="65"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
@@ -6895,7 +6897,7 @@
       <c r="G43" s="6">
         <v>8</v>
       </c>
-      <c r="H43" s="88"/>
+      <c r="H43" s="85"/>
       <c r="I43" s="7"/>
       <c r="K43" s="10" t="s">
         <v>80</v>
@@ -6903,19 +6905,19 @@
       <c r="L43" s="6">
         <v>1</v>
       </c>
-      <c r="M43" s="94"/>
+      <c r="M43" s="91"/>
       <c r="N43" s="7"/>
       <c r="P43" s="32" t="s">
         <v>67</v>
       </c>
       <c r="Q43" s="32">
-        <v>6</v>
-      </c>
-      <c r="R43" s="75"/>
-      <c r="S43" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="T43" s="62"/>
+        <v>5</v>
+      </c>
+      <c r="R43" s="112"/>
+      <c r="S43" s="120" t="s">
+        <v>46</v>
+      </c>
+      <c r="T43" s="65"/>
     </row>
     <row r="44" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
@@ -6932,7 +6934,7 @@
       <c r="G44" s="6">
         <v>9</v>
       </c>
-      <c r="H44" s="88"/>
+      <c r="H44" s="85"/>
       <c r="I44" s="7"/>
       <c r="K44" s="10" t="s">
         <v>80</v>
@@ -6940,19 +6942,19 @@
       <c r="L44" s="6">
         <v>2</v>
       </c>
-      <c r="M44" s="94"/>
+      <c r="M44" s="91"/>
       <c r="N44" s="7"/>
-      <c r="P44" s="58" t="s">
+      <c r="P44" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="Q44" s="58">
-        <v>7</v>
-      </c>
-      <c r="R44" s="75"/>
-      <c r="S44" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="T44" s="63"/>
+      <c r="Q44" s="32">
+        <v>6</v>
+      </c>
+      <c r="R44" s="112"/>
+      <c r="S44" s="120" t="s">
+        <v>48</v>
+      </c>
+      <c r="T44" s="65"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
@@ -6969,7 +6971,7 @@
       <c r="G45" s="6">
         <v>10</v>
       </c>
-      <c r="H45" s="88"/>
+      <c r="H45" s="85"/>
       <c r="I45" s="7"/>
       <c r="K45" s="26" t="s">
         <v>80</v>
@@ -6977,23 +6979,19 @@
       <c r="L45" s="27">
         <v>254</v>
       </c>
-      <c r="M45" s="94"/>
+      <c r="M45" s="91"/>
       <c r="N45" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="P45" s="58" t="s">
+      <c r="P45" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="Q45" s="58">
-        <v>8</v>
-      </c>
-      <c r="R45" s="75"/>
-      <c r="S45" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="T45" s="62" t="s">
-        <v>0</v>
-      </c>
+      <c r="Q45" s="119">
+        <v>7</v>
+      </c>
+      <c r="R45" s="112"/>
+      <c r="S45" s="121"/>
+      <c r="T45" s="65"/>
     </row>
     <row r="46" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
@@ -7010,7 +7008,7 @@
       <c r="G46" s="24">
         <v>254</v>
       </c>
-      <c r="H46" s="88"/>
+      <c r="H46" s="85"/>
       <c r="I46" s="25" t="s">
         <v>92</v>
       </c>
@@ -7020,21 +7018,19 @@
       <c r="L46" s="3">
         <v>255</v>
       </c>
-      <c r="M46" s="95"/>
+      <c r="M46" s="92"/>
       <c r="N46" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P46" s="32" t="s">
+      <c r="P46" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="Q46" s="32">
-        <v>9</v>
-      </c>
-      <c r="R46" s="75"/>
-      <c r="S46" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="T46" s="62"/>
+      <c r="Q46" s="119">
+        <v>8</v>
+      </c>
+      <c r="R46" s="112"/>
+      <c r="S46" s="121"/>
+      <c r="T46" s="65"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
@@ -7051,7 +7047,7 @@
       <c r="G47" s="3">
         <v>255</v>
       </c>
-      <c r="H47" s="89"/>
+      <c r="H47" s="86"/>
       <c r="I47" s="4" t="s">
         <v>19</v>
       </c>
@@ -7059,13 +7055,13 @@
         <v>67</v>
       </c>
       <c r="Q47" s="32">
-        <v>10</v>
-      </c>
-      <c r="R47" s="75"/>
-      <c r="S47" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="T47" s="62"/>
+        <v>9</v>
+      </c>
+      <c r="R47" s="112"/>
+      <c r="S47" s="120" t="s">
+        <v>55</v>
+      </c>
+      <c r="T47" s="65"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
@@ -7076,17 +7072,17 @@
       </c>
       <c r="C48" s="73"/>
       <c r="D48" s="7"/>
-      <c r="P48" s="58" t="s">
+      <c r="P48" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="Q48" s="58">
-        <v>11</v>
-      </c>
-      <c r="R48" s="75"/>
-      <c r="S48" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="T48" s="63"/>
+      <c r="Q48" s="32">
+        <v>10</v>
+      </c>
+      <c r="R48" s="112"/>
+      <c r="S48" s="120" t="s">
+        <v>54</v>
+      </c>
+      <c r="T48" s="65"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
@@ -7097,16 +7093,17 @@
       </c>
       <c r="C49" s="73"/>
       <c r="D49" s="7"/>
-      <c r="P49" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q49" s="33">
-        <v>0</v>
-      </c>
-      <c r="R49" s="75"/>
-      <c r="S49" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="P49" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q49" s="34">
+        <v>254</v>
+      </c>
+      <c r="R49" s="112"/>
+      <c r="S49" s="126" t="s">
+        <v>123</v>
+      </c>
+      <c r="T49" s="65"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
@@ -7117,17 +7114,17 @@
       </c>
       <c r="C50" s="73"/>
       <c r="D50" s="7"/>
-      <c r="P50" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q50" s="32">
-        <v>1</v>
-      </c>
-      <c r="R50" s="75"/>
-      <c r="S50" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="T50" s="65"/>
+      <c r="P50" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q50" s="33">
+        <v>255</v>
+      </c>
+      <c r="R50" s="112"/>
+      <c r="S50" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T50" s="125"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
@@ -7138,16 +7135,6 @@
       </c>
       <c r="C51" s="73"/>
       <c r="D51" s="7"/>
-      <c r="P51" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q51" s="32">
-        <v>2</v>
-      </c>
-      <c r="R51" s="75"/>
-      <c r="S51" s="32" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
@@ -7160,14 +7147,6 @@
       <c r="D52" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="P52" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q52" s="32">
-        <v>3</v>
-      </c>
-      <c r="R52" s="75"/>
-      <c r="S52" s="32"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
@@ -7180,16 +7159,6 @@
       <c r="D53" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P53" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q53" s="34">
-        <v>254</v>
-      </c>
-      <c r="R53" s="75"/>
-      <c r="S53" s="28" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="67" t="s">
@@ -7202,16 +7171,6 @@
       <c r="D54" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="P54" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q54" s="33">
-        <v>255</v>
-      </c>
-      <c r="R54" s="75"/>
-      <c r="S54" s="4" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
@@ -7232,21 +7191,6 @@
       </c>
       <c r="C56" s="73"/>
       <c r="D56" s="7"/>
-      <c r="P56" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q56" s="33">
-        <v>0</v>
-      </c>
-      <c r="R56" s="76" t="s">
-        <v>118</v>
-      </c>
-      <c r="S56" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="T56" s="61" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
@@ -7257,19 +7201,8 @@
       </c>
       <c r="C57" s="73"/>
       <c r="D57" s="7"/>
-      <c r="P57" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q57" s="32">
-        <v>1</v>
-      </c>
-      <c r="R57" s="76"/>
-      <c r="S57" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="T57" s="62"/>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>60</v>
       </c>
@@ -7278,17 +7211,6 @@
       </c>
       <c r="C58" s="73"/>
       <c r="D58" s="7"/>
-      <c r="P58" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q58" s="32">
-        <v>2</v>
-      </c>
-      <c r="R58" s="76"/>
-      <c r="S58" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="T58" s="62"/>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
@@ -7299,17 +7221,6 @@
       </c>
       <c r="C59" s="73"/>
       <c r="D59" s="7"/>
-      <c r="P59" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q59" s="33">
-        <v>3</v>
-      </c>
-      <c r="R59" s="76"/>
-      <c r="S59" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="T59" s="63"/>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
@@ -7330,21 +7241,6 @@
       </c>
       <c r="C61" s="73"/>
       <c r="D61" s="7"/>
-      <c r="P61" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q61" s="60">
-        <v>1</v>
-      </c>
-      <c r="R61" s="77" t="s">
-        <v>119</v>
-      </c>
-      <c r="S61" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="T61" s="60" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
@@ -7355,22 +7251,9 @@
       </c>
       <c r="C62" s="73"/>
       <c r="D62" s="7"/>
-      <c r="P62" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q62" s="60">
-        <v>2</v>
-      </c>
-      <c r="R62" s="77"/>
-      <c r="S62" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="T62" s="60" t="s">
-        <v>111</v>
-      </c>
       <c r="W62" s="52"/>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>60</v>
       </c>
@@ -7379,19 +7262,6 @@
       </c>
       <c r="C63" s="73"/>
       <c r="D63" s="7"/>
-      <c r="P63" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q63" s="60">
-        <v>1</v>
-      </c>
-      <c r="R63" s="77"/>
-      <c r="S63" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="T63" s="60" t="s">
-        <v>111</v>
-      </c>
       <c r="W63" s="52"/>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
@@ -7403,19 +7273,6 @@
       </c>
       <c r="C64" s="73"/>
       <c r="D64" s="7"/>
-      <c r="P64" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q64" s="60">
-        <v>1</v>
-      </c>
-      <c r="R64" s="77"/>
-      <c r="S64" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="T64" s="60" t="s">
-        <v>111</v>
-      </c>
       <c r="W64" s="52"/>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
@@ -7427,19 +7284,6 @@
       </c>
       <c r="C65" s="73"/>
       <c r="D65" s="7"/>
-      <c r="P65" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q65" s="60">
-        <v>2</v>
-      </c>
-      <c r="R65" s="77"/>
-      <c r="S65" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="T65" s="60" t="s">
-        <v>111</v>
-      </c>
       <c r="W65" s="52"/>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
@@ -7451,19 +7295,6 @@
       </c>
       <c r="C66" s="73"/>
       <c r="D66" s="7"/>
-      <c r="P66" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q66" s="60">
-        <v>1</v>
-      </c>
-      <c r="R66" s="77"/>
-      <c r="S66" s="60" t="s">
-        <v>110</v>
-      </c>
-      <c r="T66" s="60" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
@@ -7494,6 +7325,16 @@
       </c>
       <c r="C69" s="73"/>
       <c r="D69" s="7"/>
+      <c r="P69" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q69" s="33">
+        <v>0</v>
+      </c>
+      <c r="R69" s="117"/>
+      <c r="S69" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
@@ -7504,6 +7345,17 @@
       </c>
       <c r="C70" s="73"/>
       <c r="D70" s="7"/>
+      <c r="P70" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q70" s="32">
+        <v>1</v>
+      </c>
+      <c r="R70" s="117"/>
+      <c r="S70" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="T70" s="65"/>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
@@ -7514,6 +7366,16 @@
       </c>
       <c r="C71" s="73"/>
       <c r="D71" s="7"/>
+      <c r="P71" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q71" s="32">
+        <v>2</v>
+      </c>
+      <c r="R71" s="117"/>
+      <c r="S71" s="32" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
@@ -7524,6 +7386,14 @@
       </c>
       <c r="C72" s="73"/>
       <c r="D72" s="7"/>
+      <c r="P72" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q72" s="32">
+        <v>3</v>
+      </c>
+      <c r="R72" s="117"/>
+      <c r="S72" s="32"/>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
@@ -7534,6 +7404,16 @@
       </c>
       <c r="C73" s="73"/>
       <c r="D73" s="7"/>
+      <c r="P73" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q73" s="34">
+        <v>254</v>
+      </c>
+      <c r="R73" s="117"/>
+      <c r="S73" s="28" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
@@ -7544,6 +7424,16 @@
       </c>
       <c r="C74" s="73"/>
       <c r="D74" s="7"/>
+      <c r="P74" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q74" s="33">
+        <v>255</v>
+      </c>
+      <c r="R74" s="118"/>
+      <c r="S74" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
@@ -7564,6 +7454,21 @@
       </c>
       <c r="C76" s="73"/>
       <c r="D76" s="7"/>
+      <c r="P76" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q76" s="33">
+        <v>0</v>
+      </c>
+      <c r="R76" s="114" t="s">
+        <v>118</v>
+      </c>
+      <c r="S76" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="T76" s="61" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
@@ -7574,6 +7479,17 @@
       </c>
       <c r="C77" s="73"/>
       <c r="D77" s="7"/>
+      <c r="P77" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q77" s="32">
+        <v>1</v>
+      </c>
+      <c r="R77" s="115"/>
+      <c r="S77" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="T77" s="62"/>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
@@ -7584,6 +7500,17 @@
       </c>
       <c r="C78" s="73"/>
       <c r="D78" s="7"/>
+      <c r="P78" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q78" s="32">
+        <v>2</v>
+      </c>
+      <c r="R78" s="115"/>
+      <c r="S78" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="T78" s="62"/>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
@@ -7594,6 +7521,17 @@
       </c>
       <c r="C79" s="73"/>
       <c r="D79" s="7"/>
+      <c r="P79" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q79" s="33">
+        <v>3</v>
+      </c>
+      <c r="R79" s="116"/>
+      <c r="S79" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T79" s="63"/>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
@@ -7605,7 +7543,7 @@
       <c r="C80" s="73"/>
       <c r="D80" s="7"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>60</v>
       </c>
@@ -7614,8 +7552,23 @@
       </c>
       <c r="C81" s="73"/>
       <c r="D81" s="7"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P81" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q81" s="60">
+        <v>1</v>
+      </c>
+      <c r="R81" s="122" t="s">
+        <v>119</v>
+      </c>
+      <c r="S81" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="T81" s="60" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>60</v>
       </c>
@@ -7624,8 +7577,21 @@
       </c>
       <c r="C82" s="73"/>
       <c r="D82" s="7"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P82" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q82" s="60">
+        <v>2</v>
+      </c>
+      <c r="R82" s="123"/>
+      <c r="S82" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="T82" s="60" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>60</v>
       </c>
@@ -7634,8 +7600,21 @@
       </c>
       <c r="C83" s="73"/>
       <c r="D83" s="7"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P83" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q83" s="60">
+        <v>1</v>
+      </c>
+      <c r="R83" s="123"/>
+      <c r="S83" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="T83" s="60" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>60</v>
       </c>
@@ -7644,8 +7623,21 @@
       </c>
       <c r="C84" s="73"/>
       <c r="D84" s="7"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P84" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q84" s="60">
+        <v>1</v>
+      </c>
+      <c r="R84" s="123"/>
+      <c r="S84" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="T84" s="60" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>60</v>
       </c>
@@ -7654,8 +7646,21 @@
       </c>
       <c r="C85" s="73"/>
       <c r="D85" s="7"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P85" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q85" s="60">
+        <v>2</v>
+      </c>
+      <c r="R85" s="123"/>
+      <c r="S85" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="T85" s="60" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>60</v>
       </c>
@@ -7664,8 +7669,21 @@
       </c>
       <c r="C86" s="73"/>
       <c r="D86" s="7"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P86" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q86" s="60">
+        <v>1</v>
+      </c>
+      <c r="R86" s="124"/>
+      <c r="S86" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="T86" s="60" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>60</v>
       </c>
@@ -7675,7 +7693,7 @@
       <c r="C87" s="73"/>
       <c r="D87" s="7"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>60</v>
       </c>
@@ -7685,7 +7703,7 @@
       <c r="C88" s="73"/>
       <c r="D88" s="7"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>60</v>
       </c>
@@ -7695,7 +7713,7 @@
       <c r="C89" s="73"/>
       <c r="D89" s="7"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>60</v>
       </c>
@@ -7705,7 +7723,7 @@
       <c r="C90" s="73"/>
       <c r="D90" s="7"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>60</v>
       </c>
@@ -7715,7 +7733,7 @@
       <c r="C91" s="73"/>
       <c r="D91" s="7"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>60</v>
       </c>
@@ -7725,7 +7743,7 @@
       <c r="C92" s="73"/>
       <c r="D92" s="7"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>60</v>
       </c>
@@ -7735,7 +7753,7 @@
       <c r="C93" s="73"/>
       <c r="D93" s="7"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>60</v>
       </c>
@@ -7745,7 +7763,7 @@
       <c r="C94" s="73"/>
       <c r="D94" s="7"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="23" t="s">
         <v>60</v>
       </c>
@@ -7757,7 +7775,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="67" t="s">
         <v>60</v>
       </c>
@@ -8304,9 +8322,8 @@
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="C1:C148"/>
-    <mergeCell ref="R15:R54"/>
-    <mergeCell ref="R56:R59"/>
-    <mergeCell ref="R61:R66"/>
+    <mergeCell ref="R76:R79"/>
+    <mergeCell ref="R81:R86"/>
     <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="M23:M30"/>
     <mergeCell ref="AA6:AB6"/>
@@ -8316,6 +8333,7 @@
     <mergeCell ref="R9:R13"/>
     <mergeCell ref="M32:M46"/>
     <mergeCell ref="R1:R7"/>
+    <mergeCell ref="R15:R50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -8326,8 +8344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9EEFD53-ADB5-4FC2-BDE3-F23A2E6D7C28}">
   <dimension ref="A1:AF144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="AB35" sqref="AB35"/>
+    <sheetView topLeftCell="G21" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8377,7 +8395,7 @@
         <v>38</v>
       </c>
       <c r="G1" s="3"/>
-      <c r="H1" s="84" t="s">
+      <c r="H1" s="81" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -8387,7 +8405,7 @@
         <v>85</v>
       </c>
       <c r="L1" s="3"/>
-      <c r="M1" s="108" t="s">
+      <c r="M1" s="96" t="s">
         <v>17</v>
       </c>
       <c r="N1" s="4" t="s">
@@ -8397,7 +8415,7 @@
         <v>99</v>
       </c>
       <c r="Q1" s="3"/>
-      <c r="R1" s="96" t="s">
+      <c r="R1" s="93" t="s">
         <v>18</v>
       </c>
       <c r="S1" s="4" t="s">
@@ -8421,7 +8439,7 @@
         <f>DEC2HEX('ipv4'!G2)</f>
         <v>1</v>
       </c>
-      <c r="H2" s="85"/>
+      <c r="H2" s="82"/>
       <c r="I2" s="55"/>
       <c r="K2" s="10" t="s">
         <v>85</v>
@@ -8430,7 +8448,7 @@
         <f>DEC2HEX('ipv4'!L2)</f>
         <v>1</v>
       </c>
-      <c r="M2" s="109"/>
+      <c r="M2" s="97"/>
       <c r="N2" s="55"/>
       <c r="P2" s="10" t="s">
         <v>99</v>
@@ -8439,18 +8457,18 @@
         <f>DEC2HEX('ipv4'!Q2)</f>
         <v>1</v>
       </c>
-      <c r="R2" s="97"/>
+      <c r="R2" s="94"/>
       <c r="S2" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" s="78" t="s">
+      <c r="AA2" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="79"/>
-      <c r="AD2" s="79"/>
-      <c r="AE2" s="79"/>
-      <c r="AF2" s="80"/>
+      <c r="AB2" s="76"/>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="76"/>
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="77"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -8469,7 +8487,7 @@
         <f>DEC2HEX('ipv4'!G3)</f>
         <v>2</v>
       </c>
-      <c r="H3" s="85"/>
+      <c r="H3" s="82"/>
       <c r="I3" s="55"/>
       <c r="K3" s="10" t="s">
         <v>85</v>
@@ -8478,7 +8496,7 @@
         <f>DEC2HEX('ipv4'!L3)</f>
         <v>2</v>
       </c>
-      <c r="M3" s="109"/>
+      <c r="M3" s="97"/>
       <c r="N3" s="55"/>
       <c r="P3" s="10" t="s">
         <v>99</v>
@@ -8487,15 +8505,15 @@
         <f>DEC2HEX('ipv4'!Q3)</f>
         <v>2</v>
       </c>
-      <c r="R3" s="97"/>
+      <c r="R3" s="94"/>
       <c r="S3" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="AA3" s="117" t="s">
+      <c r="AA3" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="AB3" s="118"/>
-      <c r="AC3" s="119"/>
+      <c r="AB3" s="106"/>
+      <c r="AC3" s="107"/>
       <c r="AD3" s="16" t="s">
         <v>86</v>
       </c>
@@ -8523,7 +8541,7 @@
         <f>DEC2HEX('ipv4'!G4)</f>
         <v>3</v>
       </c>
-      <c r="H4" s="85"/>
+      <c r="H4" s="82"/>
       <c r="I4" s="55"/>
       <c r="K4" s="10" t="s">
         <v>85</v>
@@ -8532,7 +8550,7 @@
         <f>DEC2HEX('ipv4'!L4)</f>
         <v>3</v>
       </c>
-      <c r="M4" s="109"/>
+      <c r="M4" s="97"/>
       <c r="N4" s="55"/>
       <c r="P4" s="10" t="s">
         <v>99</v>
@@ -8541,7 +8559,7 @@
         <f>DEC2HEX('ipv4'!Q4)</f>
         <v>3</v>
       </c>
-      <c r="R4" s="97"/>
+      <c r="R4" s="94"/>
       <c r="S4" s="55"/>
       <c r="AA4" s="41">
         <v>2001</v>
@@ -8579,7 +8597,7 @@
         <f>DEC2HEX('ipv4'!G5)</f>
         <v>4</v>
       </c>
-      <c r="H5" s="85"/>
+      <c r="H5" s="82"/>
       <c r="I5" s="55"/>
       <c r="K5" s="10" t="s">
         <v>85</v>
@@ -8588,7 +8606,7 @@
         <f>DEC2HEX('ipv4'!L5)</f>
         <v>4</v>
       </c>
-      <c r="M5" s="109"/>
+      <c r="M5" s="97"/>
       <c r="N5" s="55"/>
       <c r="P5" s="10" t="s">
         <v>99</v>
@@ -8597,7 +8615,7 @@
         <f>DEC2HEX('ipv4'!Q5)</f>
         <v>4</v>
       </c>
-      <c r="R5" s="98"/>
+      <c r="R5" s="95"/>
       <c r="S5" s="55"/>
     </row>
     <row r="6" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8617,20 +8635,20 @@
         <f>DEC2HEX('ipv4'!G6)</f>
         <v>5</v>
       </c>
-      <c r="H6" s="85"/>
+      <c r="H6" s="82"/>
       <c r="I6" s="55"/>
       <c r="K6" s="9" t="s">
         <v>93</v>
       </c>
       <c r="L6" s="3"/>
-      <c r="M6" s="109"/>
+      <c r="M6" s="97"/>
       <c r="N6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AA6" s="82" t="s">
+      <c r="AA6" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="AB6" s="83"/>
+      <c r="AB6" s="80"/>
     </row>
     <row r="7" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -8649,7 +8667,7 @@
         <f>DEC2HEX('ipv4'!G7)</f>
         <v>6</v>
       </c>
-      <c r="H7" s="85"/>
+      <c r="H7" s="82"/>
       <c r="I7" s="55"/>
       <c r="K7" s="10" t="s">
         <v>93</v>
@@ -8658,13 +8676,13 @@
         <f>DEC2HEX('ipv4'!L9)</f>
         <v>1</v>
       </c>
-      <c r="M7" s="109"/>
+      <c r="M7" s="97"/>
       <c r="N7" s="55"/>
       <c r="P7" s="9" t="s">
         <v>100</v>
       </c>
       <c r="Q7" s="3"/>
-      <c r="R7" s="96" t="s">
+      <c r="R7" s="93" t="s">
         <v>20</v>
       </c>
       <c r="S7" s="4" t="s">
@@ -8694,7 +8712,7 @@
         <f>DEC2HEX('ipv4'!G8)</f>
         <v>7</v>
       </c>
-      <c r="H8" s="85"/>
+      <c r="H8" s="82"/>
       <c r="I8" s="55"/>
       <c r="K8" s="10" t="s">
         <v>93</v>
@@ -8703,7 +8721,7 @@
         <f>DEC2HEX('ipv4'!L10)</f>
         <v>2</v>
       </c>
-      <c r="M8" s="109"/>
+      <c r="M8" s="97"/>
       <c r="N8" s="55"/>
       <c r="P8" s="10" t="s">
         <v>100</v>
@@ -8712,7 +8730,7 @@
         <f>DEC2HEX('ipv4'!Q10)</f>
         <v>1</v>
       </c>
-      <c r="R8" s="97"/>
+      <c r="R8" s="94"/>
       <c r="S8" s="55" t="s">
         <v>21</v>
       </c>
@@ -8740,7 +8758,7 @@
         <f>DEC2HEX('ipv4'!G9)</f>
         <v>8</v>
       </c>
-      <c r="H9" s="85"/>
+      <c r="H9" s="82"/>
       <c r="I9" s="55"/>
       <c r="K9" s="10" t="s">
         <v>93</v>
@@ -8749,7 +8767,7 @@
         <f>DEC2HEX('ipv4'!L11)</f>
         <v>3</v>
       </c>
-      <c r="M9" s="109"/>
+      <c r="M9" s="97"/>
       <c r="N9" s="55"/>
       <c r="P9" s="10" t="s">
         <v>100</v>
@@ -8758,7 +8776,7 @@
         <f>DEC2HEX('ipv4'!Q11)</f>
         <v>2</v>
       </c>
-      <c r="R9" s="98"/>
+      <c r="R9" s="95"/>
       <c r="S9" s="55" t="s">
         <v>22</v>
       </c>
@@ -8786,7 +8804,7 @@
         <f>DEC2HEX('ipv4'!G10)</f>
         <v>9</v>
       </c>
-      <c r="H10" s="85"/>
+      <c r="H10" s="82"/>
       <c r="I10" s="55"/>
       <c r="K10" s="10" t="s">
         <v>93</v>
@@ -8795,7 +8813,7 @@
         <f>DEC2HEX('ipv4'!L12)</f>
         <v>4</v>
       </c>
-      <c r="M10" s="109"/>
+      <c r="M10" s="97"/>
       <c r="N10" s="55"/>
       <c r="AA10" s="40" t="s">
         <v>83</v>
@@ -8821,13 +8839,13 @@
         <f>DEC2HEX('ipv4'!G11)</f>
         <v>A</v>
       </c>
-      <c r="H11" s="85"/>
+      <c r="H11" s="82"/>
       <c r="I11" s="55"/>
       <c r="K11" s="9" t="s">
         <v>94</v>
       </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="109"/>
+      <c r="M11" s="97"/>
       <c r="N11" s="4" t="s">
         <v>23</v>
       </c>
@@ -8835,7 +8853,7 @@
         <v>102</v>
       </c>
       <c r="Q11" s="33"/>
-      <c r="R11" s="102" t="s">
+      <c r="R11" s="111" t="s">
         <v>71</v>
       </c>
       <c r="S11" s="4" t="s">
@@ -8859,7 +8877,7 @@
         <f>DEC2HEX('ipv4'!G12)</f>
         <v>B</v>
       </c>
-      <c r="H12" s="85"/>
+      <c r="H12" s="82"/>
       <c r="I12" s="55"/>
       <c r="K12" s="10" t="s">
         <v>94</v>
@@ -8868,7 +8886,7 @@
         <f>DEC2HEX('ipv4'!L16)</f>
         <v>1</v>
       </c>
-      <c r="M12" s="109"/>
+      <c r="M12" s="97"/>
       <c r="N12" s="55"/>
       <c r="P12" s="54" t="s">
         <v>102</v>
@@ -8877,7 +8895,7 @@
         <f>DEC2HEX('ipv4'!Q16)</f>
         <v>1</v>
       </c>
-      <c r="R12" s="103"/>
+      <c r="R12" s="112"/>
       <c r="S12" s="32" t="s">
         <v>56</v>
       </c>
@@ -8903,7 +8921,7 @@
         <f>DEC2HEX('ipv4'!G13)</f>
         <v>C</v>
       </c>
-      <c r="H13" s="85"/>
+      <c r="H13" s="82"/>
       <c r="I13" s="55"/>
       <c r="K13" s="10" t="s">
         <v>94</v>
@@ -8912,7 +8930,7 @@
         <f>DEC2HEX('ipv4'!L17)</f>
         <v>2</v>
       </c>
-      <c r="M13" s="109"/>
+      <c r="M13" s="97"/>
       <c r="N13" s="55"/>
       <c r="P13" s="54" t="s">
         <v>102</v>
@@ -8921,7 +8939,7 @@
         <f>DEC2HEX('ipv4'!Q17)</f>
         <v>2</v>
       </c>
-      <c r="R13" s="103"/>
+      <c r="R13" s="112"/>
       <c r="S13" s="32" t="s">
         <v>57</v>
       </c>
@@ -8947,7 +8965,7 @@
         <f>DEC2HEX('ipv4'!G14)</f>
         <v>D</v>
       </c>
-      <c r="H14" s="85"/>
+      <c r="H14" s="82"/>
       <c r="I14" s="55"/>
       <c r="K14" s="10" t="s">
         <v>94</v>
@@ -8956,7 +8974,7 @@
         <f>DEC2HEX('ipv4'!L18)</f>
         <v>3</v>
       </c>
-      <c r="M14" s="109"/>
+      <c r="M14" s="97"/>
       <c r="N14" s="55"/>
       <c r="P14" s="54" t="s">
         <v>102</v>
@@ -8965,7 +8983,7 @@
         <f>DEC2HEX('ipv4'!Q18)</f>
         <v>3</v>
       </c>
-      <c r="R14" s="103"/>
+      <c r="R14" s="112"/>
       <c r="S14" s="32" t="s">
         <v>58</v>
       </c>
@@ -8991,7 +9009,7 @@
         <f>DEC2HEX('ipv4'!G15)</f>
         <v>E</v>
       </c>
-      <c r="H15" s="85"/>
+      <c r="H15" s="82"/>
       <c r="I15" s="55"/>
       <c r="K15" s="10" t="s">
         <v>94</v>
@@ -9000,7 +9018,7 @@
         <f>DEC2HEX('ipv4'!L19)</f>
         <v>4</v>
       </c>
-      <c r="M15" s="110"/>
+      <c r="M15" s="98"/>
       <c r="N15" s="55"/>
       <c r="P15" s="54" t="s">
         <v>102</v>
@@ -9009,7 +9027,7 @@
         <f>DEC2HEX('ipv4'!Q19)</f>
         <v>4</v>
       </c>
-      <c r="R15" s="103"/>
+      <c r="R15" s="112"/>
       <c r="S15" s="32"/>
       <c r="AA15" s="38"/>
       <c r="AB15" s="38"/>
@@ -9033,7 +9051,7 @@
         <f>DEC2HEX('ipv4'!G16)</f>
         <v>F</v>
       </c>
-      <c r="H16" s="85"/>
+      <c r="H16" s="82"/>
       <c r="I16" s="55"/>
       <c r="M16" s="29"/>
       <c r="P16" s="54" t="s">
@@ -9043,7 +9061,7 @@
         <f>DEC2HEX('ipv4'!Q20)</f>
         <v>5</v>
       </c>
-      <c r="R16" s="103"/>
+      <c r="R16" s="112"/>
       <c r="S16" s="32"/>
       <c r="AA16" s="38"/>
       <c r="AB16" s="38"/>
@@ -9067,13 +9085,13 @@
         <f>DEC2HEX('ipv4'!G17)</f>
         <v>10</v>
       </c>
-      <c r="H17" s="85"/>
+      <c r="H17" s="82"/>
       <c r="I17" s="55"/>
       <c r="K17" s="9" t="s">
         <v>95</v>
       </c>
       <c r="L17" s="3"/>
-      <c r="M17" s="111" t="s">
+      <c r="M17" s="99" t="s">
         <v>16</v>
       </c>
       <c r="N17" s="4" t="s">
@@ -9086,7 +9104,7 @@
         <f>DEC2HEX('ipv4'!Q21)</f>
         <v>6</v>
       </c>
-      <c r="R17" s="103"/>
+      <c r="R17" s="112"/>
       <c r="S17" s="32"/>
       <c r="AA17" s="36"/>
       <c r="AB17" s="22"/>
@@ -9110,7 +9128,7 @@
         <f>DEC2HEX('ipv4'!G18)</f>
         <v>11</v>
       </c>
-      <c r="H18" s="85"/>
+      <c r="H18" s="82"/>
       <c r="I18" s="55"/>
       <c r="K18" s="10" t="s">
         <v>95</v>
@@ -9119,7 +9137,7 @@
         <f>DEC2HEX('ipv4'!L24)</f>
         <v>1</v>
       </c>
-      <c r="M18" s="112"/>
+      <c r="M18" s="100"/>
       <c r="N18" s="55"/>
       <c r="P18" s="54" t="s">
         <v>102</v>
@@ -9128,7 +9146,7 @@
         <f>DEC2HEX('ipv4'!Q23)</f>
         <v>8</v>
       </c>
-      <c r="R18" s="103"/>
+      <c r="R18" s="112"/>
       <c r="S18" s="70"/>
       <c r="AA18" s="22"/>
       <c r="AB18" s="22"/>
@@ -9152,7 +9170,7 @@
         <f>DEC2HEX('ipv4'!G19)</f>
         <v>12</v>
       </c>
-      <c r="H19" s="85"/>
+      <c r="H19" s="82"/>
       <c r="I19" s="55"/>
       <c r="K19" s="10" t="s">
         <v>95</v>
@@ -9161,7 +9179,7 @@
         <f>DEC2HEX('ipv4'!L25)</f>
         <v>2</v>
       </c>
-      <c r="M19" s="112"/>
+      <c r="M19" s="100"/>
       <c r="N19" s="55"/>
       <c r="P19" s="54" t="s">
         <v>102</v>
@@ -9170,7 +9188,7 @@
         <f>DEC2HEX('ipv4'!Q24)</f>
         <v>9</v>
       </c>
-      <c r="R19" s="103"/>
+      <c r="R19" s="112"/>
       <c r="S19" s="32" t="s">
         <v>49</v>
       </c>
@@ -9196,7 +9214,7 @@
         <f>DEC2HEX('ipv4'!G20)</f>
         <v>13</v>
       </c>
-      <c r="H20" s="85"/>
+      <c r="H20" s="82"/>
       <c r="I20" s="55"/>
       <c r="K20" s="10" t="s">
         <v>95</v>
@@ -9205,7 +9223,7 @@
         <f>DEC2HEX('ipv4'!L26)</f>
         <v>3</v>
       </c>
-      <c r="M20" s="112"/>
+      <c r="M20" s="100"/>
       <c r="N20" s="55"/>
       <c r="P20" s="54" t="s">
         <v>102</v>
@@ -9214,7 +9232,7 @@
         <f>DEC2HEX('ipv4'!Q25)</f>
         <v>A</v>
       </c>
-      <c r="R20" s="103"/>
+      <c r="R20" s="112"/>
       <c r="S20" s="32" t="s">
         <v>51</v>
       </c>
@@ -9240,7 +9258,7 @@
         <f>DEC2HEX('ipv4'!G21)</f>
         <v>14</v>
       </c>
-      <c r="H21" s="85"/>
+      <c r="H21" s="82"/>
       <c r="I21" s="55"/>
       <c r="K21" s="10" t="s">
         <v>95</v>
@@ -9249,7 +9267,7 @@
         <f>DEC2HEX('ipv4'!L27)</f>
         <v>4</v>
       </c>
-      <c r="M21" s="112"/>
+      <c r="M21" s="100"/>
       <c r="N21" s="55"/>
       <c r="P21" s="54" t="s">
         <v>102</v>
@@ -9258,7 +9276,7 @@
         <f>DEC2HEX('ipv4'!Q27)</f>
         <v>C</v>
       </c>
-      <c r="R21" s="103"/>
+      <c r="R21" s="112"/>
       <c r="S21" s="70"/>
       <c r="AA21" s="22"/>
       <c r="AB21" s="22"/>
@@ -9282,7 +9300,7 @@
         <f>DEC2HEX('ipv4'!G22)</f>
         <v>15</v>
       </c>
-      <c r="H22" s="85"/>
+      <c r="H22" s="82"/>
       <c r="I22" s="55"/>
       <c r="K22" s="10" t="s">
         <v>95</v>
@@ -9291,7 +9309,7 @@
         <f>DEC2HEX('ipv4'!L28)</f>
         <v>5</v>
       </c>
-      <c r="M22" s="113"/>
+      <c r="M22" s="101"/>
       <c r="N22" s="55"/>
       <c r="P22" s="54" t="s">
         <v>102</v>
@@ -9300,7 +9318,7 @@
         <f>DEC2HEX('ipv4'!Q28)</f>
         <v>D</v>
       </c>
-      <c r="R22" s="103"/>
+      <c r="R22" s="112"/>
       <c r="S22" s="32" t="s">
         <v>50</v>
       </c>
@@ -9325,7 +9343,7 @@
         <f>DEC2HEX('ipv4'!G23)</f>
         <v>16</v>
       </c>
-      <c r="H23" s="85"/>
+      <c r="H23" s="82"/>
       <c r="I23" s="55"/>
       <c r="M23" s="48"/>
       <c r="P23" s="54" t="s">
@@ -9335,7 +9353,7 @@
         <f>DEC2HEX('ipv4'!Q29)</f>
         <v>E</v>
       </c>
-      <c r="R23" s="103"/>
+      <c r="R23" s="112"/>
       <c r="S23" s="64" t="s">
         <v>112</v>
       </c>
@@ -9360,13 +9378,13 @@
         <f>DEC2HEX('ipv4'!G24)</f>
         <v>17</v>
       </c>
-      <c r="H24" s="85"/>
+      <c r="H24" s="82"/>
       <c r="I24" s="55"/>
       <c r="K24" s="9" t="s">
         <v>96</v>
       </c>
       <c r="L24" s="3"/>
-      <c r="M24" s="114" t="s">
+      <c r="M24" s="102" t="s">
         <v>24</v>
       </c>
       <c r="N24" s="4" t="s">
@@ -9376,7 +9394,7 @@
         <v>103</v>
       </c>
       <c r="Q24" s="33"/>
-      <c r="R24" s="103"/>
+      <c r="R24" s="112"/>
       <c r="S24" s="4" t="s">
         <v>23</v>
       </c>
@@ -9401,7 +9419,7 @@
         <f>DEC2HEX('ipv4'!G25)</f>
         <v>18</v>
       </c>
-      <c r="H25" s="85"/>
+      <c r="H25" s="82"/>
       <c r="I25" s="55"/>
       <c r="K25" s="10" t="s">
         <v>96</v>
@@ -9410,16 +9428,16 @@
         <f>DEC2HEX('ipv4'!L33)</f>
         <v>1</v>
       </c>
-      <c r="M25" s="115"/>
+      <c r="M25" s="103"/>
       <c r="N25" s="55"/>
       <c r="P25" s="54" t="s">
         <v>103</v>
       </c>
       <c r="Q25" s="32" t="str">
-        <f>DEC2HEX('ipv4'!Q32)</f>
+        <f>DEC2HEX('ipv4'!Q33)</f>
         <v>1</v>
       </c>
-      <c r="R25" s="103"/>
+      <c r="R25" s="112"/>
       <c r="S25" s="32" t="s">
         <v>43</v>
       </c>
@@ -9441,7 +9459,7 @@
         <f>DEC2HEX('ipv4'!G26)</f>
         <v>19</v>
       </c>
-      <c r="H26" s="85"/>
+      <c r="H26" s="82"/>
       <c r="I26" s="55"/>
       <c r="K26" s="10" t="s">
         <v>96</v>
@@ -9450,16 +9468,16 @@
         <f>DEC2HEX('ipv4'!L34)</f>
         <v>2</v>
       </c>
-      <c r="M26" s="115"/>
+      <c r="M26" s="103"/>
       <c r="N26" s="56"/>
       <c r="P26" s="54" t="s">
         <v>103</v>
       </c>
       <c r="Q26" s="32" t="str">
-        <f>DEC2HEX('ipv4'!Q33)</f>
+        <f>DEC2HEX('ipv4'!Q34)</f>
         <v>2</v>
       </c>
-      <c r="R26" s="103"/>
+      <c r="R26" s="112"/>
       <c r="S26" s="32" t="s">
         <v>52</v>
       </c>
@@ -9481,13 +9499,13 @@
         <f>DEC2HEX('ipv4'!G27)</f>
         <v>1A</v>
       </c>
-      <c r="H27" s="85"/>
+      <c r="H27" s="82"/>
       <c r="I27" s="55"/>
       <c r="K27" s="9" t="s">
         <v>97</v>
       </c>
       <c r="L27" s="3"/>
-      <c r="M27" s="115"/>
+      <c r="M27" s="103"/>
       <c r="N27" s="4" t="s">
         <v>23</v>
       </c>
@@ -9495,10 +9513,10 @@
         <v>103</v>
       </c>
       <c r="Q27" s="32" t="str">
-        <f>DEC2HEX('ipv4'!Q34)</f>
+        <f>DEC2HEX('ipv4'!Q35)</f>
         <v>3</v>
       </c>
-      <c r="R27" s="103"/>
+      <c r="R27" s="112"/>
       <c r="S27" s="32"/>
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9518,7 +9536,7 @@
         <f>DEC2HEX('ipv4'!G28)</f>
         <v>1B</v>
       </c>
-      <c r="H28" s="85"/>
+      <c r="H28" s="82"/>
       <c r="I28" s="55"/>
       <c r="K28" s="10" t="s">
         <v>97</v>
@@ -9527,13 +9545,13 @@
         <f>DEC2HEX('ipv4'!L38)</f>
         <v>1</v>
       </c>
-      <c r="M28" s="115"/>
+      <c r="M28" s="103"/>
       <c r="N28" s="55"/>
       <c r="P28" s="53" t="s">
         <v>104</v>
       </c>
       <c r="Q28" s="33"/>
-      <c r="R28" s="103"/>
+      <c r="R28" s="112"/>
       <c r="S28" s="4" t="s">
         <v>23</v>
       </c>
@@ -9555,7 +9573,7 @@
         <f>DEC2HEX('ipv4'!G29)</f>
         <v>1C</v>
       </c>
-      <c r="H29" s="85"/>
+      <c r="H29" s="82"/>
       <c r="I29" s="55"/>
       <c r="K29" s="10" t="s">
         <v>97</v>
@@ -9564,16 +9582,16 @@
         <f>DEC2HEX('ipv4'!L39)</f>
         <v>2</v>
       </c>
-      <c r="M29" s="115"/>
+      <c r="M29" s="103"/>
       <c r="N29" s="55"/>
       <c r="P29" s="54" t="s">
         <v>104</v>
       </c>
       <c r="Q29" s="32" t="str">
-        <f>DEC2HEX('ipv4'!Q38)</f>
+        <f>DEC2HEX('ipv4'!Q39)</f>
         <v>1</v>
       </c>
-      <c r="R29" s="103"/>
+      <c r="R29" s="112"/>
       <c r="S29" s="32" t="s">
         <v>45</v>
       </c>
@@ -9595,13 +9613,13 @@
         <f>DEC2HEX('ipv4'!G30)</f>
         <v>1D</v>
       </c>
-      <c r="H30" s="85"/>
+      <c r="H30" s="82"/>
       <c r="I30" s="55"/>
       <c r="K30" s="49" t="s">
         <v>98</v>
       </c>
       <c r="L30" s="50"/>
-      <c r="M30" s="115"/>
+      <c r="M30" s="103"/>
       <c r="N30" s="51" t="s">
         <v>23</v>
       </c>
@@ -9609,10 +9627,10 @@
         <v>104</v>
       </c>
       <c r="Q30" s="32" t="str">
-        <f>DEC2HEX('ipv4'!Q39)</f>
+        <f>DEC2HEX('ipv4'!Q40)</f>
         <v>2</v>
       </c>
-      <c r="R30" s="103"/>
+      <c r="R30" s="112"/>
       <c r="S30" s="32" t="s">
         <v>47</v>
       </c>
@@ -9634,7 +9652,7 @@
         <f>DEC2HEX('ipv4'!G31)</f>
         <v>1E</v>
       </c>
-      <c r="H31" s="85"/>
+      <c r="H31" s="82"/>
       <c r="I31" s="55"/>
       <c r="K31" s="10" t="s">
         <v>98</v>
@@ -9643,16 +9661,16 @@
         <f>DEC2HEX('ipv4'!L43)</f>
         <v>1</v>
       </c>
-      <c r="M31" s="115"/>
+      <c r="M31" s="103"/>
       <c r="N31" s="55"/>
       <c r="P31" s="54" t="s">
         <v>104</v>
       </c>
       <c r="Q31" s="32" t="str">
-        <f>DEC2HEX('ipv4'!Q41)</f>
+        <f>DEC2HEX('ipv4'!Q42)</f>
         <v>4</v>
       </c>
-      <c r="R31" s="103"/>
+      <c r="R31" s="112"/>
       <c r="S31" s="70"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
@@ -9672,7 +9690,7 @@
         <f>DEC2HEX('ipv4'!G32)</f>
         <v>FE</v>
       </c>
-      <c r="H32" s="86"/>
+      <c r="H32" s="83"/>
       <c r="I32" s="7"/>
       <c r="K32" s="10" t="s">
         <v>98</v>
@@ -9681,16 +9699,16 @@
         <f>DEC2HEX('ipv4'!L44)</f>
         <v>2</v>
       </c>
-      <c r="M32" s="116"/>
+      <c r="M32" s="104"/>
       <c r="N32" s="55"/>
       <c r="P32" s="54" t="s">
         <v>104</v>
       </c>
       <c r="Q32" s="54" t="str">
-        <f>DEC2HEX('ipv4'!Q42)</f>
+        <f>DEC2HEX('ipv4'!Q43)</f>
         <v>5</v>
       </c>
-      <c r="R32" s="103"/>
+      <c r="R32" s="112"/>
       <c r="S32" s="32" t="s">
         <v>46</v>
       </c>
@@ -9713,10 +9731,10 @@
         <v>104</v>
       </c>
       <c r="Q33" s="54" t="str">
-        <f>DEC2HEX('ipv4'!Q43)</f>
-        <v>6</v>
-      </c>
-      <c r="R33" s="103"/>
+        <f>DEC2HEX('ipv4'!Q44)</f>
+        <v>6</v>
+      </c>
+      <c r="R33" s="112"/>
       <c r="S33" s="32" t="s">
         <v>48</v>
       </c>
@@ -9735,7 +9753,7 @@
         <v>84</v>
       </c>
       <c r="G34" s="3"/>
-      <c r="H34" s="99" t="s">
+      <c r="H34" s="108" t="s">
         <v>15</v>
       </c>
       <c r="I34" s="4" t="s">
@@ -9745,10 +9763,10 @@
         <v>104</v>
       </c>
       <c r="Q34" s="32" t="str">
-        <f>DEC2HEX('ipv4'!Q45)</f>
+        <f>DEC2HEX('ipv4'!Q46)</f>
         <v>8</v>
       </c>
-      <c r="R34" s="103"/>
+      <c r="R34" s="112"/>
       <c r="S34" s="70"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -9768,16 +9786,16 @@
         <f>DEC2HEX('ipv4'!G36)</f>
         <v>1</v>
       </c>
-      <c r="H35" s="100"/>
+      <c r="H35" s="109"/>
       <c r="I35" s="55"/>
       <c r="P35" s="54" t="s">
         <v>104</v>
       </c>
       <c r="Q35" s="54" t="str">
-        <f>DEC2HEX('ipv4'!Q46)</f>
+        <f>DEC2HEX('ipv4'!Q47)</f>
         <v>9</v>
       </c>
-      <c r="R35" s="103"/>
+      <c r="R35" s="112"/>
       <c r="S35" s="32" t="s">
         <v>55</v>
       </c>
@@ -9799,16 +9817,16 @@
         <f>DEC2HEX('ipv4'!G37)</f>
         <v>2</v>
       </c>
-      <c r="H36" s="100"/>
+      <c r="H36" s="109"/>
       <c r="I36" s="55"/>
       <c r="P36" s="54" t="s">
         <v>104</v>
       </c>
       <c r="Q36" s="54" t="str">
-        <f>DEC2HEX('ipv4'!Q47)</f>
+        <f>DEC2HEX('ipv4'!Q48)</f>
         <v>A</v>
       </c>
-      <c r="R36" s="103"/>
+      <c r="R36" s="112"/>
       <c r="S36" s="32" t="s">
         <v>54</v>
       </c>
@@ -9830,13 +9848,13 @@
         <f>DEC2HEX('ipv4'!G38)</f>
         <v>3</v>
       </c>
-      <c r="H37" s="100"/>
+      <c r="H37" s="109"/>
       <c r="I37" s="55"/>
       <c r="P37" s="53" t="s">
         <v>105</v>
       </c>
       <c r="Q37" s="33"/>
-      <c r="R37" s="103"/>
+      <c r="R37" s="112"/>
       <c r="S37" s="4" t="s">
         <v>23</v>
       </c>
@@ -9858,16 +9876,16 @@
         <f>DEC2HEX('ipv4'!G39)</f>
         <v>4</v>
       </c>
-      <c r="H38" s="100"/>
+      <c r="H38" s="109"/>
       <c r="I38" s="55"/>
       <c r="P38" s="54" t="s">
         <v>105</v>
       </c>
       <c r="Q38" s="32" t="str">
-        <f>DEC2HEX('ipv4'!Q50)</f>
+        <f>DEC2HEX('ipv4'!Q70)</f>
         <v>1</v>
       </c>
-      <c r="R38" s="103"/>
+      <c r="R38" s="112"/>
       <c r="S38" s="32" t="s">
         <v>44</v>
       </c>
@@ -9889,16 +9907,16 @@
         <f>DEC2HEX('ipv4'!G40)</f>
         <v>5</v>
       </c>
-      <c r="H39" s="100"/>
+      <c r="H39" s="109"/>
       <c r="I39" s="55"/>
       <c r="P39" s="54" t="s">
         <v>105</v>
       </c>
       <c r="Q39" s="32" t="str">
-        <f>DEC2HEX('ipv4'!Q51)</f>
+        <f>DEC2HEX('ipv4'!Q71)</f>
         <v>2</v>
       </c>
-      <c r="R39" s="103"/>
+      <c r="R39" s="112"/>
       <c r="S39" s="32" t="s">
         <v>53</v>
       </c>
@@ -9920,16 +9938,16 @@
         <f>DEC2HEX('ipv4'!G41)</f>
         <v>6</v>
       </c>
-      <c r="H40" s="100"/>
+      <c r="H40" s="109"/>
       <c r="I40" s="55"/>
       <c r="P40" s="54" t="s">
         <v>105</v>
       </c>
       <c r="Q40" s="32" t="str">
-        <f>DEC2HEX('ipv4'!Q52)</f>
+        <f>DEC2HEX('ipv4'!Q72)</f>
         <v>3</v>
       </c>
-      <c r="R40" s="104"/>
+      <c r="R40" s="113"/>
       <c r="S40" s="32"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
@@ -9949,7 +9967,7 @@
         <f>DEC2HEX('ipv4'!G42)</f>
         <v>7</v>
       </c>
-      <c r="H41" s="100"/>
+      <c r="H41" s="109"/>
       <c r="I41" s="55"/>
     </row>
     <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9969,13 +9987,13 @@
         <f>DEC2HEX('ipv4'!G43)</f>
         <v>8</v>
       </c>
-      <c r="H42" s="100"/>
+      <c r="H42" s="109"/>
       <c r="I42" s="55"/>
       <c r="P42" s="33" t="s">
         <v>122</v>
       </c>
       <c r="Q42" s="33"/>
-      <c r="R42" s="105" t="s">
+      <c r="R42" s="114" t="s">
         <v>118</v>
       </c>
       <c r="S42" s="4" t="s">
@@ -9999,16 +10017,16 @@
         <f>DEC2HEX('ipv4'!G44)</f>
         <v>9</v>
       </c>
-      <c r="H43" s="100"/>
+      <c r="H43" s="109"/>
       <c r="I43" s="55"/>
       <c r="P43" s="54" t="s">
         <v>122</v>
       </c>
       <c r="Q43" s="32" t="str">
-        <f>DEC2HEX('ipv4'!Q57)</f>
+        <f>DEC2HEX('ipv4'!Q77)</f>
         <v>1</v>
       </c>
-      <c r="R43" s="106"/>
+      <c r="R43" s="115"/>
       <c r="S43" s="32" t="s">
         <v>108</v>
       </c>
@@ -10030,16 +10048,16 @@
         <f>DEC2HEX('ipv4'!G45)</f>
         <v>A</v>
       </c>
-      <c r="H44" s="101"/>
+      <c r="H44" s="110"/>
       <c r="I44" s="55"/>
       <c r="P44" s="54" t="s">
         <v>122</v>
       </c>
       <c r="Q44" s="32" t="str">
-        <f>DEC2HEX('ipv4'!Q58)</f>
+        <f>DEC2HEX('ipv4'!Q78)</f>
         <v>2</v>
       </c>
-      <c r="R44" s="107"/>
+      <c r="R44" s="116"/>
       <c r="S44" s="32" t="s">
         <v>107</v>
       </c>
@@ -11146,12 +11164,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AA2:AF2"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="M1:M15"/>
-    <mergeCell ref="M17:M22"/>
-    <mergeCell ref="M24:M32"/>
-    <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="C1:C144"/>
     <mergeCell ref="H34:H44"/>
     <mergeCell ref="H1:H32"/>
@@ -11159,6 +11171,12 @@
     <mergeCell ref="R7:R9"/>
     <mergeCell ref="R11:R40"/>
     <mergeCell ref="R42:R44"/>
+    <mergeCell ref="AA2:AF2"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="M1:M15"/>
+    <mergeCell ref="M17:M22"/>
+    <mergeCell ref="M24:M32"/>
+    <mergeCell ref="AA3:AC3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/Documentations/VLANs/VLSM-tablazat.xlsx
+++ b/Documentations/VLANs/VLSM-tablazat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doboz\Desktop\aromas-cubanos\Documentations\VLANs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\aromas-cubanos\Documentations\VLANs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2806820A-4D44-4103-AE40-7D682CB125CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7770064-8579-48D9-8B66-00A51896D844}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5295" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{012D1D82-EB97-4B95-AC21-450975C8649A}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{012D1D82-EB97-4B95-AC21-450975C8649A}"/>
   </bookViews>
   <sheets>
     <sheet name="plain" sheetId="1" r:id="rId1"/>
@@ -22,23 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="124">
   <si>
     <t>/30</t>
   </si>
@@ -407,6 +396,9 @@
   </si>
   <si>
     <t>Gateway RV</t>
+  </si>
+  <si>
+    <t>PT-Controller</t>
   </si>
 </sst>
 </file>
@@ -1013,42 +1005,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1106,6 +1062,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1115,13 +1080,31 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1144,6 +1127,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1175,9 +1167,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1215,7 +1207,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1321,7 +1313,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1463,7 +1455,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5035,52 +5027,61 @@
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="C142:C145"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="C178:C181"/>
-    <mergeCell ref="C182:C185"/>
-    <mergeCell ref="C186:C189"/>
-    <mergeCell ref="C190:C193"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="C154:C157"/>
-    <mergeCell ref="C158:C161"/>
-    <mergeCell ref="C162:C165"/>
-    <mergeCell ref="C166:C169"/>
+    <mergeCell ref="H2:H129"/>
+    <mergeCell ref="H130:H257"/>
+    <mergeCell ref="F162:F193"/>
+    <mergeCell ref="F194:F225"/>
+    <mergeCell ref="F226:F257"/>
+    <mergeCell ref="G2:G65"/>
+    <mergeCell ref="G66:G129"/>
+    <mergeCell ref="G130:G193"/>
+    <mergeCell ref="G194:G257"/>
+    <mergeCell ref="E178:E193"/>
+    <mergeCell ref="E194:E209"/>
+    <mergeCell ref="E210:E225"/>
+    <mergeCell ref="E226:E241"/>
+    <mergeCell ref="E242:E257"/>
+    <mergeCell ref="F2:F33"/>
+    <mergeCell ref="F34:F65"/>
+    <mergeCell ref="F66:F97"/>
+    <mergeCell ref="F98:F129"/>
+    <mergeCell ref="F130:F161"/>
+    <mergeCell ref="E82:E97"/>
+    <mergeCell ref="E98:E113"/>
+    <mergeCell ref="E114:E129"/>
+    <mergeCell ref="E130:E145"/>
+    <mergeCell ref="E146:E161"/>
+    <mergeCell ref="E162:E177"/>
+    <mergeCell ref="E2:E17"/>
+    <mergeCell ref="E18:E33"/>
+    <mergeCell ref="E34:E49"/>
+    <mergeCell ref="E50:E65"/>
+    <mergeCell ref="E66:E81"/>
+    <mergeCell ref="D242:D249"/>
+    <mergeCell ref="D250:D257"/>
+    <mergeCell ref="D194:D201"/>
+    <mergeCell ref="D202:D209"/>
+    <mergeCell ref="D210:D217"/>
+    <mergeCell ref="D218:D225"/>
+    <mergeCell ref="D226:D233"/>
+    <mergeCell ref="D234:D241"/>
+    <mergeCell ref="D146:D153"/>
+    <mergeCell ref="D154:D161"/>
+    <mergeCell ref="D162:D169"/>
+    <mergeCell ref="D170:D177"/>
+    <mergeCell ref="D178:D185"/>
+    <mergeCell ref="D186:D193"/>
+    <mergeCell ref="D106:D113"/>
+    <mergeCell ref="D114:D121"/>
+    <mergeCell ref="D122:D129"/>
+    <mergeCell ref="D130:D137"/>
+    <mergeCell ref="D138:D145"/>
+    <mergeCell ref="D50:D57"/>
+    <mergeCell ref="D58:D65"/>
+    <mergeCell ref="D66:D73"/>
+    <mergeCell ref="D74:D81"/>
+    <mergeCell ref="D82:D89"/>
+    <mergeCell ref="D90:D97"/>
     <mergeCell ref="C242:C245"/>
     <mergeCell ref="C246:C249"/>
     <mergeCell ref="C250:C253"/>
@@ -5105,61 +5106,52 @@
     <mergeCell ref="C170:C173"/>
     <mergeCell ref="C174:C177"/>
     <mergeCell ref="D98:D105"/>
-    <mergeCell ref="D106:D113"/>
-    <mergeCell ref="D114:D121"/>
-    <mergeCell ref="D122:D129"/>
-    <mergeCell ref="D130:D137"/>
-    <mergeCell ref="D138:D145"/>
-    <mergeCell ref="D50:D57"/>
-    <mergeCell ref="D58:D65"/>
-    <mergeCell ref="D66:D73"/>
-    <mergeCell ref="D74:D81"/>
-    <mergeCell ref="D82:D89"/>
-    <mergeCell ref="D90:D97"/>
-    <mergeCell ref="D242:D249"/>
-    <mergeCell ref="D250:D257"/>
-    <mergeCell ref="D194:D201"/>
-    <mergeCell ref="D202:D209"/>
-    <mergeCell ref="D210:D217"/>
-    <mergeCell ref="D218:D225"/>
-    <mergeCell ref="D226:D233"/>
-    <mergeCell ref="D234:D241"/>
-    <mergeCell ref="D146:D153"/>
-    <mergeCell ref="D154:D161"/>
-    <mergeCell ref="D162:D169"/>
-    <mergeCell ref="D170:D177"/>
-    <mergeCell ref="D178:D185"/>
-    <mergeCell ref="D186:D193"/>
-    <mergeCell ref="E178:E193"/>
-    <mergeCell ref="E194:E209"/>
-    <mergeCell ref="E210:E225"/>
-    <mergeCell ref="E226:E241"/>
-    <mergeCell ref="E242:E257"/>
-    <mergeCell ref="F2:F33"/>
-    <mergeCell ref="F34:F65"/>
-    <mergeCell ref="F66:F97"/>
-    <mergeCell ref="F98:F129"/>
-    <mergeCell ref="F130:F161"/>
-    <mergeCell ref="E82:E97"/>
-    <mergeCell ref="E98:E113"/>
-    <mergeCell ref="E114:E129"/>
-    <mergeCell ref="E130:E145"/>
-    <mergeCell ref="E146:E161"/>
-    <mergeCell ref="E162:E177"/>
-    <mergeCell ref="E2:E17"/>
-    <mergeCell ref="E18:E33"/>
-    <mergeCell ref="E34:E49"/>
-    <mergeCell ref="E50:E65"/>
-    <mergeCell ref="E66:E81"/>
-    <mergeCell ref="H2:H129"/>
-    <mergeCell ref="H130:H257"/>
-    <mergeCell ref="F162:F193"/>
-    <mergeCell ref="F194:F225"/>
-    <mergeCell ref="F226:F257"/>
-    <mergeCell ref="G2:G65"/>
-    <mergeCell ref="G66:G129"/>
-    <mergeCell ref="G130:G193"/>
-    <mergeCell ref="G194:G257"/>
+    <mergeCell ref="C178:C181"/>
+    <mergeCell ref="C182:C185"/>
+    <mergeCell ref="C186:C189"/>
+    <mergeCell ref="C190:C193"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="C154:C157"/>
+    <mergeCell ref="C158:C161"/>
+    <mergeCell ref="C162:C165"/>
+    <mergeCell ref="C166:C169"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -5170,8 +5162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709A4C10-0955-4D97-86D1-D5085866A222}">
   <dimension ref="A1:AD148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5213,7 +5205,7 @@
       <c r="B1" s="3">
         <v>0</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="100" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -5225,7 +5217,7 @@
       <c r="G1" s="3">
         <v>0</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="80" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -5237,7 +5229,7 @@
       <c r="L1" s="3">
         <v>0</v>
       </c>
-      <c r="M1" s="101" t="s">
+      <c r="M1" s="89" t="s">
         <v>17</v>
       </c>
       <c r="N1" s="4" t="s">
@@ -5249,7 +5241,7 @@
       <c r="Q1" s="33">
         <v>0</v>
       </c>
-      <c r="R1" s="106" t="s">
+      <c r="R1" s="97" t="s">
         <v>18</v>
       </c>
       <c r="S1" s="4" t="s">
@@ -5263,7 +5255,7 @@
       <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="76"/>
+      <c r="C2" s="101"/>
       <c r="D2" s="7"/>
       <c r="F2" s="10" t="s">
         <v>72</v>
@@ -5271,7 +5263,7 @@
       <c r="G2" s="6">
         <v>1</v>
       </c>
-      <c r="H2" s="93"/>
+      <c r="H2" s="81"/>
       <c r="I2" s="7"/>
       <c r="K2" s="10" t="s">
         <v>74</v>
@@ -5279,7 +5271,7 @@
       <c r="L2" s="6">
         <v>1</v>
       </c>
-      <c r="M2" s="102"/>
+      <c r="M2" s="90"/>
       <c r="N2" s="7"/>
       <c r="P2" s="10" t="s">
         <v>81</v>
@@ -5287,16 +5279,16 @@
       <c r="Q2" s="32">
         <v>1</v>
       </c>
-      <c r="R2" s="107"/>
+      <c r="R2" s="98"/>
       <c r="S2" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" s="87" t="s">
+      <c r="AA2" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="88"/>
-      <c r="AD2" s="89"/>
+      <c r="AB2" s="76"/>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="77"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -5305,7 +5297,7 @@
       <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="76"/>
+      <c r="C3" s="101"/>
       <c r="D3" s="7"/>
       <c r="F3" s="10" t="s">
         <v>72</v>
@@ -5313,7 +5305,7 @@
       <c r="G3" s="6">
         <v>2</v>
       </c>
-      <c r="H3" s="93"/>
+      <c r="H3" s="81"/>
       <c r="I3" s="7"/>
       <c r="K3" s="10" t="s">
         <v>74</v>
@@ -5321,7 +5313,7 @@
       <c r="L3" s="6">
         <v>2</v>
       </c>
-      <c r="M3" s="102"/>
+      <c r="M3" s="90"/>
       <c r="N3" s="7"/>
       <c r="P3" s="10" t="s">
         <v>81</v>
@@ -5329,7 +5321,7 @@
       <c r="Q3" s="32">
         <v>2</v>
       </c>
-      <c r="R3" s="107"/>
+      <c r="R3" s="98"/>
       <c r="S3" s="55" t="s">
         <v>33</v>
       </c>
@@ -5353,7 +5345,7 @@
       <c r="B4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" s="76"/>
+      <c r="C4" s="101"/>
       <c r="D4" s="7"/>
       <c r="F4" s="10" t="s">
         <v>72</v>
@@ -5361,7 +5353,7 @@
       <c r="G4" s="6">
         <v>3</v>
       </c>
-      <c r="H4" s="93"/>
+      <c r="H4" s="81"/>
       <c r="I4" s="7"/>
       <c r="K4" s="10" t="s">
         <v>74</v>
@@ -5369,7 +5361,7 @@
       <c r="L4" s="6">
         <v>3</v>
       </c>
-      <c r="M4" s="102"/>
+      <c r="M4" s="90"/>
       <c r="N4" s="7"/>
       <c r="P4" s="30" t="s">
         <v>81</v>
@@ -5377,7 +5369,7 @@
       <c r="Q4" s="59">
         <v>252</v>
       </c>
-      <c r="R4" s="107"/>
+      <c r="R4" s="98"/>
       <c r="S4" s="31" t="s">
         <v>121</v>
       </c>
@@ -5401,7 +5393,7 @@
       <c r="B5" s="6">
         <v>4</v>
       </c>
-      <c r="C5" s="76"/>
+      <c r="C5" s="101"/>
       <c r="D5" s="7"/>
       <c r="F5" s="10" t="s">
         <v>72</v>
@@ -5409,7 +5401,7 @@
       <c r="G5" s="6">
         <v>4</v>
       </c>
-      <c r="H5" s="93"/>
+      <c r="H5" s="81"/>
       <c r="I5" s="7"/>
       <c r="K5" s="23" t="s">
         <v>74</v>
@@ -5417,7 +5409,7 @@
       <c r="L5" s="24">
         <v>252</v>
       </c>
-      <c r="M5" s="102"/>
+      <c r="M5" s="90"/>
       <c r="N5" s="25" t="s">
         <v>121</v>
       </c>
@@ -5427,7 +5419,7 @@
       <c r="Q5" s="59">
         <v>253</v>
       </c>
-      <c r="R5" s="107"/>
+      <c r="R5" s="98"/>
       <c r="S5" s="31" t="s">
         <v>122</v>
       </c>
@@ -5439,7 +5431,7 @@
       <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="C6" s="76"/>
+      <c r="C6" s="101"/>
       <c r="D6" s="7"/>
       <c r="F6" s="10" t="s">
         <v>72</v>
@@ -5447,7 +5439,7 @@
       <c r="G6" s="6">
         <v>5</v>
       </c>
-      <c r="H6" s="93"/>
+      <c r="H6" s="81"/>
       <c r="I6" s="7"/>
       <c r="K6" s="23" t="s">
         <v>74</v>
@@ -5455,7 +5447,7 @@
       <c r="L6" s="24">
         <v>253</v>
       </c>
-      <c r="M6" s="102"/>
+      <c r="M6" s="90"/>
       <c r="N6" s="25" t="s">
         <v>122</v>
       </c>
@@ -5465,14 +5457,14 @@
       <c r="Q6" s="59">
         <v>254</v>
       </c>
-      <c r="R6" s="107"/>
+      <c r="R6" s="98"/>
       <c r="S6" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="AA6" s="90" t="s">
+      <c r="AA6" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="AB6" s="91"/>
+      <c r="AB6" s="79"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -5481,7 +5473,7 @@
       <c r="B7" s="6">
         <v>6</v>
       </c>
-      <c r="C7" s="76"/>
+      <c r="C7" s="101"/>
       <c r="D7" s="7"/>
       <c r="F7" s="10" t="s">
         <v>72</v>
@@ -5489,7 +5481,7 @@
       <c r="G7" s="6">
         <v>6</v>
       </c>
-      <c r="H7" s="93"/>
+      <c r="H7" s="81"/>
       <c r="I7" s="7"/>
       <c r="K7" s="23" t="s">
         <v>74</v>
@@ -5497,7 +5489,7 @@
       <c r="L7" s="24">
         <v>254</v>
       </c>
-      <c r="M7" s="102"/>
+      <c r="M7" s="90"/>
       <c r="N7" s="25" t="s">
         <v>117</v>
       </c>
@@ -5507,7 +5499,7 @@
       <c r="Q7" s="33">
         <v>255</v>
       </c>
-      <c r="R7" s="108"/>
+      <c r="R7" s="99"/>
       <c r="S7" s="4" t="s">
         <v>19</v>
       </c>
@@ -5525,7 +5517,7 @@
       <c r="B8" s="6">
         <v>7</v>
       </c>
-      <c r="C8" s="76"/>
+      <c r="C8" s="101"/>
       <c r="D8" s="7"/>
       <c r="F8" s="10" t="s">
         <v>72</v>
@@ -5533,7 +5525,7 @@
       <c r="G8" s="6">
         <v>7</v>
       </c>
-      <c r="H8" s="93"/>
+      <c r="H8" s="81"/>
       <c r="I8" s="7"/>
       <c r="K8" s="9" t="s">
         <v>74</v>
@@ -5541,7 +5533,7 @@
       <c r="L8" s="3">
         <v>255</v>
       </c>
-      <c r="M8" s="102"/>
+      <c r="M8" s="90"/>
       <c r="N8" s="4" t="s">
         <v>19</v>
       </c>
@@ -5559,7 +5551,7 @@
       <c r="B9" s="6">
         <v>8</v>
       </c>
-      <c r="C9" s="76"/>
+      <c r="C9" s="101"/>
       <c r="D9" s="7"/>
       <c r="F9" s="10" t="s">
         <v>72</v>
@@ -5567,7 +5559,7 @@
       <c r="G9" s="6">
         <v>8</v>
       </c>
-      <c r="H9" s="93"/>
+      <c r="H9" s="81"/>
       <c r="I9" s="7"/>
       <c r="K9" s="9" t="s">
         <v>75</v>
@@ -5575,7 +5567,7 @@
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="102"/>
+      <c r="M9" s="90"/>
       <c r="N9" s="4" t="s">
         <v>23</v>
       </c>
@@ -5585,7 +5577,7 @@
       <c r="Q9" s="33">
         <v>0</v>
       </c>
-      <c r="R9" s="106" t="s">
+      <c r="R9" s="97" t="s">
         <v>20</v>
       </c>
       <c r="S9" s="4" t="s">
@@ -5605,7 +5597,7 @@
       <c r="B10" s="6">
         <v>9</v>
       </c>
-      <c r="C10" s="76"/>
+      <c r="C10" s="101"/>
       <c r="D10" s="7"/>
       <c r="F10" s="10" t="s">
         <v>72</v>
@@ -5613,7 +5605,7 @@
       <c r="G10" s="6">
         <v>9</v>
       </c>
-      <c r="H10" s="93"/>
+      <c r="H10" s="81"/>
       <c r="I10" s="7"/>
       <c r="K10" s="10" t="s">
         <v>75</v>
@@ -5621,7 +5613,7 @@
       <c r="L10" s="6">
         <v>1</v>
       </c>
-      <c r="M10" s="102"/>
+      <c r="M10" s="90"/>
       <c r="N10" s="7"/>
       <c r="P10" s="54" t="s">
         <v>96</v>
@@ -5629,7 +5621,7 @@
       <c r="Q10" s="32">
         <v>1</v>
       </c>
-      <c r="R10" s="107"/>
+      <c r="R10" s="98"/>
       <c r="S10" s="55" t="s">
         <v>21</v>
       </c>
@@ -5647,7 +5639,7 @@
       <c r="B11" s="6">
         <v>10</v>
       </c>
-      <c r="C11" s="76"/>
+      <c r="C11" s="101"/>
       <c r="D11" s="7"/>
       <c r="F11" s="10" t="s">
         <v>72</v>
@@ -5655,7 +5647,7 @@
       <c r="G11" s="6">
         <v>10</v>
       </c>
-      <c r="H11" s="93"/>
+      <c r="H11" s="81"/>
       <c r="I11" s="7"/>
       <c r="K11" s="10" t="s">
         <v>75</v>
@@ -5663,7 +5655,7 @@
       <c r="L11" s="6">
         <v>2</v>
       </c>
-      <c r="M11" s="102"/>
+      <c r="M11" s="90"/>
       <c r="N11" s="7"/>
       <c r="P11" s="54" t="s">
         <v>96</v>
@@ -5671,7 +5663,7 @@
       <c r="Q11" s="32">
         <v>2</v>
       </c>
-      <c r="R11" s="107"/>
+      <c r="R11" s="98"/>
       <c r="S11" s="55" t="s">
         <v>22</v>
       </c>
@@ -5683,7 +5675,7 @@
       <c r="B12" s="6">
         <v>11</v>
       </c>
-      <c r="C12" s="76"/>
+      <c r="C12" s="101"/>
       <c r="D12" s="7"/>
       <c r="F12" s="10" t="s">
         <v>72</v>
@@ -5691,7 +5683,7 @@
       <c r="G12" s="6">
         <v>11</v>
       </c>
-      <c r="H12" s="93"/>
+      <c r="H12" s="81"/>
       <c r="I12" s="7"/>
       <c r="K12" s="10" t="s">
         <v>75</v>
@@ -5699,7 +5691,7 @@
       <c r="L12" s="6">
         <v>3</v>
       </c>
-      <c r="M12" s="102"/>
+      <c r="M12" s="90"/>
       <c r="N12" s="7"/>
       <c r="P12" s="67" t="s">
         <v>96</v>
@@ -5707,7 +5699,7 @@
       <c r="Q12" s="34">
         <v>252</v>
       </c>
-      <c r="R12" s="107"/>
+      <c r="R12" s="98"/>
       <c r="S12" s="28" t="s">
         <v>121</v>
       </c>
@@ -5723,7 +5715,7 @@
       <c r="B13" s="6">
         <v>12</v>
       </c>
-      <c r="C13" s="76"/>
+      <c r="C13" s="101"/>
       <c r="D13" s="7"/>
       <c r="F13" s="10" t="s">
         <v>72</v>
@@ -5731,7 +5723,7 @@
       <c r="G13" s="6">
         <v>12</v>
       </c>
-      <c r="H13" s="93"/>
+      <c r="H13" s="81"/>
       <c r="I13" s="7"/>
       <c r="K13" s="10" t="s">
         <v>75</v>
@@ -5739,7 +5731,7 @@
       <c r="L13" s="6">
         <v>4</v>
       </c>
-      <c r="M13" s="102"/>
+      <c r="M13" s="90"/>
       <c r="N13" s="7"/>
       <c r="P13" s="67" t="s">
         <v>96</v>
@@ -5747,7 +5739,7 @@
       <c r="Q13" s="34">
         <v>253</v>
       </c>
-      <c r="R13" s="107"/>
+      <c r="R13" s="98"/>
       <c r="S13" s="28" t="s">
         <v>122</v>
       </c>
@@ -5763,7 +5755,7 @@
       <c r="B14" s="6">
         <v>13</v>
       </c>
-      <c r="C14" s="76"/>
+      <c r="C14" s="101"/>
       <c r="D14" s="7"/>
       <c r="F14" s="10" t="s">
         <v>72</v>
@@ -5771,7 +5763,7 @@
       <c r="G14" s="6">
         <v>13</v>
       </c>
-      <c r="H14" s="93"/>
+      <c r="H14" s="81"/>
       <c r="I14" s="7"/>
       <c r="K14" s="23" t="s">
         <v>75</v>
@@ -5779,7 +5771,7 @@
       <c r="L14" s="24">
         <v>254</v>
       </c>
-      <c r="M14" s="102"/>
+      <c r="M14" s="90"/>
       <c r="N14" s="25" t="s">
         <v>42</v>
       </c>
@@ -5789,7 +5781,7 @@
       <c r="Q14" s="34">
         <v>254</v>
       </c>
-      <c r="R14" s="107"/>
+      <c r="R14" s="98"/>
       <c r="S14" s="28" t="s">
         <v>117</v>
       </c>
@@ -5805,7 +5797,7 @@
       <c r="B15" s="6">
         <v>14</v>
       </c>
-      <c r="C15" s="76"/>
+      <c r="C15" s="101"/>
       <c r="D15" s="7"/>
       <c r="F15" s="10" t="s">
         <v>72</v>
@@ -5813,7 +5805,7 @@
       <c r="G15" s="6">
         <v>14</v>
       </c>
-      <c r="H15" s="93"/>
+      <c r="H15" s="81"/>
       <c r="I15" s="7"/>
       <c r="K15" s="9" t="s">
         <v>75</v>
@@ -5821,7 +5813,7 @@
       <c r="L15" s="3">
         <v>255</v>
       </c>
-      <c r="M15" s="102"/>
+      <c r="M15" s="90"/>
       <c r="N15" s="4" t="s">
         <v>19</v>
       </c>
@@ -5831,7 +5823,7 @@
       <c r="Q15" s="33">
         <v>255</v>
       </c>
-      <c r="R15" s="108"/>
+      <c r="R15" s="99"/>
       <c r="S15" s="4" t="s">
         <v>19</v>
       </c>
@@ -5848,7 +5840,7 @@
       <c r="B16" s="6">
         <v>15</v>
       </c>
-      <c r="C16" s="76"/>
+      <c r="C16" s="101"/>
       <c r="D16" s="7"/>
       <c r="F16" s="10" t="s">
         <v>72</v>
@@ -5856,7 +5848,7 @@
       <c r="G16" s="6">
         <v>15</v>
       </c>
-      <c r="H16" s="93"/>
+      <c r="H16" s="81"/>
       <c r="I16" s="7"/>
       <c r="K16" s="9" t="s">
         <v>76</v>
@@ -5864,7 +5856,7 @@
       <c r="L16" s="3">
         <v>0</v>
       </c>
-      <c r="M16" s="102"/>
+      <c r="M16" s="90"/>
       <c r="N16" s="4" t="s">
         <v>23</v>
       </c>
@@ -5879,7 +5871,7 @@
       <c r="B17" s="6">
         <v>16</v>
       </c>
-      <c r="C17" s="76"/>
+      <c r="C17" s="101"/>
       <c r="D17" s="7"/>
       <c r="F17" s="10" t="s">
         <v>72</v>
@@ -5887,7 +5879,7 @@
       <c r="G17" s="6">
         <v>16</v>
       </c>
-      <c r="H17" s="93"/>
+      <c r="H17" s="81"/>
       <c r="I17" s="7"/>
       <c r="K17" s="10" t="s">
         <v>76</v>
@@ -5895,7 +5887,7 @@
       <c r="L17" s="6">
         <v>1</v>
       </c>
-      <c r="M17" s="102"/>
+      <c r="M17" s="90"/>
       <c r="N17" s="7"/>
       <c r="P17" s="33" t="s">
         <v>62</v>
@@ -5903,7 +5895,7 @@
       <c r="Q17" s="33">
         <v>0</v>
       </c>
-      <c r="R17" s="84" t="s">
+      <c r="R17" s="94" t="s">
         <v>71</v>
       </c>
       <c r="S17" s="4" t="s">
@@ -5920,7 +5912,7 @@
       <c r="B18" s="6">
         <v>17</v>
       </c>
-      <c r="C18" s="76"/>
+      <c r="C18" s="101"/>
       <c r="D18" s="7"/>
       <c r="F18" s="10" t="s">
         <v>72</v>
@@ -5928,7 +5920,7 @@
       <c r="G18" s="6">
         <v>17</v>
       </c>
-      <c r="H18" s="93"/>
+      <c r="H18" s="81"/>
       <c r="I18" s="7"/>
       <c r="K18" s="10" t="s">
         <v>76</v>
@@ -5936,7 +5928,7 @@
       <c r="L18" s="6">
         <v>2</v>
       </c>
-      <c r="M18" s="102"/>
+      <c r="M18" s="90"/>
       <c r="N18" s="7"/>
       <c r="P18" s="32" t="s">
         <v>62</v>
@@ -5944,7 +5936,7 @@
       <c r="Q18" s="32">
         <v>1</v>
       </c>
-      <c r="R18" s="85"/>
+      <c r="R18" s="95"/>
       <c r="S18" s="72" t="s">
         <v>56</v>
       </c>
@@ -5960,7 +5952,7 @@
       <c r="B19" s="6">
         <v>18</v>
       </c>
-      <c r="C19" s="76"/>
+      <c r="C19" s="101"/>
       <c r="D19" s="7"/>
       <c r="F19" s="10" t="s">
         <v>72</v>
@@ -5968,7 +5960,7 @@
       <c r="G19" s="6">
         <v>18</v>
       </c>
-      <c r="H19" s="93"/>
+      <c r="H19" s="81"/>
       <c r="I19" s="7"/>
       <c r="K19" s="10" t="s">
         <v>76</v>
@@ -5976,7 +5968,7 @@
       <c r="L19" s="6">
         <v>3</v>
       </c>
-      <c r="M19" s="102"/>
+      <c r="M19" s="90"/>
       <c r="N19" s="7"/>
       <c r="P19" s="32" t="s">
         <v>62</v>
@@ -5984,7 +5976,7 @@
       <c r="Q19" s="32">
         <v>2</v>
       </c>
-      <c r="R19" s="85"/>
+      <c r="R19" s="95"/>
       <c r="S19" s="72" t="s">
         <v>57</v>
       </c>
@@ -6000,7 +5992,7 @@
       <c r="B20" s="6">
         <v>19</v>
       </c>
-      <c r="C20" s="76"/>
+      <c r="C20" s="101"/>
       <c r="D20" s="7"/>
       <c r="F20" s="10" t="s">
         <v>72</v>
@@ -6008,7 +6000,7 @@
       <c r="G20" s="6">
         <v>19</v>
       </c>
-      <c r="H20" s="93"/>
+      <c r="H20" s="81"/>
       <c r="I20" s="7"/>
       <c r="K20" s="10" t="s">
         <v>76</v>
@@ -6016,7 +6008,7 @@
       <c r="L20" s="6">
         <v>4</v>
       </c>
-      <c r="M20" s="102"/>
+      <c r="M20" s="90"/>
       <c r="N20" s="7"/>
       <c r="P20" s="32" t="s">
         <v>62</v>
@@ -6024,7 +6016,7 @@
       <c r="Q20" s="32">
         <v>3</v>
       </c>
-      <c r="R20" s="85"/>
+      <c r="R20" s="95"/>
       <c r="S20" s="73" t="s">
         <v>58</v>
       </c>
@@ -6040,7 +6032,7 @@
       <c r="B21" s="6">
         <v>20</v>
       </c>
-      <c r="C21" s="76"/>
+      <c r="C21" s="101"/>
       <c r="D21" s="7"/>
       <c r="F21" s="10" t="s">
         <v>72</v>
@@ -6048,7 +6040,7 @@
       <c r="G21" s="6">
         <v>20</v>
       </c>
-      <c r="H21" s="93"/>
+      <c r="H21" s="81"/>
       <c r="I21" s="7"/>
       <c r="K21" s="23" t="s">
         <v>76</v>
@@ -6056,7 +6048,7 @@
       <c r="L21" s="24">
         <v>254</v>
       </c>
-      <c r="M21" s="102"/>
+      <c r="M21" s="90"/>
       <c r="N21" s="25" t="s">
         <v>42</v>
       </c>
@@ -6066,7 +6058,7 @@
       <c r="Q21" s="34">
         <v>252</v>
       </c>
-      <c r="R21" s="85"/>
+      <c r="R21" s="95"/>
       <c r="S21" s="28" t="s">
         <v>121</v>
       </c>
@@ -6082,7 +6074,7 @@
       <c r="B22" s="6">
         <v>21</v>
       </c>
-      <c r="C22" s="76"/>
+      <c r="C22" s="101"/>
       <c r="D22" s="7"/>
       <c r="F22" s="10" t="s">
         <v>72</v>
@@ -6090,7 +6082,7 @@
       <c r="G22" s="6">
         <v>21</v>
       </c>
-      <c r="H22" s="93"/>
+      <c r="H22" s="81"/>
       <c r="I22" s="7"/>
       <c r="K22" s="9" t="s">
         <v>76</v>
@@ -6098,7 +6090,7 @@
       <c r="L22" s="3">
         <v>255</v>
       </c>
-      <c r="M22" s="102"/>
+      <c r="M22" s="90"/>
       <c r="N22" s="4" t="s">
         <v>19</v>
       </c>
@@ -6108,7 +6100,7 @@
       <c r="Q22" s="34">
         <v>253</v>
       </c>
-      <c r="R22" s="85"/>
+      <c r="R22" s="95"/>
       <c r="S22" s="28" t="s">
         <v>122</v>
       </c>
@@ -6124,7 +6116,7 @@
       <c r="B23" s="6">
         <v>22</v>
       </c>
-      <c r="C23" s="76"/>
+      <c r="C23" s="101"/>
       <c r="D23" s="7"/>
       <c r="F23" s="10" t="s">
         <v>72</v>
@@ -6132,7 +6124,7 @@
       <c r="G23" s="6">
         <v>22</v>
       </c>
-      <c r="H23" s="93"/>
+      <c r="H23" s="81"/>
       <c r="I23" s="7"/>
       <c r="P23" s="34" t="s">
         <v>62</v>
@@ -6140,7 +6132,7 @@
       <c r="Q23" s="34">
         <v>254</v>
       </c>
-      <c r="R23" s="85"/>
+      <c r="R23" s="95"/>
       <c r="S23" s="28" t="s">
         <v>117</v>
       </c>
@@ -6154,7 +6146,7 @@
       <c r="B24" s="6">
         <v>23</v>
       </c>
-      <c r="C24" s="76"/>
+      <c r="C24" s="101"/>
       <c r="D24" s="7"/>
       <c r="F24" s="10" t="s">
         <v>72</v>
@@ -6162,7 +6154,7 @@
       <c r="G24" s="6">
         <v>23</v>
       </c>
-      <c r="H24" s="93"/>
+      <c r="H24" s="81"/>
       <c r="I24" s="7"/>
       <c r="K24" s="9" t="s">
         <v>77</v>
@@ -6170,7 +6162,7 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="98" t="s">
+      <c r="M24" s="86" t="s">
         <v>16</v>
       </c>
       <c r="N24" s="4" t="s">
@@ -6182,7 +6174,7 @@
       <c r="Q24" s="33">
         <v>255</v>
       </c>
-      <c r="R24" s="85"/>
+      <c r="R24" s="95"/>
       <c r="S24" s="4" t="s">
         <v>19</v>
       </c>
@@ -6196,7 +6188,7 @@
       <c r="B25" s="6">
         <v>24</v>
       </c>
-      <c r="C25" s="76"/>
+      <c r="C25" s="101"/>
       <c r="D25" s="7"/>
       <c r="F25" s="10" t="s">
         <v>72</v>
@@ -6204,7 +6196,7 @@
       <c r="G25" s="6">
         <v>24</v>
       </c>
-      <c r="H25" s="93"/>
+      <c r="H25" s="81"/>
       <c r="I25" s="7"/>
       <c r="K25" s="10" t="s">
         <v>77</v>
@@ -6212,7 +6204,7 @@
       <c r="L25" s="6">
         <v>1</v>
       </c>
-      <c r="M25" s="99"/>
+      <c r="M25" s="87"/>
       <c r="N25" s="7"/>
       <c r="P25" s="71" t="s">
         <v>63</v>
@@ -6220,7 +6212,7 @@
       <c r="Q25" s="71">
         <v>0</v>
       </c>
-      <c r="R25" s="85"/>
+      <c r="R25" s="95"/>
       <c r="S25" s="51" t="s">
         <v>23</v>
       </c>
@@ -6232,7 +6224,7 @@
       <c r="B26" s="6">
         <v>25</v>
       </c>
-      <c r="C26" s="76"/>
+      <c r="C26" s="101"/>
       <c r="D26" s="7"/>
       <c r="F26" s="10" t="s">
         <v>72</v>
@@ -6240,7 +6232,7 @@
       <c r="G26" s="6">
         <v>25</v>
       </c>
-      <c r="H26" s="93"/>
+      <c r="H26" s="81"/>
       <c r="I26" s="7"/>
       <c r="K26" s="10" t="s">
         <v>77</v>
@@ -6248,7 +6240,7 @@
       <c r="L26" s="6">
         <v>2</v>
       </c>
-      <c r="M26" s="99"/>
+      <c r="M26" s="87"/>
       <c r="N26" s="7"/>
       <c r="P26" s="32" t="s">
         <v>63</v>
@@ -6256,7 +6248,7 @@
       <c r="Q26" s="32">
         <v>1</v>
       </c>
-      <c r="R26" s="85"/>
+      <c r="R26" s="95"/>
       <c r="S26" s="32" t="s">
         <v>43</v>
       </c>
@@ -6268,7 +6260,7 @@
       <c r="B27" s="6">
         <v>26</v>
       </c>
-      <c r="C27" s="76"/>
+      <c r="C27" s="101"/>
       <c r="D27" s="7"/>
       <c r="F27" s="10" t="s">
         <v>72</v>
@@ -6276,7 +6268,7 @@
       <c r="G27" s="6">
         <v>26</v>
       </c>
-      <c r="H27" s="93"/>
+      <c r="H27" s="81"/>
       <c r="I27" s="7"/>
       <c r="K27" s="10" t="s">
         <v>77</v>
@@ -6284,7 +6276,7 @@
       <c r="L27" s="6">
         <v>3</v>
       </c>
-      <c r="M27" s="99"/>
+      <c r="M27" s="87"/>
       <c r="N27" s="7"/>
       <c r="P27" s="32" t="s">
         <v>63</v>
@@ -6292,7 +6284,7 @@
       <c r="Q27" s="32">
         <v>2</v>
       </c>
-      <c r="R27" s="85"/>
+      <c r="R27" s="95"/>
       <c r="S27" s="32" t="s">
         <v>52</v>
       </c>
@@ -6304,7 +6296,7 @@
       <c r="B28" s="6">
         <v>27</v>
       </c>
-      <c r="C28" s="76"/>
+      <c r="C28" s="101"/>
       <c r="D28" s="7"/>
       <c r="F28" s="10" t="s">
         <v>72</v>
@@ -6312,7 +6304,7 @@
       <c r="G28" s="6">
         <v>27</v>
       </c>
-      <c r="H28" s="93"/>
+      <c r="H28" s="81"/>
       <c r="I28" s="7"/>
       <c r="K28" s="10" t="s">
         <v>77</v>
@@ -6320,7 +6312,7 @@
       <c r="L28" s="6">
         <v>4</v>
       </c>
-      <c r="M28" s="99"/>
+      <c r="M28" s="87"/>
       <c r="N28" s="7"/>
       <c r="P28" s="32" t="s">
         <v>63</v>
@@ -6328,8 +6320,10 @@
       <c r="Q28" s="32">
         <v>3</v>
       </c>
-      <c r="R28" s="85"/>
-      <c r="S28" s="32"/>
+      <c r="R28" s="95"/>
+      <c r="S28" s="32" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="29" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
@@ -6338,7 +6332,7 @@
       <c r="B29" s="6">
         <v>28</v>
       </c>
-      <c r="C29" s="76"/>
+      <c r="C29" s="101"/>
       <c r="D29" s="7"/>
       <c r="F29" s="10" t="s">
         <v>72</v>
@@ -6346,7 +6340,7 @@
       <c r="G29" s="6">
         <v>28</v>
       </c>
-      <c r="H29" s="93"/>
+      <c r="H29" s="81"/>
       <c r="I29" s="7"/>
       <c r="K29" s="26" t="s">
         <v>77</v>
@@ -6354,7 +6348,7 @@
       <c r="L29" s="27">
         <v>252</v>
       </c>
-      <c r="M29" s="99"/>
+      <c r="M29" s="87"/>
       <c r="N29" s="28" t="s">
         <v>121</v>
       </c>
@@ -6364,7 +6358,7 @@
       <c r="Q29" s="34">
         <v>254</v>
       </c>
-      <c r="R29" s="85"/>
+      <c r="R29" s="95"/>
       <c r="S29" s="28" t="s">
         <v>42</v>
       </c>
@@ -6376,7 +6370,7 @@
       <c r="B30" s="6">
         <v>29</v>
       </c>
-      <c r="C30" s="76"/>
+      <c r="C30" s="101"/>
       <c r="D30" s="7"/>
       <c r="F30" s="10" t="s">
         <v>72</v>
@@ -6384,7 +6378,7 @@
       <c r="G30" s="6">
         <v>29</v>
       </c>
-      <c r="H30" s="93"/>
+      <c r="H30" s="81"/>
       <c r="I30" s="7"/>
       <c r="K30" s="26" t="s">
         <v>77</v>
@@ -6392,7 +6386,7 @@
       <c r="L30" s="27">
         <v>253</v>
       </c>
-      <c r="M30" s="99"/>
+      <c r="M30" s="87"/>
       <c r="N30" s="28" t="s">
         <v>122</v>
       </c>
@@ -6402,7 +6396,7 @@
       <c r="Q30" s="33">
         <v>255</v>
       </c>
-      <c r="R30" s="85"/>
+      <c r="R30" s="95"/>
       <c r="S30" s="4" t="s">
         <v>19</v>
       </c>
@@ -6414,7 +6408,7 @@
       <c r="B31" s="6">
         <v>30</v>
       </c>
-      <c r="C31" s="76"/>
+      <c r="C31" s="101"/>
       <c r="D31" s="7"/>
       <c r="F31" s="10" t="s">
         <v>72</v>
@@ -6422,7 +6416,7 @@
       <c r="G31" s="6">
         <v>30</v>
       </c>
-      <c r="H31" s="93"/>
+      <c r="H31" s="81"/>
       <c r="I31" s="7"/>
       <c r="K31" s="26" t="s">
         <v>77</v>
@@ -6430,7 +6424,7 @@
       <c r="L31" s="27">
         <v>254</v>
       </c>
-      <c r="M31" s="99"/>
+      <c r="M31" s="87"/>
       <c r="N31" s="28" t="s">
         <v>117</v>
       </c>
@@ -6440,7 +6434,7 @@
       <c r="Q31" s="58">
         <v>0</v>
       </c>
-      <c r="R31" s="85"/>
+      <c r="R31" s="95"/>
       <c r="S31" s="57" t="s">
         <v>104</v>
       </c>
@@ -6455,7 +6449,7 @@
       <c r="B32" s="6">
         <v>31</v>
       </c>
-      <c r="C32" s="76"/>
+      <c r="C32" s="101"/>
       <c r="D32" s="7"/>
       <c r="F32" s="23" t="s">
         <v>72</v>
@@ -6463,7 +6457,7 @@
       <c r="G32" s="24">
         <v>254</v>
       </c>
-      <c r="H32" s="93"/>
+      <c r="H32" s="81"/>
       <c r="I32" s="25" t="s">
         <v>42</v>
       </c>
@@ -6473,7 +6467,7 @@
       <c r="L32" s="3">
         <v>255</v>
       </c>
-      <c r="M32" s="100"/>
+      <c r="M32" s="88"/>
       <c r="N32" s="4" t="s">
         <v>19</v>
       </c>
@@ -6483,7 +6477,7 @@
       <c r="Q32" s="32">
         <v>1</v>
       </c>
-      <c r="R32" s="85"/>
+      <c r="R32" s="95"/>
       <c r="S32" s="32" t="s">
         <v>45</v>
       </c>
@@ -6496,7 +6490,7 @@
       <c r="B33" s="6">
         <v>32</v>
       </c>
-      <c r="C33" s="76"/>
+      <c r="C33" s="101"/>
       <c r="D33" s="7"/>
       <c r="F33" s="9" t="s">
         <v>72</v>
@@ -6504,7 +6498,7 @@
       <c r="G33" s="3">
         <v>255</v>
       </c>
-      <c r="H33" s="94"/>
+      <c r="H33" s="82"/>
       <c r="I33" s="4" t="s">
         <v>19</v>
       </c>
@@ -6514,7 +6508,7 @@
       <c r="Q33" s="32">
         <v>2</v>
       </c>
-      <c r="R33" s="85"/>
+      <c r="R33" s="95"/>
       <c r="S33" s="32" t="s">
         <v>48</v>
       </c>
@@ -6527,7 +6521,7 @@
       <c r="B34" s="6">
         <v>33</v>
       </c>
-      <c r="C34" s="76"/>
+      <c r="C34" s="101"/>
       <c r="D34" s="7"/>
       <c r="K34" s="9" t="s">
         <v>78</v>
@@ -6535,7 +6529,7 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="95" t="s">
+      <c r="M34" s="83" t="s">
         <v>24</v>
       </c>
       <c r="N34" s="4" t="s">
@@ -6547,7 +6541,7 @@
       <c r="Q34" s="32">
         <v>3</v>
       </c>
-      <c r="R34" s="85"/>
+      <c r="R34" s="95"/>
       <c r="S34" s="32"/>
       <c r="T34" s="62"/>
     </row>
@@ -6558,7 +6552,7 @@
       <c r="B35" s="6">
         <v>34</v>
       </c>
-      <c r="C35" s="76"/>
+      <c r="C35" s="101"/>
       <c r="D35" s="7"/>
       <c r="F35" s="9" t="s">
         <v>73</v>
@@ -6566,7 +6560,7 @@
       <c r="G35" s="3">
         <v>0</v>
       </c>
-      <c r="H35" s="103" t="s">
+      <c r="H35" s="91" t="s">
         <v>15</v>
       </c>
       <c r="I35" s="4" t="s">
@@ -6578,7 +6572,7 @@
       <c r="L35" s="6">
         <v>1</v>
       </c>
-      <c r="M35" s="96"/>
+      <c r="M35" s="84"/>
       <c r="N35" s="7"/>
       <c r="P35" s="32" t="s">
         <v>67</v>
@@ -6586,7 +6580,7 @@
       <c r="Q35" s="32">
         <v>4</v>
       </c>
-      <c r="R35" s="85"/>
+      <c r="R35" s="95"/>
       <c r="S35" s="32"/>
       <c r="T35" s="62"/>
     </row>
@@ -6597,7 +6591,7 @@
       <c r="B36" s="6">
         <v>35</v>
       </c>
-      <c r="C36" s="76"/>
+      <c r="C36" s="101"/>
       <c r="D36" s="7"/>
       <c r="F36" s="10" t="s">
         <v>73</v>
@@ -6605,7 +6599,7 @@
       <c r="G36" s="6">
         <v>1</v>
       </c>
-      <c r="H36" s="104"/>
+      <c r="H36" s="92"/>
       <c r="I36" s="7"/>
       <c r="K36" s="10" t="s">
         <v>78</v>
@@ -6613,7 +6607,7 @@
       <c r="L36" s="6">
         <v>2</v>
       </c>
-      <c r="M36" s="96"/>
+      <c r="M36" s="84"/>
       <c r="N36" s="7"/>
       <c r="P36" s="32" t="s">
         <v>67</v>
@@ -6621,7 +6615,7 @@
       <c r="Q36" s="32">
         <v>5</v>
       </c>
-      <c r="R36" s="85"/>
+      <c r="R36" s="95"/>
       <c r="S36" s="32"/>
       <c r="T36" s="62"/>
     </row>
@@ -6632,7 +6626,7 @@
       <c r="B37" s="6">
         <v>36</v>
       </c>
-      <c r="C37" s="76"/>
+      <c r="C37" s="101"/>
       <c r="D37" s="7"/>
       <c r="F37" s="10" t="s">
         <v>73</v>
@@ -6640,7 +6634,7 @@
       <c r="G37" s="6">
         <v>2</v>
       </c>
-      <c r="H37" s="104"/>
+      <c r="H37" s="92"/>
       <c r="I37" s="7"/>
       <c r="K37" s="26" t="s">
         <v>78</v>
@@ -6648,7 +6642,7 @@
       <c r="L37" s="27">
         <v>254</v>
       </c>
-      <c r="M37" s="96"/>
+      <c r="M37" s="84"/>
       <c r="N37" s="28" t="s">
         <v>42</v>
       </c>
@@ -6658,7 +6652,7 @@
       <c r="Q37" s="32">
         <v>6</v>
       </c>
-      <c r="R37" s="85"/>
+      <c r="R37" s="95"/>
       <c r="S37" s="32"/>
       <c r="T37" s="62"/>
     </row>
@@ -6669,7 +6663,7 @@
       <c r="B38" s="6">
         <v>37</v>
       </c>
-      <c r="C38" s="76"/>
+      <c r="C38" s="101"/>
       <c r="D38" s="7"/>
       <c r="F38" s="10" t="s">
         <v>73</v>
@@ -6677,7 +6671,7 @@
       <c r="G38" s="6">
         <v>3</v>
       </c>
-      <c r="H38" s="104"/>
+      <c r="H38" s="92"/>
       <c r="I38" s="7"/>
       <c r="K38" s="9" t="s">
         <v>78</v>
@@ -6685,7 +6679,7 @@
       <c r="L38" s="3">
         <v>255</v>
       </c>
-      <c r="M38" s="96"/>
+      <c r="M38" s="84"/>
       <c r="N38" s="4" t="s">
         <v>19</v>
       </c>
@@ -6695,7 +6689,7 @@
       <c r="Q38" s="58">
         <v>7</v>
       </c>
-      <c r="R38" s="85"/>
+      <c r="R38" s="95"/>
       <c r="S38" s="57" t="s">
         <v>19</v>
       </c>
@@ -6708,7 +6702,7 @@
       <c r="B39" s="6">
         <v>38</v>
       </c>
-      <c r="C39" s="76"/>
+      <c r="C39" s="101"/>
       <c r="D39" s="7"/>
       <c r="F39" s="10" t="s">
         <v>73</v>
@@ -6716,7 +6710,7 @@
       <c r="G39" s="6">
         <v>4</v>
       </c>
-      <c r="H39" s="104"/>
+      <c r="H39" s="92"/>
       <c r="I39" s="7"/>
       <c r="K39" s="9" t="s">
         <v>79</v>
@@ -6724,7 +6718,7 @@
       <c r="L39" s="3">
         <v>0</v>
       </c>
-      <c r="M39" s="96"/>
+      <c r="M39" s="84"/>
       <c r="N39" s="4" t="s">
         <v>23</v>
       </c>
@@ -6734,7 +6728,7 @@
       <c r="Q39" s="58">
         <v>8</v>
       </c>
-      <c r="R39" s="85"/>
+      <c r="R39" s="95"/>
       <c r="S39" s="57" t="s">
         <v>104</v>
       </c>
@@ -6749,7 +6743,7 @@
       <c r="B40" s="6">
         <v>39</v>
       </c>
-      <c r="C40" s="76"/>
+      <c r="C40" s="101"/>
       <c r="D40" s="7"/>
       <c r="F40" s="10" t="s">
         <v>73</v>
@@ -6757,7 +6751,7 @@
       <c r="G40" s="6">
         <v>5</v>
       </c>
-      <c r="H40" s="104"/>
+      <c r="H40" s="92"/>
       <c r="I40" s="7"/>
       <c r="K40" s="10" t="s">
         <v>79</v>
@@ -6765,7 +6759,7 @@
       <c r="L40" s="6">
         <v>1</v>
       </c>
-      <c r="M40" s="96"/>
+      <c r="M40" s="84"/>
       <c r="N40" s="7"/>
       <c r="P40" s="32" t="s">
         <v>67</v>
@@ -6773,7 +6767,7 @@
       <c r="Q40" s="32">
         <v>9</v>
       </c>
-      <c r="R40" s="85"/>
+      <c r="R40" s="95"/>
       <c r="S40" s="32" t="s">
         <v>46</v>
       </c>
@@ -6786,7 +6780,7 @@
       <c r="B41" s="6">
         <v>40</v>
       </c>
-      <c r="C41" s="76"/>
+      <c r="C41" s="101"/>
       <c r="D41" s="7"/>
       <c r="F41" s="10" t="s">
         <v>73</v>
@@ -6794,7 +6788,7 @@
       <c r="G41" s="6">
         <v>6</v>
       </c>
-      <c r="H41" s="104"/>
+      <c r="H41" s="92"/>
       <c r="I41" s="7"/>
       <c r="K41" s="10" t="s">
         <v>79</v>
@@ -6802,7 +6796,7 @@
       <c r="L41" s="6">
         <v>2</v>
       </c>
-      <c r="M41" s="96"/>
+      <c r="M41" s="84"/>
       <c r="N41" s="7"/>
       <c r="P41" s="32" t="s">
         <v>67</v>
@@ -6810,7 +6804,7 @@
       <c r="Q41" s="32">
         <v>10</v>
       </c>
-      <c r="R41" s="85"/>
+      <c r="R41" s="95"/>
       <c r="S41" s="32" t="s">
         <v>47</v>
       </c>
@@ -6823,7 +6817,7 @@
       <c r="B42" s="6">
         <v>41</v>
       </c>
-      <c r="C42" s="76"/>
+      <c r="C42" s="101"/>
       <c r="D42" s="7"/>
       <c r="F42" s="10" t="s">
         <v>73</v>
@@ -6831,7 +6825,7 @@
       <c r="G42" s="6">
         <v>7</v>
       </c>
-      <c r="H42" s="104"/>
+      <c r="H42" s="92"/>
       <c r="I42" s="7"/>
       <c r="K42" s="26" t="s">
         <v>79</v>
@@ -6839,7 +6833,7 @@
       <c r="L42" s="27">
         <v>254</v>
       </c>
-      <c r="M42" s="96"/>
+      <c r="M42" s="84"/>
       <c r="N42" s="28" t="s">
         <v>42</v>
       </c>
@@ -6849,7 +6843,7 @@
       <c r="Q42" s="32">
         <v>11</v>
       </c>
-      <c r="R42" s="85"/>
+      <c r="R42" s="95"/>
       <c r="S42" s="32"/>
       <c r="T42" s="62"/>
     </row>
@@ -6860,7 +6854,7 @@
       <c r="B43" s="6">
         <v>42</v>
       </c>
-      <c r="C43" s="76"/>
+      <c r="C43" s="101"/>
       <c r="D43" s="7"/>
       <c r="F43" s="10" t="s">
         <v>73</v>
@@ -6868,7 +6862,7 @@
       <c r="G43" s="6">
         <v>8</v>
       </c>
-      <c r="H43" s="104"/>
+      <c r="H43" s="92"/>
       <c r="I43" s="7"/>
       <c r="K43" s="9" t="s">
         <v>79</v>
@@ -6876,7 +6870,7 @@
       <c r="L43" s="3">
         <v>255</v>
       </c>
-      <c r="M43" s="96"/>
+      <c r="M43" s="84"/>
       <c r="N43" s="4" t="s">
         <v>19</v>
       </c>
@@ -6886,7 +6880,7 @@
       <c r="Q43" s="32">
         <v>12</v>
       </c>
-      <c r="R43" s="85"/>
+      <c r="R43" s="95"/>
       <c r="S43" s="32"/>
       <c r="T43" s="62"/>
     </row>
@@ -6897,7 +6891,7 @@
       <c r="B44" s="6">
         <v>43</v>
       </c>
-      <c r="C44" s="76"/>
+      <c r="C44" s="101"/>
       <c r="D44" s="7"/>
       <c r="F44" s="10" t="s">
         <v>73</v>
@@ -6905,7 +6899,7 @@
       <c r="G44" s="6">
         <v>9</v>
       </c>
-      <c r="H44" s="104"/>
+      <c r="H44" s="92"/>
       <c r="I44" s="7"/>
       <c r="K44" s="9" t="s">
         <v>80</v>
@@ -6913,7 +6907,7 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="96"/>
+      <c r="M44" s="84"/>
       <c r="N44" s="4" t="s">
         <v>23</v>
       </c>
@@ -6923,7 +6917,7 @@
       <c r="Q44" s="32">
         <v>13</v>
       </c>
-      <c r="R44" s="85"/>
+      <c r="R44" s="95"/>
       <c r="S44" s="32"/>
       <c r="T44" s="62"/>
     </row>
@@ -6934,7 +6928,7 @@
       <c r="B45" s="6">
         <v>44</v>
       </c>
-      <c r="C45" s="76"/>
+      <c r="C45" s="101"/>
       <c r="D45" s="7"/>
       <c r="F45" s="26" t="s">
         <v>73</v>
@@ -6942,7 +6936,7 @@
       <c r="G45" s="27">
         <v>252</v>
       </c>
-      <c r="H45" s="104"/>
+      <c r="H45" s="92"/>
       <c r="I45" s="25" t="s">
         <v>121</v>
       </c>
@@ -6952,7 +6946,7 @@
       <c r="L45" s="6">
         <v>1</v>
       </c>
-      <c r="M45" s="96"/>
+      <c r="M45" s="84"/>
       <c r="N45" s="7"/>
       <c r="P45" s="32" t="s">
         <v>67</v>
@@ -6960,7 +6954,7 @@
       <c r="Q45" s="32">
         <v>14</v>
       </c>
-      <c r="R45" s="85"/>
+      <c r="R45" s="95"/>
       <c r="S45" s="32"/>
       <c r="T45" s="62"/>
     </row>
@@ -6971,7 +6965,7 @@
       <c r="B46" s="6">
         <v>45</v>
       </c>
-      <c r="C46" s="76"/>
+      <c r="C46" s="101"/>
       <c r="D46" s="7"/>
       <c r="F46" s="26" t="s">
         <v>73</v>
@@ -6979,7 +6973,7 @@
       <c r="G46" s="27">
         <v>253</v>
       </c>
-      <c r="H46" s="104"/>
+      <c r="H46" s="92"/>
       <c r="I46" s="25" t="s">
         <v>122</v>
       </c>
@@ -6989,7 +6983,7 @@
       <c r="L46" s="6">
         <v>2</v>
       </c>
-      <c r="M46" s="96"/>
+      <c r="M46" s="84"/>
       <c r="N46" s="7"/>
       <c r="P46" s="58" t="s">
         <v>67</v>
@@ -6997,7 +6991,7 @@
       <c r="Q46" s="58">
         <v>15</v>
       </c>
-      <c r="R46" s="85"/>
+      <c r="R46" s="95"/>
       <c r="S46" s="57" t="s">
         <v>19</v>
       </c>
@@ -7010,7 +7004,7 @@
       <c r="B47" s="6">
         <v>46</v>
       </c>
-      <c r="C47" s="76"/>
+      <c r="C47" s="101"/>
       <c r="D47" s="7"/>
       <c r="F47" s="26" t="s">
         <v>73</v>
@@ -7018,7 +7012,7 @@
       <c r="G47" s="24">
         <v>254</v>
       </c>
-      <c r="H47" s="104"/>
+      <c r="H47" s="92"/>
       <c r="I47" s="70" t="s">
         <v>117</v>
       </c>
@@ -7028,7 +7022,7 @@
       <c r="L47" s="27">
         <v>254</v>
       </c>
-      <c r="M47" s="96"/>
+      <c r="M47" s="84"/>
       <c r="N47" s="28" t="s">
         <v>42</v>
       </c>
@@ -7038,7 +7032,7 @@
       <c r="Q47" s="58">
         <v>16</v>
       </c>
-      <c r="R47" s="85"/>
+      <c r="R47" s="95"/>
       <c r="S47" s="57" t="s">
         <v>104</v>
       </c>
@@ -7053,7 +7047,7 @@
       <c r="B48" s="6">
         <v>47</v>
       </c>
-      <c r="C48" s="76"/>
+      <c r="C48" s="101"/>
       <c r="D48" s="7"/>
       <c r="F48" s="9" t="s">
         <v>73</v>
@@ -7061,7 +7055,7 @@
       <c r="G48" s="3">
         <v>255</v>
       </c>
-      <c r="H48" s="105"/>
+      <c r="H48" s="93"/>
       <c r="I48" s="4" t="s">
         <v>19</v>
       </c>
@@ -7071,7 +7065,7 @@
       <c r="L48" s="3">
         <v>255</v>
       </c>
-      <c r="M48" s="97"/>
+      <c r="M48" s="85"/>
       <c r="N48" s="4" t="s">
         <v>19</v>
       </c>
@@ -7081,7 +7075,7 @@
       <c r="Q48" s="32">
         <v>17</v>
       </c>
-      <c r="R48" s="85"/>
+      <c r="R48" s="95"/>
       <c r="S48" s="32" t="s">
         <v>55</v>
       </c>
@@ -7094,7 +7088,7 @@
       <c r="B49" s="6">
         <v>48</v>
       </c>
-      <c r="C49" s="76"/>
+      <c r="C49" s="101"/>
       <c r="D49" s="7"/>
       <c r="P49" s="32" t="s">
         <v>67</v>
@@ -7102,7 +7096,7 @@
       <c r="Q49" s="32">
         <v>18</v>
       </c>
-      <c r="R49" s="85"/>
+      <c r="R49" s="95"/>
       <c r="S49" s="32" t="s">
         <v>54</v>
       </c>
@@ -7115,7 +7109,7 @@
       <c r="B50" s="6">
         <v>49</v>
       </c>
-      <c r="C50" s="76"/>
+      <c r="C50" s="101"/>
       <c r="D50" s="7"/>
       <c r="P50" s="32" t="s">
         <v>67</v>
@@ -7123,7 +7117,7 @@
       <c r="Q50" s="32">
         <v>19</v>
       </c>
-      <c r="R50" s="85"/>
+      <c r="R50" s="95"/>
       <c r="S50" s="32"/>
       <c r="T50" s="62"/>
     </row>
@@ -7134,7 +7128,7 @@
       <c r="B51" s="6">
         <v>50</v>
       </c>
-      <c r="C51" s="76"/>
+      <c r="C51" s="101"/>
       <c r="D51" s="7"/>
       <c r="P51" s="32" t="s">
         <v>67</v>
@@ -7142,7 +7136,7 @@
       <c r="Q51" s="32">
         <v>20</v>
       </c>
-      <c r="R51" s="85"/>
+      <c r="R51" s="95"/>
       <c r="S51" s="32"/>
       <c r="T51" s="62"/>
     </row>
@@ -7153,7 +7147,7 @@
       <c r="B52" s="24">
         <v>254</v>
       </c>
-      <c r="C52" s="76"/>
+      <c r="C52" s="101"/>
       <c r="D52" s="25" t="s">
         <v>42</v>
       </c>
@@ -7163,7 +7157,7 @@
       <c r="Q52" s="32">
         <v>21</v>
       </c>
-      <c r="R52" s="85"/>
+      <c r="R52" s="95"/>
       <c r="S52" s="32"/>
       <c r="T52" s="62"/>
     </row>
@@ -7174,7 +7168,7 @@
       <c r="B53" s="3">
         <v>255</v>
       </c>
-      <c r="C53" s="76"/>
+      <c r="C53" s="101"/>
       <c r="D53" s="4" t="s">
         <v>19</v>
       </c>
@@ -7184,7 +7178,7 @@
       <c r="Q53" s="32">
         <v>22</v>
       </c>
-      <c r="R53" s="85"/>
+      <c r="R53" s="95"/>
       <c r="S53" s="32"/>
       <c r="T53" s="62"/>
     </row>
@@ -7195,7 +7189,7 @@
       <c r="B54" s="66">
         <v>0</v>
       </c>
-      <c r="C54" s="76"/>
+      <c r="C54" s="101"/>
       <c r="D54" s="57" t="s">
         <v>104</v>
       </c>
@@ -7205,7 +7199,7 @@
       <c r="Q54" s="58">
         <v>23</v>
       </c>
-      <c r="R54" s="85"/>
+      <c r="R54" s="95"/>
       <c r="S54" s="57" t="s">
         <v>19</v>
       </c>
@@ -7218,7 +7212,7 @@
       <c r="B55" s="6">
         <v>1</v>
       </c>
-      <c r="C55" s="76"/>
+      <c r="C55" s="101"/>
       <c r="D55" s="7"/>
       <c r="P55" s="33" t="s">
         <v>70</v>
@@ -7226,7 +7220,7 @@
       <c r="Q55" s="33">
         <v>0</v>
       </c>
-      <c r="R55" s="85"/>
+      <c r="R55" s="95"/>
       <c r="S55" s="4" t="s">
         <v>23</v>
       </c>
@@ -7238,7 +7232,7 @@
       <c r="B56" s="6">
         <v>2</v>
       </c>
-      <c r="C56" s="76"/>
+      <c r="C56" s="101"/>
       <c r="D56" s="7"/>
       <c r="P56" s="32" t="s">
         <v>70</v>
@@ -7246,7 +7240,7 @@
       <c r="Q56" s="32">
         <v>1</v>
       </c>
-      <c r="R56" s="85"/>
+      <c r="R56" s="95"/>
       <c r="S56" s="32" t="s">
         <v>44</v>
       </c>
@@ -7258,7 +7252,7 @@
       <c r="B57" s="6">
         <v>3</v>
       </c>
-      <c r="C57" s="76"/>
+      <c r="C57" s="101"/>
       <c r="D57" s="7"/>
       <c r="P57" s="32" t="s">
         <v>70</v>
@@ -7266,7 +7260,7 @@
       <c r="Q57" s="32">
         <v>2</v>
       </c>
-      <c r="R57" s="85"/>
+      <c r="R57" s="95"/>
       <c r="S57" s="32" t="s">
         <v>53</v>
       </c>
@@ -7278,7 +7272,7 @@
       <c r="B58" s="6">
         <v>4</v>
       </c>
-      <c r="C58" s="76"/>
+      <c r="C58" s="101"/>
       <c r="D58" s="7"/>
       <c r="P58" s="32" t="s">
         <v>70</v>
@@ -7286,7 +7280,7 @@
       <c r="Q58" s="32">
         <v>3</v>
       </c>
-      <c r="R58" s="85"/>
+      <c r="R58" s="95"/>
       <c r="S58" s="32"/>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
@@ -7296,7 +7290,7 @@
       <c r="B59" s="6">
         <v>5</v>
       </c>
-      <c r="C59" s="76"/>
+      <c r="C59" s="101"/>
       <c r="D59" s="7"/>
       <c r="P59" s="34" t="s">
         <v>70</v>
@@ -7304,7 +7298,7 @@
       <c r="Q59" s="34">
         <v>254</v>
       </c>
-      <c r="R59" s="85"/>
+      <c r="R59" s="95"/>
       <c r="S59" s="28" t="s">
         <v>42</v>
       </c>
@@ -7316,7 +7310,7 @@
       <c r="B60" s="6">
         <v>6</v>
       </c>
-      <c r="C60" s="76"/>
+      <c r="C60" s="101"/>
       <c r="D60" s="7"/>
       <c r="P60" s="33" t="s">
         <v>70</v>
@@ -7324,7 +7318,7 @@
       <c r="Q60" s="33">
         <v>255</v>
       </c>
-      <c r="R60" s="86"/>
+      <c r="R60" s="96"/>
       <c r="S60" s="4" t="s">
         <v>19</v>
       </c>
@@ -7336,7 +7330,7 @@
       <c r="B61" s="6">
         <v>7</v>
       </c>
-      <c r="C61" s="76"/>
+      <c r="C61" s="101"/>
       <c r="D61" s="7"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
@@ -7346,7 +7340,7 @@
       <c r="B62" s="6">
         <v>8</v>
       </c>
-      <c r="C62" s="76"/>
+      <c r="C62" s="101"/>
       <c r="D62" s="7"/>
       <c r="P62" s="33" t="s">
         <v>101</v>
@@ -7354,7 +7348,7 @@
       <c r="Q62" s="33">
         <v>0</v>
       </c>
-      <c r="R62" s="78" t="s">
+      <c r="R62" s="103" t="s">
         <v>112</v>
       </c>
       <c r="S62" s="4" t="s">
@@ -7372,7 +7366,7 @@
       <c r="B63" s="6">
         <v>9</v>
       </c>
-      <c r="C63" s="76"/>
+      <c r="C63" s="101"/>
       <c r="D63" s="7"/>
       <c r="P63" s="32" t="s">
         <v>101</v>
@@ -7380,7 +7374,7 @@
       <c r="Q63" s="32">
         <v>1</v>
       </c>
-      <c r="R63" s="79"/>
+      <c r="R63" s="104"/>
       <c r="S63" s="32" t="s">
         <v>103</v>
       </c>
@@ -7394,7 +7388,7 @@
       <c r="B64" s="6">
         <v>10</v>
       </c>
-      <c r="C64" s="76"/>
+      <c r="C64" s="101"/>
       <c r="D64" s="7"/>
       <c r="P64" s="32" t="s">
         <v>101</v>
@@ -7402,7 +7396,7 @@
       <c r="Q64" s="32">
         <v>2</v>
       </c>
-      <c r="R64" s="79"/>
+      <c r="R64" s="104"/>
       <c r="S64" s="32" t="s">
         <v>102</v>
       </c>
@@ -7416,7 +7410,7 @@
       <c r="B65" s="6">
         <v>11</v>
       </c>
-      <c r="C65" s="76"/>
+      <c r="C65" s="101"/>
       <c r="D65" s="7"/>
       <c r="P65" s="33" t="s">
         <v>101</v>
@@ -7424,7 +7418,7 @@
       <c r="Q65" s="33">
         <v>3</v>
       </c>
-      <c r="R65" s="80"/>
+      <c r="R65" s="105"/>
       <c r="S65" s="4" t="s">
         <v>19</v>
       </c>
@@ -7438,7 +7432,7 @@
       <c r="B66" s="6">
         <v>12</v>
       </c>
-      <c r="C66" s="76"/>
+      <c r="C66" s="101"/>
       <c r="D66" s="7"/>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
@@ -7448,7 +7442,7 @@
       <c r="B67" s="6">
         <v>13</v>
       </c>
-      <c r="C67" s="76"/>
+      <c r="C67" s="101"/>
       <c r="D67" s="7"/>
       <c r="P67" s="33" t="s">
         <v>119</v>
@@ -7456,7 +7450,7 @@
       <c r="Q67" s="33">
         <v>0</v>
       </c>
-      <c r="R67" s="78" t="s">
+      <c r="R67" s="103" t="s">
         <v>118</v>
       </c>
       <c r="S67" s="4" t="s">
@@ -7473,7 +7467,7 @@
       <c r="B68" s="6">
         <v>14</v>
       </c>
-      <c r="C68" s="76"/>
+      <c r="C68" s="101"/>
       <c r="D68" s="7"/>
       <c r="P68" s="32" t="s">
         <v>119</v>
@@ -7481,7 +7475,7 @@
       <c r="Q68" s="32">
         <v>1</v>
       </c>
-      <c r="R68" s="79"/>
+      <c r="R68" s="104"/>
       <c r="S68" s="32" t="s">
         <v>120</v>
       </c>
@@ -7494,7 +7488,7 @@
       <c r="B69" s="6">
         <v>15</v>
       </c>
-      <c r="C69" s="76"/>
+      <c r="C69" s="101"/>
       <c r="D69" s="7"/>
       <c r="P69" s="32" t="s">
         <v>119</v>
@@ -7502,7 +7496,7 @@
       <c r="Q69" s="32">
         <v>2</v>
       </c>
-      <c r="R69" s="79"/>
+      <c r="R69" s="104"/>
       <c r="S69" s="32" t="s">
         <v>118</v>
       </c>
@@ -7515,7 +7509,7 @@
       <c r="B70" s="6">
         <v>16</v>
       </c>
-      <c r="C70" s="76"/>
+      <c r="C70" s="101"/>
       <c r="D70" s="7"/>
       <c r="P70" s="33" t="s">
         <v>119</v>
@@ -7523,7 +7517,7 @@
       <c r="Q70" s="33">
         <v>3</v>
       </c>
-      <c r="R70" s="80"/>
+      <c r="R70" s="105"/>
       <c r="S70" s="4" t="s">
         <v>19</v>
       </c>
@@ -7536,7 +7530,7 @@
       <c r="B71" s="6">
         <v>17</v>
       </c>
-      <c r="C71" s="76"/>
+      <c r="C71" s="101"/>
       <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
@@ -7546,7 +7540,7 @@
       <c r="B72" s="6">
         <v>18</v>
       </c>
-      <c r="C72" s="76"/>
+      <c r="C72" s="101"/>
       <c r="D72" s="7"/>
       <c r="P72" s="60" t="s">
         <v>108</v>
@@ -7554,7 +7548,7 @@
       <c r="Q72" s="60">
         <v>1</v>
       </c>
-      <c r="R72" s="81" t="s">
+      <c r="R72" s="106" t="s">
         <v>113</v>
       </c>
       <c r="S72" s="60" t="s">
@@ -7571,7 +7565,7 @@
       <c r="B73" s="6">
         <v>19</v>
       </c>
-      <c r="C73" s="76"/>
+      <c r="C73" s="101"/>
       <c r="D73" s="7"/>
       <c r="P73" s="60" t="s">
         <v>108</v>
@@ -7579,7 +7573,7 @@
       <c r="Q73" s="60">
         <v>2</v>
       </c>
-      <c r="R73" s="82"/>
+      <c r="R73" s="107"/>
       <c r="S73" s="60" t="s">
         <v>64</v>
       </c>
@@ -7594,7 +7588,7 @@
       <c r="B74" s="6">
         <v>20</v>
       </c>
-      <c r="C74" s="76"/>
+      <c r="C74" s="101"/>
       <c r="D74" s="7"/>
       <c r="P74" s="60" t="s">
         <v>109</v>
@@ -7602,7 +7596,7 @@
       <c r="Q74" s="60">
         <v>1</v>
       </c>
-      <c r="R74" s="82"/>
+      <c r="R74" s="107"/>
       <c r="S74" s="60" t="s">
         <v>66</v>
       </c>
@@ -7617,7 +7611,7 @@
       <c r="B75" s="6">
         <v>21</v>
       </c>
-      <c r="C75" s="76"/>
+      <c r="C75" s="101"/>
       <c r="D75" s="7"/>
       <c r="P75" s="60" t="s">
         <v>110</v>
@@ -7625,7 +7619,7 @@
       <c r="Q75" s="60">
         <v>1</v>
       </c>
-      <c r="R75" s="82"/>
+      <c r="R75" s="107"/>
       <c r="S75" s="60" t="s">
         <v>68</v>
       </c>
@@ -7640,7 +7634,7 @@
       <c r="B76" s="6">
         <v>22</v>
       </c>
-      <c r="C76" s="76"/>
+      <c r="C76" s="101"/>
       <c r="D76" s="7"/>
       <c r="P76" s="60" t="s">
         <v>110</v>
@@ -7648,7 +7642,7 @@
       <c r="Q76" s="60">
         <v>2</v>
       </c>
-      <c r="R76" s="82"/>
+      <c r="R76" s="107"/>
       <c r="S76" s="60" t="s">
         <v>69</v>
       </c>
@@ -7663,7 +7657,7 @@
       <c r="B77" s="6">
         <v>23</v>
       </c>
-      <c r="C77" s="76"/>
+      <c r="C77" s="101"/>
       <c r="D77" s="7"/>
       <c r="P77" s="60" t="s">
         <v>111</v>
@@ -7671,7 +7665,7 @@
       <c r="Q77" s="60">
         <v>1</v>
       </c>
-      <c r="R77" s="83"/>
+      <c r="R77" s="108"/>
       <c r="S77" s="60" t="s">
         <v>105</v>
       </c>
@@ -7686,7 +7680,7 @@
       <c r="B78" s="6">
         <v>24</v>
       </c>
-      <c r="C78" s="76"/>
+      <c r="C78" s="101"/>
       <c r="D78" s="7"/>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
@@ -7696,7 +7690,7 @@
       <c r="B79" s="6">
         <v>25</v>
       </c>
-      <c r="C79" s="76"/>
+      <c r="C79" s="101"/>
       <c r="D79" s="7"/>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
@@ -7706,7 +7700,7 @@
       <c r="B80" s="6">
         <v>26</v>
       </c>
-      <c r="C80" s="76"/>
+      <c r="C80" s="101"/>
       <c r="D80" s="7"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -7716,7 +7710,7 @@
       <c r="B81" s="6">
         <v>27</v>
       </c>
-      <c r="C81" s="76"/>
+      <c r="C81" s="101"/>
       <c r="D81" s="7"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -7726,7 +7720,7 @@
       <c r="B82" s="6">
         <v>28</v>
       </c>
-      <c r="C82" s="76"/>
+      <c r="C82" s="101"/>
       <c r="D82" s="7"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -7736,7 +7730,7 @@
       <c r="B83" s="6">
         <v>29</v>
       </c>
-      <c r="C83" s="76"/>
+      <c r="C83" s="101"/>
       <c r="D83" s="7"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -7746,7 +7740,7 @@
       <c r="B84" s="6">
         <v>30</v>
       </c>
-      <c r="C84" s="76"/>
+      <c r="C84" s="101"/>
       <c r="D84" s="7"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -7756,7 +7750,7 @@
       <c r="B85" s="6">
         <v>31</v>
       </c>
-      <c r="C85" s="76"/>
+      <c r="C85" s="101"/>
       <c r="D85" s="7"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -7766,7 +7760,7 @@
       <c r="B86" s="6">
         <v>32</v>
       </c>
-      <c r="C86" s="76"/>
+      <c r="C86" s="101"/>
       <c r="D86" s="7"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -7776,7 +7770,7 @@
       <c r="B87" s="6">
         <v>33</v>
       </c>
-      <c r="C87" s="76"/>
+      <c r="C87" s="101"/>
       <c r="D87" s="7"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -7786,7 +7780,7 @@
       <c r="B88" s="6">
         <v>34</v>
       </c>
-      <c r="C88" s="76"/>
+      <c r="C88" s="101"/>
       <c r="D88" s="7"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -7796,7 +7790,7 @@
       <c r="B89" s="6">
         <v>35</v>
       </c>
-      <c r="C89" s="76"/>
+      <c r="C89" s="101"/>
       <c r="D89" s="7"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -7806,7 +7800,7 @@
       <c r="B90" s="6">
         <v>36</v>
       </c>
-      <c r="C90" s="76"/>
+      <c r="C90" s="101"/>
       <c r="D90" s="7"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -7816,7 +7810,7 @@
       <c r="B91" s="6">
         <v>37</v>
       </c>
-      <c r="C91" s="76"/>
+      <c r="C91" s="101"/>
       <c r="D91" s="7"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -7826,7 +7820,7 @@
       <c r="B92" s="6">
         <v>38</v>
       </c>
-      <c r="C92" s="76"/>
+      <c r="C92" s="101"/>
       <c r="D92" s="7"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -7836,7 +7830,7 @@
       <c r="B93" s="6">
         <v>39</v>
       </c>
-      <c r="C93" s="76"/>
+      <c r="C93" s="101"/>
       <c r="D93" s="7"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -7846,7 +7840,7 @@
       <c r="B94" s="6">
         <v>40</v>
       </c>
-      <c r="C94" s="76"/>
+      <c r="C94" s="101"/>
       <c r="D94" s="7"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -7856,7 +7850,7 @@
       <c r="B95" s="24">
         <v>126</v>
       </c>
-      <c r="C95" s="76"/>
+      <c r="C95" s="101"/>
       <c r="D95" s="25" t="s">
         <v>42</v>
       </c>
@@ -7868,7 +7862,7 @@
       <c r="B96" s="66">
         <v>127</v>
       </c>
-      <c r="C96" s="76"/>
+      <c r="C96" s="101"/>
       <c r="D96" s="57" t="s">
         <v>19</v>
       </c>
@@ -7880,7 +7874,7 @@
       <c r="B97" s="66">
         <v>128</v>
       </c>
-      <c r="C97" s="76"/>
+      <c r="C97" s="101"/>
       <c r="D97" s="57" t="s">
         <v>104</v>
       </c>
@@ -7892,7 +7886,7 @@
       <c r="B98" s="6">
         <v>129</v>
       </c>
-      <c r="C98" s="76"/>
+      <c r="C98" s="101"/>
       <c r="D98" s="7"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -7902,7 +7896,7 @@
       <c r="B99" s="6">
         <v>130</v>
       </c>
-      <c r="C99" s="76"/>
+      <c r="C99" s="101"/>
       <c r="D99" s="7"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -7912,7 +7906,7 @@
       <c r="B100" s="6">
         <v>131</v>
       </c>
-      <c r="C100" s="76"/>
+      <c r="C100" s="101"/>
       <c r="D100" s="7"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -7922,7 +7916,7 @@
       <c r="B101" s="6">
         <v>132</v>
       </c>
-      <c r="C101" s="76"/>
+      <c r="C101" s="101"/>
       <c r="D101" s="7"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -7932,7 +7926,7 @@
       <c r="B102" s="6">
         <v>133</v>
       </c>
-      <c r="C102" s="76"/>
+      <c r="C102" s="101"/>
       <c r="D102" s="7"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -7942,7 +7936,7 @@
       <c r="B103" s="6">
         <v>134</v>
       </c>
-      <c r="C103" s="76"/>
+      <c r="C103" s="101"/>
       <c r="D103" s="7"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -7952,7 +7946,7 @@
       <c r="B104" s="6">
         <v>135</v>
       </c>
-      <c r="C104" s="76"/>
+      <c r="C104" s="101"/>
       <c r="D104" s="7"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -7962,7 +7956,7 @@
       <c r="B105" s="6">
         <v>136</v>
       </c>
-      <c r="C105" s="76"/>
+      <c r="C105" s="101"/>
       <c r="D105" s="7"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -7972,7 +7966,7 @@
       <c r="B106" s="6">
         <v>137</v>
       </c>
-      <c r="C106" s="76"/>
+      <c r="C106" s="101"/>
       <c r="D106" s="7"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -7982,7 +7976,7 @@
       <c r="B107" s="6">
         <v>138</v>
       </c>
-      <c r="C107" s="76"/>
+      <c r="C107" s="101"/>
       <c r="D107" s="7"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -7992,7 +7986,7 @@
       <c r="B108" s="6">
         <v>139</v>
       </c>
-      <c r="C108" s="76"/>
+      <c r="C108" s="101"/>
       <c r="D108" s="7"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -8002,7 +7996,7 @@
       <c r="B109" s="6">
         <v>140</v>
       </c>
-      <c r="C109" s="76"/>
+      <c r="C109" s="101"/>
       <c r="D109" s="7"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -8012,7 +8006,7 @@
       <c r="B110" s="6">
         <v>141</v>
       </c>
-      <c r="C110" s="76"/>
+      <c r="C110" s="101"/>
       <c r="D110" s="7"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -8022,7 +8016,7 @@
       <c r="B111" s="6">
         <v>142</v>
       </c>
-      <c r="C111" s="76"/>
+      <c r="C111" s="101"/>
       <c r="D111" s="7"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -8032,7 +8026,7 @@
       <c r="B112" s="6">
         <v>143</v>
       </c>
-      <c r="C112" s="76"/>
+      <c r="C112" s="101"/>
       <c r="D112" s="7"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -8042,7 +8036,7 @@
       <c r="B113" s="6">
         <v>144</v>
       </c>
-      <c r="C113" s="76"/>
+      <c r="C113" s="101"/>
       <c r="D113" s="7"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -8052,7 +8046,7 @@
       <c r="B114" s="6">
         <v>145</v>
       </c>
-      <c r="C114" s="76"/>
+      <c r="C114" s="101"/>
       <c r="D114" s="7"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -8062,7 +8056,7 @@
       <c r="B115" s="6">
         <v>146</v>
       </c>
-      <c r="C115" s="76"/>
+      <c r="C115" s="101"/>
       <c r="D115" s="7"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -8072,7 +8066,7 @@
       <c r="B116" s="6">
         <v>147</v>
       </c>
-      <c r="C116" s="76"/>
+      <c r="C116" s="101"/>
       <c r="D116" s="7"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -8082,7 +8076,7 @@
       <c r="B117" s="6">
         <v>148</v>
       </c>
-      <c r="C117" s="76"/>
+      <c r="C117" s="101"/>
       <c r="D117" s="7"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -8092,7 +8086,7 @@
       <c r="B118" s="6">
         <v>149</v>
       </c>
-      <c r="C118" s="76"/>
+      <c r="C118" s="101"/>
       <c r="D118" s="7"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -8102,7 +8096,7 @@
       <c r="B119" s="6">
         <v>150</v>
       </c>
-      <c r="C119" s="76"/>
+      <c r="C119" s="101"/>
       <c r="D119" s="7"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -8112,7 +8106,7 @@
       <c r="B120" s="6">
         <v>151</v>
       </c>
-      <c r="C120" s="76"/>
+      <c r="C120" s="101"/>
       <c r="D120" s="7"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -8122,7 +8116,7 @@
       <c r="B121" s="6">
         <v>152</v>
       </c>
-      <c r="C121" s="76"/>
+      <c r="C121" s="101"/>
       <c r="D121" s="7"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -8132,7 +8126,7 @@
       <c r="B122" s="6">
         <v>153</v>
       </c>
-      <c r="C122" s="76"/>
+      <c r="C122" s="101"/>
       <c r="D122" s="7"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -8142,7 +8136,7 @@
       <c r="B123" s="6">
         <v>154</v>
       </c>
-      <c r="C123" s="76"/>
+      <c r="C123" s="101"/>
       <c r="D123" s="7"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -8152,7 +8146,7 @@
       <c r="B124" s="6">
         <v>155</v>
       </c>
-      <c r="C124" s="76"/>
+      <c r="C124" s="101"/>
       <c r="D124" s="7"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -8162,7 +8156,7 @@
       <c r="B125" s="6">
         <v>156</v>
       </c>
-      <c r="C125" s="76"/>
+      <c r="C125" s="101"/>
       <c r="D125" s="7"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -8172,7 +8166,7 @@
       <c r="B126" s="6">
         <v>157</v>
       </c>
-      <c r="C126" s="76"/>
+      <c r="C126" s="101"/>
       <c r="D126" s="7"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -8182,7 +8176,7 @@
       <c r="B127" s="6">
         <v>158</v>
       </c>
-      <c r="C127" s="76"/>
+      <c r="C127" s="101"/>
       <c r="D127" s="7"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -8192,7 +8186,7 @@
       <c r="B128" s="6">
         <v>159</v>
       </c>
-      <c r="C128" s="76"/>
+      <c r="C128" s="101"/>
       <c r="D128" s="7"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -8202,7 +8196,7 @@
       <c r="B129" s="6">
         <v>160</v>
       </c>
-      <c r="C129" s="76"/>
+      <c r="C129" s="101"/>
       <c r="D129" s="7"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -8212,7 +8206,7 @@
       <c r="B130" s="6">
         <v>161</v>
       </c>
-      <c r="C130" s="76"/>
+      <c r="C130" s="101"/>
       <c r="D130" s="7"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -8222,7 +8216,7 @@
       <c r="B131" s="6">
         <v>162</v>
       </c>
-      <c r="C131" s="76"/>
+      <c r="C131" s="101"/>
       <c r="D131" s="7"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -8232,7 +8226,7 @@
       <c r="B132" s="6">
         <v>163</v>
       </c>
-      <c r="C132" s="76"/>
+      <c r="C132" s="101"/>
       <c r="D132" s="7"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -8242,7 +8236,7 @@
       <c r="B133" s="6">
         <v>164</v>
       </c>
-      <c r="C133" s="76"/>
+      <c r="C133" s="101"/>
       <c r="D133" s="7"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -8252,7 +8246,7 @@
       <c r="B134" s="6">
         <v>165</v>
       </c>
-      <c r="C134" s="76"/>
+      <c r="C134" s="101"/>
       <c r="D134" s="7"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -8262,7 +8256,7 @@
       <c r="B135" s="6">
         <v>166</v>
       </c>
-      <c r="C135" s="76"/>
+      <c r="C135" s="101"/>
       <c r="D135" s="7"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -8272,7 +8266,7 @@
       <c r="B136" s="6">
         <v>167</v>
       </c>
-      <c r="C136" s="76"/>
+      <c r="C136" s="101"/>
       <c r="D136" s="7"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -8282,7 +8276,7 @@
       <c r="B137" s="6">
         <v>168</v>
       </c>
-      <c r="C137" s="76"/>
+      <c r="C137" s="101"/>
       <c r="D137" s="7"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -8292,7 +8286,7 @@
       <c r="B138" s="24">
         <v>254</v>
       </c>
-      <c r="C138" s="76"/>
+      <c r="C138" s="101"/>
       <c r="D138" s="25" t="s">
         <v>42</v>
       </c>
@@ -8304,7 +8298,7 @@
       <c r="B139" s="66">
         <v>255</v>
       </c>
-      <c r="C139" s="76"/>
+      <c r="C139" s="101"/>
       <c r="D139" s="57" t="s">
         <v>19</v>
       </c>
@@ -8316,7 +8310,7 @@
       <c r="B140" s="3">
         <v>0</v>
       </c>
-      <c r="C140" s="76"/>
+      <c r="C140" s="101"/>
       <c r="D140" s="4" t="s">
         <v>23</v>
       </c>
@@ -8328,7 +8322,7 @@
       <c r="B141" s="6">
         <v>1</v>
       </c>
-      <c r="C141" s="76"/>
+      <c r="C141" s="101"/>
       <c r="D141" s="7"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -8338,7 +8332,7 @@
       <c r="B142" s="6">
         <v>2</v>
       </c>
-      <c r="C142" s="76"/>
+      <c r="C142" s="101"/>
       <c r="D142" s="7"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -8348,7 +8342,7 @@
       <c r="B143" s="6">
         <v>3</v>
       </c>
-      <c r="C143" s="76"/>
+      <c r="C143" s="101"/>
       <c r="D143" s="7"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -8358,7 +8352,7 @@
       <c r="B144" s="6">
         <v>4</v>
       </c>
-      <c r="C144" s="76"/>
+      <c r="C144" s="101"/>
       <c r="D144" s="7"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -8368,7 +8362,7 @@
       <c r="B145" s="6">
         <v>5</v>
       </c>
-      <c r="C145" s="76"/>
+      <c r="C145" s="101"/>
       <c r="D145" s="7"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -8378,7 +8372,7 @@
       <c r="B146" s="6">
         <v>6</v>
       </c>
-      <c r="C146" s="76"/>
+      <c r="C146" s="101"/>
       <c r="D146" s="7"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -8388,7 +8382,7 @@
       <c r="B147" s="24">
         <v>254</v>
       </c>
-      <c r="C147" s="76"/>
+      <c r="C147" s="101"/>
       <c r="D147" s="25" t="s">
         <v>42</v>
       </c>
@@ -8400,13 +8394,17 @@
       <c r="B148" s="3">
         <v>255</v>
       </c>
-      <c r="C148" s="77"/>
+      <c r="C148" s="102"/>
       <c r="D148" s="4" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C1:C148"/>
+    <mergeCell ref="R62:R65"/>
+    <mergeCell ref="R72:R77"/>
+    <mergeCell ref="R67:R70"/>
     <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="AA6:AB6"/>
     <mergeCell ref="H1:H33"/>
@@ -8417,10 +8415,6 @@
     <mergeCell ref="R17:R60"/>
     <mergeCell ref="R9:R15"/>
     <mergeCell ref="R1:R7"/>
-    <mergeCell ref="C1:C148"/>
-    <mergeCell ref="R62:R65"/>
-    <mergeCell ref="R72:R77"/>
-    <mergeCell ref="R67:R70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -8472,7 +8466,7 @@
         <v>35</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="100" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -8482,7 +8476,7 @@
         <v>38</v>
       </c>
       <c r="G1" s="3"/>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="80" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -8492,7 +8486,7 @@
         <v>85</v>
       </c>
       <c r="L1" s="3"/>
-      <c r="M1" s="101" t="s">
+      <c r="M1" s="89" t="s">
         <v>17</v>
       </c>
       <c r="N1" s="4" t="s">
@@ -8502,7 +8496,7 @@
         <v>94</v>
       </c>
       <c r="Q1" s="3"/>
-      <c r="R1" s="106" t="s">
+      <c r="R1" s="97" t="s">
         <v>18</v>
       </c>
       <c r="S1" s="4" t="s">
@@ -8517,7 +8511,7 @@
         <f>DEC2HEX('ipv4'!B2)</f>
         <v>1</v>
       </c>
-      <c r="C2" s="76"/>
+      <c r="C2" s="101"/>
       <c r="D2" s="55"/>
       <c r="F2" s="10" t="s">
         <v>38</v>
@@ -8526,7 +8520,7 @@
         <f>DEC2HEX('ipv4'!G2)</f>
         <v>1</v>
       </c>
-      <c r="H2" s="93"/>
+      <c r="H2" s="81"/>
       <c r="I2" s="55"/>
       <c r="K2" s="10" t="s">
         <v>85</v>
@@ -8535,7 +8529,7 @@
         <f>DEC2HEX('ipv4'!L2)</f>
         <v>1</v>
       </c>
-      <c r="M2" s="102"/>
+      <c r="M2" s="90"/>
       <c r="N2" s="55"/>
       <c r="P2" s="10" t="s">
         <v>94</v>
@@ -8544,18 +8538,18 @@
         <f>DEC2HEX('ipv4'!Q2)</f>
         <v>1</v>
       </c>
-      <c r="R2" s="107"/>
+      <c r="R2" s="98"/>
       <c r="S2" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" s="87" t="s">
+      <c r="AA2" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="88"/>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="88"/>
-      <c r="AF2" s="89"/>
+      <c r="AB2" s="76"/>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="76"/>
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="77"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -8565,7 +8559,7 @@
         <f>DEC2HEX('ipv4'!B3)</f>
         <v>2</v>
       </c>
-      <c r="C3" s="76"/>
+      <c r="C3" s="101"/>
       <c r="D3" s="55"/>
       <c r="F3" s="10" t="s">
         <v>38</v>
@@ -8574,7 +8568,7 @@
         <f>DEC2HEX('ipv4'!G3)</f>
         <v>2</v>
       </c>
-      <c r="H3" s="93"/>
+      <c r="H3" s="81"/>
       <c r="I3" s="55"/>
       <c r="K3" s="10" t="s">
         <v>85</v>
@@ -8583,7 +8577,7 @@
         <f>DEC2HEX('ipv4'!L3)</f>
         <v>2</v>
       </c>
-      <c r="M3" s="102"/>
+      <c r="M3" s="90"/>
       <c r="N3" s="55"/>
       <c r="P3" s="10" t="s">
         <v>94</v>
@@ -8592,15 +8586,15 @@
         <f>DEC2HEX('ipv4'!Q3)</f>
         <v>2</v>
       </c>
-      <c r="R3" s="107"/>
+      <c r="R3" s="98"/>
       <c r="S3" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="AA3" s="116" t="s">
+      <c r="AA3" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="AB3" s="117"/>
-      <c r="AC3" s="118"/>
+      <c r="AB3" s="114"/>
+      <c r="AC3" s="115"/>
       <c r="AD3" s="16" t="s">
         <v>86</v>
       </c>
@@ -8619,7 +8613,7 @@
         <f>DEC2HEX('ipv4'!B4)</f>
         <v>3</v>
       </c>
-      <c r="C4" s="76"/>
+      <c r="C4" s="101"/>
       <c r="D4" s="55"/>
       <c r="F4" s="10" t="s">
         <v>38</v>
@@ -8628,7 +8622,7 @@
         <f>DEC2HEX('ipv4'!G4)</f>
         <v>3</v>
       </c>
-      <c r="H4" s="93"/>
+      <c r="H4" s="81"/>
       <c r="I4" s="55"/>
       <c r="K4" s="10" t="s">
         <v>85</v>
@@ -8637,7 +8631,7 @@
         <f>DEC2HEX('ipv4'!L4)</f>
         <v>3</v>
       </c>
-      <c r="M4" s="102"/>
+      <c r="M4" s="90"/>
       <c r="N4" s="55"/>
       <c r="P4" s="10" t="s">
         <v>94</v>
@@ -8646,7 +8640,7 @@
         <f>DEC2HEX('ipv4'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R4" s="107"/>
+      <c r="R4" s="98"/>
       <c r="S4" s="55"/>
       <c r="AA4" s="41">
         <v>2001</v>
@@ -8675,7 +8669,7 @@
         <f>DEC2HEX('ipv4'!B5)</f>
         <v>4</v>
       </c>
-      <c r="C5" s="76"/>
+      <c r="C5" s="101"/>
       <c r="D5" s="55"/>
       <c r="F5" s="10" t="s">
         <v>38</v>
@@ -8684,7 +8678,7 @@
         <f>DEC2HEX('ipv4'!G5)</f>
         <v>4</v>
       </c>
-      <c r="H5" s="93"/>
+      <c r="H5" s="81"/>
       <c r="I5" s="55"/>
       <c r="K5" s="10" t="s">
         <v>85</v>
@@ -8693,7 +8687,7 @@
         <f>DEC2HEX('ipv4'!L5)</f>
         <v>FC</v>
       </c>
-      <c r="M5" s="102"/>
+      <c r="M5" s="90"/>
       <c r="N5" s="55"/>
       <c r="P5" s="10" t="s">
         <v>94</v>
@@ -8702,7 +8696,7 @@
         <f>DEC2HEX('ipv4'!Q4)</f>
         <v>FC</v>
       </c>
-      <c r="R5" s="108"/>
+      <c r="R5" s="99"/>
       <c r="S5" s="55"/>
     </row>
     <row r="6" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8713,7 +8707,7 @@
         <f>DEC2HEX('ipv4'!B6)</f>
         <v>5</v>
       </c>
-      <c r="C6" s="76"/>
+      <c r="C6" s="101"/>
       <c r="D6" s="55"/>
       <c r="F6" s="10" t="s">
         <v>38</v>
@@ -8722,20 +8716,20 @@
         <f>DEC2HEX('ipv4'!G6)</f>
         <v>5</v>
       </c>
-      <c r="H6" s="93"/>
+      <c r="H6" s="81"/>
       <c r="I6" s="55"/>
       <c r="K6" s="9" t="s">
         <v>88</v>
       </c>
       <c r="L6" s="3"/>
-      <c r="M6" s="102"/>
+      <c r="M6" s="90"/>
       <c r="N6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AA6" s="90" t="s">
+      <c r="AA6" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="AB6" s="91"/>
+      <c r="AB6" s="79"/>
     </row>
     <row r="7" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -8745,7 +8739,7 @@
         <f>DEC2HEX('ipv4'!B7)</f>
         <v>6</v>
       </c>
-      <c r="C7" s="76"/>
+      <c r="C7" s="101"/>
       <c r="D7" s="55"/>
       <c r="F7" s="10" t="s">
         <v>38</v>
@@ -8754,7 +8748,7 @@
         <f>DEC2HEX('ipv4'!G7)</f>
         <v>6</v>
       </c>
-      <c r="H7" s="93"/>
+      <c r="H7" s="81"/>
       <c r="I7" s="55"/>
       <c r="K7" s="10" t="s">
         <v>88</v>
@@ -8763,13 +8757,13 @@
         <f>DEC2HEX('ipv4'!L10)</f>
         <v>1</v>
       </c>
-      <c r="M7" s="102"/>
+      <c r="M7" s="90"/>
       <c r="N7" s="55"/>
       <c r="P7" s="9" t="s">
         <v>95</v>
       </c>
       <c r="Q7" s="3"/>
-      <c r="R7" s="106" t="s">
+      <c r="R7" s="97" t="s">
         <v>20</v>
       </c>
       <c r="S7" s="4" t="s">
@@ -8790,7 +8784,7 @@
         <f>DEC2HEX('ipv4'!B8)</f>
         <v>7</v>
       </c>
-      <c r="C8" s="76"/>
+      <c r="C8" s="101"/>
       <c r="D8" s="55"/>
       <c r="F8" s="10" t="s">
         <v>38</v>
@@ -8799,7 +8793,7 @@
         <f>DEC2HEX('ipv4'!G8)</f>
         <v>7</v>
       </c>
-      <c r="H8" s="93"/>
+      <c r="H8" s="81"/>
       <c r="I8" s="55"/>
       <c r="K8" s="10" t="s">
         <v>88</v>
@@ -8808,7 +8802,7 @@
         <f>DEC2HEX('ipv4'!L11)</f>
         <v>2</v>
       </c>
-      <c r="M8" s="102"/>
+      <c r="M8" s="90"/>
       <c r="N8" s="55"/>
       <c r="P8" s="10" t="s">
         <v>95</v>
@@ -8817,7 +8811,7 @@
         <f>DEC2HEX('ipv4'!Q10)</f>
         <v>1</v>
       </c>
-      <c r="R8" s="107"/>
+      <c r="R8" s="98"/>
       <c r="S8" s="55" t="s">
         <v>21</v>
       </c>
@@ -8836,7 +8830,7 @@
         <f>DEC2HEX('ipv4'!B9)</f>
         <v>8</v>
       </c>
-      <c r="C9" s="76"/>
+      <c r="C9" s="101"/>
       <c r="D9" s="55"/>
       <c r="F9" s="10" t="s">
         <v>38</v>
@@ -8845,7 +8839,7 @@
         <f>DEC2HEX('ipv4'!G9)</f>
         <v>8</v>
       </c>
-      <c r="H9" s="93"/>
+      <c r="H9" s="81"/>
       <c r="I9" s="55"/>
       <c r="K9" s="10" t="s">
         <v>88</v>
@@ -8854,7 +8848,7 @@
         <f>DEC2HEX('ipv4'!L12)</f>
         <v>3</v>
       </c>
-      <c r="M9" s="102"/>
+      <c r="M9" s="90"/>
       <c r="N9" s="55"/>
       <c r="P9" s="10" t="s">
         <v>95</v>
@@ -8863,7 +8857,7 @@
         <f>DEC2HEX('ipv4'!Q11)</f>
         <v>2</v>
       </c>
-      <c r="R9" s="108"/>
+      <c r="R9" s="99"/>
       <c r="S9" s="55" t="s">
         <v>22</v>
       </c>
@@ -8882,7 +8876,7 @@
         <f>DEC2HEX('ipv4'!B10)</f>
         <v>9</v>
       </c>
-      <c r="C10" s="76"/>
+      <c r="C10" s="101"/>
       <c r="D10" s="55"/>
       <c r="F10" s="10" t="s">
         <v>38</v>
@@ -8891,7 +8885,7 @@
         <f>DEC2HEX('ipv4'!G10)</f>
         <v>9</v>
       </c>
-      <c r="H10" s="93"/>
+      <c r="H10" s="81"/>
       <c r="I10" s="55"/>
       <c r="K10" s="10" t="s">
         <v>88</v>
@@ -8900,7 +8894,7 @@
         <f>DEC2HEX('ipv4'!L13)</f>
         <v>4</v>
       </c>
-      <c r="M10" s="102"/>
+      <c r="M10" s="90"/>
       <c r="N10" s="55"/>
       <c r="AA10" s="40" t="s">
         <v>83</v>
@@ -8917,7 +8911,7 @@
         <f>DEC2HEX('ipv4'!B11)</f>
         <v>A</v>
       </c>
-      <c r="C11" s="76"/>
+      <c r="C11" s="101"/>
       <c r="D11" s="55"/>
       <c r="F11" s="10" t="s">
         <v>38</v>
@@ -8926,13 +8920,13 @@
         <f>DEC2HEX('ipv4'!G11)</f>
         <v>A</v>
       </c>
-      <c r="H11" s="93"/>
+      <c r="H11" s="81"/>
       <c r="I11" s="55"/>
       <c r="K11" s="9" t="s">
         <v>89</v>
       </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="102"/>
+      <c r="M11" s="90"/>
       <c r="N11" s="4" t="s">
         <v>23</v>
       </c>
@@ -8940,7 +8934,7 @@
         <v>97</v>
       </c>
       <c r="Q11" s="33"/>
-      <c r="R11" s="84" t="s">
+      <c r="R11" s="94" t="s">
         <v>71</v>
       </c>
       <c r="S11" s="4" t="s">
@@ -8955,7 +8949,7 @@
         <f>DEC2HEX('ipv4'!B12)</f>
         <v>B</v>
       </c>
-      <c r="C12" s="76"/>
+      <c r="C12" s="101"/>
       <c r="D12" s="55"/>
       <c r="F12" s="10" t="s">
         <v>38</v>
@@ -8964,7 +8958,7 @@
         <f>DEC2HEX('ipv4'!G12)</f>
         <v>B</v>
       </c>
-      <c r="H12" s="93"/>
+      <c r="H12" s="81"/>
       <c r="I12" s="55"/>
       <c r="K12" s="10" t="s">
         <v>89</v>
@@ -8973,7 +8967,7 @@
         <f>DEC2HEX('ipv4'!L17)</f>
         <v>1</v>
       </c>
-      <c r="M12" s="102"/>
+      <c r="M12" s="90"/>
       <c r="N12" s="55"/>
       <c r="P12" s="54" t="s">
         <v>97</v>
@@ -8982,7 +8976,7 @@
         <f>DEC2HEX('ipv4'!Q18)</f>
         <v>1</v>
       </c>
-      <c r="R12" s="85"/>
+      <c r="R12" s="95"/>
       <c r="S12" s="32" t="s">
         <v>56</v>
       </c>
@@ -8999,7 +8993,7 @@
         <f>DEC2HEX('ipv4'!B13)</f>
         <v>C</v>
       </c>
-      <c r="C13" s="76"/>
+      <c r="C13" s="101"/>
       <c r="D13" s="55"/>
       <c r="F13" s="10" t="s">
         <v>38</v>
@@ -9008,7 +9002,7 @@
         <f>DEC2HEX('ipv4'!G13)</f>
         <v>C</v>
       </c>
-      <c r="H13" s="93"/>
+      <c r="H13" s="81"/>
       <c r="I13" s="55"/>
       <c r="K13" s="10" t="s">
         <v>89</v>
@@ -9017,7 +9011,7 @@
         <f>DEC2HEX('ipv4'!L18)</f>
         <v>2</v>
       </c>
-      <c r="M13" s="102"/>
+      <c r="M13" s="90"/>
       <c r="N13" s="55"/>
       <c r="P13" s="54" t="s">
         <v>97</v>
@@ -9026,7 +9020,7 @@
         <f>DEC2HEX('ipv4'!Q19)</f>
         <v>2</v>
       </c>
-      <c r="R13" s="85"/>
+      <c r="R13" s="95"/>
       <c r="S13" s="32" t="s">
         <v>57</v>
       </c>
@@ -9043,7 +9037,7 @@
         <f>DEC2HEX('ipv4'!B14)</f>
         <v>D</v>
       </c>
-      <c r="C14" s="76"/>
+      <c r="C14" s="101"/>
       <c r="D14" s="55"/>
       <c r="F14" s="10" t="s">
         <v>38</v>
@@ -9052,7 +9046,7 @@
         <f>DEC2HEX('ipv4'!G14)</f>
         <v>D</v>
       </c>
-      <c r="H14" s="93"/>
+      <c r="H14" s="81"/>
       <c r="I14" s="55"/>
       <c r="K14" s="10" t="s">
         <v>89</v>
@@ -9061,7 +9055,7 @@
         <f>DEC2HEX('ipv4'!L19)</f>
         <v>3</v>
       </c>
-      <c r="M14" s="102"/>
+      <c r="M14" s="90"/>
       <c r="N14" s="55"/>
       <c r="P14" s="54" t="s">
         <v>97</v>
@@ -9070,7 +9064,7 @@
         <f>DEC2HEX('ipv4'!Q20)</f>
         <v>3</v>
       </c>
-      <c r="R14" s="85"/>
+      <c r="R14" s="95"/>
       <c r="S14" s="32" t="s">
         <v>58</v>
       </c>
@@ -9087,7 +9081,7 @@
         <f>DEC2HEX('ipv4'!B15)</f>
         <v>E</v>
       </c>
-      <c r="C15" s="76"/>
+      <c r="C15" s="101"/>
       <c r="D15" s="55"/>
       <c r="F15" s="10" t="s">
         <v>38</v>
@@ -9096,7 +9090,7 @@
         <f>DEC2HEX('ipv4'!G15)</f>
         <v>E</v>
       </c>
-      <c r="H15" s="93"/>
+      <c r="H15" s="81"/>
       <c r="I15" s="55"/>
       <c r="K15" s="10" t="s">
         <v>89</v>
@@ -9105,7 +9099,7 @@
         <f>DEC2HEX('ipv4'!L20)</f>
         <v>4</v>
       </c>
-      <c r="M15" s="112"/>
+      <c r="M15" s="109"/>
       <c r="N15" s="55"/>
       <c r="P15" s="54" t="s">
         <v>97</v>
@@ -9114,7 +9108,7 @@
         <f>DEC2HEX('ipv4'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R15" s="85"/>
+      <c r="R15" s="95"/>
       <c r="S15" s="32"/>
       <c r="AA15" s="38"/>
       <c r="AB15" s="38"/>
@@ -9129,7 +9123,7 @@
         <f>DEC2HEX('ipv4'!B16)</f>
         <v>F</v>
       </c>
-      <c r="C16" s="76"/>
+      <c r="C16" s="101"/>
       <c r="D16" s="55"/>
       <c r="F16" s="10" t="s">
         <v>38</v>
@@ -9138,7 +9132,7 @@
         <f>DEC2HEX('ipv4'!G16)</f>
         <v>F</v>
       </c>
-      <c r="H16" s="93"/>
+      <c r="H16" s="81"/>
       <c r="I16" s="55"/>
       <c r="M16" s="29"/>
       <c r="P16" s="54" t="s">
@@ -9148,7 +9142,7 @@
         <f>DEC2HEX('ipv4'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R16" s="85"/>
+      <c r="R16" s="95"/>
       <c r="S16" s="32"/>
       <c r="AA16" s="38"/>
       <c r="AB16" s="38"/>
@@ -9163,7 +9157,7 @@
         <f>DEC2HEX('ipv4'!B17)</f>
         <v>10</v>
       </c>
-      <c r="C17" s="76"/>
+      <c r="C17" s="101"/>
       <c r="D17" s="55"/>
       <c r="F17" s="10" t="s">
         <v>38</v>
@@ -9172,13 +9166,13 @@
         <f>DEC2HEX('ipv4'!G17)</f>
         <v>10</v>
       </c>
-      <c r="H17" s="93"/>
+      <c r="H17" s="81"/>
       <c r="I17" s="55"/>
       <c r="K17" s="9" t="s">
         <v>90</v>
       </c>
       <c r="L17" s="3"/>
-      <c r="M17" s="98" t="s">
+      <c r="M17" s="86" t="s">
         <v>16</v>
       </c>
       <c r="N17" s="4" t="s">
@@ -9191,7 +9185,7 @@
         <f>DEC2HEX('ipv4'!Q23)</f>
         <v>FE</v>
       </c>
-      <c r="R17" s="85"/>
+      <c r="R17" s="95"/>
       <c r="S17" s="32"/>
       <c r="AA17" s="36"/>
       <c r="AB17" s="22"/>
@@ -9206,7 +9200,7 @@
         <f>DEC2HEX('ipv4'!B18)</f>
         <v>11</v>
       </c>
-      <c r="C18" s="76"/>
+      <c r="C18" s="101"/>
       <c r="D18" s="55"/>
       <c r="F18" s="10" t="s">
         <v>38</v>
@@ -9215,7 +9209,7 @@
         <f>DEC2HEX('ipv4'!G18)</f>
         <v>11</v>
       </c>
-      <c r="H18" s="93"/>
+      <c r="H18" s="81"/>
       <c r="I18" s="55"/>
       <c r="K18" s="10" t="s">
         <v>90</v>
@@ -9224,7 +9218,7 @@
         <f>DEC2HEX('ipv4'!L25)</f>
         <v>1</v>
       </c>
-      <c r="M18" s="99"/>
+      <c r="M18" s="87"/>
       <c r="N18" s="55"/>
       <c r="P18" s="54" t="s">
         <v>97</v>
@@ -9233,7 +9227,7 @@
         <f>DEC2HEX('ipv4'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R18" s="85"/>
+      <c r="R18" s="95"/>
       <c r="S18" s="68"/>
       <c r="AA18" s="22"/>
       <c r="AB18" s="22"/>
@@ -9248,7 +9242,7 @@
         <f>DEC2HEX('ipv4'!B19)</f>
         <v>12</v>
       </c>
-      <c r="C19" s="76"/>
+      <c r="C19" s="101"/>
       <c r="D19" s="55"/>
       <c r="F19" s="10" t="s">
         <v>38</v>
@@ -9257,7 +9251,7 @@
         <f>DEC2HEX('ipv4'!G19)</f>
         <v>12</v>
       </c>
-      <c r="H19" s="93"/>
+      <c r="H19" s="81"/>
       <c r="I19" s="55"/>
       <c r="K19" s="10" t="s">
         <v>90</v>
@@ -9266,7 +9260,7 @@
         <f>DEC2HEX('ipv4'!L26)</f>
         <v>2</v>
       </c>
-      <c r="M19" s="99"/>
+      <c r="M19" s="87"/>
       <c r="N19" s="55"/>
       <c r="P19" s="54" t="s">
         <v>97</v>
@@ -9275,7 +9269,7 @@
         <f>DEC2HEX('ipv4'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R19" s="85"/>
+      <c r="R19" s="95"/>
       <c r="S19" s="32" t="s">
         <v>49</v>
       </c>
@@ -9292,7 +9286,7 @@
         <f>DEC2HEX('ipv4'!B20)</f>
         <v>13</v>
       </c>
-      <c r="C20" s="76"/>
+      <c r="C20" s="101"/>
       <c r="D20" s="55"/>
       <c r="F20" s="10" t="s">
         <v>38</v>
@@ -9301,7 +9295,7 @@
         <f>DEC2HEX('ipv4'!G20)</f>
         <v>13</v>
       </c>
-      <c r="H20" s="93"/>
+      <c r="H20" s="81"/>
       <c r="I20" s="55"/>
       <c r="K20" s="10" t="s">
         <v>90</v>
@@ -9310,7 +9304,7 @@
         <f>DEC2HEX('ipv4'!L27)</f>
         <v>3</v>
       </c>
-      <c r="M20" s="99"/>
+      <c r="M20" s="87"/>
       <c r="N20" s="55"/>
       <c r="P20" s="54" t="s">
         <v>97</v>
@@ -9319,7 +9313,7 @@
         <f>DEC2HEX('ipv4'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R20" s="85"/>
+      <c r="R20" s="95"/>
       <c r="S20" s="32" t="s">
         <v>51</v>
       </c>
@@ -9336,7 +9330,7 @@
         <f>DEC2HEX('ipv4'!B21)</f>
         <v>14</v>
       </c>
-      <c r="C21" s="76"/>
+      <c r="C21" s="101"/>
       <c r="D21" s="55"/>
       <c r="F21" s="10" t="s">
         <v>38</v>
@@ -9345,7 +9339,7 @@
         <f>DEC2HEX('ipv4'!G21)</f>
         <v>14</v>
       </c>
-      <c r="H21" s="93"/>
+      <c r="H21" s="81"/>
       <c r="I21" s="55"/>
       <c r="K21" s="10" t="s">
         <v>90</v>
@@ -9354,7 +9348,7 @@
         <f>DEC2HEX('ipv4'!L28)</f>
         <v>4</v>
       </c>
-      <c r="M21" s="99"/>
+      <c r="M21" s="87"/>
       <c r="N21" s="55"/>
       <c r="P21" s="54" t="s">
         <v>97</v>
@@ -9363,7 +9357,7 @@
         <f>DEC2HEX('ipv4'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R21" s="85"/>
+      <c r="R21" s="95"/>
       <c r="S21" s="68"/>
       <c r="AA21" s="22"/>
       <c r="AB21" s="22"/>
@@ -9378,7 +9372,7 @@
         <f>DEC2HEX('ipv4'!B22)</f>
         <v>15</v>
       </c>
-      <c r="C22" s="76"/>
+      <c r="C22" s="101"/>
       <c r="D22" s="55"/>
       <c r="F22" s="10" t="s">
         <v>38</v>
@@ -9387,7 +9381,7 @@
         <f>DEC2HEX('ipv4'!G22)</f>
         <v>15</v>
       </c>
-      <c r="H22" s="93"/>
+      <c r="H22" s="81"/>
       <c r="I22" s="55"/>
       <c r="K22" s="10" t="s">
         <v>90</v>
@@ -9396,7 +9390,7 @@
         <f>DEC2HEX('ipv4'!L29)</f>
         <v>FC</v>
       </c>
-      <c r="M22" s="100"/>
+      <c r="M22" s="88"/>
       <c r="N22" s="55"/>
       <c r="P22" s="54" t="s">
         <v>97</v>
@@ -9405,7 +9399,7 @@
         <f>DEC2HEX('ipv4'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R22" s="85"/>
+      <c r="R22" s="95"/>
       <c r="S22" s="32" t="s">
         <v>50</v>
       </c>
@@ -9421,7 +9415,7 @@
         <f>DEC2HEX('ipv4'!B23)</f>
         <v>16</v>
       </c>
-      <c r="C23" s="76"/>
+      <c r="C23" s="101"/>
       <c r="D23" s="55"/>
       <c r="F23" s="10" t="s">
         <v>38</v>
@@ -9430,7 +9424,7 @@
         <f>DEC2HEX('ipv4'!G23)</f>
         <v>16</v>
       </c>
-      <c r="H23" s="93"/>
+      <c r="H23" s="81"/>
       <c r="I23" s="55"/>
       <c r="M23" s="48"/>
       <c r="P23" s="54" t="s">
@@ -9440,7 +9434,7 @@
         <f>DEC2HEX('ipv4'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R23" s="85"/>
+      <c r="R23" s="95"/>
       <c r="S23" s="64" t="s">
         <v>107</v>
       </c>
@@ -9456,7 +9450,7 @@
         <f>DEC2HEX('ipv4'!B24)</f>
         <v>17</v>
       </c>
-      <c r="C24" s="76"/>
+      <c r="C24" s="101"/>
       <c r="D24" s="55"/>
       <c r="F24" s="10" t="s">
         <v>38</v>
@@ -9465,13 +9459,13 @@
         <f>DEC2HEX('ipv4'!G24)</f>
         <v>17</v>
       </c>
-      <c r="H24" s="93"/>
+      <c r="H24" s="81"/>
       <c r="I24" s="55"/>
       <c r="K24" s="9" t="s">
         <v>91</v>
       </c>
       <c r="L24" s="3"/>
-      <c r="M24" s="113" t="s">
+      <c r="M24" s="110" t="s">
         <v>24</v>
       </c>
       <c r="N24" s="4" t="s">
@@ -9481,7 +9475,7 @@
         <v>98</v>
       </c>
       <c r="Q24" s="33"/>
-      <c r="R24" s="85"/>
+      <c r="R24" s="95"/>
       <c r="S24" s="4" t="s">
         <v>23</v>
       </c>
@@ -9497,7 +9491,7 @@
         <f>DEC2HEX('ipv4'!B25)</f>
         <v>18</v>
       </c>
-      <c r="C25" s="76"/>
+      <c r="C25" s="101"/>
       <c r="D25" s="55"/>
       <c r="F25" s="10" t="s">
         <v>38</v>
@@ -9506,7 +9500,7 @@
         <f>DEC2HEX('ipv4'!G25)</f>
         <v>18</v>
       </c>
-      <c r="H25" s="93"/>
+      <c r="H25" s="81"/>
       <c r="I25" s="55"/>
       <c r="K25" s="10" t="s">
         <v>91</v>
@@ -9515,7 +9509,7 @@
         <f>DEC2HEX('ipv4'!L35)</f>
         <v>1</v>
       </c>
-      <c r="M25" s="114"/>
+      <c r="M25" s="111"/>
       <c r="N25" s="55"/>
       <c r="P25" s="54" t="s">
         <v>98</v>
@@ -9524,7 +9518,7 @@
         <f>DEC2HEX('ipv4'!Q26)</f>
         <v>1</v>
       </c>
-      <c r="R25" s="85"/>
+      <c r="R25" s="95"/>
       <c r="S25" s="32" t="s">
         <v>43</v>
       </c>
@@ -9537,7 +9531,7 @@
         <f>DEC2HEX('ipv4'!B26)</f>
         <v>19</v>
       </c>
-      <c r="C26" s="76"/>
+      <c r="C26" s="101"/>
       <c r="D26" s="55"/>
       <c r="F26" s="10" t="s">
         <v>38</v>
@@ -9546,7 +9540,7 @@
         <f>DEC2HEX('ipv4'!G26)</f>
         <v>19</v>
       </c>
-      <c r="H26" s="93"/>
+      <c r="H26" s="81"/>
       <c r="I26" s="55"/>
       <c r="K26" s="10" t="s">
         <v>91</v>
@@ -9555,7 +9549,7 @@
         <f>DEC2HEX('ipv4'!L36)</f>
         <v>2</v>
       </c>
-      <c r="M26" s="114"/>
+      <c r="M26" s="111"/>
       <c r="N26" s="56"/>
       <c r="P26" s="54" t="s">
         <v>98</v>
@@ -9564,7 +9558,7 @@
         <f>DEC2HEX('ipv4'!Q27)</f>
         <v>2</v>
       </c>
-      <c r="R26" s="85"/>
+      <c r="R26" s="95"/>
       <c r="S26" s="32" t="s">
         <v>52</v>
       </c>
@@ -9577,7 +9571,7 @@
         <f>DEC2HEX('ipv4'!B27)</f>
         <v>1A</v>
       </c>
-      <c r="C27" s="76"/>
+      <c r="C27" s="101"/>
       <c r="D27" s="55"/>
       <c r="F27" s="10" t="s">
         <v>38</v>
@@ -9586,13 +9580,13 @@
         <f>DEC2HEX('ipv4'!G27)</f>
         <v>1A</v>
       </c>
-      <c r="H27" s="93"/>
+      <c r="H27" s="81"/>
       <c r="I27" s="55"/>
       <c r="K27" s="9" t="s">
         <v>92</v>
       </c>
       <c r="L27" s="3"/>
-      <c r="M27" s="114"/>
+      <c r="M27" s="111"/>
       <c r="N27" s="4" t="s">
         <v>23</v>
       </c>
@@ -9603,7 +9597,7 @@
         <f>DEC2HEX('ipv4'!Q28)</f>
         <v>3</v>
       </c>
-      <c r="R27" s="85"/>
+      <c r="R27" s="95"/>
       <c r="S27" s="32"/>
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9614,7 +9608,7 @@
         <f>DEC2HEX('ipv4'!B28)</f>
         <v>1B</v>
       </c>
-      <c r="C28" s="76"/>
+      <c r="C28" s="101"/>
       <c r="D28" s="55"/>
       <c r="F28" s="10" t="s">
         <v>38</v>
@@ -9623,7 +9617,7 @@
         <f>DEC2HEX('ipv4'!G28)</f>
         <v>1B</v>
       </c>
-      <c r="H28" s="93"/>
+      <c r="H28" s="81"/>
       <c r="I28" s="55"/>
       <c r="K28" s="10" t="s">
         <v>92</v>
@@ -9632,13 +9626,13 @@
         <f>DEC2HEX('ipv4'!L40)</f>
         <v>1</v>
       </c>
-      <c r="M28" s="114"/>
+      <c r="M28" s="111"/>
       <c r="N28" s="55"/>
       <c r="P28" s="53" t="s">
         <v>99</v>
       </c>
       <c r="Q28" s="33"/>
-      <c r="R28" s="85"/>
+      <c r="R28" s="95"/>
       <c r="S28" s="4" t="s">
         <v>23</v>
       </c>
@@ -9651,7 +9645,7 @@
         <f>DEC2HEX('ipv4'!B29)</f>
         <v>1C</v>
       </c>
-      <c r="C29" s="76"/>
+      <c r="C29" s="101"/>
       <c r="D29" s="55"/>
       <c r="F29" s="10" t="s">
         <v>38</v>
@@ -9660,7 +9654,7 @@
         <f>DEC2HEX('ipv4'!G29)</f>
         <v>1C</v>
       </c>
-      <c r="H29" s="93"/>
+      <c r="H29" s="81"/>
       <c r="I29" s="55"/>
       <c r="K29" s="10" t="s">
         <v>92</v>
@@ -9669,7 +9663,7 @@
         <f>DEC2HEX('ipv4'!L41)</f>
         <v>2</v>
       </c>
-      <c r="M29" s="114"/>
+      <c r="M29" s="111"/>
       <c r="N29" s="55"/>
       <c r="P29" s="54" t="s">
         <v>99</v>
@@ -9678,7 +9672,7 @@
         <f>DEC2HEX('ipv4'!Q32)</f>
         <v>1</v>
       </c>
-      <c r="R29" s="85"/>
+      <c r="R29" s="95"/>
       <c r="S29" s="32" t="s">
         <v>45</v>
       </c>
@@ -9691,7 +9685,7 @@
         <f>DEC2HEX('ipv4'!B30)</f>
         <v>1D</v>
       </c>
-      <c r="C30" s="76"/>
+      <c r="C30" s="101"/>
       <c r="D30" s="55"/>
       <c r="F30" s="10" t="s">
         <v>38</v>
@@ -9700,13 +9694,13 @@
         <f>DEC2HEX('ipv4'!G30)</f>
         <v>1D</v>
       </c>
-      <c r="H30" s="93"/>
+      <c r="H30" s="81"/>
       <c r="I30" s="55"/>
       <c r="K30" s="49" t="s">
         <v>93</v>
       </c>
       <c r="L30" s="50"/>
-      <c r="M30" s="114"/>
+      <c r="M30" s="111"/>
       <c r="N30" s="51" t="s">
         <v>23</v>
       </c>
@@ -9717,7 +9711,7 @@
         <f>DEC2HEX('ipv4'!Q33)</f>
         <v>2</v>
       </c>
-      <c r="R30" s="85"/>
+      <c r="R30" s="95"/>
       <c r="S30" s="32" t="s">
         <v>47</v>
       </c>
@@ -9730,7 +9724,7 @@
         <f>DEC2HEX('ipv4'!B31)</f>
         <v>1E</v>
       </c>
-      <c r="C31" s="76"/>
+      <c r="C31" s="101"/>
       <c r="D31" s="55"/>
       <c r="F31" s="10" t="s">
         <v>38</v>
@@ -9739,7 +9733,7 @@
         <f>DEC2HEX('ipv4'!G31)</f>
         <v>1E</v>
       </c>
-      <c r="H31" s="93"/>
+      <c r="H31" s="81"/>
       <c r="I31" s="55"/>
       <c r="K31" s="10" t="s">
         <v>93</v>
@@ -9748,7 +9742,7 @@
         <f>DEC2HEX('ipv4'!L45)</f>
         <v>1</v>
       </c>
-      <c r="M31" s="114"/>
+      <c r="M31" s="111"/>
       <c r="N31" s="55"/>
       <c r="P31" s="54" t="s">
         <v>99</v>
@@ -9757,7 +9751,7 @@
         <f>DEC2HEX('ipv4'!Q39)</f>
         <v>8</v>
       </c>
-      <c r="R31" s="85"/>
+      <c r="R31" s="95"/>
       <c r="S31" s="68"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
@@ -9768,7 +9762,7 @@
         <f>DEC2HEX('ipv4'!B32)</f>
         <v>1F</v>
       </c>
-      <c r="C32" s="76"/>
+      <c r="C32" s="101"/>
       <c r="D32" s="55"/>
       <c r="F32" s="7" t="s">
         <v>38</v>
@@ -9777,7 +9771,7 @@
         <f>DEC2HEX('ipv4'!G32)</f>
         <v>FE</v>
       </c>
-      <c r="H32" s="94"/>
+      <c r="H32" s="82"/>
       <c r="I32" s="7"/>
       <c r="K32" s="10" t="s">
         <v>93</v>
@@ -9786,7 +9780,7 @@
         <f>DEC2HEX('ipv4'!L46)</f>
         <v>2</v>
       </c>
-      <c r="M32" s="115"/>
+      <c r="M32" s="112"/>
       <c r="N32" s="55"/>
       <c r="P32" s="54" t="s">
         <v>99</v>
@@ -9795,7 +9789,7 @@
         <f>DEC2HEX('ipv4'!Q40)</f>
         <v>9</v>
       </c>
-      <c r="R32" s="85"/>
+      <c r="R32" s="95"/>
       <c r="S32" s="32" t="s">
         <v>46</v>
       </c>
@@ -9808,7 +9802,7 @@
         <f>DEC2HEX('ipv4'!B33)</f>
         <v>20</v>
       </c>
-      <c r="C33" s="76"/>
+      <c r="C33" s="101"/>
       <c r="D33" s="55"/>
       <c r="K33" s="46"/>
       <c r="L33" s="47"/>
@@ -9821,7 +9815,7 @@
         <f>DEC2HEX('ipv4'!Q41)</f>
         <v>A</v>
       </c>
-      <c r="R33" s="85"/>
+      <c r="R33" s="95"/>
       <c r="S33" s="32" t="s">
         <v>48</v>
       </c>
@@ -9834,13 +9828,13 @@
         <f>DEC2HEX('ipv4'!B34)</f>
         <v>21</v>
       </c>
-      <c r="C34" s="76"/>
+      <c r="C34" s="101"/>
       <c r="D34" s="55"/>
       <c r="F34" s="9" t="s">
         <v>84</v>
       </c>
       <c r="G34" s="3"/>
-      <c r="H34" s="109" t="s">
+      <c r="H34" s="116" t="s">
         <v>15</v>
       </c>
       <c r="I34" s="4" t="s">
@@ -9853,7 +9847,7 @@
         <f>DEC2HEX('ipv4'!Q47)</f>
         <v>10</v>
       </c>
-      <c r="R34" s="85"/>
+      <c r="R34" s="95"/>
       <c r="S34" s="68"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -9864,7 +9858,7 @@
         <f>DEC2HEX('ipv4'!B35)</f>
         <v>22</v>
       </c>
-      <c r="C35" s="76"/>
+      <c r="C35" s="101"/>
       <c r="D35" s="55"/>
       <c r="F35" s="10" t="s">
         <v>84</v>
@@ -9873,7 +9867,7 @@
         <f>DEC2HEX('ipv4'!G36)</f>
         <v>1</v>
       </c>
-      <c r="H35" s="110"/>
+      <c r="H35" s="117"/>
       <c r="I35" s="55"/>
       <c r="P35" s="54" t="s">
         <v>99</v>
@@ -9882,7 +9876,7 @@
         <f>DEC2HEX('ipv4'!Q48)</f>
         <v>11</v>
       </c>
-      <c r="R35" s="85"/>
+      <c r="R35" s="95"/>
       <c r="S35" s="32" t="s">
         <v>55</v>
       </c>
@@ -9895,7 +9889,7 @@
         <f>DEC2HEX('ipv4'!B36)</f>
         <v>23</v>
       </c>
-      <c r="C36" s="76"/>
+      <c r="C36" s="101"/>
       <c r="D36" s="55"/>
       <c r="F36" s="10" t="s">
         <v>84</v>
@@ -9904,7 +9898,7 @@
         <f>DEC2HEX('ipv4'!G37)</f>
         <v>2</v>
       </c>
-      <c r="H36" s="110"/>
+      <c r="H36" s="117"/>
       <c r="I36" s="55"/>
       <c r="P36" s="54" t="s">
         <v>99</v>
@@ -9913,7 +9907,7 @@
         <f>DEC2HEX('ipv4'!Q49)</f>
         <v>12</v>
       </c>
-      <c r="R36" s="85"/>
+      <c r="R36" s="95"/>
       <c r="S36" s="32" t="s">
         <v>54</v>
       </c>
@@ -9926,7 +9920,7 @@
         <f>DEC2HEX('ipv4'!B37)</f>
         <v>24</v>
       </c>
-      <c r="C37" s="76"/>
+      <c r="C37" s="101"/>
       <c r="D37" s="55"/>
       <c r="F37" s="10" t="s">
         <v>84</v>
@@ -9935,13 +9929,13 @@
         <f>DEC2HEX('ipv4'!G38)</f>
         <v>3</v>
       </c>
-      <c r="H37" s="110"/>
+      <c r="H37" s="117"/>
       <c r="I37" s="55"/>
       <c r="P37" s="53" t="s">
         <v>100</v>
       </c>
       <c r="Q37" s="33"/>
-      <c r="R37" s="85"/>
+      <c r="R37" s="95"/>
       <c r="S37" s="4" t="s">
         <v>23</v>
       </c>
@@ -9954,7 +9948,7 @@
         <f>DEC2HEX('ipv4'!B38)</f>
         <v>25</v>
       </c>
-      <c r="C38" s="76"/>
+      <c r="C38" s="101"/>
       <c r="D38" s="55"/>
       <c r="F38" s="10" t="s">
         <v>84</v>
@@ -9963,7 +9957,7 @@
         <f>DEC2HEX('ipv4'!G39)</f>
         <v>4</v>
       </c>
-      <c r="H38" s="110"/>
+      <c r="H38" s="117"/>
       <c r="I38" s="55"/>
       <c r="P38" s="54" t="s">
         <v>100</v>
@@ -9972,7 +9966,7 @@
         <f>DEC2HEX('ipv4'!Q56)</f>
         <v>1</v>
       </c>
-      <c r="R38" s="85"/>
+      <c r="R38" s="95"/>
       <c r="S38" s="32" t="s">
         <v>44</v>
       </c>
@@ -9985,7 +9979,7 @@
         <f>DEC2HEX('ipv4'!B39)</f>
         <v>26</v>
       </c>
-      <c r="C39" s="76"/>
+      <c r="C39" s="101"/>
       <c r="D39" s="55"/>
       <c r="F39" s="10" t="s">
         <v>84</v>
@@ -9994,7 +9988,7 @@
         <f>DEC2HEX('ipv4'!G40)</f>
         <v>5</v>
       </c>
-      <c r="H39" s="110"/>
+      <c r="H39" s="117"/>
       <c r="I39" s="55"/>
       <c r="P39" s="54" t="s">
         <v>100</v>
@@ -10003,7 +9997,7 @@
         <f>DEC2HEX('ipv4'!Q57)</f>
         <v>2</v>
       </c>
-      <c r="R39" s="85"/>
+      <c r="R39" s="95"/>
       <c r="S39" s="32" t="s">
         <v>53</v>
       </c>
@@ -10016,7 +10010,7 @@
         <f>DEC2HEX('ipv4'!B40)</f>
         <v>27</v>
       </c>
-      <c r="C40" s="76"/>
+      <c r="C40" s="101"/>
       <c r="D40" s="55"/>
       <c r="F40" s="10" t="s">
         <v>84</v>
@@ -10025,7 +10019,7 @@
         <f>DEC2HEX('ipv4'!G41)</f>
         <v>6</v>
       </c>
-      <c r="H40" s="110"/>
+      <c r="H40" s="117"/>
       <c r="I40" s="55"/>
       <c r="P40" s="54" t="s">
         <v>100</v>
@@ -10034,7 +10028,7 @@
         <f>DEC2HEX('ipv4'!Q58)</f>
         <v>3</v>
       </c>
-      <c r="R40" s="86"/>
+      <c r="R40" s="96"/>
       <c r="S40" s="32"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
@@ -10045,7 +10039,7 @@
         <f>DEC2HEX('ipv4'!B41)</f>
         <v>28</v>
       </c>
-      <c r="C41" s="76"/>
+      <c r="C41" s="101"/>
       <c r="D41" s="55"/>
       <c r="F41" s="10" t="s">
         <v>84</v>
@@ -10054,7 +10048,7 @@
         <f>DEC2HEX('ipv4'!G42)</f>
         <v>7</v>
       </c>
-      <c r="H41" s="110"/>
+      <c r="H41" s="117"/>
       <c r="I41" s="55"/>
     </row>
     <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10065,7 +10059,7 @@
         <f>DEC2HEX('ipv4'!B42)</f>
         <v>29</v>
       </c>
-      <c r="C42" s="76"/>
+      <c r="C42" s="101"/>
       <c r="D42" s="55"/>
       <c r="F42" s="10" t="s">
         <v>84</v>
@@ -10074,13 +10068,13 @@
         <f>DEC2HEX('ipv4'!G43)</f>
         <v>8</v>
       </c>
-      <c r="H42" s="110"/>
+      <c r="H42" s="117"/>
       <c r="I42" s="55"/>
       <c r="P42" s="33" t="s">
         <v>116</v>
       </c>
       <c r="Q42" s="33"/>
-      <c r="R42" s="78" t="s">
+      <c r="R42" s="103" t="s">
         <v>112</v>
       </c>
       <c r="S42" s="4" t="s">
@@ -10095,7 +10089,7 @@
         <f>DEC2HEX('ipv4'!B43)</f>
         <v>2A</v>
       </c>
-      <c r="C43" s="76"/>
+      <c r="C43" s="101"/>
       <c r="D43" s="55"/>
       <c r="F43" s="10" t="s">
         <v>84</v>
@@ -10104,7 +10098,7 @@
         <f>DEC2HEX('ipv4'!G44)</f>
         <v>9</v>
       </c>
-      <c r="H43" s="110"/>
+      <c r="H43" s="117"/>
       <c r="I43" s="55"/>
       <c r="P43" s="54" t="s">
         <v>116</v>
@@ -10113,7 +10107,7 @@
         <f>DEC2HEX('ipv4'!Q63)</f>
         <v>1</v>
       </c>
-      <c r="R43" s="79"/>
+      <c r="R43" s="104"/>
       <c r="S43" s="32" t="s">
         <v>103</v>
       </c>
@@ -10126,7 +10120,7 @@
         <f>DEC2HEX('ipv4'!B44)</f>
         <v>2B</v>
       </c>
-      <c r="C44" s="76"/>
+      <c r="C44" s="101"/>
       <c r="D44" s="55"/>
       <c r="F44" s="10" t="s">
         <v>84</v>
@@ -10135,7 +10129,7 @@
         <f>DEC2HEX('ipv4'!G45)</f>
         <v>FC</v>
       </c>
-      <c r="H44" s="111"/>
+      <c r="H44" s="118"/>
       <c r="I44" s="55"/>
       <c r="P44" s="54" t="s">
         <v>116</v>
@@ -10144,7 +10138,7 @@
         <f>DEC2HEX('ipv4'!Q64)</f>
         <v>2</v>
       </c>
-      <c r="R44" s="80"/>
+      <c r="R44" s="105"/>
       <c r="S44" s="32" t="s">
         <v>102</v>
       </c>
@@ -10157,7 +10151,7 @@
         <f>DEC2HEX('ipv4'!B45)</f>
         <v>2C</v>
       </c>
-      <c r="C45" s="76"/>
+      <c r="C45" s="101"/>
       <c r="D45" s="55"/>
     </row>
     <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10168,7 +10162,7 @@
         <f>DEC2HEX('ipv4'!B46)</f>
         <v>2D</v>
       </c>
-      <c r="C46" s="76"/>
+      <c r="C46" s="101"/>
       <c r="D46" s="55"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
@@ -10179,7 +10173,7 @@
         <f>DEC2HEX('ipv4'!B47)</f>
         <v>2E</v>
       </c>
-      <c r="C47" s="76"/>
+      <c r="C47" s="101"/>
       <c r="D47" s="55"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -10190,7 +10184,7 @@
         <f>DEC2HEX('ipv4'!B48)</f>
         <v>2F</v>
       </c>
-      <c r="C48" s="76"/>
+      <c r="C48" s="101"/>
       <c r="D48" s="55"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -10201,7 +10195,7 @@
         <f>DEC2HEX('ipv4'!B49)</f>
         <v>30</v>
       </c>
-      <c r="C49" s="76"/>
+      <c r="C49" s="101"/>
       <c r="D49" s="55"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -10212,7 +10206,7 @@
         <f>DEC2HEX('ipv4'!B50)</f>
         <v>31</v>
       </c>
-      <c r="C50" s="76"/>
+      <c r="C50" s="101"/>
       <c r="D50" s="55"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -10223,7 +10217,7 @@
         <f>DEC2HEX('ipv4'!B51)</f>
         <v>32</v>
       </c>
-      <c r="C51" s="76"/>
+      <c r="C51" s="101"/>
       <c r="D51" s="55"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -10234,7 +10228,7 @@
         <f>DEC2HEX('ipv4'!B52)</f>
         <v>FE</v>
       </c>
-      <c r="C52" s="76"/>
+      <c r="C52" s="101"/>
       <c r="D52" s="7"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -10242,7 +10236,7 @@
         <v>36</v>
       </c>
       <c r="B53" s="3"/>
-      <c r="C53" s="76"/>
+      <c r="C53" s="101"/>
       <c r="D53" s="4" t="s">
         <v>23</v>
       </c>
@@ -10255,7 +10249,7 @@
         <f>DEC2HEX('ipv4'!B55)</f>
         <v>1</v>
       </c>
-      <c r="C54" s="76"/>
+      <c r="C54" s="101"/>
       <c r="D54" s="55"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -10266,7 +10260,7 @@
         <f>DEC2HEX('ipv4'!B56)</f>
         <v>2</v>
       </c>
-      <c r="C55" s="76"/>
+      <c r="C55" s="101"/>
       <c r="D55" s="55"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -10277,7 +10271,7 @@
         <f>DEC2HEX('ipv4'!B57)</f>
         <v>3</v>
       </c>
-      <c r="C56" s="76"/>
+      <c r="C56" s="101"/>
       <c r="D56" s="55"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -10288,7 +10282,7 @@
         <f>DEC2HEX('ipv4'!B58)</f>
         <v>4</v>
       </c>
-      <c r="C57" s="76"/>
+      <c r="C57" s="101"/>
       <c r="D57" s="55"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -10299,7 +10293,7 @@
         <f>DEC2HEX('ipv4'!B59)</f>
         <v>5</v>
       </c>
-      <c r="C58" s="76"/>
+      <c r="C58" s="101"/>
       <c r="D58" s="55"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -10310,7 +10304,7 @@
         <f>DEC2HEX('ipv4'!B60)</f>
         <v>6</v>
       </c>
-      <c r="C59" s="76"/>
+      <c r="C59" s="101"/>
       <c r="D59" s="55"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -10321,7 +10315,7 @@
         <f>DEC2HEX('ipv4'!B61)</f>
         <v>7</v>
       </c>
-      <c r="C60" s="76"/>
+      <c r="C60" s="101"/>
       <c r="D60" s="55"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -10332,7 +10326,7 @@
         <f>DEC2HEX('ipv4'!B62)</f>
         <v>8</v>
       </c>
-      <c r="C61" s="76"/>
+      <c r="C61" s="101"/>
       <c r="D61" s="55"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -10343,7 +10337,7 @@
         <f>DEC2HEX('ipv4'!B63)</f>
         <v>9</v>
       </c>
-      <c r="C62" s="76"/>
+      <c r="C62" s="101"/>
       <c r="D62" s="55"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -10354,7 +10348,7 @@
         <f>DEC2HEX('ipv4'!B64)</f>
         <v>A</v>
       </c>
-      <c r="C63" s="76"/>
+      <c r="C63" s="101"/>
       <c r="D63" s="55"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -10365,7 +10359,7 @@
         <f>DEC2HEX('ipv4'!B65)</f>
         <v>B</v>
       </c>
-      <c r="C64" s="76"/>
+      <c r="C64" s="101"/>
       <c r="D64" s="55"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -10376,7 +10370,7 @@
         <f>DEC2HEX('ipv4'!B66)</f>
         <v>C</v>
       </c>
-      <c r="C65" s="76"/>
+      <c r="C65" s="101"/>
       <c r="D65" s="55"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -10387,7 +10381,7 @@
         <f>DEC2HEX('ipv4'!B67)</f>
         <v>D</v>
       </c>
-      <c r="C66" s="76"/>
+      <c r="C66" s="101"/>
       <c r="D66" s="55"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -10398,7 +10392,7 @@
         <f>DEC2HEX('ipv4'!B68)</f>
         <v>E</v>
       </c>
-      <c r="C67" s="76"/>
+      <c r="C67" s="101"/>
       <c r="D67" s="55"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -10409,7 +10403,7 @@
         <f>DEC2HEX('ipv4'!B69)</f>
         <v>F</v>
       </c>
-      <c r="C68" s="76"/>
+      <c r="C68" s="101"/>
       <c r="D68" s="55"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -10420,7 +10414,7 @@
         <f>DEC2HEX('ipv4'!B70)</f>
         <v>10</v>
       </c>
-      <c r="C69" s="76"/>
+      <c r="C69" s="101"/>
       <c r="D69" s="55"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -10431,7 +10425,7 @@
         <f>DEC2HEX('ipv4'!B71)</f>
         <v>11</v>
       </c>
-      <c r="C70" s="76"/>
+      <c r="C70" s="101"/>
       <c r="D70" s="55"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -10442,7 +10436,7 @@
         <f>DEC2HEX('ipv4'!B72)</f>
         <v>12</v>
       </c>
-      <c r="C71" s="76"/>
+      <c r="C71" s="101"/>
       <c r="D71" s="55"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -10453,7 +10447,7 @@
         <f>DEC2HEX('ipv4'!B73)</f>
         <v>13</v>
       </c>
-      <c r="C72" s="76"/>
+      <c r="C72" s="101"/>
       <c r="D72" s="55"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -10464,7 +10458,7 @@
         <f>DEC2HEX('ipv4'!B74)</f>
         <v>14</v>
       </c>
-      <c r="C73" s="76"/>
+      <c r="C73" s="101"/>
       <c r="D73" s="55"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -10475,7 +10469,7 @@
         <f>DEC2HEX('ipv4'!B75)</f>
         <v>15</v>
       </c>
-      <c r="C74" s="76"/>
+      <c r="C74" s="101"/>
       <c r="D74" s="55"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -10486,7 +10480,7 @@
         <f>DEC2HEX('ipv4'!B76)</f>
         <v>16</v>
       </c>
-      <c r="C75" s="76"/>
+      <c r="C75" s="101"/>
       <c r="D75" s="55"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -10497,7 +10491,7 @@
         <f>DEC2HEX('ipv4'!B77)</f>
         <v>17</v>
       </c>
-      <c r="C76" s="76"/>
+      <c r="C76" s="101"/>
       <c r="D76" s="55"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -10508,7 +10502,7 @@
         <f>DEC2HEX('ipv4'!B78)</f>
         <v>18</v>
       </c>
-      <c r="C77" s="76"/>
+      <c r="C77" s="101"/>
       <c r="D77" s="55"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -10519,7 +10513,7 @@
         <f>DEC2HEX('ipv4'!B79)</f>
         <v>19</v>
       </c>
-      <c r="C78" s="76"/>
+      <c r="C78" s="101"/>
       <c r="D78" s="55"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -10530,7 +10524,7 @@
         <f>DEC2HEX('ipv4'!B80)</f>
         <v>1A</v>
       </c>
-      <c r="C79" s="76"/>
+      <c r="C79" s="101"/>
       <c r="D79" s="55"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -10541,7 +10535,7 @@
         <f>DEC2HEX('ipv4'!B81)</f>
         <v>1B</v>
       </c>
-      <c r="C80" s="76"/>
+      <c r="C80" s="101"/>
       <c r="D80" s="55"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -10552,7 +10546,7 @@
         <f>DEC2HEX('ipv4'!B82)</f>
         <v>1C</v>
       </c>
-      <c r="C81" s="76"/>
+      <c r="C81" s="101"/>
       <c r="D81" s="55"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -10563,7 +10557,7 @@
         <f>DEC2HEX('ipv4'!B83)</f>
         <v>1D</v>
       </c>
-      <c r="C82" s="76"/>
+      <c r="C82" s="101"/>
       <c r="D82" s="55"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -10574,7 +10568,7 @@
         <f>DEC2HEX('ipv4'!B84)</f>
         <v>1E</v>
       </c>
-      <c r="C83" s="76"/>
+      <c r="C83" s="101"/>
       <c r="D83" s="55"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -10585,7 +10579,7 @@
         <f>DEC2HEX('ipv4'!B85)</f>
         <v>1F</v>
       </c>
-      <c r="C84" s="76"/>
+      <c r="C84" s="101"/>
       <c r="D84" s="55"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -10596,7 +10590,7 @@
         <f>DEC2HEX('ipv4'!B86)</f>
         <v>20</v>
       </c>
-      <c r="C85" s="76"/>
+      <c r="C85" s="101"/>
       <c r="D85" s="55"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -10607,7 +10601,7 @@
         <f>DEC2HEX('ipv4'!B87)</f>
         <v>21</v>
       </c>
-      <c r="C86" s="76"/>
+      <c r="C86" s="101"/>
       <c r="D86" s="55"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -10618,7 +10612,7 @@
         <f>DEC2HEX('ipv4'!B88)</f>
         <v>22</v>
       </c>
-      <c r="C87" s="76"/>
+      <c r="C87" s="101"/>
       <c r="D87" s="55"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -10629,7 +10623,7 @@
         <f>DEC2HEX('ipv4'!B89)</f>
         <v>23</v>
       </c>
-      <c r="C88" s="76"/>
+      <c r="C88" s="101"/>
       <c r="D88" s="55"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -10640,7 +10634,7 @@
         <f>DEC2HEX('ipv4'!B90)</f>
         <v>24</v>
       </c>
-      <c r="C89" s="76"/>
+      <c r="C89" s="101"/>
       <c r="D89" s="55"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -10651,7 +10645,7 @@
         <f>DEC2HEX('ipv4'!B91)</f>
         <v>25</v>
       </c>
-      <c r="C90" s="76"/>
+      <c r="C90" s="101"/>
       <c r="D90" s="55"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -10662,7 +10656,7 @@
         <f>DEC2HEX('ipv4'!B92)</f>
         <v>26</v>
       </c>
-      <c r="C91" s="76"/>
+      <c r="C91" s="101"/>
       <c r="D91" s="55"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -10673,7 +10667,7 @@
         <f>DEC2HEX('ipv4'!B93)</f>
         <v>27</v>
       </c>
-      <c r="C92" s="76"/>
+      <c r="C92" s="101"/>
       <c r="D92" s="55"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -10684,7 +10678,7 @@
         <f>DEC2HEX('ipv4'!B94)</f>
         <v>28</v>
       </c>
-      <c r="C93" s="76"/>
+      <c r="C93" s="101"/>
       <c r="D93" s="55"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -10695,7 +10689,7 @@
         <f>DEC2HEX('ipv4'!B95)</f>
         <v>7E</v>
       </c>
-      <c r="C94" s="76"/>
+      <c r="C94" s="101"/>
       <c r="D94" s="7"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -10706,7 +10700,7 @@
         <f>DEC2HEX('ipv4'!B97)</f>
         <v>80</v>
       </c>
-      <c r="C95" s="76"/>
+      <c r="C95" s="101"/>
       <c r="D95" s="4" t="s">
         <v>23</v>
       </c>
@@ -10719,7 +10713,7 @@
         <f>DEC2HEX('ipv4'!B98)</f>
         <v>81</v>
       </c>
-      <c r="C96" s="76"/>
+      <c r="C96" s="101"/>
       <c r="D96" s="55"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -10730,7 +10724,7 @@
         <f>DEC2HEX('ipv4'!B99)</f>
         <v>82</v>
       </c>
-      <c r="C97" s="76"/>
+      <c r="C97" s="101"/>
       <c r="D97" s="55"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -10741,7 +10735,7 @@
         <f>DEC2HEX('ipv4'!B100)</f>
         <v>83</v>
       </c>
-      <c r="C98" s="76"/>
+      <c r="C98" s="101"/>
       <c r="D98" s="55"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -10752,7 +10746,7 @@
         <f>DEC2HEX('ipv4'!B101)</f>
         <v>84</v>
       </c>
-      <c r="C99" s="76"/>
+      <c r="C99" s="101"/>
       <c r="D99" s="55"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -10763,7 +10757,7 @@
         <f>DEC2HEX('ipv4'!B102)</f>
         <v>85</v>
       </c>
-      <c r="C100" s="76"/>
+      <c r="C100" s="101"/>
       <c r="D100" s="55"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -10774,7 +10768,7 @@
         <f>DEC2HEX('ipv4'!B103)</f>
         <v>86</v>
       </c>
-      <c r="C101" s="76"/>
+      <c r="C101" s="101"/>
       <c r="D101" s="55"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -10785,7 +10779,7 @@
         <f>DEC2HEX('ipv4'!B104)</f>
         <v>87</v>
       </c>
-      <c r="C102" s="76"/>
+      <c r="C102" s="101"/>
       <c r="D102" s="55"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -10796,7 +10790,7 @@
         <f>DEC2HEX('ipv4'!B105)</f>
         <v>88</v>
       </c>
-      <c r="C103" s="76"/>
+      <c r="C103" s="101"/>
       <c r="D103" s="55"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -10807,7 +10801,7 @@
         <f>DEC2HEX('ipv4'!B106)</f>
         <v>89</v>
       </c>
-      <c r="C104" s="76"/>
+      <c r="C104" s="101"/>
       <c r="D104" s="55"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -10818,7 +10812,7 @@
         <f>DEC2HEX('ipv4'!B107)</f>
         <v>8A</v>
       </c>
-      <c r="C105" s="76"/>
+      <c r="C105" s="101"/>
       <c r="D105" s="55"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -10829,7 +10823,7 @@
         <f>DEC2HEX('ipv4'!B108)</f>
         <v>8B</v>
       </c>
-      <c r="C106" s="76"/>
+      <c r="C106" s="101"/>
       <c r="D106" s="55"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -10840,7 +10834,7 @@
         <f>DEC2HEX('ipv4'!B109)</f>
         <v>8C</v>
       </c>
-      <c r="C107" s="76"/>
+      <c r="C107" s="101"/>
       <c r="D107" s="55"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -10851,7 +10845,7 @@
         <f>DEC2HEX('ipv4'!B110)</f>
         <v>8D</v>
       </c>
-      <c r="C108" s="76"/>
+      <c r="C108" s="101"/>
       <c r="D108" s="55"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -10862,7 +10856,7 @@
         <f>DEC2HEX('ipv4'!B111)</f>
         <v>8E</v>
       </c>
-      <c r="C109" s="76"/>
+      <c r="C109" s="101"/>
       <c r="D109" s="55"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -10873,7 +10867,7 @@
         <f>DEC2HEX('ipv4'!B112)</f>
         <v>8F</v>
       </c>
-      <c r="C110" s="76"/>
+      <c r="C110" s="101"/>
       <c r="D110" s="55"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -10884,7 +10878,7 @@
         <f>DEC2HEX('ipv4'!B113)</f>
         <v>90</v>
       </c>
-      <c r="C111" s="76"/>
+      <c r="C111" s="101"/>
       <c r="D111" s="55"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -10895,7 +10889,7 @@
         <f>DEC2HEX('ipv4'!B114)</f>
         <v>91</v>
       </c>
-      <c r="C112" s="76"/>
+      <c r="C112" s="101"/>
       <c r="D112" s="55"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -10906,7 +10900,7 @@
         <f>DEC2HEX('ipv4'!B115)</f>
         <v>92</v>
       </c>
-      <c r="C113" s="76"/>
+      <c r="C113" s="101"/>
       <c r="D113" s="55"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -10917,7 +10911,7 @@
         <f>DEC2HEX('ipv4'!B116)</f>
         <v>93</v>
       </c>
-      <c r="C114" s="76"/>
+      <c r="C114" s="101"/>
       <c r="D114" s="55"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -10928,7 +10922,7 @@
         <f>DEC2HEX('ipv4'!B117)</f>
         <v>94</v>
       </c>
-      <c r="C115" s="76"/>
+      <c r="C115" s="101"/>
       <c r="D115" s="55"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -10939,7 +10933,7 @@
         <f>DEC2HEX('ipv4'!B118)</f>
         <v>95</v>
       </c>
-      <c r="C116" s="76"/>
+      <c r="C116" s="101"/>
       <c r="D116" s="55"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -10950,7 +10944,7 @@
         <f>DEC2HEX('ipv4'!B119)</f>
         <v>96</v>
       </c>
-      <c r="C117" s="76"/>
+      <c r="C117" s="101"/>
       <c r="D117" s="55"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -10961,7 +10955,7 @@
         <f>DEC2HEX('ipv4'!B120)</f>
         <v>97</v>
       </c>
-      <c r="C118" s="76"/>
+      <c r="C118" s="101"/>
       <c r="D118" s="55"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -10972,7 +10966,7 @@
         <f>DEC2HEX('ipv4'!B121)</f>
         <v>98</v>
       </c>
-      <c r="C119" s="76"/>
+      <c r="C119" s="101"/>
       <c r="D119" s="55"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -10983,7 +10977,7 @@
         <f>DEC2HEX('ipv4'!B122)</f>
         <v>99</v>
       </c>
-      <c r="C120" s="76"/>
+      <c r="C120" s="101"/>
       <c r="D120" s="55"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -10994,7 +10988,7 @@
         <f>DEC2HEX('ipv4'!B123)</f>
         <v>9A</v>
       </c>
-      <c r="C121" s="76"/>
+      <c r="C121" s="101"/>
       <c r="D121" s="55"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -11005,7 +10999,7 @@
         <f>DEC2HEX('ipv4'!B124)</f>
         <v>9B</v>
       </c>
-      <c r="C122" s="76"/>
+      <c r="C122" s="101"/>
       <c r="D122" s="55"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -11016,7 +11010,7 @@
         <f>DEC2HEX('ipv4'!B125)</f>
         <v>9C</v>
       </c>
-      <c r="C123" s="76"/>
+      <c r="C123" s="101"/>
       <c r="D123" s="55"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -11027,7 +11021,7 @@
         <f>DEC2HEX('ipv4'!B126)</f>
         <v>9D</v>
       </c>
-      <c r="C124" s="76"/>
+      <c r="C124" s="101"/>
       <c r="D124" s="55"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -11038,7 +11032,7 @@
         <f>DEC2HEX('ipv4'!B127)</f>
         <v>9E</v>
       </c>
-      <c r="C125" s="76"/>
+      <c r="C125" s="101"/>
       <c r="D125" s="55"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -11049,7 +11043,7 @@
         <f>DEC2HEX('ipv4'!B128)</f>
         <v>9F</v>
       </c>
-      <c r="C126" s="76"/>
+      <c r="C126" s="101"/>
       <c r="D126" s="55"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -11060,7 +11054,7 @@
         <f>DEC2HEX('ipv4'!B129)</f>
         <v>A0</v>
       </c>
-      <c r="C127" s="76"/>
+      <c r="C127" s="101"/>
       <c r="D127" s="55"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -11071,7 +11065,7 @@
         <f>DEC2HEX('ipv4'!B130)</f>
         <v>A1</v>
       </c>
-      <c r="C128" s="76"/>
+      <c r="C128" s="101"/>
       <c r="D128" s="55"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -11082,7 +11076,7 @@
         <f>DEC2HEX('ipv4'!B131)</f>
         <v>A2</v>
       </c>
-      <c r="C129" s="76"/>
+      <c r="C129" s="101"/>
       <c r="D129" s="55"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -11093,7 +11087,7 @@
         <f>DEC2HEX('ipv4'!B132)</f>
         <v>A3</v>
       </c>
-      <c r="C130" s="76"/>
+      <c r="C130" s="101"/>
       <c r="D130" s="55"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -11104,7 +11098,7 @@
         <f>DEC2HEX('ipv4'!B133)</f>
         <v>A4</v>
       </c>
-      <c r="C131" s="76"/>
+      <c r="C131" s="101"/>
       <c r="D131" s="55"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -11115,7 +11109,7 @@
         <f>DEC2HEX('ipv4'!B134)</f>
         <v>A5</v>
       </c>
-      <c r="C132" s="76"/>
+      <c r="C132" s="101"/>
       <c r="D132" s="55"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -11126,7 +11120,7 @@
         <f>DEC2HEX('ipv4'!B135)</f>
         <v>A6</v>
       </c>
-      <c r="C133" s="76"/>
+      <c r="C133" s="101"/>
       <c r="D133" s="55"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -11137,7 +11131,7 @@
         <f>DEC2HEX('ipv4'!B136)</f>
         <v>A7</v>
       </c>
-      <c r="C134" s="76"/>
+      <c r="C134" s="101"/>
       <c r="D134" s="55"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -11148,7 +11142,7 @@
         <f>DEC2HEX('ipv4'!B137)</f>
         <v>A8</v>
       </c>
-      <c r="C135" s="76"/>
+      <c r="C135" s="101"/>
       <c r="D135" s="55"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -11159,7 +11153,7 @@
         <f>DEC2HEX('ipv4'!B138)</f>
         <v>FE</v>
       </c>
-      <c r="C136" s="76"/>
+      <c r="C136" s="101"/>
       <c r="D136" s="7"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -11167,7 +11161,7 @@
         <v>37</v>
       </c>
       <c r="B137" s="3"/>
-      <c r="C137" s="76"/>
+      <c r="C137" s="101"/>
       <c r="D137" s="4" t="s">
         <v>23</v>
       </c>
@@ -11180,7 +11174,7 @@
         <f>DEC2HEX('ipv4'!B141)</f>
         <v>1</v>
       </c>
-      <c r="C138" s="76"/>
+      <c r="C138" s="101"/>
       <c r="D138" s="55"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -11191,7 +11185,7 @@
         <f>DEC2HEX('ipv4'!B142)</f>
         <v>2</v>
       </c>
-      <c r="C139" s="76"/>
+      <c r="C139" s="101"/>
       <c r="D139" s="55"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -11202,7 +11196,7 @@
         <f>DEC2HEX('ipv4'!B143)</f>
         <v>3</v>
       </c>
-      <c r="C140" s="76"/>
+      <c r="C140" s="101"/>
       <c r="D140" s="55"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -11213,7 +11207,7 @@
         <f>DEC2HEX('ipv4'!B144)</f>
         <v>4</v>
       </c>
-      <c r="C141" s="76"/>
+      <c r="C141" s="101"/>
       <c r="D141" s="55"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -11224,7 +11218,7 @@
         <f>DEC2HEX('ipv4'!B145)</f>
         <v>5</v>
       </c>
-      <c r="C142" s="76"/>
+      <c r="C142" s="101"/>
       <c r="D142" s="55"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -11235,7 +11229,7 @@
         <f>DEC2HEX('ipv4'!B146)</f>
         <v>6</v>
       </c>
-      <c r="C143" s="76"/>
+      <c r="C143" s="101"/>
       <c r="D143" s="55"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -11246,17 +11240,11 @@
         <f>DEC2HEX('ipv4'!B147)</f>
         <v>FE</v>
       </c>
-      <c r="C144" s="77"/>
+      <c r="C144" s="102"/>
       <c r="D144" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AA2:AF2"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="M1:M15"/>
-    <mergeCell ref="M17:M22"/>
-    <mergeCell ref="M24:M32"/>
-    <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="C1:C144"/>
     <mergeCell ref="H34:H44"/>
     <mergeCell ref="H1:H32"/>
@@ -11264,6 +11252,12 @@
     <mergeCell ref="R7:R9"/>
     <mergeCell ref="R11:R40"/>
     <mergeCell ref="R42:R44"/>
+    <mergeCell ref="AA2:AF2"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="M1:M15"/>
+    <mergeCell ref="M17:M22"/>
+    <mergeCell ref="M24:M32"/>
+    <mergeCell ref="AA3:AC3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/Documentations/VLANs/VLSM-tablazat.xlsx
+++ b/Documentations/VLANs/VLSM-tablazat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\aromas-cubanos\Documentations\VLANs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7770064-8579-48D9-8B66-00A51896D844}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C7DAD3-C80B-4523-A3E1-3B6D4C415D34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{012D1D82-EB97-4B95-AC21-450975C8649A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{012D1D82-EB97-4B95-AC21-450975C8649A}"/>
   </bookViews>
   <sheets>
     <sheet name="plain" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="124">
   <si>
     <t>/30</t>
   </si>
@@ -1005,6 +1005,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1062,15 +1089,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1078,33 +1096,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1135,6 +1126,15 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -5162,8 +5162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709A4C10-0955-4D97-86D1-D5085866A222}">
   <dimension ref="A1:AD148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB22" sqref="AB22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5205,7 +5205,7 @@
       <c r="B1" s="3">
         <v>0</v>
       </c>
-      <c r="C1" s="100" t="s">
+      <c r="C1" s="75" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -5217,7 +5217,7 @@
       <c r="G1" s="3">
         <v>0</v>
       </c>
-      <c r="H1" s="80" t="s">
+      <c r="H1" s="89" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -5229,7 +5229,7 @@
       <c r="L1" s="3">
         <v>0</v>
       </c>
-      <c r="M1" s="89" t="s">
+      <c r="M1" s="98" t="s">
         <v>17</v>
       </c>
       <c r="N1" s="4" t="s">
@@ -5241,7 +5241,7 @@
       <c r="Q1" s="33">
         <v>0</v>
       </c>
-      <c r="R1" s="97" t="s">
+      <c r="R1" s="103" t="s">
         <v>18</v>
       </c>
       <c r="S1" s="4" t="s">
@@ -5255,7 +5255,7 @@
       <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="101"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="7"/>
       <c r="F2" s="10" t="s">
         <v>72</v>
@@ -5263,7 +5263,7 @@
       <c r="G2" s="6">
         <v>1</v>
       </c>
-      <c r="H2" s="81"/>
+      <c r="H2" s="90"/>
       <c r="I2" s="7"/>
       <c r="K2" s="10" t="s">
         <v>74</v>
@@ -5271,7 +5271,7 @@
       <c r="L2" s="6">
         <v>1</v>
       </c>
-      <c r="M2" s="90"/>
+      <c r="M2" s="99"/>
       <c r="N2" s="7"/>
       <c r="P2" s="10" t="s">
         <v>81</v>
@@ -5279,16 +5279,16 @@
       <c r="Q2" s="32">
         <v>1</v>
       </c>
-      <c r="R2" s="98"/>
+      <c r="R2" s="104"/>
       <c r="S2" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" s="75" t="s">
+      <c r="AA2" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="76"/>
-      <c r="AC2" s="76"/>
-      <c r="AD2" s="77"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="86"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -5297,7 +5297,7 @@
       <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="101"/>
+      <c r="C3" s="76"/>
       <c r="D3" s="7"/>
       <c r="F3" s="10" t="s">
         <v>72</v>
@@ -5305,7 +5305,7 @@
       <c r="G3" s="6">
         <v>2</v>
       </c>
-      <c r="H3" s="81"/>
+      <c r="H3" s="90"/>
       <c r="I3" s="7"/>
       <c r="K3" s="10" t="s">
         <v>74</v>
@@ -5313,7 +5313,7 @@
       <c r="L3" s="6">
         <v>2</v>
       </c>
-      <c r="M3" s="90"/>
+      <c r="M3" s="99"/>
       <c r="N3" s="7"/>
       <c r="P3" s="10" t="s">
         <v>81</v>
@@ -5321,7 +5321,7 @@
       <c r="Q3" s="32">
         <v>2</v>
       </c>
-      <c r="R3" s="98"/>
+      <c r="R3" s="104"/>
       <c r="S3" s="55" t="s">
         <v>33</v>
       </c>
@@ -5345,7 +5345,7 @@
       <c r="B4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" s="101"/>
+      <c r="C4" s="76"/>
       <c r="D4" s="7"/>
       <c r="F4" s="10" t="s">
         <v>72</v>
@@ -5353,7 +5353,7 @@
       <c r="G4" s="6">
         <v>3</v>
       </c>
-      <c r="H4" s="81"/>
+      <c r="H4" s="90"/>
       <c r="I4" s="7"/>
       <c r="K4" s="10" t="s">
         <v>74</v>
@@ -5361,7 +5361,7 @@
       <c r="L4" s="6">
         <v>3</v>
       </c>
-      <c r="M4" s="90"/>
+      <c r="M4" s="99"/>
       <c r="N4" s="7"/>
       <c r="P4" s="30" t="s">
         <v>81</v>
@@ -5369,7 +5369,7 @@
       <c r="Q4" s="59">
         <v>252</v>
       </c>
-      <c r="R4" s="98"/>
+      <c r="R4" s="104"/>
       <c r="S4" s="31" t="s">
         <v>121</v>
       </c>
@@ -5393,7 +5393,7 @@
       <c r="B5" s="6">
         <v>4</v>
       </c>
-      <c r="C5" s="101"/>
+      <c r="C5" s="76"/>
       <c r="D5" s="7"/>
       <c r="F5" s="10" t="s">
         <v>72</v>
@@ -5401,7 +5401,7 @@
       <c r="G5" s="6">
         <v>4</v>
       </c>
-      <c r="H5" s="81"/>
+      <c r="H5" s="90"/>
       <c r="I5" s="7"/>
       <c r="K5" s="23" t="s">
         <v>74</v>
@@ -5409,7 +5409,7 @@
       <c r="L5" s="24">
         <v>252</v>
       </c>
-      <c r="M5" s="90"/>
+      <c r="M5" s="99"/>
       <c r="N5" s="25" t="s">
         <v>121</v>
       </c>
@@ -5419,7 +5419,7 @@
       <c r="Q5" s="59">
         <v>253</v>
       </c>
-      <c r="R5" s="98"/>
+      <c r="R5" s="104"/>
       <c r="S5" s="31" t="s">
         <v>122</v>
       </c>
@@ -5431,7 +5431,7 @@
       <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="C6" s="101"/>
+      <c r="C6" s="76"/>
       <c r="D6" s="7"/>
       <c r="F6" s="10" t="s">
         <v>72</v>
@@ -5439,7 +5439,7 @@
       <c r="G6" s="6">
         <v>5</v>
       </c>
-      <c r="H6" s="81"/>
+      <c r="H6" s="90"/>
       <c r="I6" s="7"/>
       <c r="K6" s="23" t="s">
         <v>74</v>
@@ -5447,7 +5447,7 @@
       <c r="L6" s="24">
         <v>253</v>
       </c>
-      <c r="M6" s="90"/>
+      <c r="M6" s="99"/>
       <c r="N6" s="25" t="s">
         <v>122</v>
       </c>
@@ -5457,14 +5457,14 @@
       <c r="Q6" s="59">
         <v>254</v>
       </c>
-      <c r="R6" s="98"/>
+      <c r="R6" s="104"/>
       <c r="S6" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="AA6" s="78" t="s">
+      <c r="AA6" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="AB6" s="79"/>
+      <c r="AB6" s="88"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -5473,7 +5473,7 @@
       <c r="B7" s="6">
         <v>6</v>
       </c>
-      <c r="C7" s="101"/>
+      <c r="C7" s="76"/>
       <c r="D7" s="7"/>
       <c r="F7" s="10" t="s">
         <v>72</v>
@@ -5481,7 +5481,7 @@
       <c r="G7" s="6">
         <v>6</v>
       </c>
-      <c r="H7" s="81"/>
+      <c r="H7" s="90"/>
       <c r="I7" s="7"/>
       <c r="K7" s="23" t="s">
         <v>74</v>
@@ -5489,7 +5489,7 @@
       <c r="L7" s="24">
         <v>254</v>
       </c>
-      <c r="M7" s="90"/>
+      <c r="M7" s="99"/>
       <c r="N7" s="25" t="s">
         <v>117</v>
       </c>
@@ -5499,7 +5499,7 @@
       <c r="Q7" s="33">
         <v>255</v>
       </c>
-      <c r="R7" s="99"/>
+      <c r="R7" s="105"/>
       <c r="S7" s="4" t="s">
         <v>19</v>
       </c>
@@ -5517,7 +5517,7 @@
       <c r="B8" s="6">
         <v>7</v>
       </c>
-      <c r="C8" s="101"/>
+      <c r="C8" s="76"/>
       <c r="D8" s="7"/>
       <c r="F8" s="10" t="s">
         <v>72</v>
@@ -5525,7 +5525,7 @@
       <c r="G8" s="6">
         <v>7</v>
       </c>
-      <c r="H8" s="81"/>
+      <c r="H8" s="90"/>
       <c r="I8" s="7"/>
       <c r="K8" s="9" t="s">
         <v>74</v>
@@ -5533,7 +5533,7 @@
       <c r="L8" s="3">
         <v>255</v>
       </c>
-      <c r="M8" s="90"/>
+      <c r="M8" s="99"/>
       <c r="N8" s="4" t="s">
         <v>19</v>
       </c>
@@ -5551,7 +5551,7 @@
       <c r="B9" s="6">
         <v>8</v>
       </c>
-      <c r="C9" s="101"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="7"/>
       <c r="F9" s="10" t="s">
         <v>72</v>
@@ -5559,7 +5559,7 @@
       <c r="G9" s="6">
         <v>8</v>
       </c>
-      <c r="H9" s="81"/>
+      <c r="H9" s="90"/>
       <c r="I9" s="7"/>
       <c r="K9" s="9" t="s">
         <v>75</v>
@@ -5567,7 +5567,7 @@
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="90"/>
+      <c r="M9" s="99"/>
       <c r="N9" s="4" t="s">
         <v>23</v>
       </c>
@@ -5577,7 +5577,7 @@
       <c r="Q9" s="33">
         <v>0</v>
       </c>
-      <c r="R9" s="97" t="s">
+      <c r="R9" s="103" t="s">
         <v>20</v>
       </c>
       <c r="S9" s="4" t="s">
@@ -5597,7 +5597,7 @@
       <c r="B10" s="6">
         <v>9</v>
       </c>
-      <c r="C10" s="101"/>
+      <c r="C10" s="76"/>
       <c r="D10" s="7"/>
       <c r="F10" s="10" t="s">
         <v>72</v>
@@ -5605,7 +5605,7 @@
       <c r="G10" s="6">
         <v>9</v>
       </c>
-      <c r="H10" s="81"/>
+      <c r="H10" s="90"/>
       <c r="I10" s="7"/>
       <c r="K10" s="10" t="s">
         <v>75</v>
@@ -5613,7 +5613,7 @@
       <c r="L10" s="6">
         <v>1</v>
       </c>
-      <c r="M10" s="90"/>
+      <c r="M10" s="99"/>
       <c r="N10" s="7"/>
       <c r="P10" s="54" t="s">
         <v>96</v>
@@ -5621,7 +5621,7 @@
       <c r="Q10" s="32">
         <v>1</v>
       </c>
-      <c r="R10" s="98"/>
+      <c r="R10" s="104"/>
       <c r="S10" s="55" t="s">
         <v>21</v>
       </c>
@@ -5639,7 +5639,7 @@
       <c r="B11" s="6">
         <v>10</v>
       </c>
-      <c r="C11" s="101"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="7"/>
       <c r="F11" s="10" t="s">
         <v>72</v>
@@ -5647,7 +5647,7 @@
       <c r="G11" s="6">
         <v>10</v>
       </c>
-      <c r="H11" s="81"/>
+      <c r="H11" s="90"/>
       <c r="I11" s="7"/>
       <c r="K11" s="10" t="s">
         <v>75</v>
@@ -5655,7 +5655,7 @@
       <c r="L11" s="6">
         <v>2</v>
       </c>
-      <c r="M11" s="90"/>
+      <c r="M11" s="99"/>
       <c r="N11" s="7"/>
       <c r="P11" s="54" t="s">
         <v>96</v>
@@ -5663,7 +5663,7 @@
       <c r="Q11" s="32">
         <v>2</v>
       </c>
-      <c r="R11" s="98"/>
+      <c r="R11" s="104"/>
       <c r="S11" s="55" t="s">
         <v>22</v>
       </c>
@@ -5675,7 +5675,7 @@
       <c r="B12" s="6">
         <v>11</v>
       </c>
-      <c r="C12" s="101"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="7"/>
       <c r="F12" s="10" t="s">
         <v>72</v>
@@ -5683,7 +5683,7 @@
       <c r="G12" s="6">
         <v>11</v>
       </c>
-      <c r="H12" s="81"/>
+      <c r="H12" s="90"/>
       <c r="I12" s="7"/>
       <c r="K12" s="10" t="s">
         <v>75</v>
@@ -5691,7 +5691,7 @@
       <c r="L12" s="6">
         <v>3</v>
       </c>
-      <c r="M12" s="90"/>
+      <c r="M12" s="99"/>
       <c r="N12" s="7"/>
       <c r="P12" s="67" t="s">
         <v>96</v>
@@ -5699,7 +5699,7 @@
       <c r="Q12" s="34">
         <v>252</v>
       </c>
-      <c r="R12" s="98"/>
+      <c r="R12" s="104"/>
       <c r="S12" s="28" t="s">
         <v>121</v>
       </c>
@@ -5715,7 +5715,7 @@
       <c r="B13" s="6">
         <v>12</v>
       </c>
-      <c r="C13" s="101"/>
+      <c r="C13" s="76"/>
       <c r="D13" s="7"/>
       <c r="F13" s="10" t="s">
         <v>72</v>
@@ -5723,7 +5723,7 @@
       <c r="G13" s="6">
         <v>12</v>
       </c>
-      <c r="H13" s="81"/>
+      <c r="H13" s="90"/>
       <c r="I13" s="7"/>
       <c r="K13" s="10" t="s">
         <v>75</v>
@@ -5731,7 +5731,7 @@
       <c r="L13" s="6">
         <v>4</v>
       </c>
-      <c r="M13" s="90"/>
+      <c r="M13" s="99"/>
       <c r="N13" s="7"/>
       <c r="P13" s="67" t="s">
         <v>96</v>
@@ -5739,7 +5739,7 @@
       <c r="Q13" s="34">
         <v>253</v>
       </c>
-      <c r="R13" s="98"/>
+      <c r="R13" s="104"/>
       <c r="S13" s="28" t="s">
         <v>122</v>
       </c>
@@ -5755,7 +5755,7 @@
       <c r="B14" s="6">
         <v>13</v>
       </c>
-      <c r="C14" s="101"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="7"/>
       <c r="F14" s="10" t="s">
         <v>72</v>
@@ -5763,7 +5763,7 @@
       <c r="G14" s="6">
         <v>13</v>
       </c>
-      <c r="H14" s="81"/>
+      <c r="H14" s="90"/>
       <c r="I14" s="7"/>
       <c r="K14" s="23" t="s">
         <v>75</v>
@@ -5771,7 +5771,7 @@
       <c r="L14" s="24">
         <v>254</v>
       </c>
-      <c r="M14" s="90"/>
+      <c r="M14" s="99"/>
       <c r="N14" s="25" t="s">
         <v>42</v>
       </c>
@@ -5781,7 +5781,7 @@
       <c r="Q14" s="34">
         <v>254</v>
       </c>
-      <c r="R14" s="98"/>
+      <c r="R14" s="104"/>
       <c r="S14" s="28" t="s">
         <v>117</v>
       </c>
@@ -5797,7 +5797,7 @@
       <c r="B15" s="6">
         <v>14</v>
       </c>
-      <c r="C15" s="101"/>
+      <c r="C15" s="76"/>
       <c r="D15" s="7"/>
       <c r="F15" s="10" t="s">
         <v>72</v>
@@ -5805,7 +5805,7 @@
       <c r="G15" s="6">
         <v>14</v>
       </c>
-      <c r="H15" s="81"/>
+      <c r="H15" s="90"/>
       <c r="I15" s="7"/>
       <c r="K15" s="9" t="s">
         <v>75</v>
@@ -5813,7 +5813,7 @@
       <c r="L15" s="3">
         <v>255</v>
       </c>
-      <c r="M15" s="90"/>
+      <c r="M15" s="99"/>
       <c r="N15" s="4" t="s">
         <v>19</v>
       </c>
@@ -5823,7 +5823,7 @@
       <c r="Q15" s="33">
         <v>255</v>
       </c>
-      <c r="R15" s="99"/>
+      <c r="R15" s="105"/>
       <c r="S15" s="4" t="s">
         <v>19</v>
       </c>
@@ -5840,7 +5840,7 @@
       <c r="B16" s="6">
         <v>15</v>
       </c>
-      <c r="C16" s="101"/>
+      <c r="C16" s="76"/>
       <c r="D16" s="7"/>
       <c r="F16" s="10" t="s">
         <v>72</v>
@@ -5848,7 +5848,7 @@
       <c r="G16" s="6">
         <v>15</v>
       </c>
-      <c r="H16" s="81"/>
+      <c r="H16" s="90"/>
       <c r="I16" s="7"/>
       <c r="K16" s="9" t="s">
         <v>76</v>
@@ -5856,7 +5856,7 @@
       <c r="L16" s="3">
         <v>0</v>
       </c>
-      <c r="M16" s="90"/>
+      <c r="M16" s="99"/>
       <c r="N16" s="4" t="s">
         <v>23</v>
       </c>
@@ -5871,7 +5871,7 @@
       <c r="B17" s="6">
         <v>16</v>
       </c>
-      <c r="C17" s="101"/>
+      <c r="C17" s="76"/>
       <c r="D17" s="7"/>
       <c r="F17" s="10" t="s">
         <v>72</v>
@@ -5879,7 +5879,7 @@
       <c r="G17" s="6">
         <v>16</v>
       </c>
-      <c r="H17" s="81"/>
+      <c r="H17" s="90"/>
       <c r="I17" s="7"/>
       <c r="K17" s="10" t="s">
         <v>76</v>
@@ -5887,7 +5887,7 @@
       <c r="L17" s="6">
         <v>1</v>
       </c>
-      <c r="M17" s="90"/>
+      <c r="M17" s="99"/>
       <c r="N17" s="7"/>
       <c r="P17" s="33" t="s">
         <v>62</v>
@@ -5895,7 +5895,7 @@
       <c r="Q17" s="33">
         <v>0</v>
       </c>
-      <c r="R17" s="94" t="s">
+      <c r="R17" s="116" t="s">
         <v>71</v>
       </c>
       <c r="S17" s="4" t="s">
@@ -5912,7 +5912,7 @@
       <c r="B18" s="6">
         <v>17</v>
       </c>
-      <c r="C18" s="101"/>
+      <c r="C18" s="76"/>
       <c r="D18" s="7"/>
       <c r="F18" s="10" t="s">
         <v>72</v>
@@ -5920,7 +5920,7 @@
       <c r="G18" s="6">
         <v>17</v>
       </c>
-      <c r="H18" s="81"/>
+      <c r="H18" s="90"/>
       <c r="I18" s="7"/>
       <c r="K18" s="10" t="s">
         <v>76</v>
@@ -5928,7 +5928,7 @@
       <c r="L18" s="6">
         <v>2</v>
       </c>
-      <c r="M18" s="90"/>
+      <c r="M18" s="99"/>
       <c r="N18" s="7"/>
       <c r="P18" s="32" t="s">
         <v>62</v>
@@ -5936,7 +5936,7 @@
       <c r="Q18" s="32">
         <v>1</v>
       </c>
-      <c r="R18" s="95"/>
+      <c r="R18" s="117"/>
       <c r="S18" s="72" t="s">
         <v>56</v>
       </c>
@@ -5952,7 +5952,7 @@
       <c r="B19" s="6">
         <v>18</v>
       </c>
-      <c r="C19" s="101"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="7"/>
       <c r="F19" s="10" t="s">
         <v>72</v>
@@ -5960,7 +5960,7 @@
       <c r="G19" s="6">
         <v>18</v>
       </c>
-      <c r="H19" s="81"/>
+      <c r="H19" s="90"/>
       <c r="I19" s="7"/>
       <c r="K19" s="10" t="s">
         <v>76</v>
@@ -5968,7 +5968,7 @@
       <c r="L19" s="6">
         <v>3</v>
       </c>
-      <c r="M19" s="90"/>
+      <c r="M19" s="99"/>
       <c r="N19" s="7"/>
       <c r="P19" s="32" t="s">
         <v>62</v>
@@ -5976,7 +5976,7 @@
       <c r="Q19" s="32">
         <v>2</v>
       </c>
-      <c r="R19" s="95"/>
+      <c r="R19" s="117"/>
       <c r="S19" s="72" t="s">
         <v>57</v>
       </c>
@@ -5992,7 +5992,7 @@
       <c r="B20" s="6">
         <v>19</v>
       </c>
-      <c r="C20" s="101"/>
+      <c r="C20" s="76"/>
       <c r="D20" s="7"/>
       <c r="F20" s="10" t="s">
         <v>72</v>
@@ -6000,7 +6000,7 @@
       <c r="G20" s="6">
         <v>19</v>
       </c>
-      <c r="H20" s="81"/>
+      <c r="H20" s="90"/>
       <c r="I20" s="7"/>
       <c r="K20" s="10" t="s">
         <v>76</v>
@@ -6008,7 +6008,7 @@
       <c r="L20" s="6">
         <v>4</v>
       </c>
-      <c r="M20" s="90"/>
+      <c r="M20" s="99"/>
       <c r="N20" s="7"/>
       <c r="P20" s="32" t="s">
         <v>62</v>
@@ -6016,7 +6016,7 @@
       <c r="Q20" s="32">
         <v>3</v>
       </c>
-      <c r="R20" s="95"/>
+      <c r="R20" s="117"/>
       <c r="S20" s="73" t="s">
         <v>58</v>
       </c>
@@ -6032,7 +6032,7 @@
       <c r="B21" s="6">
         <v>20</v>
       </c>
-      <c r="C21" s="101"/>
+      <c r="C21" s="76"/>
       <c r="D21" s="7"/>
       <c r="F21" s="10" t="s">
         <v>72</v>
@@ -6040,7 +6040,7 @@
       <c r="G21" s="6">
         <v>20</v>
       </c>
-      <c r="H21" s="81"/>
+      <c r="H21" s="90"/>
       <c r="I21" s="7"/>
       <c r="K21" s="23" t="s">
         <v>76</v>
@@ -6048,7 +6048,7 @@
       <c r="L21" s="24">
         <v>254</v>
       </c>
-      <c r="M21" s="90"/>
+      <c r="M21" s="99"/>
       <c r="N21" s="25" t="s">
         <v>42</v>
       </c>
@@ -6058,7 +6058,7 @@
       <c r="Q21" s="34">
         <v>252</v>
       </c>
-      <c r="R21" s="95"/>
+      <c r="R21" s="117"/>
       <c r="S21" s="28" t="s">
         <v>121</v>
       </c>
@@ -6074,7 +6074,7 @@
       <c r="B22" s="6">
         <v>21</v>
       </c>
-      <c r="C22" s="101"/>
+      <c r="C22" s="76"/>
       <c r="D22" s="7"/>
       <c r="F22" s="10" t="s">
         <v>72</v>
@@ -6082,7 +6082,7 @@
       <c r="G22" s="6">
         <v>21</v>
       </c>
-      <c r="H22" s="81"/>
+      <c r="H22" s="90"/>
       <c r="I22" s="7"/>
       <c r="K22" s="9" t="s">
         <v>76</v>
@@ -6090,7 +6090,7 @@
       <c r="L22" s="3">
         <v>255</v>
       </c>
-      <c r="M22" s="90"/>
+      <c r="M22" s="99"/>
       <c r="N22" s="4" t="s">
         <v>19</v>
       </c>
@@ -6100,7 +6100,7 @@
       <c r="Q22" s="34">
         <v>253</v>
       </c>
-      <c r="R22" s="95"/>
+      <c r="R22" s="117"/>
       <c r="S22" s="28" t="s">
         <v>122</v>
       </c>
@@ -6116,7 +6116,7 @@
       <c r="B23" s="6">
         <v>22</v>
       </c>
-      <c r="C23" s="101"/>
+      <c r="C23" s="76"/>
       <c r="D23" s="7"/>
       <c r="F23" s="10" t="s">
         <v>72</v>
@@ -6124,7 +6124,7 @@
       <c r="G23" s="6">
         <v>22</v>
       </c>
-      <c r="H23" s="81"/>
+      <c r="H23" s="90"/>
       <c r="I23" s="7"/>
       <c r="P23" s="34" t="s">
         <v>62</v>
@@ -6132,7 +6132,7 @@
       <c r="Q23" s="34">
         <v>254</v>
       </c>
-      <c r="R23" s="95"/>
+      <c r="R23" s="117"/>
       <c r="S23" s="28" t="s">
         <v>117</v>
       </c>
@@ -6146,7 +6146,7 @@
       <c r="B24" s="6">
         <v>23</v>
       </c>
-      <c r="C24" s="101"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="7"/>
       <c r="F24" s="10" t="s">
         <v>72</v>
@@ -6154,7 +6154,7 @@
       <c r="G24" s="6">
         <v>23</v>
       </c>
-      <c r="H24" s="81"/>
+      <c r="H24" s="90"/>
       <c r="I24" s="7"/>
       <c r="K24" s="9" t="s">
         <v>77</v>
@@ -6162,7 +6162,7 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="86" t="s">
+      <c r="M24" s="95" t="s">
         <v>16</v>
       </c>
       <c r="N24" s="4" t="s">
@@ -6174,7 +6174,7 @@
       <c r="Q24" s="33">
         <v>255</v>
       </c>
-      <c r="R24" s="95"/>
+      <c r="R24" s="117"/>
       <c r="S24" s="4" t="s">
         <v>19</v>
       </c>
@@ -6188,7 +6188,7 @@
       <c r="B25" s="6">
         <v>24</v>
       </c>
-      <c r="C25" s="101"/>
+      <c r="C25" s="76"/>
       <c r="D25" s="7"/>
       <c r="F25" s="10" t="s">
         <v>72</v>
@@ -6196,7 +6196,7 @@
       <c r="G25" s="6">
         <v>24</v>
       </c>
-      <c r="H25" s="81"/>
+      <c r="H25" s="90"/>
       <c r="I25" s="7"/>
       <c r="K25" s="10" t="s">
         <v>77</v>
@@ -6204,7 +6204,7 @@
       <c r="L25" s="6">
         <v>1</v>
       </c>
-      <c r="M25" s="87"/>
+      <c r="M25" s="96"/>
       <c r="N25" s="7"/>
       <c r="P25" s="71" t="s">
         <v>63</v>
@@ -6212,7 +6212,7 @@
       <c r="Q25" s="71">
         <v>0</v>
       </c>
-      <c r="R25" s="95"/>
+      <c r="R25" s="117"/>
       <c r="S25" s="51" t="s">
         <v>23</v>
       </c>
@@ -6224,7 +6224,7 @@
       <c r="B26" s="6">
         <v>25</v>
       </c>
-      <c r="C26" s="101"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="7"/>
       <c r="F26" s="10" t="s">
         <v>72</v>
@@ -6232,7 +6232,7 @@
       <c r="G26" s="6">
         <v>25</v>
       </c>
-      <c r="H26" s="81"/>
+      <c r="H26" s="90"/>
       <c r="I26" s="7"/>
       <c r="K26" s="10" t="s">
         <v>77</v>
@@ -6240,7 +6240,7 @@
       <c r="L26" s="6">
         <v>2</v>
       </c>
-      <c r="M26" s="87"/>
+      <c r="M26" s="96"/>
       <c r="N26" s="7"/>
       <c r="P26" s="32" t="s">
         <v>63</v>
@@ -6248,7 +6248,7 @@
       <c r="Q26" s="32">
         <v>1</v>
       </c>
-      <c r="R26" s="95"/>
+      <c r="R26" s="117"/>
       <c r="S26" s="32" t="s">
         <v>43</v>
       </c>
@@ -6260,7 +6260,7 @@
       <c r="B27" s="6">
         <v>26</v>
       </c>
-      <c r="C27" s="101"/>
+      <c r="C27" s="76"/>
       <c r="D27" s="7"/>
       <c r="F27" s="10" t="s">
         <v>72</v>
@@ -6268,7 +6268,7 @@
       <c r="G27" s="6">
         <v>26</v>
       </c>
-      <c r="H27" s="81"/>
+      <c r="H27" s="90"/>
       <c r="I27" s="7"/>
       <c r="K27" s="10" t="s">
         <v>77</v>
@@ -6276,7 +6276,7 @@
       <c r="L27" s="6">
         <v>3</v>
       </c>
-      <c r="M27" s="87"/>
+      <c r="M27" s="96"/>
       <c r="N27" s="7"/>
       <c r="P27" s="32" t="s">
         <v>63</v>
@@ -6284,7 +6284,7 @@
       <c r="Q27" s="32">
         <v>2</v>
       </c>
-      <c r="R27" s="95"/>
+      <c r="R27" s="117"/>
       <c r="S27" s="32" t="s">
         <v>52</v>
       </c>
@@ -6296,7 +6296,7 @@
       <c r="B28" s="6">
         <v>27</v>
       </c>
-      <c r="C28" s="101"/>
+      <c r="C28" s="76"/>
       <c r="D28" s="7"/>
       <c r="F28" s="10" t="s">
         <v>72</v>
@@ -6304,7 +6304,7 @@
       <c r="G28" s="6">
         <v>27</v>
       </c>
-      <c r="H28" s="81"/>
+      <c r="H28" s="90"/>
       <c r="I28" s="7"/>
       <c r="K28" s="10" t="s">
         <v>77</v>
@@ -6312,7 +6312,7 @@
       <c r="L28" s="6">
         <v>4</v>
       </c>
-      <c r="M28" s="87"/>
+      <c r="M28" s="96"/>
       <c r="N28" s="7"/>
       <c r="P28" s="32" t="s">
         <v>63</v>
@@ -6320,7 +6320,7 @@
       <c r="Q28" s="32">
         <v>3</v>
       </c>
-      <c r="R28" s="95"/>
+      <c r="R28" s="117"/>
       <c r="S28" s="32" t="s">
         <v>123</v>
       </c>
@@ -6332,7 +6332,7 @@
       <c r="B29" s="6">
         <v>28</v>
       </c>
-      <c r="C29" s="101"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="7"/>
       <c r="F29" s="10" t="s">
         <v>72</v>
@@ -6340,7 +6340,7 @@
       <c r="G29" s="6">
         <v>28</v>
       </c>
-      <c r="H29" s="81"/>
+      <c r="H29" s="90"/>
       <c r="I29" s="7"/>
       <c r="K29" s="26" t="s">
         <v>77</v>
@@ -6348,20 +6348,18 @@
       <c r="L29" s="27">
         <v>252</v>
       </c>
-      <c r="M29" s="87"/>
+      <c r="M29" s="96"/>
       <c r="N29" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="P29" s="34" t="s">
+      <c r="P29" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="Q29" s="34">
-        <v>254</v>
-      </c>
-      <c r="R29" s="95"/>
-      <c r="S29" s="28" t="s">
-        <v>42</v>
-      </c>
+      <c r="Q29" s="32">
+        <v>4</v>
+      </c>
+      <c r="R29" s="117"/>
+      <c r="S29" s="32"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
@@ -6370,7 +6368,7 @@
       <c r="B30" s="6">
         <v>29</v>
       </c>
-      <c r="C30" s="101"/>
+      <c r="C30" s="76"/>
       <c r="D30" s="7"/>
       <c r="F30" s="10" t="s">
         <v>72</v>
@@ -6378,7 +6376,7 @@
       <c r="G30" s="6">
         <v>29</v>
       </c>
-      <c r="H30" s="81"/>
+      <c r="H30" s="90"/>
       <c r="I30" s="7"/>
       <c r="K30" s="26" t="s">
         <v>77</v>
@@ -6386,19 +6384,19 @@
       <c r="L30" s="27">
         <v>253</v>
       </c>
-      <c r="M30" s="87"/>
+      <c r="M30" s="96"/>
       <c r="N30" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="P30" s="33" t="s">
+      <c r="P30" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="Q30" s="33">
-        <v>255</v>
-      </c>
-      <c r="R30" s="95"/>
-      <c r="S30" s="4" t="s">
-        <v>19</v>
+      <c r="Q30" s="34">
+        <v>254</v>
+      </c>
+      <c r="R30" s="117"/>
+      <c r="S30" s="28" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
@@ -6408,7 +6406,7 @@
       <c r="B31" s="6">
         <v>30</v>
       </c>
-      <c r="C31" s="101"/>
+      <c r="C31" s="76"/>
       <c r="D31" s="7"/>
       <c r="F31" s="10" t="s">
         <v>72</v>
@@ -6416,7 +6414,7 @@
       <c r="G31" s="6">
         <v>30</v>
       </c>
-      <c r="H31" s="81"/>
+      <c r="H31" s="90"/>
       <c r="I31" s="7"/>
       <c r="K31" s="26" t="s">
         <v>77</v>
@@ -6424,22 +6422,19 @@
       <c r="L31" s="27">
         <v>254</v>
       </c>
-      <c r="M31" s="87"/>
+      <c r="M31" s="96"/>
       <c r="N31" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="P31" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q31" s="58">
-        <v>0</v>
-      </c>
-      <c r="R31" s="95"/>
-      <c r="S31" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="T31" s="61" t="s">
-        <v>2</v>
+      <c r="P31" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q31" s="33">
+        <v>255</v>
+      </c>
+      <c r="R31" s="117"/>
+      <c r="S31" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
@@ -6449,7 +6444,7 @@
       <c r="B32" s="6">
         <v>31</v>
       </c>
-      <c r="C32" s="101"/>
+      <c r="C32" s="76"/>
       <c r="D32" s="7"/>
       <c r="F32" s="23" t="s">
         <v>72</v>
@@ -6457,7 +6452,7 @@
       <c r="G32" s="24">
         <v>254</v>
       </c>
-      <c r="H32" s="81"/>
+      <c r="H32" s="90"/>
       <c r="I32" s="25" t="s">
         <v>42</v>
       </c>
@@ -6467,21 +6462,23 @@
       <c r="L32" s="3">
         <v>255</v>
       </c>
-      <c r="M32" s="88"/>
+      <c r="M32" s="97"/>
       <c r="N32" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P32" s="32" t="s">
+      <c r="P32" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="Q32" s="32">
-        <v>1</v>
-      </c>
-      <c r="R32" s="95"/>
-      <c r="S32" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="T32" s="62"/>
+      <c r="Q32" s="58">
+        <v>0</v>
+      </c>
+      <c r="R32" s="117"/>
+      <c r="S32" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="T32" s="61" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
@@ -6490,7 +6487,7 @@
       <c r="B33" s="6">
         <v>32</v>
       </c>
-      <c r="C33" s="101"/>
+      <c r="C33" s="76"/>
       <c r="D33" s="7"/>
       <c r="F33" s="9" t="s">
         <v>72</v>
@@ -6498,7 +6495,7 @@
       <c r="G33" s="3">
         <v>255</v>
       </c>
-      <c r="H33" s="82"/>
+      <c r="H33" s="91"/>
       <c r="I33" s="4" t="s">
         <v>19</v>
       </c>
@@ -6506,11 +6503,11 @@
         <v>67</v>
       </c>
       <c r="Q33" s="32">
-        <v>2</v>
-      </c>
-      <c r="R33" s="95"/>
+        <v>1</v>
+      </c>
+      <c r="R33" s="117"/>
       <c r="S33" s="32" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="T33" s="62"/>
     </row>
@@ -6521,7 +6518,7 @@
       <c r="B34" s="6">
         <v>33</v>
       </c>
-      <c r="C34" s="101"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="7"/>
       <c r="K34" s="9" t="s">
         <v>78</v>
@@ -6529,7 +6526,7 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="83" t="s">
+      <c r="M34" s="92" t="s">
         <v>24</v>
       </c>
       <c r="N34" s="4" t="s">
@@ -6539,10 +6536,12 @@
         <v>67</v>
       </c>
       <c r="Q34" s="32">
-        <v>3</v>
-      </c>
-      <c r="R34" s="95"/>
-      <c r="S34" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="R34" s="117"/>
+      <c r="S34" s="32" t="s">
+        <v>48</v>
+      </c>
       <c r="T34" s="62"/>
     </row>
     <row r="35" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6552,7 +6551,7 @@
       <c r="B35" s="6">
         <v>34</v>
       </c>
-      <c r="C35" s="101"/>
+      <c r="C35" s="76"/>
       <c r="D35" s="7"/>
       <c r="F35" s="9" t="s">
         <v>73</v>
@@ -6560,7 +6559,7 @@
       <c r="G35" s="3">
         <v>0</v>
       </c>
-      <c r="H35" s="91" t="s">
+      <c r="H35" s="100" t="s">
         <v>15</v>
       </c>
       <c r="I35" s="4" t="s">
@@ -6572,15 +6571,15 @@
       <c r="L35" s="6">
         <v>1</v>
       </c>
-      <c r="M35" s="84"/>
+      <c r="M35" s="93"/>
       <c r="N35" s="7"/>
       <c r="P35" s="32" t="s">
         <v>67</v>
       </c>
       <c r="Q35" s="32">
-        <v>4</v>
-      </c>
-      <c r="R35" s="95"/>
+        <v>3</v>
+      </c>
+      <c r="R35" s="117"/>
       <c r="S35" s="32"/>
       <c r="T35" s="62"/>
     </row>
@@ -6591,7 +6590,7 @@
       <c r="B36" s="6">
         <v>35</v>
       </c>
-      <c r="C36" s="101"/>
+      <c r="C36" s="76"/>
       <c r="D36" s="7"/>
       <c r="F36" s="10" t="s">
         <v>73</v>
@@ -6599,7 +6598,7 @@
       <c r="G36" s="6">
         <v>1</v>
       </c>
-      <c r="H36" s="92"/>
+      <c r="H36" s="101"/>
       <c r="I36" s="7"/>
       <c r="K36" s="10" t="s">
         <v>78</v>
@@ -6607,15 +6606,15 @@
       <c r="L36" s="6">
         <v>2</v>
       </c>
-      <c r="M36" s="84"/>
+      <c r="M36" s="93"/>
       <c r="N36" s="7"/>
       <c r="P36" s="32" t="s">
         <v>67</v>
       </c>
       <c r="Q36" s="32">
-        <v>5</v>
-      </c>
-      <c r="R36" s="95"/>
+        <v>4</v>
+      </c>
+      <c r="R36" s="117"/>
       <c r="S36" s="32"/>
       <c r="T36" s="62"/>
     </row>
@@ -6626,7 +6625,7 @@
       <c r="B37" s="6">
         <v>36</v>
       </c>
-      <c r="C37" s="101"/>
+      <c r="C37" s="76"/>
       <c r="D37" s="7"/>
       <c r="F37" s="10" t="s">
         <v>73</v>
@@ -6634,7 +6633,7 @@
       <c r="G37" s="6">
         <v>2</v>
       </c>
-      <c r="H37" s="92"/>
+      <c r="H37" s="101"/>
       <c r="I37" s="7"/>
       <c r="K37" s="26" t="s">
         <v>78</v>
@@ -6642,7 +6641,7 @@
       <c r="L37" s="27">
         <v>254</v>
       </c>
-      <c r="M37" s="84"/>
+      <c r="M37" s="93"/>
       <c r="N37" s="28" t="s">
         <v>42</v>
       </c>
@@ -6650,9 +6649,9 @@
         <v>67</v>
       </c>
       <c r="Q37" s="32">
-        <v>6</v>
-      </c>
-      <c r="R37" s="95"/>
+        <v>5</v>
+      </c>
+      <c r="R37" s="117"/>
       <c r="S37" s="32"/>
       <c r="T37" s="62"/>
     </row>
@@ -6663,7 +6662,7 @@
       <c r="B38" s="6">
         <v>37</v>
       </c>
-      <c r="C38" s="101"/>
+      <c r="C38" s="76"/>
       <c r="D38" s="7"/>
       <c r="F38" s="10" t="s">
         <v>73</v>
@@ -6671,7 +6670,7 @@
       <c r="G38" s="6">
         <v>3</v>
       </c>
-      <c r="H38" s="92"/>
+      <c r="H38" s="101"/>
       <c r="I38" s="7"/>
       <c r="K38" s="9" t="s">
         <v>78</v>
@@ -6679,21 +6678,19 @@
       <c r="L38" s="3">
         <v>255</v>
       </c>
-      <c r="M38" s="84"/>
+      <c r="M38" s="93"/>
       <c r="N38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P38" s="58" t="s">
+      <c r="P38" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="Q38" s="58">
-        <v>7</v>
-      </c>
-      <c r="R38" s="95"/>
-      <c r="S38" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="T38" s="63"/>
+      <c r="Q38" s="32">
+        <v>6</v>
+      </c>
+      <c r="R38" s="117"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="62"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
@@ -6702,7 +6699,7 @@
       <c r="B39" s="6">
         <v>38</v>
       </c>
-      <c r="C39" s="101"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="7"/>
       <c r="F39" s="10" t="s">
         <v>73</v>
@@ -6710,7 +6707,7 @@
       <c r="G39" s="6">
         <v>4</v>
       </c>
-      <c r="H39" s="92"/>
+      <c r="H39" s="101"/>
       <c r="I39" s="7"/>
       <c r="K39" s="9" t="s">
         <v>79</v>
@@ -6718,7 +6715,7 @@
       <c r="L39" s="3">
         <v>0</v>
       </c>
-      <c r="M39" s="84"/>
+      <c r="M39" s="93"/>
       <c r="N39" s="4" t="s">
         <v>23</v>
       </c>
@@ -6726,15 +6723,13 @@
         <v>67</v>
       </c>
       <c r="Q39" s="58">
-        <v>8</v>
-      </c>
-      <c r="R39" s="95"/>
+        <v>7</v>
+      </c>
+      <c r="R39" s="117"/>
       <c r="S39" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="T39" s="61" t="s">
-        <v>2</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="T39" s="63"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
@@ -6743,7 +6738,7 @@
       <c r="B40" s="6">
         <v>39</v>
       </c>
-      <c r="C40" s="101"/>
+      <c r="C40" s="76"/>
       <c r="D40" s="7"/>
       <c r="F40" s="10" t="s">
         <v>73</v>
@@ -6751,7 +6746,7 @@
       <c r="G40" s="6">
         <v>5</v>
       </c>
-      <c r="H40" s="92"/>
+      <c r="H40" s="101"/>
       <c r="I40" s="7"/>
       <c r="K40" s="10" t="s">
         <v>79</v>
@@ -6759,19 +6754,21 @@
       <c r="L40" s="6">
         <v>1</v>
       </c>
-      <c r="M40" s="84"/>
+      <c r="M40" s="93"/>
       <c r="N40" s="7"/>
-      <c r="P40" s="32" t="s">
+      <c r="P40" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="Q40" s="32">
-        <v>9</v>
-      </c>
-      <c r="R40" s="95"/>
-      <c r="S40" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="T40" s="62"/>
+      <c r="Q40" s="58">
+        <v>8</v>
+      </c>
+      <c r="R40" s="117"/>
+      <c r="S40" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="T40" s="61" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
@@ -6780,7 +6777,7 @@
       <c r="B41" s="6">
         <v>40</v>
       </c>
-      <c r="C41" s="101"/>
+      <c r="C41" s="76"/>
       <c r="D41" s="7"/>
       <c r="F41" s="10" t="s">
         <v>73</v>
@@ -6788,7 +6785,7 @@
       <c r="G41" s="6">
         <v>6</v>
       </c>
-      <c r="H41" s="92"/>
+      <c r="H41" s="101"/>
       <c r="I41" s="7"/>
       <c r="K41" s="10" t="s">
         <v>79</v>
@@ -6796,17 +6793,17 @@
       <c r="L41" s="6">
         <v>2</v>
       </c>
-      <c r="M41" s="84"/>
+      <c r="M41" s="93"/>
       <c r="N41" s="7"/>
       <c r="P41" s="32" t="s">
         <v>67</v>
       </c>
       <c r="Q41" s="32">
-        <v>10</v>
-      </c>
-      <c r="R41" s="95"/>
+        <v>9</v>
+      </c>
+      <c r="R41" s="117"/>
       <c r="S41" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T41" s="62"/>
     </row>
@@ -6817,7 +6814,7 @@
       <c r="B42" s="6">
         <v>41</v>
       </c>
-      <c r="C42" s="101"/>
+      <c r="C42" s="76"/>
       <c r="D42" s="7"/>
       <c r="F42" s="10" t="s">
         <v>73</v>
@@ -6825,7 +6822,7 @@
       <c r="G42" s="6">
         <v>7</v>
       </c>
-      <c r="H42" s="92"/>
+      <c r="H42" s="101"/>
       <c r="I42" s="7"/>
       <c r="K42" s="26" t="s">
         <v>79</v>
@@ -6833,7 +6830,7 @@
       <c r="L42" s="27">
         <v>254</v>
       </c>
-      <c r="M42" s="84"/>
+      <c r="M42" s="93"/>
       <c r="N42" s="28" t="s">
         <v>42</v>
       </c>
@@ -6841,10 +6838,12 @@
         <v>67</v>
       </c>
       <c r="Q42" s="32">
-        <v>11</v>
-      </c>
-      <c r="R42" s="95"/>
-      <c r="S42" s="32"/>
+        <v>10</v>
+      </c>
+      <c r="R42" s="117"/>
+      <c r="S42" s="32" t="s">
+        <v>47</v>
+      </c>
       <c r="T42" s="62"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
@@ -6854,7 +6853,7 @@
       <c r="B43" s="6">
         <v>42</v>
       </c>
-      <c r="C43" s="101"/>
+      <c r="C43" s="76"/>
       <c r="D43" s="7"/>
       <c r="F43" s="10" t="s">
         <v>73</v>
@@ -6862,7 +6861,7 @@
       <c r="G43" s="6">
         <v>8</v>
       </c>
-      <c r="H43" s="92"/>
+      <c r="H43" s="101"/>
       <c r="I43" s="7"/>
       <c r="K43" s="9" t="s">
         <v>79</v>
@@ -6870,7 +6869,7 @@
       <c r="L43" s="3">
         <v>255</v>
       </c>
-      <c r="M43" s="84"/>
+      <c r="M43" s="93"/>
       <c r="N43" s="4" t="s">
         <v>19</v>
       </c>
@@ -6878,9 +6877,9 @@
         <v>67</v>
       </c>
       <c r="Q43" s="32">
-        <v>12</v>
-      </c>
-      <c r="R43" s="95"/>
+        <v>11</v>
+      </c>
+      <c r="R43" s="117"/>
       <c r="S43" s="32"/>
       <c r="T43" s="62"/>
     </row>
@@ -6891,7 +6890,7 @@
       <c r="B44" s="6">
         <v>43</v>
       </c>
-      <c r="C44" s="101"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="7"/>
       <c r="F44" s="10" t="s">
         <v>73</v>
@@ -6899,7 +6898,7 @@
       <c r="G44" s="6">
         <v>9</v>
       </c>
-      <c r="H44" s="92"/>
+      <c r="H44" s="101"/>
       <c r="I44" s="7"/>
       <c r="K44" s="9" t="s">
         <v>80</v>
@@ -6907,7 +6906,7 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="84"/>
+      <c r="M44" s="93"/>
       <c r="N44" s="4" t="s">
         <v>23</v>
       </c>
@@ -6915,9 +6914,9 @@
         <v>67</v>
       </c>
       <c r="Q44" s="32">
-        <v>13</v>
-      </c>
-      <c r="R44" s="95"/>
+        <v>12</v>
+      </c>
+      <c r="R44" s="117"/>
       <c r="S44" s="32"/>
       <c r="T44" s="62"/>
     </row>
@@ -6928,7 +6927,7 @@
       <c r="B45" s="6">
         <v>44</v>
       </c>
-      <c r="C45" s="101"/>
+      <c r="C45" s="76"/>
       <c r="D45" s="7"/>
       <c r="F45" s="26" t="s">
         <v>73</v>
@@ -6936,7 +6935,7 @@
       <c r="G45" s="27">
         <v>252</v>
       </c>
-      <c r="H45" s="92"/>
+      <c r="H45" s="101"/>
       <c r="I45" s="25" t="s">
         <v>121</v>
       </c>
@@ -6946,15 +6945,15 @@
       <c r="L45" s="6">
         <v>1</v>
       </c>
-      <c r="M45" s="84"/>
+      <c r="M45" s="93"/>
       <c r="N45" s="7"/>
       <c r="P45" s="32" t="s">
         <v>67</v>
       </c>
       <c r="Q45" s="32">
-        <v>14</v>
-      </c>
-      <c r="R45" s="95"/>
+        <v>13</v>
+      </c>
+      <c r="R45" s="117"/>
       <c r="S45" s="32"/>
       <c r="T45" s="62"/>
     </row>
@@ -6965,7 +6964,7 @@
       <c r="B46" s="6">
         <v>45</v>
       </c>
-      <c r="C46" s="101"/>
+      <c r="C46" s="76"/>
       <c r="D46" s="7"/>
       <c r="F46" s="26" t="s">
         <v>73</v>
@@ -6973,7 +6972,7 @@
       <c r="G46" s="27">
         <v>253</v>
       </c>
-      <c r="H46" s="92"/>
+      <c r="H46" s="101"/>
       <c r="I46" s="25" t="s">
         <v>122</v>
       </c>
@@ -6983,19 +6982,17 @@
       <c r="L46" s="6">
         <v>2</v>
       </c>
-      <c r="M46" s="84"/>
+      <c r="M46" s="93"/>
       <c r="N46" s="7"/>
-      <c r="P46" s="58" t="s">
+      <c r="P46" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="Q46" s="58">
-        <v>15</v>
-      </c>
-      <c r="R46" s="95"/>
-      <c r="S46" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="T46" s="63"/>
+      <c r="Q46" s="32">
+        <v>14</v>
+      </c>
+      <c r="R46" s="117"/>
+      <c r="S46" s="32"/>
+      <c r="T46" s="62"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
@@ -7004,7 +7001,7 @@
       <c r="B47" s="6">
         <v>46</v>
       </c>
-      <c r="C47" s="101"/>
+      <c r="C47" s="76"/>
       <c r="D47" s="7"/>
       <c r="F47" s="26" t="s">
         <v>73</v>
@@ -7012,7 +7009,7 @@
       <c r="G47" s="24">
         <v>254</v>
       </c>
-      <c r="H47" s="92"/>
+      <c r="H47" s="101"/>
       <c r="I47" s="70" t="s">
         <v>117</v>
       </c>
@@ -7022,7 +7019,7 @@
       <c r="L47" s="27">
         <v>254</v>
       </c>
-      <c r="M47" s="84"/>
+      <c r="M47" s="93"/>
       <c r="N47" s="28" t="s">
         <v>42</v>
       </c>
@@ -7030,15 +7027,13 @@
         <v>67</v>
       </c>
       <c r="Q47" s="58">
-        <v>16</v>
-      </c>
-      <c r="R47" s="95"/>
+        <v>15</v>
+      </c>
+      <c r="R47" s="117"/>
       <c r="S47" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="T47" s="61" t="s">
-        <v>2</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="T47" s="63"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
@@ -7047,7 +7042,7 @@
       <c r="B48" s="6">
         <v>47</v>
       </c>
-      <c r="C48" s="101"/>
+      <c r="C48" s="76"/>
       <c r="D48" s="7"/>
       <c r="F48" s="9" t="s">
         <v>73</v>
@@ -7055,7 +7050,7 @@
       <c r="G48" s="3">
         <v>255</v>
       </c>
-      <c r="H48" s="93"/>
+      <c r="H48" s="102"/>
       <c r="I48" s="4" t="s">
         <v>19</v>
       </c>
@@ -7065,21 +7060,23 @@
       <c r="L48" s="3">
         <v>255</v>
       </c>
-      <c r="M48" s="85"/>
+      <c r="M48" s="94"/>
       <c r="N48" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P48" s="32" t="s">
+      <c r="P48" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="Q48" s="32">
-        <v>17</v>
-      </c>
-      <c r="R48" s="95"/>
-      <c r="S48" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="T48" s="62"/>
+      <c r="Q48" s="58">
+        <v>16</v>
+      </c>
+      <c r="R48" s="117"/>
+      <c r="S48" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="T48" s="61" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
@@ -7088,17 +7085,17 @@
       <c r="B49" s="6">
         <v>48</v>
       </c>
-      <c r="C49" s="101"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="7"/>
       <c r="P49" s="32" t="s">
         <v>67</v>
       </c>
       <c r="Q49" s="32">
-        <v>18</v>
-      </c>
-      <c r="R49" s="95"/>
+        <v>17</v>
+      </c>
+      <c r="R49" s="117"/>
       <c r="S49" s="32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T49" s="62"/>
     </row>
@@ -7109,16 +7106,18 @@
       <c r="B50" s="6">
         <v>49</v>
       </c>
-      <c r="C50" s="101"/>
+      <c r="C50" s="76"/>
       <c r="D50" s="7"/>
       <c r="P50" s="32" t="s">
         <v>67</v>
       </c>
       <c r="Q50" s="32">
-        <v>19</v>
-      </c>
-      <c r="R50" s="95"/>
-      <c r="S50" s="32"/>
+        <v>18</v>
+      </c>
+      <c r="R50" s="117"/>
+      <c r="S50" s="32" t="s">
+        <v>54</v>
+      </c>
       <c r="T50" s="62"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
@@ -7128,15 +7127,15 @@
       <c r="B51" s="6">
         <v>50</v>
       </c>
-      <c r="C51" s="101"/>
+      <c r="C51" s="76"/>
       <c r="D51" s="7"/>
       <c r="P51" s="32" t="s">
         <v>67</v>
       </c>
       <c r="Q51" s="32">
-        <v>20</v>
-      </c>
-      <c r="R51" s="95"/>
+        <v>19</v>
+      </c>
+      <c r="R51" s="117"/>
       <c r="S51" s="32"/>
       <c r="T51" s="62"/>
     </row>
@@ -7147,7 +7146,7 @@
       <c r="B52" s="24">
         <v>254</v>
       </c>
-      <c r="C52" s="101"/>
+      <c r="C52" s="76"/>
       <c r="D52" s="25" t="s">
         <v>42</v>
       </c>
@@ -7155,9 +7154,9 @@
         <v>67</v>
       </c>
       <c r="Q52" s="32">
-        <v>21</v>
-      </c>
-      <c r="R52" s="95"/>
+        <v>20</v>
+      </c>
+      <c r="R52" s="117"/>
       <c r="S52" s="32"/>
       <c r="T52" s="62"/>
     </row>
@@ -7168,7 +7167,7 @@
       <c r="B53" s="3">
         <v>255</v>
       </c>
-      <c r="C53" s="101"/>
+      <c r="C53" s="76"/>
       <c r="D53" s="4" t="s">
         <v>19</v>
       </c>
@@ -7176,9 +7175,9 @@
         <v>67</v>
       </c>
       <c r="Q53" s="32">
-        <v>22</v>
-      </c>
-      <c r="R53" s="95"/>
+        <v>21</v>
+      </c>
+      <c r="R53" s="117"/>
       <c r="S53" s="32"/>
       <c r="T53" s="62"/>
     </row>
@@ -7189,21 +7188,19 @@
       <c r="B54" s="66">
         <v>0</v>
       </c>
-      <c r="C54" s="101"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="P54" s="58" t="s">
+      <c r="P54" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="Q54" s="58">
-        <v>23</v>
-      </c>
-      <c r="R54" s="95"/>
-      <c r="S54" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="T54" s="63"/>
+      <c r="Q54" s="32">
+        <v>22</v>
+      </c>
+      <c r="R54" s="117"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="62"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
@@ -7212,18 +7209,19 @@
       <c r="B55" s="6">
         <v>1</v>
       </c>
-      <c r="C55" s="101"/>
+      <c r="C55" s="76"/>
       <c r="D55" s="7"/>
-      <c r="P55" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q55" s="33">
-        <v>0</v>
-      </c>
-      <c r="R55" s="95"/>
-      <c r="S55" s="4" t="s">
+      <c r="P55" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q55" s="58">
         <v>23</v>
       </c>
+      <c r="R55" s="117"/>
+      <c r="S55" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="T55" s="63"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
@@ -7232,17 +7230,17 @@
       <c r="B56" s="6">
         <v>2</v>
       </c>
-      <c r="C56" s="101"/>
+      <c r="C56" s="76"/>
       <c r="D56" s="7"/>
-      <c r="P56" s="32" t="s">
+      <c r="P56" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="Q56" s="32">
-        <v>1</v>
-      </c>
-      <c r="R56" s="95"/>
-      <c r="S56" s="32" t="s">
-        <v>44</v>
+      <c r="Q56" s="33">
+        <v>0</v>
+      </c>
+      <c r="R56" s="117"/>
+      <c r="S56" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
@@ -7252,17 +7250,17 @@
       <c r="B57" s="6">
         <v>3</v>
       </c>
-      <c r="C57" s="101"/>
+      <c r="C57" s="76"/>
       <c r="D57" s="7"/>
       <c r="P57" s="32" t="s">
         <v>70</v>
       </c>
       <c r="Q57" s="32">
-        <v>2</v>
-      </c>
-      <c r="R57" s="95"/>
+        <v>1</v>
+      </c>
+      <c r="R57" s="117"/>
       <c r="S57" s="32" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7272,16 +7270,18 @@
       <c r="B58" s="6">
         <v>4</v>
       </c>
-      <c r="C58" s="101"/>
+      <c r="C58" s="76"/>
       <c r="D58" s="7"/>
       <c r="P58" s="32" t="s">
         <v>70</v>
       </c>
       <c r="Q58" s="32">
-        <v>3</v>
-      </c>
-      <c r="R58" s="95"/>
-      <c r="S58" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="R58" s="117"/>
+      <c r="S58" s="32" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
@@ -7290,18 +7290,16 @@
       <c r="B59" s="6">
         <v>5</v>
       </c>
-      <c r="C59" s="101"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="7"/>
-      <c r="P59" s="34" t="s">
+      <c r="P59" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="Q59" s="34">
-        <v>254</v>
-      </c>
-      <c r="R59" s="95"/>
-      <c r="S59" s="28" t="s">
-        <v>42</v>
-      </c>
+      <c r="Q59" s="32">
+        <v>3</v>
+      </c>
+      <c r="R59" s="117"/>
+      <c r="S59" s="32"/>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
@@ -7310,17 +7308,17 @@
       <c r="B60" s="6">
         <v>6</v>
       </c>
-      <c r="C60" s="101"/>
+      <c r="C60" s="76"/>
       <c r="D60" s="7"/>
-      <c r="P60" s="33" t="s">
+      <c r="P60" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="Q60" s="33">
-        <v>255</v>
-      </c>
-      <c r="R60" s="96"/>
-      <c r="S60" s="4" t="s">
-        <v>19</v>
+      <c r="Q60" s="34">
+        <v>254</v>
+      </c>
+      <c r="R60" s="117"/>
+      <c r="S60" s="28" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
@@ -7330,8 +7328,18 @@
       <c r="B61" s="6">
         <v>7</v>
       </c>
-      <c r="C61" s="101"/>
+      <c r="C61" s="76"/>
       <c r="D61" s="7"/>
+      <c r="P61" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q61" s="33">
+        <v>255</v>
+      </c>
+      <c r="R61" s="118"/>
+      <c r="S61" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
@@ -7340,23 +7348,8 @@
       <c r="B62" s="6">
         <v>8</v>
       </c>
-      <c r="C62" s="101"/>
+      <c r="C62" s="76"/>
       <c r="D62" s="7"/>
-      <c r="P62" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q62" s="33">
-        <v>0</v>
-      </c>
-      <c r="R62" s="103" t="s">
-        <v>112</v>
-      </c>
-      <c r="S62" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="T62" s="61" t="s">
-        <v>0</v>
-      </c>
       <c r="W62" s="52"/>
     </row>
     <row r="63" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7366,19 +7359,23 @@
       <c r="B63" s="6">
         <v>9</v>
       </c>
-      <c r="C63" s="101"/>
+      <c r="C63" s="76"/>
       <c r="D63" s="7"/>
-      <c r="P63" s="32" t="s">
+      <c r="P63" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="Q63" s="32">
-        <v>1</v>
-      </c>
-      <c r="R63" s="104"/>
-      <c r="S63" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="T63" s="62"/>
+      <c r="Q63" s="33">
+        <v>0</v>
+      </c>
+      <c r="R63" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="S63" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="T63" s="61" t="s">
+        <v>0</v>
+      </c>
       <c r="W63" s="52"/>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
@@ -7388,17 +7385,17 @@
       <c r="B64" s="6">
         <v>10</v>
       </c>
-      <c r="C64" s="101"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="7"/>
       <c r="P64" s="32" t="s">
         <v>101</v>
       </c>
       <c r="Q64" s="32">
-        <v>2</v>
-      </c>
-      <c r="R64" s="104"/>
+        <v>1</v>
+      </c>
+      <c r="R64" s="79"/>
       <c r="S64" s="32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T64" s="62"/>
       <c r="W64" s="52"/>
@@ -7410,19 +7407,19 @@
       <c r="B65" s="6">
         <v>11</v>
       </c>
-      <c r="C65" s="101"/>
+      <c r="C65" s="76"/>
       <c r="D65" s="7"/>
-      <c r="P65" s="33" t="s">
+      <c r="P65" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="Q65" s="33">
-        <v>3</v>
-      </c>
-      <c r="R65" s="105"/>
-      <c r="S65" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="T65" s="63"/>
+      <c r="Q65" s="32">
+        <v>2</v>
+      </c>
+      <c r="R65" s="79"/>
+      <c r="S65" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="T65" s="62"/>
       <c r="W65" s="52"/>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
@@ -7432,8 +7429,19 @@
       <c r="B66" s="6">
         <v>12</v>
       </c>
-      <c r="C66" s="101"/>
+      <c r="C66" s="76"/>
       <c r="D66" s="7"/>
+      <c r="P66" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q66" s="33">
+        <v>3</v>
+      </c>
+      <c r="R66" s="80"/>
+      <c r="S66" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T66" s="63"/>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
@@ -7442,23 +7450,8 @@
       <c r="B67" s="6">
         <v>13</v>
       </c>
-      <c r="C67" s="101"/>
+      <c r="C67" s="76"/>
       <c r="D67" s="7"/>
-      <c r="P67" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q67" s="33">
-        <v>0</v>
-      </c>
-      <c r="R67" s="103" t="s">
-        <v>118</v>
-      </c>
-      <c r="S67" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="T67" s="61" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
@@ -7467,19 +7460,23 @@
       <c r="B68" s="6">
         <v>14</v>
       </c>
-      <c r="C68" s="101"/>
+      <c r="C68" s="76"/>
       <c r="D68" s="7"/>
-      <c r="P68" s="32" t="s">
+      <c r="P68" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="Q68" s="32">
-        <v>1</v>
-      </c>
-      <c r="R68" s="104"/>
-      <c r="S68" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="T68" s="62"/>
+      <c r="Q68" s="33">
+        <v>0</v>
+      </c>
+      <c r="R68" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="S68" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="T68" s="61" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
@@ -7488,17 +7485,17 @@
       <c r="B69" s="6">
         <v>15</v>
       </c>
-      <c r="C69" s="101"/>
+      <c r="C69" s="76"/>
       <c r="D69" s="7"/>
       <c r="P69" s="32" t="s">
         <v>119</v>
       </c>
       <c r="Q69" s="32">
-        <v>2</v>
-      </c>
-      <c r="R69" s="104"/>
+        <v>1</v>
+      </c>
+      <c r="R69" s="79"/>
       <c r="S69" s="32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="T69" s="62"/>
     </row>
@@ -7509,19 +7506,19 @@
       <c r="B70" s="6">
         <v>16</v>
       </c>
-      <c r="C70" s="101"/>
+      <c r="C70" s="76"/>
       <c r="D70" s="7"/>
-      <c r="P70" s="33" t="s">
+      <c r="P70" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="Q70" s="33">
-        <v>3</v>
-      </c>
-      <c r="R70" s="105"/>
-      <c r="S70" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="T70" s="63"/>
+      <c r="Q70" s="32">
+        <v>2</v>
+      </c>
+      <c r="R70" s="79"/>
+      <c r="S70" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="T70" s="62"/>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
@@ -7530,8 +7527,19 @@
       <c r="B71" s="6">
         <v>17</v>
       </c>
-      <c r="C71" s="101"/>
+      <c r="C71" s="76"/>
       <c r="D71" s="7"/>
+      <c r="P71" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q71" s="33">
+        <v>3</v>
+      </c>
+      <c r="R71" s="80"/>
+      <c r="S71" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T71" s="63"/>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
@@ -7540,23 +7548,8 @@
       <c r="B72" s="6">
         <v>18</v>
       </c>
-      <c r="C72" s="101"/>
+      <c r="C72" s="76"/>
       <c r="D72" s="7"/>
-      <c r="P72" s="60" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q72" s="60">
-        <v>1</v>
-      </c>
-      <c r="R72" s="106" t="s">
-        <v>113</v>
-      </c>
-      <c r="S72" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="T72" s="60" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
@@ -7565,17 +7558,19 @@
       <c r="B73" s="6">
         <v>19</v>
       </c>
-      <c r="C73" s="101"/>
+      <c r="C73" s="76"/>
       <c r="D73" s="7"/>
       <c r="P73" s="60" t="s">
         <v>108</v>
       </c>
       <c r="Q73" s="60">
-        <v>2</v>
-      </c>
-      <c r="R73" s="107"/>
+        <v>1</v>
+      </c>
+      <c r="R73" s="81" t="s">
+        <v>113</v>
+      </c>
       <c r="S73" s="60" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T73" s="60" t="s">
         <v>106</v>
@@ -7588,17 +7583,17 @@
       <c r="B74" s="6">
         <v>20</v>
       </c>
-      <c r="C74" s="101"/>
+      <c r="C74" s="76"/>
       <c r="D74" s="7"/>
       <c r="P74" s="60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q74" s="60">
-        <v>1</v>
-      </c>
-      <c r="R74" s="107"/>
+        <v>2</v>
+      </c>
+      <c r="R74" s="82"/>
       <c r="S74" s="60" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="T74" s="60" t="s">
         <v>106</v>
@@ -7611,17 +7606,17 @@
       <c r="B75" s="6">
         <v>21</v>
       </c>
-      <c r="C75" s="101"/>
+      <c r="C75" s="76"/>
       <c r="D75" s="7"/>
       <c r="P75" s="60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q75" s="60">
         <v>1</v>
       </c>
-      <c r="R75" s="107"/>
+      <c r="R75" s="82"/>
       <c r="S75" s="60" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="T75" s="60" t="s">
         <v>106</v>
@@ -7634,17 +7629,17 @@
       <c r="B76" s="6">
         <v>22</v>
       </c>
-      <c r="C76" s="101"/>
+      <c r="C76" s="76"/>
       <c r="D76" s="7"/>
       <c r="P76" s="60" t="s">
         <v>110</v>
       </c>
       <c r="Q76" s="60">
-        <v>2</v>
-      </c>
-      <c r="R76" s="107"/>
+        <v>1</v>
+      </c>
+      <c r="R76" s="82"/>
       <c r="S76" s="60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T76" s="60" t="s">
         <v>106</v>
@@ -7657,17 +7652,17 @@
       <c r="B77" s="6">
         <v>23</v>
       </c>
-      <c r="C77" s="101"/>
+      <c r="C77" s="76"/>
       <c r="D77" s="7"/>
       <c r="P77" s="60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q77" s="60">
-        <v>1</v>
-      </c>
-      <c r="R77" s="108"/>
+        <v>2</v>
+      </c>
+      <c r="R77" s="82"/>
       <c r="S77" s="60" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="T77" s="60" t="s">
         <v>106</v>
@@ -7680,8 +7675,21 @@
       <c r="B78" s="6">
         <v>24</v>
       </c>
-      <c r="C78" s="101"/>
+      <c r="C78" s="76"/>
       <c r="D78" s="7"/>
+      <c r="P78" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q78" s="60">
+        <v>1</v>
+      </c>
+      <c r="R78" s="83"/>
+      <c r="S78" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="T78" s="60" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
@@ -7690,7 +7698,7 @@
       <c r="B79" s="6">
         <v>25</v>
       </c>
-      <c r="C79" s="101"/>
+      <c r="C79" s="76"/>
       <c r="D79" s="7"/>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
@@ -7700,7 +7708,7 @@
       <c r="B80" s="6">
         <v>26</v>
       </c>
-      <c r="C80" s="101"/>
+      <c r="C80" s="76"/>
       <c r="D80" s="7"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -7710,7 +7718,7 @@
       <c r="B81" s="6">
         <v>27</v>
       </c>
-      <c r="C81" s="101"/>
+      <c r="C81" s="76"/>
       <c r="D81" s="7"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -7720,7 +7728,7 @@
       <c r="B82" s="6">
         <v>28</v>
       </c>
-      <c r="C82" s="101"/>
+      <c r="C82" s="76"/>
       <c r="D82" s="7"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -7730,7 +7738,7 @@
       <c r="B83" s="6">
         <v>29</v>
       </c>
-      <c r="C83" s="101"/>
+      <c r="C83" s="76"/>
       <c r="D83" s="7"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -7740,7 +7748,7 @@
       <c r="B84" s="6">
         <v>30</v>
       </c>
-      <c r="C84" s="101"/>
+      <c r="C84" s="76"/>
       <c r="D84" s="7"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -7750,7 +7758,7 @@
       <c r="B85" s="6">
         <v>31</v>
       </c>
-      <c r="C85" s="101"/>
+      <c r="C85" s="76"/>
       <c r="D85" s="7"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -7760,7 +7768,7 @@
       <c r="B86" s="6">
         <v>32</v>
       </c>
-      <c r="C86" s="101"/>
+      <c r="C86" s="76"/>
       <c r="D86" s="7"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -7770,7 +7778,7 @@
       <c r="B87" s="6">
         <v>33</v>
       </c>
-      <c r="C87" s="101"/>
+      <c r="C87" s="76"/>
       <c r="D87" s="7"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -7780,7 +7788,7 @@
       <c r="B88" s="6">
         <v>34</v>
       </c>
-      <c r="C88" s="101"/>
+      <c r="C88" s="76"/>
       <c r="D88" s="7"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -7790,7 +7798,7 @@
       <c r="B89" s="6">
         <v>35</v>
       </c>
-      <c r="C89" s="101"/>
+      <c r="C89" s="76"/>
       <c r="D89" s="7"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -7800,7 +7808,7 @@
       <c r="B90" s="6">
         <v>36</v>
       </c>
-      <c r="C90" s="101"/>
+      <c r="C90" s="76"/>
       <c r="D90" s="7"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -7810,7 +7818,7 @@
       <c r="B91" s="6">
         <v>37</v>
       </c>
-      <c r="C91" s="101"/>
+      <c r="C91" s="76"/>
       <c r="D91" s="7"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -7820,7 +7828,7 @@
       <c r="B92" s="6">
         <v>38</v>
       </c>
-      <c r="C92" s="101"/>
+      <c r="C92" s="76"/>
       <c r="D92" s="7"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -7830,7 +7838,7 @@
       <c r="B93" s="6">
         <v>39</v>
       </c>
-      <c r="C93" s="101"/>
+      <c r="C93" s="76"/>
       <c r="D93" s="7"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -7840,7 +7848,7 @@
       <c r="B94" s="6">
         <v>40</v>
       </c>
-      <c r="C94" s="101"/>
+      <c r="C94" s="76"/>
       <c r="D94" s="7"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -7850,7 +7858,7 @@
       <c r="B95" s="24">
         <v>126</v>
       </c>
-      <c r="C95" s="101"/>
+      <c r="C95" s="76"/>
       <c r="D95" s="25" t="s">
         <v>42</v>
       </c>
@@ -7862,7 +7870,7 @@
       <c r="B96" s="66">
         <v>127</v>
       </c>
-      <c r="C96" s="101"/>
+      <c r="C96" s="76"/>
       <c r="D96" s="57" t="s">
         <v>19</v>
       </c>
@@ -7874,7 +7882,7 @@
       <c r="B97" s="66">
         <v>128</v>
       </c>
-      <c r="C97" s="101"/>
+      <c r="C97" s="76"/>
       <c r="D97" s="57" t="s">
         <v>104</v>
       </c>
@@ -7886,7 +7894,7 @@
       <c r="B98" s="6">
         <v>129</v>
       </c>
-      <c r="C98" s="101"/>
+      <c r="C98" s="76"/>
       <c r="D98" s="7"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -7896,7 +7904,7 @@
       <c r="B99" s="6">
         <v>130</v>
       </c>
-      <c r="C99" s="101"/>
+      <c r="C99" s="76"/>
       <c r="D99" s="7"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -7906,7 +7914,7 @@
       <c r="B100" s="6">
         <v>131</v>
       </c>
-      <c r="C100" s="101"/>
+      <c r="C100" s="76"/>
       <c r="D100" s="7"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -7916,7 +7924,7 @@
       <c r="B101" s="6">
         <v>132</v>
       </c>
-      <c r="C101" s="101"/>
+      <c r="C101" s="76"/>
       <c r="D101" s="7"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -7926,7 +7934,7 @@
       <c r="B102" s="6">
         <v>133</v>
       </c>
-      <c r="C102" s="101"/>
+      <c r="C102" s="76"/>
       <c r="D102" s="7"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -7936,7 +7944,7 @@
       <c r="B103" s="6">
         <v>134</v>
       </c>
-      <c r="C103" s="101"/>
+      <c r="C103" s="76"/>
       <c r="D103" s="7"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -7946,7 +7954,7 @@
       <c r="B104" s="6">
         <v>135</v>
       </c>
-      <c r="C104" s="101"/>
+      <c r="C104" s="76"/>
       <c r="D104" s="7"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -7956,7 +7964,7 @@
       <c r="B105" s="6">
         <v>136</v>
       </c>
-      <c r="C105" s="101"/>
+      <c r="C105" s="76"/>
       <c r="D105" s="7"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -7966,7 +7974,7 @@
       <c r="B106" s="6">
         <v>137</v>
       </c>
-      <c r="C106" s="101"/>
+      <c r="C106" s="76"/>
       <c r="D106" s="7"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -7976,7 +7984,7 @@
       <c r="B107" s="6">
         <v>138</v>
       </c>
-      <c r="C107" s="101"/>
+      <c r="C107" s="76"/>
       <c r="D107" s="7"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -7986,7 +7994,7 @@
       <c r="B108" s="6">
         <v>139</v>
       </c>
-      <c r="C108" s="101"/>
+      <c r="C108" s="76"/>
       <c r="D108" s="7"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -7996,7 +8004,7 @@
       <c r="B109" s="6">
         <v>140</v>
       </c>
-      <c r="C109" s="101"/>
+      <c r="C109" s="76"/>
       <c r="D109" s="7"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -8006,7 +8014,7 @@
       <c r="B110" s="6">
         <v>141</v>
       </c>
-      <c r="C110" s="101"/>
+      <c r="C110" s="76"/>
       <c r="D110" s="7"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -8016,7 +8024,7 @@
       <c r="B111" s="6">
         <v>142</v>
       </c>
-      <c r="C111" s="101"/>
+      <c r="C111" s="76"/>
       <c r="D111" s="7"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -8026,7 +8034,7 @@
       <c r="B112" s="6">
         <v>143</v>
       </c>
-      <c r="C112" s="101"/>
+      <c r="C112" s="76"/>
       <c r="D112" s="7"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -8036,7 +8044,7 @@
       <c r="B113" s="6">
         <v>144</v>
       </c>
-      <c r="C113" s="101"/>
+      <c r="C113" s="76"/>
       <c r="D113" s="7"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -8046,7 +8054,7 @@
       <c r="B114" s="6">
         <v>145</v>
       </c>
-      <c r="C114" s="101"/>
+      <c r="C114" s="76"/>
       <c r="D114" s="7"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -8056,7 +8064,7 @@
       <c r="B115" s="6">
         <v>146</v>
       </c>
-      <c r="C115" s="101"/>
+      <c r="C115" s="76"/>
       <c r="D115" s="7"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -8066,7 +8074,7 @@
       <c r="B116" s="6">
         <v>147</v>
       </c>
-      <c r="C116" s="101"/>
+      <c r="C116" s="76"/>
       <c r="D116" s="7"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -8076,7 +8084,7 @@
       <c r="B117" s="6">
         <v>148</v>
       </c>
-      <c r="C117" s="101"/>
+      <c r="C117" s="76"/>
       <c r="D117" s="7"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -8086,7 +8094,7 @@
       <c r="B118" s="6">
         <v>149</v>
       </c>
-      <c r="C118" s="101"/>
+      <c r="C118" s="76"/>
       <c r="D118" s="7"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -8096,7 +8104,7 @@
       <c r="B119" s="6">
         <v>150</v>
       </c>
-      <c r="C119" s="101"/>
+      <c r="C119" s="76"/>
       <c r="D119" s="7"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -8106,7 +8114,7 @@
       <c r="B120" s="6">
         <v>151</v>
       </c>
-      <c r="C120" s="101"/>
+      <c r="C120" s="76"/>
       <c r="D120" s="7"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -8116,7 +8124,7 @@
       <c r="B121" s="6">
         <v>152</v>
       </c>
-      <c r="C121" s="101"/>
+      <c r="C121" s="76"/>
       <c r="D121" s="7"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -8126,7 +8134,7 @@
       <c r="B122" s="6">
         <v>153</v>
       </c>
-      <c r="C122" s="101"/>
+      <c r="C122" s="76"/>
       <c r="D122" s="7"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -8136,7 +8144,7 @@
       <c r="B123" s="6">
         <v>154</v>
       </c>
-      <c r="C123" s="101"/>
+      <c r="C123" s="76"/>
       <c r="D123" s="7"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -8146,7 +8154,7 @@
       <c r="B124" s="6">
         <v>155</v>
       </c>
-      <c r="C124" s="101"/>
+      <c r="C124" s="76"/>
       <c r="D124" s="7"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -8156,7 +8164,7 @@
       <c r="B125" s="6">
         <v>156</v>
       </c>
-      <c r="C125" s="101"/>
+      <c r="C125" s="76"/>
       <c r="D125" s="7"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -8166,7 +8174,7 @@
       <c r="B126" s="6">
         <v>157</v>
       </c>
-      <c r="C126" s="101"/>
+      <c r="C126" s="76"/>
       <c r="D126" s="7"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -8176,7 +8184,7 @@
       <c r="B127" s="6">
         <v>158</v>
       </c>
-      <c r="C127" s="101"/>
+      <c r="C127" s="76"/>
       <c r="D127" s="7"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -8186,7 +8194,7 @@
       <c r="B128" s="6">
         <v>159</v>
       </c>
-      <c r="C128" s="101"/>
+      <c r="C128" s="76"/>
       <c r="D128" s="7"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -8196,7 +8204,7 @@
       <c r="B129" s="6">
         <v>160</v>
       </c>
-      <c r="C129" s="101"/>
+      <c r="C129" s="76"/>
       <c r="D129" s="7"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -8206,7 +8214,7 @@
       <c r="B130" s="6">
         <v>161</v>
       </c>
-      <c r="C130" s="101"/>
+      <c r="C130" s="76"/>
       <c r="D130" s="7"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -8216,7 +8224,7 @@
       <c r="B131" s="6">
         <v>162</v>
       </c>
-      <c r="C131" s="101"/>
+      <c r="C131" s="76"/>
       <c r="D131" s="7"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -8226,7 +8234,7 @@
       <c r="B132" s="6">
         <v>163</v>
       </c>
-      <c r="C132" s="101"/>
+      <c r="C132" s="76"/>
       <c r="D132" s="7"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -8236,7 +8244,7 @@
       <c r="B133" s="6">
         <v>164</v>
       </c>
-      <c r="C133" s="101"/>
+      <c r="C133" s="76"/>
       <c r="D133" s="7"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -8246,7 +8254,7 @@
       <c r="B134" s="6">
         <v>165</v>
       </c>
-      <c r="C134" s="101"/>
+      <c r="C134" s="76"/>
       <c r="D134" s="7"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -8256,7 +8264,7 @@
       <c r="B135" s="6">
         <v>166</v>
       </c>
-      <c r="C135" s="101"/>
+      <c r="C135" s="76"/>
       <c r="D135" s="7"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -8266,7 +8274,7 @@
       <c r="B136" s="6">
         <v>167</v>
       </c>
-      <c r="C136" s="101"/>
+      <c r="C136" s="76"/>
       <c r="D136" s="7"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -8276,7 +8284,7 @@
       <c r="B137" s="6">
         <v>168</v>
       </c>
-      <c r="C137" s="101"/>
+      <c r="C137" s="76"/>
       <c r="D137" s="7"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -8286,7 +8294,7 @@
       <c r="B138" s="24">
         <v>254</v>
       </c>
-      <c r="C138" s="101"/>
+      <c r="C138" s="76"/>
       <c r="D138" s="25" t="s">
         <v>42</v>
       </c>
@@ -8298,7 +8306,7 @@
       <c r="B139" s="66">
         <v>255</v>
       </c>
-      <c r="C139" s="101"/>
+      <c r="C139" s="76"/>
       <c r="D139" s="57" t="s">
         <v>19</v>
       </c>
@@ -8310,7 +8318,7 @@
       <c r="B140" s="3">
         <v>0</v>
       </c>
-      <c r="C140" s="101"/>
+      <c r="C140" s="76"/>
       <c r="D140" s="4" t="s">
         <v>23</v>
       </c>
@@ -8322,7 +8330,7 @@
       <c r="B141" s="6">
         <v>1</v>
       </c>
-      <c r="C141" s="101"/>
+      <c r="C141" s="76"/>
       <c r="D141" s="7"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -8332,7 +8340,7 @@
       <c r="B142" s="6">
         <v>2</v>
       </c>
-      <c r="C142" s="101"/>
+      <c r="C142" s="76"/>
       <c r="D142" s="7"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -8342,7 +8350,7 @@
       <c r="B143" s="6">
         <v>3</v>
       </c>
-      <c r="C143" s="101"/>
+      <c r="C143" s="76"/>
       <c r="D143" s="7"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -8352,7 +8360,7 @@
       <c r="B144" s="6">
         <v>4</v>
       </c>
-      <c r="C144" s="101"/>
+      <c r="C144" s="76"/>
       <c r="D144" s="7"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -8362,7 +8370,7 @@
       <c r="B145" s="6">
         <v>5</v>
       </c>
-      <c r="C145" s="101"/>
+      <c r="C145" s="76"/>
       <c r="D145" s="7"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -8372,7 +8380,7 @@
       <c r="B146" s="6">
         <v>6</v>
       </c>
-      <c r="C146" s="101"/>
+      <c r="C146" s="76"/>
       <c r="D146" s="7"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -8382,7 +8390,7 @@
       <c r="B147" s="24">
         <v>254</v>
       </c>
-      <c r="C147" s="101"/>
+      <c r="C147" s="76"/>
       <c r="D147" s="25" t="s">
         <v>42</v>
       </c>
@@ -8394,7 +8402,7 @@
       <c r="B148" s="3">
         <v>255</v>
       </c>
-      <c r="C148" s="102"/>
+      <c r="C148" s="77"/>
       <c r="D148" s="4" t="s">
         <v>19</v>
       </c>
@@ -8402,9 +8410,9 @@
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="C1:C148"/>
-    <mergeCell ref="R62:R65"/>
-    <mergeCell ref="R72:R77"/>
-    <mergeCell ref="R67:R70"/>
+    <mergeCell ref="R63:R66"/>
+    <mergeCell ref="R73:R78"/>
+    <mergeCell ref="R68:R71"/>
     <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="AA6:AB6"/>
     <mergeCell ref="H1:H33"/>
@@ -8412,9 +8420,9 @@
     <mergeCell ref="M24:M32"/>
     <mergeCell ref="M1:M22"/>
     <mergeCell ref="H35:H48"/>
-    <mergeCell ref="R17:R60"/>
     <mergeCell ref="R9:R15"/>
     <mergeCell ref="R1:R7"/>
+    <mergeCell ref="R17:R61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -8466,7 +8474,7 @@
         <v>35</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="100" t="s">
+      <c r="C1" s="75" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -8476,7 +8484,7 @@
         <v>38</v>
       </c>
       <c r="G1" s="3"/>
-      <c r="H1" s="80" t="s">
+      <c r="H1" s="89" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -8486,7 +8494,7 @@
         <v>85</v>
       </c>
       <c r="L1" s="3"/>
-      <c r="M1" s="89" t="s">
+      <c r="M1" s="98" t="s">
         <v>17</v>
       </c>
       <c r="N1" s="4" t="s">
@@ -8496,7 +8504,7 @@
         <v>94</v>
       </c>
       <c r="Q1" s="3"/>
-      <c r="R1" s="97" t="s">
+      <c r="R1" s="103" t="s">
         <v>18</v>
       </c>
       <c r="S1" s="4" t="s">
@@ -8511,7 +8519,7 @@
         <f>DEC2HEX('ipv4'!B2)</f>
         <v>1</v>
       </c>
-      <c r="C2" s="101"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="55"/>
       <c r="F2" s="10" t="s">
         <v>38</v>
@@ -8520,7 +8528,7 @@
         <f>DEC2HEX('ipv4'!G2)</f>
         <v>1</v>
       </c>
-      <c r="H2" s="81"/>
+      <c r="H2" s="90"/>
       <c r="I2" s="55"/>
       <c r="K2" s="10" t="s">
         <v>85</v>
@@ -8529,7 +8537,7 @@
         <f>DEC2HEX('ipv4'!L2)</f>
         <v>1</v>
       </c>
-      <c r="M2" s="90"/>
+      <c r="M2" s="99"/>
       <c r="N2" s="55"/>
       <c r="P2" s="10" t="s">
         <v>94</v>
@@ -8538,18 +8546,18 @@
         <f>DEC2HEX('ipv4'!Q2)</f>
         <v>1</v>
       </c>
-      <c r="R2" s="98"/>
+      <c r="R2" s="104"/>
       <c r="S2" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" s="75" t="s">
+      <c r="AA2" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="76"/>
-      <c r="AC2" s="76"/>
-      <c r="AD2" s="76"/>
-      <c r="AE2" s="76"/>
-      <c r="AF2" s="77"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="86"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -8559,7 +8567,7 @@
         <f>DEC2HEX('ipv4'!B3)</f>
         <v>2</v>
       </c>
-      <c r="C3" s="101"/>
+      <c r="C3" s="76"/>
       <c r="D3" s="55"/>
       <c r="F3" s="10" t="s">
         <v>38</v>
@@ -8568,7 +8576,7 @@
         <f>DEC2HEX('ipv4'!G3)</f>
         <v>2</v>
       </c>
-      <c r="H3" s="81"/>
+      <c r="H3" s="90"/>
       <c r="I3" s="55"/>
       <c r="K3" s="10" t="s">
         <v>85</v>
@@ -8577,7 +8585,7 @@
         <f>DEC2HEX('ipv4'!L3)</f>
         <v>2</v>
       </c>
-      <c r="M3" s="90"/>
+      <c r="M3" s="99"/>
       <c r="N3" s="55"/>
       <c r="P3" s="10" t="s">
         <v>94</v>
@@ -8586,15 +8594,15 @@
         <f>DEC2HEX('ipv4'!Q3)</f>
         <v>2</v>
       </c>
-      <c r="R3" s="98"/>
+      <c r="R3" s="104"/>
       <c r="S3" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="AA3" s="113" t="s">
+      <c r="AA3" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="AB3" s="114"/>
-      <c r="AC3" s="115"/>
+      <c r="AB3" s="111"/>
+      <c r="AC3" s="112"/>
       <c r="AD3" s="16" t="s">
         <v>86</v>
       </c>
@@ -8613,7 +8621,7 @@
         <f>DEC2HEX('ipv4'!B4)</f>
         <v>3</v>
       </c>
-      <c r="C4" s="101"/>
+      <c r="C4" s="76"/>
       <c r="D4" s="55"/>
       <c r="F4" s="10" t="s">
         <v>38</v>
@@ -8622,7 +8630,7 @@
         <f>DEC2HEX('ipv4'!G4)</f>
         <v>3</v>
       </c>
-      <c r="H4" s="81"/>
+      <c r="H4" s="90"/>
       <c r="I4" s="55"/>
       <c r="K4" s="10" t="s">
         <v>85</v>
@@ -8631,7 +8639,7 @@
         <f>DEC2HEX('ipv4'!L4)</f>
         <v>3</v>
       </c>
-      <c r="M4" s="90"/>
+      <c r="M4" s="99"/>
       <c r="N4" s="55"/>
       <c r="P4" s="10" t="s">
         <v>94</v>
@@ -8640,7 +8648,7 @@
         <f>DEC2HEX('ipv4'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R4" s="98"/>
+      <c r="R4" s="104"/>
       <c r="S4" s="55"/>
       <c r="AA4" s="41">
         <v>2001</v>
@@ -8669,7 +8677,7 @@
         <f>DEC2HEX('ipv4'!B5)</f>
         <v>4</v>
       </c>
-      <c r="C5" s="101"/>
+      <c r="C5" s="76"/>
       <c r="D5" s="55"/>
       <c r="F5" s="10" t="s">
         <v>38</v>
@@ -8678,7 +8686,7 @@
         <f>DEC2HEX('ipv4'!G5)</f>
         <v>4</v>
       </c>
-      <c r="H5" s="81"/>
+      <c r="H5" s="90"/>
       <c r="I5" s="55"/>
       <c r="K5" s="10" t="s">
         <v>85</v>
@@ -8687,7 +8695,7 @@
         <f>DEC2HEX('ipv4'!L5)</f>
         <v>FC</v>
       </c>
-      <c r="M5" s="90"/>
+      <c r="M5" s="99"/>
       <c r="N5" s="55"/>
       <c r="P5" s="10" t="s">
         <v>94</v>
@@ -8696,7 +8704,7 @@
         <f>DEC2HEX('ipv4'!Q4)</f>
         <v>FC</v>
       </c>
-      <c r="R5" s="99"/>
+      <c r="R5" s="105"/>
       <c r="S5" s="55"/>
     </row>
     <row r="6" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8707,7 +8715,7 @@
         <f>DEC2HEX('ipv4'!B6)</f>
         <v>5</v>
       </c>
-      <c r="C6" s="101"/>
+      <c r="C6" s="76"/>
       <c r="D6" s="55"/>
       <c r="F6" s="10" t="s">
         <v>38</v>
@@ -8716,20 +8724,20 @@
         <f>DEC2HEX('ipv4'!G6)</f>
         <v>5</v>
       </c>
-      <c r="H6" s="81"/>
+      <c r="H6" s="90"/>
       <c r="I6" s="55"/>
       <c r="K6" s="9" t="s">
         <v>88</v>
       </c>
       <c r="L6" s="3"/>
-      <c r="M6" s="90"/>
+      <c r="M6" s="99"/>
       <c r="N6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AA6" s="78" t="s">
+      <c r="AA6" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="AB6" s="79"/>
+      <c r="AB6" s="88"/>
     </row>
     <row r="7" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -8739,7 +8747,7 @@
         <f>DEC2HEX('ipv4'!B7)</f>
         <v>6</v>
       </c>
-      <c r="C7" s="101"/>
+      <c r="C7" s="76"/>
       <c r="D7" s="55"/>
       <c r="F7" s="10" t="s">
         <v>38</v>
@@ -8748,7 +8756,7 @@
         <f>DEC2HEX('ipv4'!G7)</f>
         <v>6</v>
       </c>
-      <c r="H7" s="81"/>
+      <c r="H7" s="90"/>
       <c r="I7" s="55"/>
       <c r="K7" s="10" t="s">
         <v>88</v>
@@ -8757,13 +8765,13 @@
         <f>DEC2HEX('ipv4'!L10)</f>
         <v>1</v>
       </c>
-      <c r="M7" s="90"/>
+      <c r="M7" s="99"/>
       <c r="N7" s="55"/>
       <c r="P7" s="9" t="s">
         <v>95</v>
       </c>
       <c r="Q7" s="3"/>
-      <c r="R7" s="97" t="s">
+      <c r="R7" s="103" t="s">
         <v>20</v>
       </c>
       <c r="S7" s="4" t="s">
@@ -8784,7 +8792,7 @@
         <f>DEC2HEX('ipv4'!B8)</f>
         <v>7</v>
       </c>
-      <c r="C8" s="101"/>
+      <c r="C8" s="76"/>
       <c r="D8" s="55"/>
       <c r="F8" s="10" t="s">
         <v>38</v>
@@ -8793,7 +8801,7 @@
         <f>DEC2HEX('ipv4'!G8)</f>
         <v>7</v>
       </c>
-      <c r="H8" s="81"/>
+      <c r="H8" s="90"/>
       <c r="I8" s="55"/>
       <c r="K8" s="10" t="s">
         <v>88</v>
@@ -8802,7 +8810,7 @@
         <f>DEC2HEX('ipv4'!L11)</f>
         <v>2</v>
       </c>
-      <c r="M8" s="90"/>
+      <c r="M8" s="99"/>
       <c r="N8" s="55"/>
       <c r="P8" s="10" t="s">
         <v>95</v>
@@ -8811,7 +8819,7 @@
         <f>DEC2HEX('ipv4'!Q10)</f>
         <v>1</v>
       </c>
-      <c r="R8" s="98"/>
+      <c r="R8" s="104"/>
       <c r="S8" s="55" t="s">
         <v>21</v>
       </c>
@@ -8830,7 +8838,7 @@
         <f>DEC2HEX('ipv4'!B9)</f>
         <v>8</v>
       </c>
-      <c r="C9" s="101"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="55"/>
       <c r="F9" s="10" t="s">
         <v>38</v>
@@ -8839,7 +8847,7 @@
         <f>DEC2HEX('ipv4'!G9)</f>
         <v>8</v>
       </c>
-      <c r="H9" s="81"/>
+      <c r="H9" s="90"/>
       <c r="I9" s="55"/>
       <c r="K9" s="10" t="s">
         <v>88</v>
@@ -8848,7 +8856,7 @@
         <f>DEC2HEX('ipv4'!L12)</f>
         <v>3</v>
       </c>
-      <c r="M9" s="90"/>
+      <c r="M9" s="99"/>
       <c r="N9" s="55"/>
       <c r="P9" s="10" t="s">
         <v>95</v>
@@ -8857,7 +8865,7 @@
         <f>DEC2HEX('ipv4'!Q11)</f>
         <v>2</v>
       </c>
-      <c r="R9" s="99"/>
+      <c r="R9" s="105"/>
       <c r="S9" s="55" t="s">
         <v>22</v>
       </c>
@@ -8876,7 +8884,7 @@
         <f>DEC2HEX('ipv4'!B10)</f>
         <v>9</v>
       </c>
-      <c r="C10" s="101"/>
+      <c r="C10" s="76"/>
       <c r="D10" s="55"/>
       <c r="F10" s="10" t="s">
         <v>38</v>
@@ -8885,7 +8893,7 @@
         <f>DEC2HEX('ipv4'!G10)</f>
         <v>9</v>
       </c>
-      <c r="H10" s="81"/>
+      <c r="H10" s="90"/>
       <c r="I10" s="55"/>
       <c r="K10" s="10" t="s">
         <v>88</v>
@@ -8894,7 +8902,7 @@
         <f>DEC2HEX('ipv4'!L13)</f>
         <v>4</v>
       </c>
-      <c r="M10" s="90"/>
+      <c r="M10" s="99"/>
       <c r="N10" s="55"/>
       <c r="AA10" s="40" t="s">
         <v>83</v>
@@ -8911,7 +8919,7 @@
         <f>DEC2HEX('ipv4'!B11)</f>
         <v>A</v>
       </c>
-      <c r="C11" s="101"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="55"/>
       <c r="F11" s="10" t="s">
         <v>38</v>
@@ -8920,13 +8928,13 @@
         <f>DEC2HEX('ipv4'!G11)</f>
         <v>A</v>
       </c>
-      <c r="H11" s="81"/>
+      <c r="H11" s="90"/>
       <c r="I11" s="55"/>
       <c r="K11" s="9" t="s">
         <v>89</v>
       </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="90"/>
+      <c r="M11" s="99"/>
       <c r="N11" s="4" t="s">
         <v>23</v>
       </c>
@@ -8934,7 +8942,7 @@
         <v>97</v>
       </c>
       <c r="Q11" s="33"/>
-      <c r="R11" s="94" t="s">
+      <c r="R11" s="116" t="s">
         <v>71</v>
       </c>
       <c r="S11" s="4" t="s">
@@ -8949,7 +8957,7 @@
         <f>DEC2HEX('ipv4'!B12)</f>
         <v>B</v>
       </c>
-      <c r="C12" s="101"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="55"/>
       <c r="F12" s="10" t="s">
         <v>38</v>
@@ -8958,7 +8966,7 @@
         <f>DEC2HEX('ipv4'!G12)</f>
         <v>B</v>
       </c>
-      <c r="H12" s="81"/>
+      <c r="H12" s="90"/>
       <c r="I12" s="55"/>
       <c r="K12" s="10" t="s">
         <v>89</v>
@@ -8967,7 +8975,7 @@
         <f>DEC2HEX('ipv4'!L17)</f>
         <v>1</v>
       </c>
-      <c r="M12" s="90"/>
+      <c r="M12" s="99"/>
       <c r="N12" s="55"/>
       <c r="P12" s="54" t="s">
         <v>97</v>
@@ -8976,7 +8984,7 @@
         <f>DEC2HEX('ipv4'!Q18)</f>
         <v>1</v>
       </c>
-      <c r="R12" s="95"/>
+      <c r="R12" s="117"/>
       <c r="S12" s="32" t="s">
         <v>56</v>
       </c>
@@ -8993,7 +9001,7 @@
         <f>DEC2HEX('ipv4'!B13)</f>
         <v>C</v>
       </c>
-      <c r="C13" s="101"/>
+      <c r="C13" s="76"/>
       <c r="D13" s="55"/>
       <c r="F13" s="10" t="s">
         <v>38</v>
@@ -9002,7 +9010,7 @@
         <f>DEC2HEX('ipv4'!G13)</f>
         <v>C</v>
       </c>
-      <c r="H13" s="81"/>
+      <c r="H13" s="90"/>
       <c r="I13" s="55"/>
       <c r="K13" s="10" t="s">
         <v>89</v>
@@ -9011,7 +9019,7 @@
         <f>DEC2HEX('ipv4'!L18)</f>
         <v>2</v>
       </c>
-      <c r="M13" s="90"/>
+      <c r="M13" s="99"/>
       <c r="N13" s="55"/>
       <c r="P13" s="54" t="s">
         <v>97</v>
@@ -9020,7 +9028,7 @@
         <f>DEC2HEX('ipv4'!Q19)</f>
         <v>2</v>
       </c>
-      <c r="R13" s="95"/>
+      <c r="R13" s="117"/>
       <c r="S13" s="32" t="s">
         <v>57</v>
       </c>
@@ -9037,7 +9045,7 @@
         <f>DEC2HEX('ipv4'!B14)</f>
         <v>D</v>
       </c>
-      <c r="C14" s="101"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="55"/>
       <c r="F14" s="10" t="s">
         <v>38</v>
@@ -9046,7 +9054,7 @@
         <f>DEC2HEX('ipv4'!G14)</f>
         <v>D</v>
       </c>
-      <c r="H14" s="81"/>
+      <c r="H14" s="90"/>
       <c r="I14" s="55"/>
       <c r="K14" s="10" t="s">
         <v>89</v>
@@ -9055,7 +9063,7 @@
         <f>DEC2HEX('ipv4'!L19)</f>
         <v>3</v>
       </c>
-      <c r="M14" s="90"/>
+      <c r="M14" s="99"/>
       <c r="N14" s="55"/>
       <c r="P14" s="54" t="s">
         <v>97</v>
@@ -9064,7 +9072,7 @@
         <f>DEC2HEX('ipv4'!Q20)</f>
         <v>3</v>
       </c>
-      <c r="R14" s="95"/>
+      <c r="R14" s="117"/>
       <c r="S14" s="32" t="s">
         <v>58</v>
       </c>
@@ -9081,7 +9089,7 @@
         <f>DEC2HEX('ipv4'!B15)</f>
         <v>E</v>
       </c>
-      <c r="C15" s="101"/>
+      <c r="C15" s="76"/>
       <c r="D15" s="55"/>
       <c r="F15" s="10" t="s">
         <v>38</v>
@@ -9090,7 +9098,7 @@
         <f>DEC2HEX('ipv4'!G15)</f>
         <v>E</v>
       </c>
-      <c r="H15" s="81"/>
+      <c r="H15" s="90"/>
       <c r="I15" s="55"/>
       <c r="K15" s="10" t="s">
         <v>89</v>
@@ -9099,7 +9107,7 @@
         <f>DEC2HEX('ipv4'!L20)</f>
         <v>4</v>
       </c>
-      <c r="M15" s="109"/>
+      <c r="M15" s="106"/>
       <c r="N15" s="55"/>
       <c r="P15" s="54" t="s">
         <v>97</v>
@@ -9108,7 +9116,7 @@
         <f>DEC2HEX('ipv4'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R15" s="95"/>
+      <c r="R15" s="117"/>
       <c r="S15" s="32"/>
       <c r="AA15" s="38"/>
       <c r="AB15" s="38"/>
@@ -9123,7 +9131,7 @@
         <f>DEC2HEX('ipv4'!B16)</f>
         <v>F</v>
       </c>
-      <c r="C16" s="101"/>
+      <c r="C16" s="76"/>
       <c r="D16" s="55"/>
       <c r="F16" s="10" t="s">
         <v>38</v>
@@ -9132,7 +9140,7 @@
         <f>DEC2HEX('ipv4'!G16)</f>
         <v>F</v>
       </c>
-      <c r="H16" s="81"/>
+      <c r="H16" s="90"/>
       <c r="I16" s="55"/>
       <c r="M16" s="29"/>
       <c r="P16" s="54" t="s">
@@ -9142,7 +9150,7 @@
         <f>DEC2HEX('ipv4'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R16" s="95"/>
+      <c r="R16" s="117"/>
       <c r="S16" s="32"/>
       <c r="AA16" s="38"/>
       <c r="AB16" s="38"/>
@@ -9157,7 +9165,7 @@
         <f>DEC2HEX('ipv4'!B17)</f>
         <v>10</v>
       </c>
-      <c r="C17" s="101"/>
+      <c r="C17" s="76"/>
       <c r="D17" s="55"/>
       <c r="F17" s="10" t="s">
         <v>38</v>
@@ -9166,13 +9174,13 @@
         <f>DEC2HEX('ipv4'!G17)</f>
         <v>10</v>
       </c>
-      <c r="H17" s="81"/>
+      <c r="H17" s="90"/>
       <c r="I17" s="55"/>
       <c r="K17" s="9" t="s">
         <v>90</v>
       </c>
       <c r="L17" s="3"/>
-      <c r="M17" s="86" t="s">
+      <c r="M17" s="95" t="s">
         <v>16</v>
       </c>
       <c r="N17" s="4" t="s">
@@ -9185,7 +9193,7 @@
         <f>DEC2HEX('ipv4'!Q23)</f>
         <v>FE</v>
       </c>
-      <c r="R17" s="95"/>
+      <c r="R17" s="117"/>
       <c r="S17" s="32"/>
       <c r="AA17" s="36"/>
       <c r="AB17" s="22"/>
@@ -9200,7 +9208,7 @@
         <f>DEC2HEX('ipv4'!B18)</f>
         <v>11</v>
       </c>
-      <c r="C18" s="101"/>
+      <c r="C18" s="76"/>
       <c r="D18" s="55"/>
       <c r="F18" s="10" t="s">
         <v>38</v>
@@ -9209,7 +9217,7 @@
         <f>DEC2HEX('ipv4'!G18)</f>
         <v>11</v>
       </c>
-      <c r="H18" s="81"/>
+      <c r="H18" s="90"/>
       <c r="I18" s="55"/>
       <c r="K18" s="10" t="s">
         <v>90</v>
@@ -9218,7 +9226,7 @@
         <f>DEC2HEX('ipv4'!L25)</f>
         <v>1</v>
       </c>
-      <c r="M18" s="87"/>
+      <c r="M18" s="96"/>
       <c r="N18" s="55"/>
       <c r="P18" s="54" t="s">
         <v>97</v>
@@ -9227,7 +9235,7 @@
         <f>DEC2HEX('ipv4'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R18" s="95"/>
+      <c r="R18" s="117"/>
       <c r="S18" s="68"/>
       <c r="AA18" s="22"/>
       <c r="AB18" s="22"/>
@@ -9242,7 +9250,7 @@
         <f>DEC2HEX('ipv4'!B19)</f>
         <v>12</v>
       </c>
-      <c r="C19" s="101"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="55"/>
       <c r="F19" s="10" t="s">
         <v>38</v>
@@ -9251,7 +9259,7 @@
         <f>DEC2HEX('ipv4'!G19)</f>
         <v>12</v>
       </c>
-      <c r="H19" s="81"/>
+      <c r="H19" s="90"/>
       <c r="I19" s="55"/>
       <c r="K19" s="10" t="s">
         <v>90</v>
@@ -9260,7 +9268,7 @@
         <f>DEC2HEX('ipv4'!L26)</f>
         <v>2</v>
       </c>
-      <c r="M19" s="87"/>
+      <c r="M19" s="96"/>
       <c r="N19" s="55"/>
       <c r="P19" s="54" t="s">
         <v>97</v>
@@ -9269,7 +9277,7 @@
         <f>DEC2HEX('ipv4'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R19" s="95"/>
+      <c r="R19" s="117"/>
       <c r="S19" s="32" t="s">
         <v>49</v>
       </c>
@@ -9286,7 +9294,7 @@
         <f>DEC2HEX('ipv4'!B20)</f>
         <v>13</v>
       </c>
-      <c r="C20" s="101"/>
+      <c r="C20" s="76"/>
       <c r="D20" s="55"/>
       <c r="F20" s="10" t="s">
         <v>38</v>
@@ -9295,7 +9303,7 @@
         <f>DEC2HEX('ipv4'!G20)</f>
         <v>13</v>
       </c>
-      <c r="H20" s="81"/>
+      <c r="H20" s="90"/>
       <c r="I20" s="55"/>
       <c r="K20" s="10" t="s">
         <v>90</v>
@@ -9304,7 +9312,7 @@
         <f>DEC2HEX('ipv4'!L27)</f>
         <v>3</v>
       </c>
-      <c r="M20" s="87"/>
+      <c r="M20" s="96"/>
       <c r="N20" s="55"/>
       <c r="P20" s="54" t="s">
         <v>97</v>
@@ -9313,7 +9321,7 @@
         <f>DEC2HEX('ipv4'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R20" s="95"/>
+      <c r="R20" s="117"/>
       <c r="S20" s="32" t="s">
         <v>51</v>
       </c>
@@ -9330,7 +9338,7 @@
         <f>DEC2HEX('ipv4'!B21)</f>
         <v>14</v>
       </c>
-      <c r="C21" s="101"/>
+      <c r="C21" s="76"/>
       <c r="D21" s="55"/>
       <c r="F21" s="10" t="s">
         <v>38</v>
@@ -9339,7 +9347,7 @@
         <f>DEC2HEX('ipv4'!G21)</f>
         <v>14</v>
       </c>
-      <c r="H21" s="81"/>
+      <c r="H21" s="90"/>
       <c r="I21" s="55"/>
       <c r="K21" s="10" t="s">
         <v>90</v>
@@ -9348,7 +9356,7 @@
         <f>DEC2HEX('ipv4'!L28)</f>
         <v>4</v>
       </c>
-      <c r="M21" s="87"/>
+      <c r="M21" s="96"/>
       <c r="N21" s="55"/>
       <c r="P21" s="54" t="s">
         <v>97</v>
@@ -9357,7 +9365,7 @@
         <f>DEC2HEX('ipv4'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R21" s="95"/>
+      <c r="R21" s="117"/>
       <c r="S21" s="68"/>
       <c r="AA21" s="22"/>
       <c r="AB21" s="22"/>
@@ -9372,7 +9380,7 @@
         <f>DEC2HEX('ipv4'!B22)</f>
         <v>15</v>
       </c>
-      <c r="C22" s="101"/>
+      <c r="C22" s="76"/>
       <c r="D22" s="55"/>
       <c r="F22" s="10" t="s">
         <v>38</v>
@@ -9381,7 +9389,7 @@
         <f>DEC2HEX('ipv4'!G22)</f>
         <v>15</v>
       </c>
-      <c r="H22" s="81"/>
+      <c r="H22" s="90"/>
       <c r="I22" s="55"/>
       <c r="K22" s="10" t="s">
         <v>90</v>
@@ -9390,7 +9398,7 @@
         <f>DEC2HEX('ipv4'!L29)</f>
         <v>FC</v>
       </c>
-      <c r="M22" s="88"/>
+      <c r="M22" s="97"/>
       <c r="N22" s="55"/>
       <c r="P22" s="54" t="s">
         <v>97</v>
@@ -9399,7 +9407,7 @@
         <f>DEC2HEX('ipv4'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R22" s="95"/>
+      <c r="R22" s="117"/>
       <c r="S22" s="32" t="s">
         <v>50</v>
       </c>
@@ -9415,7 +9423,7 @@
         <f>DEC2HEX('ipv4'!B23)</f>
         <v>16</v>
       </c>
-      <c r="C23" s="101"/>
+      <c r="C23" s="76"/>
       <c r="D23" s="55"/>
       <c r="F23" s="10" t="s">
         <v>38</v>
@@ -9424,7 +9432,7 @@
         <f>DEC2HEX('ipv4'!G23)</f>
         <v>16</v>
       </c>
-      <c r="H23" s="81"/>
+      <c r="H23" s="90"/>
       <c r="I23" s="55"/>
       <c r="M23" s="48"/>
       <c r="P23" s="54" t="s">
@@ -9434,7 +9442,7 @@
         <f>DEC2HEX('ipv4'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R23" s="95"/>
+      <c r="R23" s="117"/>
       <c r="S23" s="64" t="s">
         <v>107</v>
       </c>
@@ -9450,7 +9458,7 @@
         <f>DEC2HEX('ipv4'!B24)</f>
         <v>17</v>
       </c>
-      <c r="C24" s="101"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="55"/>
       <c r="F24" s="10" t="s">
         <v>38</v>
@@ -9459,13 +9467,13 @@
         <f>DEC2HEX('ipv4'!G24)</f>
         <v>17</v>
       </c>
-      <c r="H24" s="81"/>
+      <c r="H24" s="90"/>
       <c r="I24" s="55"/>
       <c r="K24" s="9" t="s">
         <v>91</v>
       </c>
       <c r="L24" s="3"/>
-      <c r="M24" s="110" t="s">
+      <c r="M24" s="107" t="s">
         <v>24</v>
       </c>
       <c r="N24" s="4" t="s">
@@ -9475,7 +9483,7 @@
         <v>98</v>
       </c>
       <c r="Q24" s="33"/>
-      <c r="R24" s="95"/>
+      <c r="R24" s="117"/>
       <c r="S24" s="4" t="s">
         <v>23</v>
       </c>
@@ -9491,7 +9499,7 @@
         <f>DEC2HEX('ipv4'!B25)</f>
         <v>18</v>
       </c>
-      <c r="C25" s="101"/>
+      <c r="C25" s="76"/>
       <c r="D25" s="55"/>
       <c r="F25" s="10" t="s">
         <v>38</v>
@@ -9500,7 +9508,7 @@
         <f>DEC2HEX('ipv4'!G25)</f>
         <v>18</v>
       </c>
-      <c r="H25" s="81"/>
+      <c r="H25" s="90"/>
       <c r="I25" s="55"/>
       <c r="K25" s="10" t="s">
         <v>91</v>
@@ -9509,7 +9517,7 @@
         <f>DEC2HEX('ipv4'!L35)</f>
         <v>1</v>
       </c>
-      <c r="M25" s="111"/>
+      <c r="M25" s="108"/>
       <c r="N25" s="55"/>
       <c r="P25" s="54" t="s">
         <v>98</v>
@@ -9518,7 +9526,7 @@
         <f>DEC2HEX('ipv4'!Q26)</f>
         <v>1</v>
       </c>
-      <c r="R25" s="95"/>
+      <c r="R25" s="117"/>
       <c r="S25" s="32" t="s">
         <v>43</v>
       </c>
@@ -9531,7 +9539,7 @@
         <f>DEC2HEX('ipv4'!B26)</f>
         <v>19</v>
       </c>
-      <c r="C26" s="101"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="55"/>
       <c r="F26" s="10" t="s">
         <v>38</v>
@@ -9540,7 +9548,7 @@
         <f>DEC2HEX('ipv4'!G26)</f>
         <v>19</v>
       </c>
-      <c r="H26" s="81"/>
+      <c r="H26" s="90"/>
       <c r="I26" s="55"/>
       <c r="K26" s="10" t="s">
         <v>91</v>
@@ -9549,7 +9557,7 @@
         <f>DEC2HEX('ipv4'!L36)</f>
         <v>2</v>
       </c>
-      <c r="M26" s="111"/>
+      <c r="M26" s="108"/>
       <c r="N26" s="56"/>
       <c r="P26" s="54" t="s">
         <v>98</v>
@@ -9558,7 +9566,7 @@
         <f>DEC2HEX('ipv4'!Q27)</f>
         <v>2</v>
       </c>
-      <c r="R26" s="95"/>
+      <c r="R26" s="117"/>
       <c r="S26" s="32" t="s">
         <v>52</v>
       </c>
@@ -9571,7 +9579,7 @@
         <f>DEC2HEX('ipv4'!B27)</f>
         <v>1A</v>
       </c>
-      <c r="C27" s="101"/>
+      <c r="C27" s="76"/>
       <c r="D27" s="55"/>
       <c r="F27" s="10" t="s">
         <v>38</v>
@@ -9580,13 +9588,13 @@
         <f>DEC2HEX('ipv4'!G27)</f>
         <v>1A</v>
       </c>
-      <c r="H27" s="81"/>
+      <c r="H27" s="90"/>
       <c r="I27" s="55"/>
       <c r="K27" s="9" t="s">
         <v>92</v>
       </c>
       <c r="L27" s="3"/>
-      <c r="M27" s="111"/>
+      <c r="M27" s="108"/>
       <c r="N27" s="4" t="s">
         <v>23</v>
       </c>
@@ -9597,7 +9605,7 @@
         <f>DEC2HEX('ipv4'!Q28)</f>
         <v>3</v>
       </c>
-      <c r="R27" s="95"/>
+      <c r="R27" s="117"/>
       <c r="S27" s="32"/>
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9608,7 +9616,7 @@
         <f>DEC2HEX('ipv4'!B28)</f>
         <v>1B</v>
       </c>
-      <c r="C28" s="101"/>
+      <c r="C28" s="76"/>
       <c r="D28" s="55"/>
       <c r="F28" s="10" t="s">
         <v>38</v>
@@ -9617,7 +9625,7 @@
         <f>DEC2HEX('ipv4'!G28)</f>
         <v>1B</v>
       </c>
-      <c r="H28" s="81"/>
+      <c r="H28" s="90"/>
       <c r="I28" s="55"/>
       <c r="K28" s="10" t="s">
         <v>92</v>
@@ -9626,13 +9634,13 @@
         <f>DEC2HEX('ipv4'!L40)</f>
         <v>1</v>
       </c>
-      <c r="M28" s="111"/>
+      <c r="M28" s="108"/>
       <c r="N28" s="55"/>
       <c r="P28" s="53" t="s">
         <v>99</v>
       </c>
       <c r="Q28" s="33"/>
-      <c r="R28" s="95"/>
+      <c r="R28" s="117"/>
       <c r="S28" s="4" t="s">
         <v>23</v>
       </c>
@@ -9645,7 +9653,7 @@
         <f>DEC2HEX('ipv4'!B29)</f>
         <v>1C</v>
       </c>
-      <c r="C29" s="101"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="55"/>
       <c r="F29" s="10" t="s">
         <v>38</v>
@@ -9654,7 +9662,7 @@
         <f>DEC2HEX('ipv4'!G29)</f>
         <v>1C</v>
       </c>
-      <c r="H29" s="81"/>
+      <c r="H29" s="90"/>
       <c r="I29" s="55"/>
       <c r="K29" s="10" t="s">
         <v>92</v>
@@ -9663,16 +9671,16 @@
         <f>DEC2HEX('ipv4'!L41)</f>
         <v>2</v>
       </c>
-      <c r="M29" s="111"/>
+      <c r="M29" s="108"/>
       <c r="N29" s="55"/>
       <c r="P29" s="54" t="s">
         <v>99</v>
       </c>
       <c r="Q29" s="32" t="str">
-        <f>DEC2HEX('ipv4'!Q32)</f>
+        <f>DEC2HEX('ipv4'!Q33)</f>
         <v>1</v>
       </c>
-      <c r="R29" s="95"/>
+      <c r="R29" s="117"/>
       <c r="S29" s="32" t="s">
         <v>45</v>
       </c>
@@ -9685,7 +9693,7 @@
         <f>DEC2HEX('ipv4'!B30)</f>
         <v>1D</v>
       </c>
-      <c r="C30" s="101"/>
+      <c r="C30" s="76"/>
       <c r="D30" s="55"/>
       <c r="F30" s="10" t="s">
         <v>38</v>
@@ -9694,13 +9702,13 @@
         <f>DEC2HEX('ipv4'!G30)</f>
         <v>1D</v>
       </c>
-      <c r="H30" s="81"/>
+      <c r="H30" s="90"/>
       <c r="I30" s="55"/>
       <c r="K30" s="49" t="s">
         <v>93</v>
       </c>
       <c r="L30" s="50"/>
-      <c r="M30" s="111"/>
+      <c r="M30" s="108"/>
       <c r="N30" s="51" t="s">
         <v>23</v>
       </c>
@@ -9708,10 +9716,10 @@
         <v>99</v>
       </c>
       <c r="Q30" s="32" t="str">
-        <f>DEC2HEX('ipv4'!Q33)</f>
+        <f>DEC2HEX('ipv4'!Q34)</f>
         <v>2</v>
       </c>
-      <c r="R30" s="95"/>
+      <c r="R30" s="117"/>
       <c r="S30" s="32" t="s">
         <v>47</v>
       </c>
@@ -9724,7 +9732,7 @@
         <f>DEC2HEX('ipv4'!B31)</f>
         <v>1E</v>
       </c>
-      <c r="C31" s="101"/>
+      <c r="C31" s="76"/>
       <c r="D31" s="55"/>
       <c r="F31" s="10" t="s">
         <v>38</v>
@@ -9733,7 +9741,7 @@
         <f>DEC2HEX('ipv4'!G31)</f>
         <v>1E</v>
       </c>
-      <c r="H31" s="81"/>
+      <c r="H31" s="90"/>
       <c r="I31" s="55"/>
       <c r="K31" s="10" t="s">
         <v>93</v>
@@ -9742,16 +9750,16 @@
         <f>DEC2HEX('ipv4'!L45)</f>
         <v>1</v>
       </c>
-      <c r="M31" s="111"/>
+      <c r="M31" s="108"/>
       <c r="N31" s="55"/>
       <c r="P31" s="54" t="s">
         <v>99</v>
       </c>
       <c r="Q31" s="32" t="str">
-        <f>DEC2HEX('ipv4'!Q39)</f>
+        <f>DEC2HEX('ipv4'!Q40)</f>
         <v>8</v>
       </c>
-      <c r="R31" s="95"/>
+      <c r="R31" s="117"/>
       <c r="S31" s="68"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
@@ -9762,7 +9770,7 @@
         <f>DEC2HEX('ipv4'!B32)</f>
         <v>1F</v>
       </c>
-      <c r="C32" s="101"/>
+      <c r="C32" s="76"/>
       <c r="D32" s="55"/>
       <c r="F32" s="7" t="s">
         <v>38</v>
@@ -9771,7 +9779,7 @@
         <f>DEC2HEX('ipv4'!G32)</f>
         <v>FE</v>
       </c>
-      <c r="H32" s="82"/>
+      <c r="H32" s="91"/>
       <c r="I32" s="7"/>
       <c r="K32" s="10" t="s">
         <v>93</v>
@@ -9780,16 +9788,16 @@
         <f>DEC2HEX('ipv4'!L46)</f>
         <v>2</v>
       </c>
-      <c r="M32" s="112"/>
+      <c r="M32" s="109"/>
       <c r="N32" s="55"/>
       <c r="P32" s="54" t="s">
         <v>99</v>
       </c>
       <c r="Q32" s="54" t="str">
-        <f>DEC2HEX('ipv4'!Q40)</f>
+        <f>DEC2HEX('ipv4'!Q41)</f>
         <v>9</v>
       </c>
-      <c r="R32" s="95"/>
+      <c r="R32" s="117"/>
       <c r="S32" s="32" t="s">
         <v>46</v>
       </c>
@@ -9802,7 +9810,7 @@
         <f>DEC2HEX('ipv4'!B33)</f>
         <v>20</v>
       </c>
-      <c r="C33" s="101"/>
+      <c r="C33" s="76"/>
       <c r="D33" s="55"/>
       <c r="K33" s="46"/>
       <c r="L33" s="47"/>
@@ -9812,10 +9820,10 @@
         <v>99</v>
       </c>
       <c r="Q33" s="54" t="str">
-        <f>DEC2HEX('ipv4'!Q41)</f>
+        <f>DEC2HEX('ipv4'!Q42)</f>
         <v>A</v>
       </c>
-      <c r="R33" s="95"/>
+      <c r="R33" s="117"/>
       <c r="S33" s="32" t="s">
         <v>48</v>
       </c>
@@ -9828,13 +9836,13 @@
         <f>DEC2HEX('ipv4'!B34)</f>
         <v>21</v>
       </c>
-      <c r="C34" s="101"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="55"/>
       <c r="F34" s="9" t="s">
         <v>84</v>
       </c>
       <c r="G34" s="3"/>
-      <c r="H34" s="116" t="s">
+      <c r="H34" s="113" t="s">
         <v>15</v>
       </c>
       <c r="I34" s="4" t="s">
@@ -9844,10 +9852,10 @@
         <v>99</v>
       </c>
       <c r="Q34" s="32" t="str">
-        <f>DEC2HEX('ipv4'!Q47)</f>
+        <f>DEC2HEX('ipv4'!Q48)</f>
         <v>10</v>
       </c>
-      <c r="R34" s="95"/>
+      <c r="R34" s="117"/>
       <c r="S34" s="68"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -9858,7 +9866,7 @@
         <f>DEC2HEX('ipv4'!B35)</f>
         <v>22</v>
       </c>
-      <c r="C35" s="101"/>
+      <c r="C35" s="76"/>
       <c r="D35" s="55"/>
       <c r="F35" s="10" t="s">
         <v>84</v>
@@ -9867,16 +9875,16 @@
         <f>DEC2HEX('ipv4'!G36)</f>
         <v>1</v>
       </c>
-      <c r="H35" s="117"/>
+      <c r="H35" s="114"/>
       <c r="I35" s="55"/>
       <c r="P35" s="54" t="s">
         <v>99</v>
       </c>
       <c r="Q35" s="54" t="str">
-        <f>DEC2HEX('ipv4'!Q48)</f>
+        <f>DEC2HEX('ipv4'!Q49)</f>
         <v>11</v>
       </c>
-      <c r="R35" s="95"/>
+      <c r="R35" s="117"/>
       <c r="S35" s="32" t="s">
         <v>55</v>
       </c>
@@ -9889,7 +9897,7 @@
         <f>DEC2HEX('ipv4'!B36)</f>
         <v>23</v>
       </c>
-      <c r="C36" s="101"/>
+      <c r="C36" s="76"/>
       <c r="D36" s="55"/>
       <c r="F36" s="10" t="s">
         <v>84</v>
@@ -9898,16 +9906,16 @@
         <f>DEC2HEX('ipv4'!G37)</f>
         <v>2</v>
       </c>
-      <c r="H36" s="117"/>
+      <c r="H36" s="114"/>
       <c r="I36" s="55"/>
       <c r="P36" s="54" t="s">
         <v>99</v>
       </c>
       <c r="Q36" s="54" t="str">
-        <f>DEC2HEX('ipv4'!Q49)</f>
+        <f>DEC2HEX('ipv4'!Q50)</f>
         <v>12</v>
       </c>
-      <c r="R36" s="95"/>
+      <c r="R36" s="117"/>
       <c r="S36" s="32" t="s">
         <v>54</v>
       </c>
@@ -9920,7 +9928,7 @@
         <f>DEC2HEX('ipv4'!B37)</f>
         <v>24</v>
       </c>
-      <c r="C37" s="101"/>
+      <c r="C37" s="76"/>
       <c r="D37" s="55"/>
       <c r="F37" s="10" t="s">
         <v>84</v>
@@ -9929,13 +9937,13 @@
         <f>DEC2HEX('ipv4'!G38)</f>
         <v>3</v>
       </c>
-      <c r="H37" s="117"/>
+      <c r="H37" s="114"/>
       <c r="I37" s="55"/>
       <c r="P37" s="53" t="s">
         <v>100</v>
       </c>
       <c r="Q37" s="33"/>
-      <c r="R37" s="95"/>
+      <c r="R37" s="117"/>
       <c r="S37" s="4" t="s">
         <v>23</v>
       </c>
@@ -9948,7 +9956,7 @@
         <f>DEC2HEX('ipv4'!B38)</f>
         <v>25</v>
       </c>
-      <c r="C38" s="101"/>
+      <c r="C38" s="76"/>
       <c r="D38" s="55"/>
       <c r="F38" s="10" t="s">
         <v>84</v>
@@ -9957,16 +9965,16 @@
         <f>DEC2HEX('ipv4'!G39)</f>
         <v>4</v>
       </c>
-      <c r="H38" s="117"/>
+      <c r="H38" s="114"/>
       <c r="I38" s="55"/>
       <c r="P38" s="54" t="s">
         <v>100</v>
       </c>
       <c r="Q38" s="32" t="str">
-        <f>DEC2HEX('ipv4'!Q56)</f>
+        <f>DEC2HEX('ipv4'!Q57)</f>
         <v>1</v>
       </c>
-      <c r="R38" s="95"/>
+      <c r="R38" s="117"/>
       <c r="S38" s="32" t="s">
         <v>44</v>
       </c>
@@ -9979,7 +9987,7 @@
         <f>DEC2HEX('ipv4'!B39)</f>
         <v>26</v>
       </c>
-      <c r="C39" s="101"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="55"/>
       <c r="F39" s="10" t="s">
         <v>84</v>
@@ -9988,16 +9996,16 @@
         <f>DEC2HEX('ipv4'!G40)</f>
         <v>5</v>
       </c>
-      <c r="H39" s="117"/>
+      <c r="H39" s="114"/>
       <c r="I39" s="55"/>
       <c r="P39" s="54" t="s">
         <v>100</v>
       </c>
       <c r="Q39" s="32" t="str">
-        <f>DEC2HEX('ipv4'!Q57)</f>
+        <f>DEC2HEX('ipv4'!Q58)</f>
         <v>2</v>
       </c>
-      <c r="R39" s="95"/>
+      <c r="R39" s="117"/>
       <c r="S39" s="32" t="s">
         <v>53</v>
       </c>
@@ -10010,7 +10018,7 @@
         <f>DEC2HEX('ipv4'!B40)</f>
         <v>27</v>
       </c>
-      <c r="C40" s="101"/>
+      <c r="C40" s="76"/>
       <c r="D40" s="55"/>
       <c r="F40" s="10" t="s">
         <v>84</v>
@@ -10019,16 +10027,16 @@
         <f>DEC2HEX('ipv4'!G41)</f>
         <v>6</v>
       </c>
-      <c r="H40" s="117"/>
+      <c r="H40" s="114"/>
       <c r="I40" s="55"/>
       <c r="P40" s="54" t="s">
         <v>100</v>
       </c>
       <c r="Q40" s="32" t="str">
-        <f>DEC2HEX('ipv4'!Q58)</f>
+        <f>DEC2HEX('ipv4'!Q59)</f>
         <v>3</v>
       </c>
-      <c r="R40" s="96"/>
+      <c r="R40" s="118"/>
       <c r="S40" s="32"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
@@ -10039,7 +10047,7 @@
         <f>DEC2HEX('ipv4'!B41)</f>
         <v>28</v>
       </c>
-      <c r="C41" s="101"/>
+      <c r="C41" s="76"/>
       <c r="D41" s="55"/>
       <c r="F41" s="10" t="s">
         <v>84</v>
@@ -10048,7 +10056,7 @@
         <f>DEC2HEX('ipv4'!G42)</f>
         <v>7</v>
       </c>
-      <c r="H41" s="117"/>
+      <c r="H41" s="114"/>
       <c r="I41" s="55"/>
     </row>
     <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10059,7 +10067,7 @@
         <f>DEC2HEX('ipv4'!B42)</f>
         <v>29</v>
       </c>
-      <c r="C42" s="101"/>
+      <c r="C42" s="76"/>
       <c r="D42" s="55"/>
       <c r="F42" s="10" t="s">
         <v>84</v>
@@ -10068,13 +10076,13 @@
         <f>DEC2HEX('ipv4'!G43)</f>
         <v>8</v>
       </c>
-      <c r="H42" s="117"/>
+      <c r="H42" s="114"/>
       <c r="I42" s="55"/>
       <c r="P42" s="33" t="s">
         <v>116</v>
       </c>
       <c r="Q42" s="33"/>
-      <c r="R42" s="103" t="s">
+      <c r="R42" s="78" t="s">
         <v>112</v>
       </c>
       <c r="S42" s="4" t="s">
@@ -10089,7 +10097,7 @@
         <f>DEC2HEX('ipv4'!B43)</f>
         <v>2A</v>
       </c>
-      <c r="C43" s="101"/>
+      <c r="C43" s="76"/>
       <c r="D43" s="55"/>
       <c r="F43" s="10" t="s">
         <v>84</v>
@@ -10098,16 +10106,16 @@
         <f>DEC2HEX('ipv4'!G44)</f>
         <v>9</v>
       </c>
-      <c r="H43" s="117"/>
+      <c r="H43" s="114"/>
       <c r="I43" s="55"/>
       <c r="P43" s="54" t="s">
         <v>116</v>
       </c>
       <c r="Q43" s="32" t="str">
-        <f>DEC2HEX('ipv4'!Q63)</f>
+        <f>DEC2HEX('ipv4'!Q64)</f>
         <v>1</v>
       </c>
-      <c r="R43" s="104"/>
+      <c r="R43" s="79"/>
       <c r="S43" s="32" t="s">
         <v>103</v>
       </c>
@@ -10120,7 +10128,7 @@
         <f>DEC2HEX('ipv4'!B44)</f>
         <v>2B</v>
       </c>
-      <c r="C44" s="101"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="55"/>
       <c r="F44" s="10" t="s">
         <v>84</v>
@@ -10129,16 +10137,16 @@
         <f>DEC2HEX('ipv4'!G45)</f>
         <v>FC</v>
       </c>
-      <c r="H44" s="118"/>
+      <c r="H44" s="115"/>
       <c r="I44" s="55"/>
       <c r="P44" s="54" t="s">
         <v>116</v>
       </c>
       <c r="Q44" s="32" t="str">
-        <f>DEC2HEX('ipv4'!Q64)</f>
+        <f>DEC2HEX('ipv4'!Q65)</f>
         <v>2</v>
       </c>
-      <c r="R44" s="105"/>
+      <c r="R44" s="80"/>
       <c r="S44" s="32" t="s">
         <v>102</v>
       </c>
@@ -10151,7 +10159,7 @@
         <f>DEC2HEX('ipv4'!B45)</f>
         <v>2C</v>
       </c>
-      <c r="C45" s="101"/>
+      <c r="C45" s="76"/>
       <c r="D45" s="55"/>
     </row>
     <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10162,7 +10170,7 @@
         <f>DEC2HEX('ipv4'!B46)</f>
         <v>2D</v>
       </c>
-      <c r="C46" s="101"/>
+      <c r="C46" s="76"/>
       <c r="D46" s="55"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
@@ -10173,7 +10181,7 @@
         <f>DEC2HEX('ipv4'!B47)</f>
         <v>2E</v>
       </c>
-      <c r="C47" s="101"/>
+      <c r="C47" s="76"/>
       <c r="D47" s="55"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -10184,7 +10192,7 @@
         <f>DEC2HEX('ipv4'!B48)</f>
         <v>2F</v>
       </c>
-      <c r="C48" s="101"/>
+      <c r="C48" s="76"/>
       <c r="D48" s="55"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -10195,7 +10203,7 @@
         <f>DEC2HEX('ipv4'!B49)</f>
         <v>30</v>
       </c>
-      <c r="C49" s="101"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="55"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -10206,7 +10214,7 @@
         <f>DEC2HEX('ipv4'!B50)</f>
         <v>31</v>
       </c>
-      <c r="C50" s="101"/>
+      <c r="C50" s="76"/>
       <c r="D50" s="55"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -10217,7 +10225,7 @@
         <f>DEC2HEX('ipv4'!B51)</f>
         <v>32</v>
       </c>
-      <c r="C51" s="101"/>
+      <c r="C51" s="76"/>
       <c r="D51" s="55"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -10228,7 +10236,7 @@
         <f>DEC2HEX('ipv4'!B52)</f>
         <v>FE</v>
       </c>
-      <c r="C52" s="101"/>
+      <c r="C52" s="76"/>
       <c r="D52" s="7"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -10236,7 +10244,7 @@
         <v>36</v>
       </c>
       <c r="B53" s="3"/>
-      <c r="C53" s="101"/>
+      <c r="C53" s="76"/>
       <c r="D53" s="4" t="s">
         <v>23</v>
       </c>
@@ -10249,7 +10257,7 @@
         <f>DEC2HEX('ipv4'!B55)</f>
         <v>1</v>
       </c>
-      <c r="C54" s="101"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="55"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -10260,7 +10268,7 @@
         <f>DEC2HEX('ipv4'!B56)</f>
         <v>2</v>
       </c>
-      <c r="C55" s="101"/>
+      <c r="C55" s="76"/>
       <c r="D55" s="55"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -10271,7 +10279,7 @@
         <f>DEC2HEX('ipv4'!B57)</f>
         <v>3</v>
       </c>
-      <c r="C56" s="101"/>
+      <c r="C56" s="76"/>
       <c r="D56" s="55"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -10282,7 +10290,7 @@
         <f>DEC2HEX('ipv4'!B58)</f>
         <v>4</v>
       </c>
-      <c r="C57" s="101"/>
+      <c r="C57" s="76"/>
       <c r="D57" s="55"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -10293,7 +10301,7 @@
         <f>DEC2HEX('ipv4'!B59)</f>
         <v>5</v>
       </c>
-      <c r="C58" s="101"/>
+      <c r="C58" s="76"/>
       <c r="D58" s="55"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -10304,7 +10312,7 @@
         <f>DEC2HEX('ipv4'!B60)</f>
         <v>6</v>
       </c>
-      <c r="C59" s="101"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="55"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -10315,7 +10323,7 @@
         <f>DEC2HEX('ipv4'!B61)</f>
         <v>7</v>
       </c>
-      <c r="C60" s="101"/>
+      <c r="C60" s="76"/>
       <c r="D60" s="55"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -10326,7 +10334,7 @@
         <f>DEC2HEX('ipv4'!B62)</f>
         <v>8</v>
       </c>
-      <c r="C61" s="101"/>
+      <c r="C61" s="76"/>
       <c r="D61" s="55"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -10337,7 +10345,7 @@
         <f>DEC2HEX('ipv4'!B63)</f>
         <v>9</v>
       </c>
-      <c r="C62" s="101"/>
+      <c r="C62" s="76"/>
       <c r="D62" s="55"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -10348,7 +10356,7 @@
         <f>DEC2HEX('ipv4'!B64)</f>
         <v>A</v>
       </c>
-      <c r="C63" s="101"/>
+      <c r="C63" s="76"/>
       <c r="D63" s="55"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -10359,7 +10367,7 @@
         <f>DEC2HEX('ipv4'!B65)</f>
         <v>B</v>
       </c>
-      <c r="C64" s="101"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="55"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -10370,7 +10378,7 @@
         <f>DEC2HEX('ipv4'!B66)</f>
         <v>C</v>
       </c>
-      <c r="C65" s="101"/>
+      <c r="C65" s="76"/>
       <c r="D65" s="55"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -10381,7 +10389,7 @@
         <f>DEC2HEX('ipv4'!B67)</f>
         <v>D</v>
       </c>
-      <c r="C66" s="101"/>
+      <c r="C66" s="76"/>
       <c r="D66" s="55"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -10392,7 +10400,7 @@
         <f>DEC2HEX('ipv4'!B68)</f>
         <v>E</v>
       </c>
-      <c r="C67" s="101"/>
+      <c r="C67" s="76"/>
       <c r="D67" s="55"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -10403,7 +10411,7 @@
         <f>DEC2HEX('ipv4'!B69)</f>
         <v>F</v>
       </c>
-      <c r="C68" s="101"/>
+      <c r="C68" s="76"/>
       <c r="D68" s="55"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -10414,7 +10422,7 @@
         <f>DEC2HEX('ipv4'!B70)</f>
         <v>10</v>
       </c>
-      <c r="C69" s="101"/>
+      <c r="C69" s="76"/>
       <c r="D69" s="55"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -10425,7 +10433,7 @@
         <f>DEC2HEX('ipv4'!B71)</f>
         <v>11</v>
       </c>
-      <c r="C70" s="101"/>
+      <c r="C70" s="76"/>
       <c r="D70" s="55"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -10436,7 +10444,7 @@
         <f>DEC2HEX('ipv4'!B72)</f>
         <v>12</v>
       </c>
-      <c r="C71" s="101"/>
+      <c r="C71" s="76"/>
       <c r="D71" s="55"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -10447,7 +10455,7 @@
         <f>DEC2HEX('ipv4'!B73)</f>
         <v>13</v>
       </c>
-      <c r="C72" s="101"/>
+      <c r="C72" s="76"/>
       <c r="D72" s="55"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -10458,7 +10466,7 @@
         <f>DEC2HEX('ipv4'!B74)</f>
         <v>14</v>
       </c>
-      <c r="C73" s="101"/>
+      <c r="C73" s="76"/>
       <c r="D73" s="55"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -10469,7 +10477,7 @@
         <f>DEC2HEX('ipv4'!B75)</f>
         <v>15</v>
       </c>
-      <c r="C74" s="101"/>
+      <c r="C74" s="76"/>
       <c r="D74" s="55"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -10480,7 +10488,7 @@
         <f>DEC2HEX('ipv4'!B76)</f>
         <v>16</v>
       </c>
-      <c r="C75" s="101"/>
+      <c r="C75" s="76"/>
       <c r="D75" s="55"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -10491,7 +10499,7 @@
         <f>DEC2HEX('ipv4'!B77)</f>
         <v>17</v>
       </c>
-      <c r="C76" s="101"/>
+      <c r="C76" s="76"/>
       <c r="D76" s="55"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -10502,7 +10510,7 @@
         <f>DEC2HEX('ipv4'!B78)</f>
         <v>18</v>
       </c>
-      <c r="C77" s="101"/>
+      <c r="C77" s="76"/>
       <c r="D77" s="55"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -10513,7 +10521,7 @@
         <f>DEC2HEX('ipv4'!B79)</f>
         <v>19</v>
       </c>
-      <c r="C78" s="101"/>
+      <c r="C78" s="76"/>
       <c r="D78" s="55"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -10524,7 +10532,7 @@
         <f>DEC2HEX('ipv4'!B80)</f>
         <v>1A</v>
       </c>
-      <c r="C79" s="101"/>
+      <c r="C79" s="76"/>
       <c r="D79" s="55"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -10535,7 +10543,7 @@
         <f>DEC2HEX('ipv4'!B81)</f>
         <v>1B</v>
       </c>
-      <c r="C80" s="101"/>
+      <c r="C80" s="76"/>
       <c r="D80" s="55"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -10546,7 +10554,7 @@
         <f>DEC2HEX('ipv4'!B82)</f>
         <v>1C</v>
       </c>
-      <c r="C81" s="101"/>
+      <c r="C81" s="76"/>
       <c r="D81" s="55"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -10557,7 +10565,7 @@
         <f>DEC2HEX('ipv4'!B83)</f>
         <v>1D</v>
       </c>
-      <c r="C82" s="101"/>
+      <c r="C82" s="76"/>
       <c r="D82" s="55"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -10568,7 +10576,7 @@
         <f>DEC2HEX('ipv4'!B84)</f>
         <v>1E</v>
       </c>
-      <c r="C83" s="101"/>
+      <c r="C83" s="76"/>
       <c r="D83" s="55"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -10579,7 +10587,7 @@
         <f>DEC2HEX('ipv4'!B85)</f>
         <v>1F</v>
       </c>
-      <c r="C84" s="101"/>
+      <c r="C84" s="76"/>
       <c r="D84" s="55"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -10590,7 +10598,7 @@
         <f>DEC2HEX('ipv4'!B86)</f>
         <v>20</v>
       </c>
-      <c r="C85" s="101"/>
+      <c r="C85" s="76"/>
       <c r="D85" s="55"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -10601,7 +10609,7 @@
         <f>DEC2HEX('ipv4'!B87)</f>
         <v>21</v>
       </c>
-      <c r="C86" s="101"/>
+      <c r="C86" s="76"/>
       <c r="D86" s="55"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -10612,7 +10620,7 @@
         <f>DEC2HEX('ipv4'!B88)</f>
         <v>22</v>
       </c>
-      <c r="C87" s="101"/>
+      <c r="C87" s="76"/>
       <c r="D87" s="55"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -10623,7 +10631,7 @@
         <f>DEC2HEX('ipv4'!B89)</f>
         <v>23</v>
       </c>
-      <c r="C88" s="101"/>
+      <c r="C88" s="76"/>
       <c r="D88" s="55"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -10634,7 +10642,7 @@
         <f>DEC2HEX('ipv4'!B90)</f>
         <v>24</v>
       </c>
-      <c r="C89" s="101"/>
+      <c r="C89" s="76"/>
       <c r="D89" s="55"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -10645,7 +10653,7 @@
         <f>DEC2HEX('ipv4'!B91)</f>
         <v>25</v>
       </c>
-      <c r="C90" s="101"/>
+      <c r="C90" s="76"/>
       <c r="D90" s="55"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -10656,7 +10664,7 @@
         <f>DEC2HEX('ipv4'!B92)</f>
         <v>26</v>
       </c>
-      <c r="C91" s="101"/>
+      <c r="C91" s="76"/>
       <c r="D91" s="55"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -10667,7 +10675,7 @@
         <f>DEC2HEX('ipv4'!B93)</f>
         <v>27</v>
       </c>
-      <c r="C92" s="101"/>
+      <c r="C92" s="76"/>
       <c r="D92" s="55"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -10678,7 +10686,7 @@
         <f>DEC2HEX('ipv4'!B94)</f>
         <v>28</v>
       </c>
-      <c r="C93" s="101"/>
+      <c r="C93" s="76"/>
       <c r="D93" s="55"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -10689,7 +10697,7 @@
         <f>DEC2HEX('ipv4'!B95)</f>
         <v>7E</v>
       </c>
-      <c r="C94" s="101"/>
+      <c r="C94" s="76"/>
       <c r="D94" s="7"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -10700,7 +10708,7 @@
         <f>DEC2HEX('ipv4'!B97)</f>
         <v>80</v>
       </c>
-      <c r="C95" s="101"/>
+      <c r="C95" s="76"/>
       <c r="D95" s="4" t="s">
         <v>23</v>
       </c>
@@ -10713,7 +10721,7 @@
         <f>DEC2HEX('ipv4'!B98)</f>
         <v>81</v>
       </c>
-      <c r="C96" s="101"/>
+      <c r="C96" s="76"/>
       <c r="D96" s="55"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -10724,7 +10732,7 @@
         <f>DEC2HEX('ipv4'!B99)</f>
         <v>82</v>
       </c>
-      <c r="C97" s="101"/>
+      <c r="C97" s="76"/>
       <c r="D97" s="55"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -10735,7 +10743,7 @@
         <f>DEC2HEX('ipv4'!B100)</f>
         <v>83</v>
       </c>
-      <c r="C98" s="101"/>
+      <c r="C98" s="76"/>
       <c r="D98" s="55"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -10746,7 +10754,7 @@
         <f>DEC2HEX('ipv4'!B101)</f>
         <v>84</v>
       </c>
-      <c r="C99" s="101"/>
+      <c r="C99" s="76"/>
       <c r="D99" s="55"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -10757,7 +10765,7 @@
         <f>DEC2HEX('ipv4'!B102)</f>
         <v>85</v>
       </c>
-      <c r="C100" s="101"/>
+      <c r="C100" s="76"/>
       <c r="D100" s="55"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -10768,7 +10776,7 @@
         <f>DEC2HEX('ipv4'!B103)</f>
         <v>86</v>
       </c>
-      <c r="C101" s="101"/>
+      <c r="C101" s="76"/>
       <c r="D101" s="55"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -10779,7 +10787,7 @@
         <f>DEC2HEX('ipv4'!B104)</f>
         <v>87</v>
       </c>
-      <c r="C102" s="101"/>
+      <c r="C102" s="76"/>
       <c r="D102" s="55"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -10790,7 +10798,7 @@
         <f>DEC2HEX('ipv4'!B105)</f>
         <v>88</v>
       </c>
-      <c r="C103" s="101"/>
+      <c r="C103" s="76"/>
       <c r="D103" s="55"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -10801,7 +10809,7 @@
         <f>DEC2HEX('ipv4'!B106)</f>
         <v>89</v>
       </c>
-      <c r="C104" s="101"/>
+      <c r="C104" s="76"/>
       <c r="D104" s="55"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -10812,7 +10820,7 @@
         <f>DEC2HEX('ipv4'!B107)</f>
         <v>8A</v>
       </c>
-      <c r="C105" s="101"/>
+      <c r="C105" s="76"/>
       <c r="D105" s="55"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -10823,7 +10831,7 @@
         <f>DEC2HEX('ipv4'!B108)</f>
         <v>8B</v>
       </c>
-      <c r="C106" s="101"/>
+      <c r="C106" s="76"/>
       <c r="D106" s="55"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -10834,7 +10842,7 @@
         <f>DEC2HEX('ipv4'!B109)</f>
         <v>8C</v>
       </c>
-      <c r="C107" s="101"/>
+      <c r="C107" s="76"/>
       <c r="D107" s="55"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -10845,7 +10853,7 @@
         <f>DEC2HEX('ipv4'!B110)</f>
         <v>8D</v>
       </c>
-      <c r="C108" s="101"/>
+      <c r="C108" s="76"/>
       <c r="D108" s="55"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -10856,7 +10864,7 @@
         <f>DEC2HEX('ipv4'!B111)</f>
         <v>8E</v>
       </c>
-      <c r="C109" s="101"/>
+      <c r="C109" s="76"/>
       <c r="D109" s="55"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -10867,7 +10875,7 @@
         <f>DEC2HEX('ipv4'!B112)</f>
         <v>8F</v>
       </c>
-      <c r="C110" s="101"/>
+      <c r="C110" s="76"/>
       <c r="D110" s="55"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -10878,7 +10886,7 @@
         <f>DEC2HEX('ipv4'!B113)</f>
         <v>90</v>
       </c>
-      <c r="C111" s="101"/>
+      <c r="C111" s="76"/>
       <c r="D111" s="55"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -10889,7 +10897,7 @@
         <f>DEC2HEX('ipv4'!B114)</f>
         <v>91</v>
       </c>
-      <c r="C112" s="101"/>
+      <c r="C112" s="76"/>
       <c r="D112" s="55"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -10900,7 +10908,7 @@
         <f>DEC2HEX('ipv4'!B115)</f>
         <v>92</v>
       </c>
-      <c r="C113" s="101"/>
+      <c r="C113" s="76"/>
       <c r="D113" s="55"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -10911,7 +10919,7 @@
         <f>DEC2HEX('ipv4'!B116)</f>
         <v>93</v>
       </c>
-      <c r="C114" s="101"/>
+      <c r="C114" s="76"/>
       <c r="D114" s="55"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -10922,7 +10930,7 @@
         <f>DEC2HEX('ipv4'!B117)</f>
         <v>94</v>
       </c>
-      <c r="C115" s="101"/>
+      <c r="C115" s="76"/>
       <c r="D115" s="55"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -10933,7 +10941,7 @@
         <f>DEC2HEX('ipv4'!B118)</f>
         <v>95</v>
       </c>
-      <c r="C116" s="101"/>
+      <c r="C116" s="76"/>
       <c r="D116" s="55"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -10944,7 +10952,7 @@
         <f>DEC2HEX('ipv4'!B119)</f>
         <v>96</v>
       </c>
-      <c r="C117" s="101"/>
+      <c r="C117" s="76"/>
       <c r="D117" s="55"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -10955,7 +10963,7 @@
         <f>DEC2HEX('ipv4'!B120)</f>
         <v>97</v>
       </c>
-      <c r="C118" s="101"/>
+      <c r="C118" s="76"/>
       <c r="D118" s="55"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -10966,7 +10974,7 @@
         <f>DEC2HEX('ipv4'!B121)</f>
         <v>98</v>
       </c>
-      <c r="C119" s="101"/>
+      <c r="C119" s="76"/>
       <c r="D119" s="55"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -10977,7 +10985,7 @@
         <f>DEC2HEX('ipv4'!B122)</f>
         <v>99</v>
       </c>
-      <c r="C120" s="101"/>
+      <c r="C120" s="76"/>
       <c r="D120" s="55"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -10988,7 +10996,7 @@
         <f>DEC2HEX('ipv4'!B123)</f>
         <v>9A</v>
       </c>
-      <c r="C121" s="101"/>
+      <c r="C121" s="76"/>
       <c r="D121" s="55"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -10999,7 +11007,7 @@
         <f>DEC2HEX('ipv4'!B124)</f>
         <v>9B</v>
       </c>
-      <c r="C122" s="101"/>
+      <c r="C122" s="76"/>
       <c r="D122" s="55"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -11010,7 +11018,7 @@
         <f>DEC2HEX('ipv4'!B125)</f>
         <v>9C</v>
       </c>
-      <c r="C123" s="101"/>
+      <c r="C123" s="76"/>
       <c r="D123" s="55"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -11021,7 +11029,7 @@
         <f>DEC2HEX('ipv4'!B126)</f>
         <v>9D</v>
       </c>
-      <c r="C124" s="101"/>
+      <c r="C124" s="76"/>
       <c r="D124" s="55"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -11032,7 +11040,7 @@
         <f>DEC2HEX('ipv4'!B127)</f>
         <v>9E</v>
       </c>
-      <c r="C125" s="101"/>
+      <c r="C125" s="76"/>
       <c r="D125" s="55"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -11043,7 +11051,7 @@
         <f>DEC2HEX('ipv4'!B128)</f>
         <v>9F</v>
       </c>
-      <c r="C126" s="101"/>
+      <c r="C126" s="76"/>
       <c r="D126" s="55"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -11054,7 +11062,7 @@
         <f>DEC2HEX('ipv4'!B129)</f>
         <v>A0</v>
       </c>
-      <c r="C127" s="101"/>
+      <c r="C127" s="76"/>
       <c r="D127" s="55"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -11065,7 +11073,7 @@
         <f>DEC2HEX('ipv4'!B130)</f>
         <v>A1</v>
       </c>
-      <c r="C128" s="101"/>
+      <c r="C128" s="76"/>
       <c r="D128" s="55"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -11076,7 +11084,7 @@
         <f>DEC2HEX('ipv4'!B131)</f>
         <v>A2</v>
       </c>
-      <c r="C129" s="101"/>
+      <c r="C129" s="76"/>
       <c r="D129" s="55"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -11087,7 +11095,7 @@
         <f>DEC2HEX('ipv4'!B132)</f>
         <v>A3</v>
       </c>
-      <c r="C130" s="101"/>
+      <c r="C130" s="76"/>
       <c r="D130" s="55"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -11098,7 +11106,7 @@
         <f>DEC2HEX('ipv4'!B133)</f>
         <v>A4</v>
       </c>
-      <c r="C131" s="101"/>
+      <c r="C131" s="76"/>
       <c r="D131" s="55"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -11109,7 +11117,7 @@
         <f>DEC2HEX('ipv4'!B134)</f>
         <v>A5</v>
       </c>
-      <c r="C132" s="101"/>
+      <c r="C132" s="76"/>
       <c r="D132" s="55"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -11120,7 +11128,7 @@
         <f>DEC2HEX('ipv4'!B135)</f>
         <v>A6</v>
       </c>
-      <c r="C133" s="101"/>
+      <c r="C133" s="76"/>
       <c r="D133" s="55"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -11131,7 +11139,7 @@
         <f>DEC2HEX('ipv4'!B136)</f>
         <v>A7</v>
       </c>
-      <c r="C134" s="101"/>
+      <c r="C134" s="76"/>
       <c r="D134" s="55"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -11142,7 +11150,7 @@
         <f>DEC2HEX('ipv4'!B137)</f>
         <v>A8</v>
       </c>
-      <c r="C135" s="101"/>
+      <c r="C135" s="76"/>
       <c r="D135" s="55"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -11153,7 +11161,7 @@
         <f>DEC2HEX('ipv4'!B138)</f>
         <v>FE</v>
       </c>
-      <c r="C136" s="101"/>
+      <c r="C136" s="76"/>
       <c r="D136" s="7"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -11161,7 +11169,7 @@
         <v>37</v>
       </c>
       <c r="B137" s="3"/>
-      <c r="C137" s="101"/>
+      <c r="C137" s="76"/>
       <c r="D137" s="4" t="s">
         <v>23</v>
       </c>
@@ -11174,7 +11182,7 @@
         <f>DEC2HEX('ipv4'!B141)</f>
         <v>1</v>
       </c>
-      <c r="C138" s="101"/>
+      <c r="C138" s="76"/>
       <c r="D138" s="55"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -11185,7 +11193,7 @@
         <f>DEC2HEX('ipv4'!B142)</f>
         <v>2</v>
       </c>
-      <c r="C139" s="101"/>
+      <c r="C139" s="76"/>
       <c r="D139" s="55"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -11196,7 +11204,7 @@
         <f>DEC2HEX('ipv4'!B143)</f>
         <v>3</v>
       </c>
-      <c r="C140" s="101"/>
+      <c r="C140" s="76"/>
       <c r="D140" s="55"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -11207,7 +11215,7 @@
         <f>DEC2HEX('ipv4'!B144)</f>
         <v>4</v>
       </c>
-      <c r="C141" s="101"/>
+      <c r="C141" s="76"/>
       <c r="D141" s="55"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -11218,7 +11226,7 @@
         <f>DEC2HEX('ipv4'!B145)</f>
         <v>5</v>
       </c>
-      <c r="C142" s="101"/>
+      <c r="C142" s="76"/>
       <c r="D142" s="55"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -11229,7 +11237,7 @@
         <f>DEC2HEX('ipv4'!B146)</f>
         <v>6</v>
       </c>
-      <c r="C143" s="101"/>
+      <c r="C143" s="76"/>
       <c r="D143" s="55"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -11240,7 +11248,7 @@
         <f>DEC2HEX('ipv4'!B147)</f>
         <v>FE</v>
       </c>
-      <c r="C144" s="102"/>
+      <c r="C144" s="77"/>
       <c r="D144" s="7"/>
     </row>
   </sheetData>
